--- a/test.xlsx
+++ b/test.xlsx
@@ -3,28 +3,33 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3980" yWindow="2680" windowWidth="28040" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2200" yWindow="2200" windowWidth="28040" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2mm_2deg_2RPM_2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="4mm_4deg_4RPM_4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="5mm_5deg_5RPM_5" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1mm_1deg_1RPM_1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="12"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
     <font>
       <b val="1"/>
@@ -38,12 +43,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -56,9 +76,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -460,7 +483,7 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -478,11 +501,11 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -508,7 +531,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20.00126886367798</v>
+        <v>5.005234956741333</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -528,7 +551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,22 +560,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Weight</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Throttle</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
@@ -560,15 +583,4794 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20.08036971092224</v>
+        <v>0.0006000995635986328</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>912</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(C$2:C$10000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.1016750335693359</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.1068029403686523</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.1124598979949951</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.1180768013000488</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.1235949993133545</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.1287839412689209</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.1345868110656738</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>50</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.1400759220123291</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.1456999778747559</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>50</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.151465892791748</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.1570539474487305</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>50</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.1627109050750732</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>50</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.1685240268707275</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>50</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.1743450164794922</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>50</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.1802737712860107</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>50</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.1861310005187988</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>50</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.1926689147949219</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>50</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.1987340450286865</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>50</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.2047719955444336</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>50</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.2127161026000977</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>50</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.2194900512695312</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>50</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.2263290882110596</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>50</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.2330319881439209</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>50</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.2396399974822998</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>50</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.2465779781341553</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>50</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.2535181045532227</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>50</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.2606239318847656</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>50</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.2677900791168213</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>50</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.2749259471893311</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>50</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.2821469306945801</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>50</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.2892279624938965</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>50</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.2964239120483398</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>50</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.3040719032287598</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>50</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.3118720054626465</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>50</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.3193330764770508</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>50</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.3273558616638184</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>50</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.3365118503570557</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>50</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.3443570137023926</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>50</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.3522500991821289</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>50</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.3603899478912354</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>50</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.3685469627380371</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>50</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.376802921295166</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>50</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.3848581314086914</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>50</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.3930439949035645</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>50</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.4014229774475098</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>50</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.4098701477050781</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>50</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.4183957576751709</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>50</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.4268600940704346</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>50</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.4352738857269287</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>50</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.4438457489013672</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.4537270069122314</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>50</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.4623198509216309</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>50</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.4712879657745361</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>50</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.4802968502044678</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>50</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.4893829822540283</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>50</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.4985740184783936</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>50</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.5077061653137207</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>50</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.5168681144714355</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>50</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.5262298583984375</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>50</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.535578727722168</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>50</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.5440130233764648</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>50</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.5517370700836182</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>50</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.5596768856048584</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>50</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.5686259269714355</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>50</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.5763609409332275</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>50</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.5840299129486084</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>50</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.5918409824371338</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>50</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.5995588302612305</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>50</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.6074638366699219</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>50</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.6153128147125244</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>50</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.6231589317321777</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>50</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.6310358047485352</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>50</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.638826847076416</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>50</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.6467189788818359</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>50</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.6544919013977051</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>50</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.6636149883270264</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>50</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.6713929176330566</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>50</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.6793677806854248</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>50</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.6874639987945557</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>50</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.6955587863922119</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>50</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.7039940357208252</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>50</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.7121479511260986</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>50</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.7200901508331299</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>50</v>
+      </c>
+      <c r="D85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.7283339500427246</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>50</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.7366631031036377</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>50</v>
+      </c>
+      <c r="D87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.7449929714202881</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>50</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.7530999183654785</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>50</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.762923002243042</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>50</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.7799217700958252</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>50</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.7882471084594727</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>50</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.7966568470001221</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>50</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.8051047325134277</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>50</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.8134257793426514</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>50</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.8218297958374023</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>50</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.8304319381713867</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>50</v>
+      </c>
+      <c r="D97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.8387289047241211</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>50</v>
+      </c>
+      <c r="D98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.847247838973999</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>50</v>
+      </c>
+      <c r="D99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.8557298183441162</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>50</v>
+      </c>
+      <c r="D100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.8643441200256348</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>50</v>
+      </c>
+      <c r="D101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.8731689453125</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>50</v>
+      </c>
+      <c r="D102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.884119987487793</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>50</v>
+      </c>
+      <c r="D103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.8928461074829102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>50</v>
+      </c>
+      <c r="D104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9016189575195312</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>50</v>
+      </c>
+      <c r="D105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.9103548526763916</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>50</v>
+      </c>
+      <c r="D106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9192178249359131</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>50</v>
+      </c>
+      <c r="D107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.9282071590423584</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>50</v>
+      </c>
+      <c r="D108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9368948936462402</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>50</v>
+      </c>
+      <c r="D109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9458198547363281</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>50</v>
+      </c>
+      <c r="D110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9550390243530273</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>50</v>
+      </c>
+      <c r="D111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9644019603729248</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>50</v>
+      </c>
+      <c r="D112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9732317924499512</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>50</v>
+      </c>
+      <c r="D113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9823758602142334</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>50</v>
+      </c>
+      <c r="D114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9937541484832764</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>50</v>
+      </c>
+      <c r="D115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1.00293493270874</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>50</v>
+      </c>
+      <c r="D116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1.013695955276489</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>50</v>
+      </c>
+      <c r="D117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1.028363943099976</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>50</v>
+      </c>
+      <c r="D118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1.037776947021484</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>50</v>
+      </c>
+      <c r="D119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1.04752516746521</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>50</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1.057062864303589</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>50</v>
+      </c>
+      <c r="D121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1.066527843475342</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>50</v>
+      </c>
+      <c r="D122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1.07591700553894</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>50</v>
+      </c>
+      <c r="D123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1.085206031799316</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>50</v>
+      </c>
+      <c r="D124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1.096631050109863</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>50</v>
+      </c>
+      <c r="D125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1.106271982192993</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>50</v>
+      </c>
+      <c r="D126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1.115787029266357</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>50</v>
+      </c>
+      <c r="D127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1.125169992446899</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>50</v>
+      </c>
+      <c r="D128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1.134809017181396</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>50</v>
+      </c>
+      <c r="D129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1.144388914108276</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>50</v>
+      </c>
+      <c r="D130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1.153970956802368</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>50</v>
+      </c>
+      <c r="D131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1.165518999099731</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>50</v>
+      </c>
+      <c r="D132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1.175014972686768</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>50</v>
+      </c>
+      <c r="D133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1.184621095657349</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>50</v>
+      </c>
+      <c r="D134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1.194099903106689</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>50</v>
+      </c>
+      <c r="D135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1.203815937042236</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>50</v>
+      </c>
+      <c r="D136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1.213620901107788</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>50</v>
+      </c>
+      <c r="D137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1.225126981735229</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>50</v>
+      </c>
+      <c r="D138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1.234949827194214</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>50</v>
+      </c>
+      <c r="D139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1.244725942611694</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>50</v>
+      </c>
+      <c r="D140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1.25493597984314</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>50</v>
+      </c>
+      <c r="D141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1.265430927276611</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>50</v>
+      </c>
+      <c r="D142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1.275500059127808</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>50</v>
+      </c>
+      <c r="D143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1.285234928131104</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>50</v>
+      </c>
+      <c r="D144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1.313432931900024</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>50</v>
+      </c>
+      <c r="D145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1.324244022369385</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>50</v>
+      </c>
+      <c r="D146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1.33458399772644</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>50</v>
+      </c>
+      <c r="D147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1.344665050506592</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>50</v>
+      </c>
+      <c r="D148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1.354996919631958</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>50</v>
+      </c>
+      <c r="D149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1.365585803985596</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>50</v>
+      </c>
+      <c r="D150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1.377470970153809</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>50</v>
+      </c>
+      <c r="D151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1.387619018554688</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>50</v>
+      </c>
+      <c r="D152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1.398244142532349</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>50</v>
+      </c>
+      <c r="D153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1.408598899841309</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>50</v>
+      </c>
+      <c r="D154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1.41897177696228</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>50</v>
+      </c>
+      <c r="D155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1.429268836975098</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>50</v>
+      </c>
+      <c r="D156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1.439865112304688</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>50</v>
+      </c>
+      <c r="D157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1.451946973800659</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>50</v>
+      </c>
+      <c r="D158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1.462347030639648</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>50</v>
+      </c>
+      <c r="D159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1.473114013671875</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>50</v>
+      </c>
+      <c r="D160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1.483707904815674</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>50</v>
+      </c>
+      <c r="D161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1.494075775146484</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>50</v>
+      </c>
+      <c r="D162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1.504346132278442</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>50</v>
+      </c>
+      <c r="D163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1.516664028167725</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>50</v>
+      </c>
+      <c r="D164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1.527161121368408</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>50</v>
+      </c>
+      <c r="D165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1.54272985458374</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>50</v>
+      </c>
+      <c r="D166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1.553102016448975</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>50</v>
+      </c>
+      <c r="D167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1.563642024993896</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>50</v>
+      </c>
+      <c r="D168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1.574460983276367</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>50</v>
+      </c>
+      <c r="D169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1.584922075271606</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>50</v>
+      </c>
+      <c r="D170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1.597034931182861</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>50</v>
+      </c>
+      <c r="D171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1.607785940170288</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>50</v>
+      </c>
+      <c r="D172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1.61864185333252</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>50</v>
+      </c>
+      <c r="D173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1.629549980163574</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>50</v>
+      </c>
+      <c r="D174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1.64054799079895</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>50</v>
+      </c>
+      <c r="D175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1.651364088058472</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>50</v>
+      </c>
+      <c r="D176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1.664328813552856</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>50</v>
+      </c>
+      <c r="D177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1.686858892440796</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>50</v>
+      </c>
+      <c r="D178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1.697647094726562</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>50</v>
+      </c>
+      <c r="D179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1.708670854568481</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>50</v>
+      </c>
+      <c r="D180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1.719749927520752</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>50</v>
+      </c>
+      <c r="D181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1.730523824691772</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>50</v>
+      </c>
+      <c r="D182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1.741744756698608</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0</v>
+      </c>
+      <c r="C183" t="n">
+        <v>50</v>
+      </c>
+      <c r="D183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1.754179954528809</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C184" t="n">
+        <v>50</v>
+      </c>
+      <c r="D184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1.765408992767334</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>50</v>
+      </c>
+      <c r="D185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1.776221990585327</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>50</v>
+      </c>
+      <c r="D186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1.787244081497192</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>50</v>
+      </c>
+      <c r="D187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1.798558950424194</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0</v>
+      </c>
+      <c r="C188" t="n">
+        <v>50</v>
+      </c>
+      <c r="D188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1.809418916702271</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>50</v>
+      </c>
+      <c r="D189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1.822088956832886</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0</v>
+      </c>
+      <c r="C190" t="n">
+        <v>50</v>
+      </c>
+      <c r="D190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1.833339929580688</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>50</v>
+      </c>
+      <c r="D191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1.84446382522583</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>50</v>
+      </c>
+      <c r="D192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1.855533123016357</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0</v>
+      </c>
+      <c r="C193" t="n">
+        <v>50</v>
+      </c>
+      <c r="D193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1.866930961608887</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0</v>
+      </c>
+      <c r="C194" t="n">
+        <v>50</v>
+      </c>
+      <c r="D194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1.877930879592896</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>50</v>
+      </c>
+      <c r="D195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1.890969038009644</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0</v>
+      </c>
+      <c r="C196" t="n">
+        <v>50</v>
+      </c>
+      <c r="D196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1.902324914932251</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0</v>
+      </c>
+      <c r="C197" t="n">
+        <v>50</v>
+      </c>
+      <c r="D197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1.913626909255981</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0</v>
+      </c>
+      <c r="C198" t="n">
+        <v>50</v>
+      </c>
+      <c r="D198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1.925261974334717</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0</v>
+      </c>
+      <c r="C199" t="n">
+        <v>50</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1.936805725097656</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0</v>
+      </c>
+      <c r="C200" t="n">
+        <v>50</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1.948323011398315</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0</v>
+      </c>
+      <c r="C201" t="n">
+        <v>50</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>1.961178779602051</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0</v>
+      </c>
+      <c r="C202" t="n">
+        <v>50</v>
+      </c>
+      <c r="D202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1.973180770874023</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0</v>
+      </c>
+      <c r="C203" t="n">
+        <v>50</v>
+      </c>
+      <c r="D203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>1.98483681678772</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0</v>
+      </c>
+      <c r="C204" t="n">
+        <v>50</v>
+      </c>
+      <c r="D204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>1.99618673324585</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0</v>
+      </c>
+      <c r="C205" t="n">
+        <v>50</v>
+      </c>
+      <c r="D205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>2.00793194770813</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0</v>
+      </c>
+      <c r="C206" t="n">
+        <v>50</v>
+      </c>
+      <c r="D206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>2.019396066665649</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0</v>
+      </c>
+      <c r="C207" t="n">
+        <v>50</v>
+      </c>
+      <c r="D207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>2.032795906066895</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0</v>
+      </c>
+      <c r="C208" t="n">
+        <v>50</v>
+      </c>
+      <c r="D208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>2.04446005821228</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0</v>
+      </c>
+      <c r="C209" t="n">
+        <v>50</v>
+      </c>
+      <c r="D209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>2.05630898475647</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0</v>
+      </c>
+      <c r="C210" t="n">
+        <v>50</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>2.068026781082153</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0</v>
+      </c>
+      <c r="C211" t="n">
+        <v>50</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>2.079860925674438</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0</v>
+      </c>
+      <c r="C212" t="n">
+        <v>50</v>
+      </c>
+      <c r="D212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>2.093371868133545</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0</v>
+      </c>
+      <c r="C213" t="n">
+        <v>50</v>
+      </c>
+      <c r="D213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>2.105165958404541</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0</v>
+      </c>
+      <c r="C214" t="n">
+        <v>50</v>
+      </c>
+      <c r="D214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>2.120919942855835</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0</v>
+      </c>
+      <c r="C215" t="n">
+        <v>50</v>
+      </c>
+      <c r="D215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>2.133072853088379</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0</v>
+      </c>
+      <c r="C216" t="n">
+        <v>50</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>2.145147800445557</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0</v>
+      </c>
+      <c r="C217" t="n">
+        <v>50</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>2.159016847610474</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0</v>
+      </c>
+      <c r="C218" t="n">
+        <v>50</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>2.170944929122925</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0</v>
+      </c>
+      <c r="C219" t="n">
+        <v>50</v>
+      </c>
+      <c r="D219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>2.182921886444092</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0</v>
+      </c>
+      <c r="C220" t="n">
+        <v>50</v>
+      </c>
+      <c r="D220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>2.195151090621948</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0</v>
+      </c>
+      <c r="C221" t="n">
+        <v>50</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>2.207420825958252</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0</v>
+      </c>
+      <c r="C222" t="n">
+        <v>50</v>
+      </c>
+      <c r="D222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>2.221837997436523</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0</v>
+      </c>
+      <c r="C223" t="n">
+        <v>50</v>
+      </c>
+      <c r="D223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>2.23403787612915</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0</v>
+      </c>
+      <c r="C224" t="n">
+        <v>50</v>
+      </c>
+      <c r="D224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>2.246042013168335</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0</v>
+      </c>
+      <c r="C225" t="n">
+        <v>50</v>
+      </c>
+      <c r="D225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>2.258317947387695</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0</v>
+      </c>
+      <c r="C226" t="n">
+        <v>50</v>
+      </c>
+      <c r="D226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>2.270339012145996</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0</v>
+      </c>
+      <c r="C227" t="n">
+        <v>50</v>
+      </c>
+      <c r="D227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>2.284495115280151</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0</v>
+      </c>
+      <c r="C228" t="n">
+        <v>50</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>2.296931028366089</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0</v>
+      </c>
+      <c r="C229" t="n">
+        <v>50</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>2.309180974960327</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0</v>
+      </c>
+      <c r="C230" t="n">
+        <v>50</v>
+      </c>
+      <c r="D230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>2.321353912353516</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0</v>
+      </c>
+      <c r="C231" t="n">
+        <v>50</v>
+      </c>
+      <c r="D231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>2.333764791488647</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0</v>
+      </c>
+      <c r="C232" t="n">
+        <v>50</v>
+      </c>
+      <c r="D232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>2.347918033599854</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0</v>
+      </c>
+      <c r="C233" t="n">
+        <v>50</v>
+      </c>
+      <c r="D233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>2.360154151916504</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0</v>
+      </c>
+      <c r="C234" t="n">
+        <v>50</v>
+      </c>
+      <c r="D234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>2.373010873794556</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0</v>
+      </c>
+      <c r="C235" t="n">
+        <v>50</v>
+      </c>
+      <c r="D235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>2.385629892349243</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0</v>
+      </c>
+      <c r="C236" t="n">
+        <v>50</v>
+      </c>
+      <c r="D236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>2.398257970809937</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0</v>
+      </c>
+      <c r="C237" t="n">
+        <v>50</v>
+      </c>
+      <c r="D237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>2.425137758255005</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0</v>
+      </c>
+      <c r="C238" t="n">
+        <v>50</v>
+      </c>
+      <c r="D238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>2.437383890151978</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0</v>
+      </c>
+      <c r="C239" t="n">
+        <v>50</v>
+      </c>
+      <c r="D239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>2.450176954269409</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0</v>
+      </c>
+      <c r="C240" t="n">
+        <v>50</v>
+      </c>
+      <c r="D240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>2.46246600151062</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0</v>
+      </c>
+      <c r="C241" t="n">
+        <v>50</v>
+      </c>
+      <c r="D241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>2.476648807525635</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0</v>
+      </c>
+      <c r="C242" t="n">
+        <v>50</v>
+      </c>
+      <c r="D242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>2.489168882369995</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0</v>
+      </c>
+      <c r="C243" t="n">
+        <v>50</v>
+      </c>
+      <c r="D243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>2.501737833023071</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0</v>
+      </c>
+      <c r="C244" t="n">
+        <v>50</v>
+      </c>
+      <c r="D244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>2.514442920684814</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0</v>
+      </c>
+      <c r="C245" t="n">
+        <v>50</v>
+      </c>
+      <c r="D245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>2.52728796005249</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0</v>
+      </c>
+      <c r="C246" t="n">
+        <v>50</v>
+      </c>
+      <c r="D246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>2.541425943374634</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0</v>
+      </c>
+      <c r="C247" t="n">
+        <v>50</v>
+      </c>
+      <c r="D247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>2.554427862167358</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0</v>
+      </c>
+      <c r="C248" t="n">
+        <v>50</v>
+      </c>
+      <c r="D248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>2.567674875259399</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0</v>
+      </c>
+      <c r="C249" t="n">
+        <v>50</v>
+      </c>
+      <c r="D249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>2.580693006515503</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0</v>
+      </c>
+      <c r="C250" t="n">
+        <v>50</v>
+      </c>
+      <c r="D250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>2.59515380859375</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0</v>
+      </c>
+      <c r="C251" t="n">
+        <v>50</v>
+      </c>
+      <c r="D251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>2.60838508605957</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0</v>
+      </c>
+      <c r="C252" t="n">
+        <v>50</v>
+      </c>
+      <c r="D252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>2.621756792068481</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0</v>
+      </c>
+      <c r="C253" t="n">
+        <v>50</v>
+      </c>
+      <c r="D253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>2.634705781936646</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0</v>
+      </c>
+      <c r="C254" t="n">
+        <v>50</v>
+      </c>
+      <c r="D254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>2.647801160812378</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0</v>
+      </c>
+      <c r="C255" t="n">
+        <v>50</v>
+      </c>
+      <c r="D255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>2.662261962890625</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0</v>
+      </c>
+      <c r="C256" t="n">
+        <v>50</v>
+      </c>
+      <c r="D256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>2.675432920455933</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0</v>
+      </c>
+      <c r="C257" t="n">
+        <v>50</v>
+      </c>
+      <c r="D257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>2.688186168670654</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0</v>
+      </c>
+      <c r="C258" t="n">
+        <v>50</v>
+      </c>
+      <c r="D258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>2.701190948486328</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0</v>
+      </c>
+      <c r="C259" t="n">
+        <v>50</v>
+      </c>
+      <c r="D259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>2.7169349193573</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0</v>
+      </c>
+      <c r="C260" t="n">
+        <v>50</v>
+      </c>
+      <c r="D260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>2.730119943618774</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0</v>
+      </c>
+      <c r="C261" t="n">
+        <v>50</v>
+      </c>
+      <c r="D261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>2.743212938308716</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0</v>
+      </c>
+      <c r="C262" t="n">
+        <v>50</v>
+      </c>
+      <c r="D262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>2.756505012512207</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0</v>
+      </c>
+      <c r="C263" t="n">
+        <v>50</v>
+      </c>
+      <c r="D263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>2.771620035171509</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0</v>
+      </c>
+      <c r="C264" t="n">
+        <v>50</v>
+      </c>
+      <c r="D264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>2.785186052322388</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0</v>
+      </c>
+      <c r="C265" t="n">
+        <v>50</v>
+      </c>
+      <c r="D265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>2.79876184463501</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0</v>
+      </c>
+      <c r="C266" t="n">
+        <v>50</v>
+      </c>
+      <c r="D266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>2.812198877334595</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0</v>
+      </c>
+      <c r="C267" t="n">
+        <v>50</v>
+      </c>
+      <c r="D267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>2.825726985931396</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0</v>
+      </c>
+      <c r="C268" t="n">
+        <v>50</v>
+      </c>
+      <c r="D268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>2.840613126754761</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0</v>
+      </c>
+      <c r="C269" t="n">
+        <v>50</v>
+      </c>
+      <c r="D269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>2.854061126708984</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0</v>
+      </c>
+      <c r="C270" t="n">
+        <v>50</v>
+      </c>
+      <c r="D270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>2.868029832839966</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0</v>
+      </c>
+      <c r="C271" t="n">
+        <v>50</v>
+      </c>
+      <c r="D271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>2.888548135757446</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0</v>
+      </c>
+      <c r="C272" t="n">
+        <v>50</v>
+      </c>
+      <c r="D272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>2.916360855102539</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0</v>
+      </c>
+      <c r="C273" t="n">
+        <v>50</v>
+      </c>
+      <c r="D273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>2.931621789932251</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0</v>
+      </c>
+      <c r="C274" t="n">
+        <v>50</v>
+      </c>
+      <c r="D274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>2.945854902267456</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0</v>
+      </c>
+      <c r="C275" t="n">
+        <v>50</v>
+      </c>
+      <c r="D275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>2.959750890731812</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0</v>
+      </c>
+      <c r="C276" t="n">
+        <v>50</v>
+      </c>
+      <c r="D276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>2.975203037261963</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0</v>
+      </c>
+      <c r="C277" t="n">
+        <v>50</v>
+      </c>
+      <c r="D277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>2.989305019378662</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0</v>
+      </c>
+      <c r="C278" t="n">
+        <v>50</v>
+      </c>
+      <c r="D278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>3.003453969955444</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0</v>
+      </c>
+      <c r="C279" t="n">
+        <v>50</v>
+      </c>
+      <c r="D279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>3.017358064651489</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0</v>
+      </c>
+      <c r="C280" t="n">
+        <v>50</v>
+      </c>
+      <c r="D280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>3.032561779022217</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0</v>
+      </c>
+      <c r="C281" t="n">
+        <v>50</v>
+      </c>
+      <c r="D281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>3.046779870986938</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0</v>
+      </c>
+      <c r="C282" t="n">
+        <v>50</v>
+      </c>
+      <c r="D282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>3.060861825942993</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0</v>
+      </c>
+      <c r="C283" t="n">
+        <v>50</v>
+      </c>
+      <c r="D283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>3.074779748916626</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0</v>
+      </c>
+      <c r="C284" t="n">
+        <v>50</v>
+      </c>
+      <c r="D284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>3.090303897857666</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0</v>
+      </c>
+      <c r="C285" t="n">
+        <v>50</v>
+      </c>
+      <c r="D285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>3.11748194694519</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0</v>
+      </c>
+      <c r="C286" t="n">
+        <v>50</v>
+      </c>
+      <c r="D286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>3.131757974624634</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0</v>
+      </c>
+      <c r="C287" t="n">
+        <v>50</v>
+      </c>
+      <c r="D287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>3.145628929138184</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0</v>
+      </c>
+      <c r="C288" t="n">
+        <v>50</v>
+      </c>
+      <c r="D288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>3.160813093185425</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0</v>
+      </c>
+      <c r="C289" t="n">
+        <v>50</v>
+      </c>
+      <c r="D289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>3.174950838088989</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0</v>
+      </c>
+      <c r="C290" t="n">
+        <v>50</v>
+      </c>
+      <c r="D290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>3.189513921737671</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0</v>
+      </c>
+      <c r="C291" t="n">
+        <v>50</v>
+      </c>
+      <c r="D291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>3.203348875045776</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0</v>
+      </c>
+      <c r="C292" t="n">
+        <v>50</v>
+      </c>
+      <c r="D292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>3.220584869384766</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0</v>
+      </c>
+      <c r="C293" t="n">
+        <v>50</v>
+      </c>
+      <c r="D293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>3.234982967376709</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0</v>
+      </c>
+      <c r="C294" t="n">
+        <v>50</v>
+      </c>
+      <c r="D294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>3.249262094497681</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0</v>
+      </c>
+      <c r="C295" t="n">
+        <v>50</v>
+      </c>
+      <c r="D295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>3.263514757156372</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0</v>
+      </c>
+      <c r="C296" t="n">
+        <v>50</v>
+      </c>
+      <c r="D296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>3.279322862625122</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0</v>
+      </c>
+      <c r="C297" t="n">
+        <v>50</v>
+      </c>
+      <c r="D297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>3.293637752532959</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0</v>
+      </c>
+      <c r="C298" t="n">
+        <v>50</v>
+      </c>
+      <c r="D298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>3.307996988296509</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0</v>
+      </c>
+      <c r="C299" t="n">
+        <v>50</v>
+      </c>
+      <c r="D299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>3.32399582862854</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0</v>
+      </c>
+      <c r="C300" t="n">
+        <v>50</v>
+      </c>
+      <c r="D300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>3.338447093963623</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0</v>
+      </c>
+      <c r="C301" t="n">
+        <v>50</v>
+      </c>
+      <c r="D301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>3.353338718414307</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0</v>
+      </c>
+      <c r="C302" t="n">
+        <v>50</v>
+      </c>
+      <c r="D302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>3.367883920669556</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0</v>
+      </c>
+      <c r="C303" t="n">
+        <v>50</v>
+      </c>
+      <c r="D303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>3.383713960647583</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0</v>
+      </c>
+      <c r="C304" t="n">
+        <v>50</v>
+      </c>
+      <c r="D304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>3.39826774597168</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0</v>
+      </c>
+      <c r="C305" t="n">
+        <v>50</v>
+      </c>
+      <c r="D305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>3.412794828414917</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0</v>
+      </c>
+      <c r="C306" t="n">
+        <v>50</v>
+      </c>
+      <c r="D306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>3.427390813827515</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0</v>
+      </c>
+      <c r="C307" t="n">
+        <v>50</v>
+      </c>
+      <c r="D307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>3.443607091903687</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0</v>
+      </c>
+      <c r="C308" t="n">
+        <v>50</v>
+      </c>
+      <c r="D308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>3.458997964859009</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0</v>
+      </c>
+      <c r="C309" t="n">
+        <v>50</v>
+      </c>
+      <c r="D309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>3.473911046981812</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0</v>
+      </c>
+      <c r="C310" t="n">
+        <v>50</v>
+      </c>
+      <c r="D310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>3.490163803100586</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0</v>
+      </c>
+      <c r="C311" t="n">
+        <v>50</v>
+      </c>
+      <c r="D311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>3.504873991012573</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0</v>
+      </c>
+      <c r="C312" t="n">
+        <v>50</v>
+      </c>
+      <c r="D312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>3.519684076309204</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0</v>
+      </c>
+      <c r="C313" t="n">
+        <v>50</v>
+      </c>
+      <c r="D313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>3.534480810165405</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0</v>
+      </c>
+      <c r="C314" t="n">
+        <v>50</v>
+      </c>
+      <c r="D314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>3.550573110580444</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0</v>
+      </c>
+      <c r="C315" t="n">
+        <v>50</v>
+      </c>
+      <c r="D315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>3.565728902816772</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0</v>
+      </c>
+      <c r="C316" t="n">
+        <v>50</v>
+      </c>
+      <c r="D316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>3.580911159515381</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0</v>
+      </c>
+      <c r="C317" t="n">
+        <v>50</v>
+      </c>
+      <c r="D317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>3.59566593170166</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0</v>
+      </c>
+      <c r="C318" t="n">
+        <v>50</v>
+      </c>
+      <c r="D318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>3.612282037734985</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0</v>
+      </c>
+      <c r="C319" t="n">
+        <v>50</v>
+      </c>
+      <c r="D319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>3.627296924591064</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0</v>
+      </c>
+      <c r="C320" t="n">
+        <v>50</v>
+      </c>
+      <c r="D320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>3.642244100570679</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0</v>
+      </c>
+      <c r="C321" t="n">
+        <v>50</v>
+      </c>
+      <c r="D321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>3.658739805221558</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0</v>
+      </c>
+      <c r="C322" t="n">
+        <v>50</v>
+      </c>
+      <c r="D322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>3.673815965652466</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0</v>
+      </c>
+      <c r="C323" t="n">
+        <v>50</v>
+      </c>
+      <c r="D323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>3.688983917236328</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0</v>
+      </c>
+      <c r="C324" t="n">
+        <v>50</v>
+      </c>
+      <c r="D324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>3.705657958984375</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0</v>
+      </c>
+      <c r="C325" t="n">
+        <v>50</v>
+      </c>
+      <c r="D325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>3.736427068710327</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0</v>
+      </c>
+      <c r="C326" t="n">
+        <v>50</v>
+      </c>
+      <c r="D326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>3.751642942428589</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0</v>
+      </c>
+      <c r="C327" t="n">
+        <v>50</v>
+      </c>
+      <c r="D327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>3.767087936401367</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0</v>
+      </c>
+      <c r="C328" t="n">
+        <v>50</v>
+      </c>
+      <c r="D328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>3.78342080116272</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0</v>
+      </c>
+      <c r="C329" t="n">
+        <v>50</v>
+      </c>
+      <c r="D329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>3.798999071121216</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0</v>
+      </c>
+      <c r="C330" t="n">
+        <v>50</v>
+      </c>
+      <c r="D330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>3.814449787139893</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0</v>
+      </c>
+      <c r="C331" t="n">
+        <v>50</v>
+      </c>
+      <c r="D331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>3.831448078155518</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0</v>
+      </c>
+      <c r="C332" t="n">
+        <v>50</v>
+      </c>
+      <c r="D332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>3.847241878509521</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0</v>
+      </c>
+      <c r="C333" t="n">
+        <v>50</v>
+      </c>
+      <c r="D333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>3.862445116043091</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0</v>
+      </c>
+      <c r="C334" t="n">
+        <v>50</v>
+      </c>
+      <c r="D334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>3.879143953323364</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0</v>
+      </c>
+      <c r="C335" t="n">
+        <v>50</v>
+      </c>
+      <c r="D335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>3.894824981689453</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0</v>
+      </c>
+      <c r="C336" t="n">
+        <v>50</v>
+      </c>
+      <c r="D336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>3.910266160964966</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0</v>
+      </c>
+      <c r="C337" t="n">
+        <v>50</v>
+      </c>
+      <c r="D337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>3.927188873291016</v>
+      </c>
+      <c r="B338" t="n">
+        <v>0</v>
+      </c>
+      <c r="C338" t="n">
+        <v>50</v>
+      </c>
+      <c r="D338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>3.942739009857178</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0</v>
+      </c>
+      <c r="C339" t="n">
+        <v>50</v>
+      </c>
+      <c r="D339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>3.958484888076782</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0</v>
+      </c>
+      <c r="C340" t="n">
+        <v>50</v>
+      </c>
+      <c r="D340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>3.974487066268921</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0</v>
+      </c>
+      <c r="C341" t="n">
+        <v>50</v>
+      </c>
+      <c r="D341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>3.991457939147949</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0</v>
+      </c>
+      <c r="C342" t="n">
+        <v>50</v>
+      </c>
+      <c r="D342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>4.007446050643921</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0</v>
+      </c>
+      <c r="C343" t="n">
+        <v>50</v>
+      </c>
+      <c r="D343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>4.023401975631714</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0</v>
+      </c>
+      <c r="C344" t="n">
+        <v>50</v>
+      </c>
+      <c r="D344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>4.040369987487793</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0</v>
+      </c>
+      <c r="C345" t="n">
+        <v>50</v>
+      </c>
+      <c r="D345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>4.056273937225342</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0</v>
+      </c>
+      <c r="C346" t="n">
+        <v>50</v>
+      </c>
+      <c r="D346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>4.072230815887451</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0</v>
+      </c>
+      <c r="C347" t="n">
+        <v>50</v>
+      </c>
+      <c r="D347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>4.089614152908325</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0</v>
+      </c>
+      <c r="C348" t="n">
+        <v>50</v>
+      </c>
+      <c r="D348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>4.105240106582642</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>50</v>
+      </c>
+      <c r="D349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>4.121210098266602</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>50</v>
+      </c>
+      <c r="D350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>4.13870096206665</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0</v>
+      </c>
+      <c r="C351" t="n">
+        <v>50</v>
+      </c>
+      <c r="D351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>4.154967069625854</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0</v>
+      </c>
+      <c r="C352" t="n">
+        <v>50</v>
+      </c>
+      <c r="D352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>4.171305894851685</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0</v>
+      </c>
+      <c r="C353" t="n">
+        <v>50</v>
+      </c>
+      <c r="D353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>4.188977956771851</v>
+      </c>
+      <c r="B354" t="n">
+        <v>0</v>
+      </c>
+      <c r="C354" t="n">
+        <v>50</v>
+      </c>
+      <c r="D354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>4.204989910125732</v>
+      </c>
+      <c r="B355" t="n">
+        <v>0</v>
+      </c>
+      <c r="C355" t="n">
+        <v>50</v>
+      </c>
+      <c r="D355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>4.221100091934204</v>
+      </c>
+      <c r="B356" t="n">
+        <v>0</v>
+      </c>
+      <c r="C356" t="n">
+        <v>50</v>
+      </c>
+      <c r="D356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>4.239139080047607</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0</v>
+      </c>
+      <c r="C357" t="n">
+        <v>50</v>
+      </c>
+      <c r="D357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>4.255407810211182</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0</v>
+      </c>
+      <c r="C358" t="n">
+        <v>50</v>
+      </c>
+      <c r="D358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>4.27188777923584</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0</v>
+      </c>
+      <c r="C359" t="n">
+        <v>50</v>
+      </c>
+      <c r="D359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>4.289988040924072</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0</v>
+      </c>
+      <c r="C360" t="n">
+        <v>50</v>
+      </c>
+      <c r="D360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>4.320340871810913</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0</v>
+      </c>
+      <c r="C361" t="n">
+        <v>50</v>
+      </c>
+      <c r="D361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>4.336474180221558</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0</v>
+      </c>
+      <c r="C362" t="n">
+        <v>50</v>
+      </c>
+      <c r="D362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>4.353007793426514</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0</v>
+      </c>
+      <c r="C363" t="n">
+        <v>50</v>
+      </c>
+      <c r="D363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>4.370336055755615</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0</v>
+      </c>
+      <c r="C364" t="n">
+        <v>50</v>
+      </c>
+      <c r="D364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>4.386554718017578</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0</v>
+      </c>
+      <c r="C365" t="n">
+        <v>50</v>
+      </c>
+      <c r="D365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>4.402833938598633</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0</v>
+      </c>
+      <c r="C366" t="n">
+        <v>50</v>
+      </c>
+      <c r="D366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>4.422292947769165</v>
+      </c>
+      <c r="B367" t="n">
+        <v>0</v>
+      </c>
+      <c r="C367" t="n">
+        <v>50</v>
+      </c>
+      <c r="D367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>4.438890933990479</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0</v>
+      </c>
+      <c r="C368" t="n">
+        <v>50</v>
+      </c>
+      <c r="D368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>4.455461740493774</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0</v>
+      </c>
+      <c r="C369" t="n">
+        <v>50</v>
+      </c>
+      <c r="D369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>4.473373889923096</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0</v>
+      </c>
+      <c r="C370" t="n">
+        <v>50</v>
+      </c>
+      <c r="D370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>4.48998498916626</v>
+      </c>
+      <c r="B371" t="n">
+        <v>0</v>
+      </c>
+      <c r="C371" t="n">
+        <v>50</v>
+      </c>
+      <c r="D371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>4.506784915924072</v>
+      </c>
+      <c r="B372" t="n">
+        <v>0</v>
+      </c>
+      <c r="C372" t="n">
+        <v>50</v>
+      </c>
+      <c r="D372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>4.524961948394775</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0</v>
+      </c>
+      <c r="C373" t="n">
+        <v>50</v>
+      </c>
+      <c r="D373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>4.541964054107666</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0</v>
+      </c>
+      <c r="C374" t="n">
+        <v>50</v>
+      </c>
+      <c r="D374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>4.558513879776001</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0</v>
+      </c>
+      <c r="C375" t="n">
+        <v>50</v>
+      </c>
+      <c r="D375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>4.576802968978882</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0</v>
+      </c>
+      <c r="C376" t="n">
+        <v>50</v>
+      </c>
+      <c r="D376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>4.593364000320435</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0</v>
+      </c>
+      <c r="C377" t="n">
+        <v>50</v>
+      </c>
+      <c r="D377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>4.610102891921997</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0</v>
+      </c>
+      <c r="C378" t="n">
+        <v>50</v>
+      </c>
+      <c r="D378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>4.62849497795105</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0</v>
+      </c>
+      <c r="C379" t="n">
+        <v>50</v>
+      </c>
+      <c r="D379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>4.645366907119751</v>
+      </c>
+      <c r="B380" t="n">
+        <v>0</v>
+      </c>
+      <c r="C380" t="n">
+        <v>50</v>
+      </c>
+      <c r="D380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>4.662214756011963</v>
+      </c>
+      <c r="B381" t="n">
+        <v>0</v>
+      </c>
+      <c r="C381" t="n">
+        <v>50</v>
+      </c>
+      <c r="D381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>4.680348873138428</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0</v>
+      </c>
+      <c r="C382" t="n">
+        <v>50</v>
+      </c>
+      <c r="D382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>4.697626113891602</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0</v>
+      </c>
+      <c r="C383" t="n">
+        <v>50</v>
+      </c>
+      <c r="D383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>4.71465277671814</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0</v>
+      </c>
+      <c r="C384" t="n">
+        <v>50</v>
+      </c>
+      <c r="D384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>4.733340978622437</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0</v>
+      </c>
+      <c r="C385" t="n">
+        <v>50</v>
+      </c>
+      <c r="D385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>4.75041675567627</v>
+      </c>
+      <c r="B386" t="n">
+        <v>0</v>
+      </c>
+      <c r="C386" t="n">
+        <v>50</v>
+      </c>
+      <c r="D386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>4.767513036727905</v>
+      </c>
+      <c r="B387" t="n">
+        <v>0</v>
+      </c>
+      <c r="C387" t="n">
+        <v>50</v>
+      </c>
+      <c r="D387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>4.785995960235596</v>
+      </c>
+      <c r="B388" t="n">
+        <v>0</v>
+      </c>
+      <c r="C388" t="n">
+        <v>50</v>
+      </c>
+      <c r="D388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>4.802972793579102</v>
+      </c>
+      <c r="B389" t="n">
+        <v>0</v>
+      </c>
+      <c r="C389" t="n">
+        <v>50</v>
+      </c>
+      <c r="D389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>4.819882869720459</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0</v>
+      </c>
+      <c r="C390" t="n">
+        <v>50</v>
+      </c>
+      <c r="D390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>4.838470935821533</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0</v>
+      </c>
+      <c r="C391" t="n">
+        <v>50</v>
+      </c>
+      <c r="D391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>4.855870962142944</v>
+      </c>
+      <c r="B392" t="n">
+        <v>0</v>
+      </c>
+      <c r="C392" t="n">
+        <v>50</v>
+      </c>
+      <c r="D392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>4.873111963272095</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0</v>
+      </c>
+      <c r="C393" t="n">
+        <v>50</v>
+      </c>
+      <c r="D393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>4.891767978668213</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0</v>
+      </c>
+      <c r="C394" t="n">
+        <v>50</v>
+      </c>
+      <c r="D394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>4.921733856201172</v>
+      </c>
+      <c r="B395" t="n">
+        <v>0</v>
+      </c>
+      <c r="C395" t="n">
+        <v>50</v>
+      </c>
+      <c r="D395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>4.939522981643677</v>
+      </c>
+      <c r="B396" t="n">
+        <v>0</v>
+      </c>
+      <c r="C396" t="n">
+        <v>50</v>
+      </c>
+      <c r="D396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>4.957082748413086</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0</v>
+      </c>
+      <c r="C397" t="n">
+        <v>50</v>
+      </c>
+      <c r="D397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>4.976196050643921</v>
+      </c>
+      <c r="B398" t="n">
+        <v>0</v>
+      </c>
+      <c r="C398" t="n">
+        <v>50</v>
+      </c>
+      <c r="D398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>4.993501901626587</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0</v>
+      </c>
+      <c r="C399" t="n">
+        <v>50</v>
+      </c>
+      <c r="D399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>5.01065993309021</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0</v>
+      </c>
+      <c r="C400" t="n">
+        <v>50</v>
+      </c>
+      <c r="D400" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -9,6 +9,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="5mm_5deg_5RPM_5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="1mm_1deg_1RPM_1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="1mm_1deg_11RPM_1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -606,7 +607,6 @@
       <c r="C3" t="n">
         <v>50</v>
       </c>
-      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -618,7 +618,6 @@
       <c r="C4" t="n">
         <v>50</v>
       </c>
-      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -630,7 +629,6 @@
       <c r="C5" t="n">
         <v>50</v>
       </c>
-      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -642,7 +640,6 @@
       <c r="C6" t="n">
         <v>50</v>
       </c>
-      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -654,7 +651,6 @@
       <c r="C7" t="n">
         <v>50</v>
       </c>
-      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -666,7 +662,6 @@
       <c r="C8" t="n">
         <v>50</v>
       </c>
-      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -678,7 +673,6 @@
       <c r="C9" t="n">
         <v>50</v>
       </c>
-      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -690,7 +684,6 @@
       <c r="C10" t="n">
         <v>50</v>
       </c>
-      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -702,7 +695,6 @@
       <c r="C11" t="n">
         <v>50</v>
       </c>
-      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -714,7 +706,6 @@
       <c r="C12" t="n">
         <v>50</v>
       </c>
-      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -726,7 +717,6 @@
       <c r="C13" t="n">
         <v>50</v>
       </c>
-      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -738,7 +728,6 @@
       <c r="C14" t="n">
         <v>50</v>
       </c>
-      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -750,7 +739,6 @@
       <c r="C15" t="n">
         <v>50</v>
       </c>
-      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -762,7 +750,6 @@
       <c r="C16" t="n">
         <v>50</v>
       </c>
-      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -774,7 +761,6 @@
       <c r="C17" t="n">
         <v>50</v>
       </c>
-      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -786,7 +772,6 @@
       <c r="C18" t="n">
         <v>50</v>
       </c>
-      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -798,7 +783,6 @@
       <c r="C19" t="n">
         <v>50</v>
       </c>
-      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -810,7 +794,6 @@
       <c r="C20" t="n">
         <v>50</v>
       </c>
-      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -822,7 +805,6 @@
       <c r="C21" t="n">
         <v>50</v>
       </c>
-      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -834,7 +816,6 @@
       <c r="C22" t="n">
         <v>50</v>
       </c>
-      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -846,7 +827,6 @@
       <c r="C23" t="n">
         <v>50</v>
       </c>
-      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -858,7 +838,6 @@
       <c r="C24" t="n">
         <v>50</v>
       </c>
-      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -870,7 +849,6 @@
       <c r="C25" t="n">
         <v>50</v>
       </c>
-      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -882,7 +860,6 @@
       <c r="C26" t="n">
         <v>50</v>
       </c>
-      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -894,7 +871,6 @@
       <c r="C27" t="n">
         <v>50</v>
       </c>
-      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -906,7 +882,6 @@
       <c r="C28" t="n">
         <v>50</v>
       </c>
-      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -918,7 +893,6 @@
       <c r="C29" t="n">
         <v>50</v>
       </c>
-      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -930,7 +904,6 @@
       <c r="C30" t="n">
         <v>50</v>
       </c>
-      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -942,7 +915,6 @@
       <c r="C31" t="n">
         <v>50</v>
       </c>
-      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -954,7 +926,6 @@
       <c r="C32" t="n">
         <v>50</v>
       </c>
-      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -966,7 +937,6 @@
       <c r="C33" t="n">
         <v>50</v>
       </c>
-      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -978,7 +948,6 @@
       <c r="C34" t="n">
         <v>50</v>
       </c>
-      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -990,7 +959,6 @@
       <c r="C35" t="n">
         <v>50</v>
       </c>
-      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1002,7 +970,6 @@
       <c r="C36" t="n">
         <v>50</v>
       </c>
-      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1014,7 +981,6 @@
       <c r="C37" t="n">
         <v>50</v>
       </c>
-      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1026,7 +992,6 @@
       <c r="C38" t="n">
         <v>50</v>
       </c>
-      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1038,7 +1003,6 @@
       <c r="C39" t="n">
         <v>50</v>
       </c>
-      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1050,7 +1014,6 @@
       <c r="C40" t="n">
         <v>50</v>
       </c>
-      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1062,7 +1025,6 @@
       <c r="C41" t="n">
         <v>50</v>
       </c>
-      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1074,7 +1036,6 @@
       <c r="C42" t="n">
         <v>50</v>
       </c>
-      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1086,7 +1047,6 @@
       <c r="C43" t="n">
         <v>50</v>
       </c>
-      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1098,7 +1058,6 @@
       <c r="C44" t="n">
         <v>50</v>
       </c>
-      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1110,7 +1069,6 @@
       <c r="C45" t="n">
         <v>50</v>
       </c>
-      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1122,7 +1080,6 @@
       <c r="C46" t="n">
         <v>50</v>
       </c>
-      <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1134,7 +1091,6 @@
       <c r="C47" t="n">
         <v>50</v>
       </c>
-      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1146,7 +1102,6 @@
       <c r="C48" t="n">
         <v>50</v>
       </c>
-      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1158,7 +1113,6 @@
       <c r="C49" t="n">
         <v>50</v>
       </c>
-      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1170,7 +1124,6 @@
       <c r="C50" t="n">
         <v>50</v>
       </c>
-      <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1182,7 +1135,6 @@
       <c r="C51" t="n">
         <v>50</v>
       </c>
-      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1194,7 +1146,6 @@
       <c r="C52" t="n">
         <v>50</v>
       </c>
-      <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1206,7 +1157,6 @@
       <c r="C53" t="n">
         <v>50</v>
       </c>
-      <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1218,7 +1168,6 @@
       <c r="C54" t="n">
         <v>50</v>
       </c>
-      <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1230,7 +1179,6 @@
       <c r="C55" t="n">
         <v>50</v>
       </c>
-      <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1242,7 +1190,6 @@
       <c r="C56" t="n">
         <v>50</v>
       </c>
-      <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1254,7 +1201,6 @@
       <c r="C57" t="n">
         <v>50</v>
       </c>
-      <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1266,7 +1212,6 @@
       <c r="C58" t="n">
         <v>50</v>
       </c>
-      <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1278,7 +1223,6 @@
       <c r="C59" t="n">
         <v>50</v>
       </c>
-      <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1290,7 +1234,6 @@
       <c r="C60" t="n">
         <v>50</v>
       </c>
-      <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1302,7 +1245,6 @@
       <c r="C61" t="n">
         <v>50</v>
       </c>
-      <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1314,7 +1256,6 @@
       <c r="C62" t="n">
         <v>50</v>
       </c>
-      <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1326,7 +1267,6 @@
       <c r="C63" t="n">
         <v>50</v>
       </c>
-      <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1338,7 +1278,6 @@
       <c r="C64" t="n">
         <v>50</v>
       </c>
-      <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1350,7 +1289,6 @@
       <c r="C65" t="n">
         <v>50</v>
       </c>
-      <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1362,7 +1300,6 @@
       <c r="C66" t="n">
         <v>50</v>
       </c>
-      <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1374,7 +1311,6 @@
       <c r="C67" t="n">
         <v>50</v>
       </c>
-      <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1386,7 +1322,6 @@
       <c r="C68" t="n">
         <v>50</v>
       </c>
-      <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1398,7 +1333,6 @@
       <c r="C69" t="n">
         <v>50</v>
       </c>
-      <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1410,7 +1344,6 @@
       <c r="C70" t="n">
         <v>50</v>
       </c>
-      <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1422,7 +1355,6 @@
       <c r="C71" t="n">
         <v>50</v>
       </c>
-      <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1434,7 +1366,6 @@
       <c r="C72" t="n">
         <v>50</v>
       </c>
-      <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1446,7 +1377,6 @@
       <c r="C73" t="n">
         <v>50</v>
       </c>
-      <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1458,7 +1388,6 @@
       <c r="C74" t="n">
         <v>50</v>
       </c>
-      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1470,7 +1399,6 @@
       <c r="C75" t="n">
         <v>50</v>
       </c>
-      <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1482,7 +1410,6 @@
       <c r="C76" t="n">
         <v>50</v>
       </c>
-      <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1494,7 +1421,6 @@
       <c r="C77" t="n">
         <v>50</v>
       </c>
-      <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1506,7 +1432,6 @@
       <c r="C78" t="n">
         <v>50</v>
       </c>
-      <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1518,7 +1443,6 @@
       <c r="C79" t="n">
         <v>50</v>
       </c>
-      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1530,7 +1454,6 @@
       <c r="C80" t="n">
         <v>50</v>
       </c>
-      <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1542,7 +1465,6 @@
       <c r="C81" t="n">
         <v>50</v>
       </c>
-      <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1554,7 +1476,6 @@
       <c r="C82" t="n">
         <v>50</v>
       </c>
-      <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1566,7 +1487,6 @@
       <c r="C83" t="n">
         <v>50</v>
       </c>
-      <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1578,7 +1498,6 @@
       <c r="C84" t="n">
         <v>50</v>
       </c>
-      <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1590,7 +1509,6 @@
       <c r="C85" t="n">
         <v>50</v>
       </c>
-      <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1602,7 +1520,6 @@
       <c r="C86" t="n">
         <v>50</v>
       </c>
-      <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1614,7 +1531,6 @@
       <c r="C87" t="n">
         <v>50</v>
       </c>
-      <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1626,7 +1542,6 @@
       <c r="C88" t="n">
         <v>50</v>
       </c>
-      <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1638,7 +1553,6 @@
       <c r="C89" t="n">
         <v>50</v>
       </c>
-      <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1650,7 +1564,6 @@
       <c r="C90" t="n">
         <v>50</v>
       </c>
-      <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1662,7 +1575,6 @@
       <c r="C91" t="n">
         <v>50</v>
       </c>
-      <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1674,7 +1586,6 @@
       <c r="C92" t="n">
         <v>50</v>
       </c>
-      <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1686,7 +1597,6 @@
       <c r="C93" t="n">
         <v>50</v>
       </c>
-      <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1698,7 +1608,6 @@
       <c r="C94" t="n">
         <v>50</v>
       </c>
-      <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1710,7 +1619,6 @@
       <c r="C95" t="n">
         <v>50</v>
       </c>
-      <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1722,7 +1630,6 @@
       <c r="C96" t="n">
         <v>50</v>
       </c>
-      <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -1734,7 +1641,6 @@
       <c r="C97" t="n">
         <v>50</v>
       </c>
-      <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -1746,7 +1652,6 @@
       <c r="C98" t="n">
         <v>50</v>
       </c>
-      <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -1758,7 +1663,6 @@
       <c r="C99" t="n">
         <v>50</v>
       </c>
-      <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -1770,7 +1674,6 @@
       <c r="C100" t="n">
         <v>50</v>
       </c>
-      <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -1782,7 +1685,6 @@
       <c r="C101" t="n">
         <v>50</v>
       </c>
-      <c r="D101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -1794,7 +1696,6 @@
       <c r="C102" t="n">
         <v>50</v>
       </c>
-      <c r="D102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -1806,7 +1707,6 @@
       <c r="C103" t="n">
         <v>50</v>
       </c>
-      <c r="D103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -1818,7 +1718,6 @@
       <c r="C104" t="n">
         <v>50</v>
       </c>
-      <c r="D104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -1830,7 +1729,6 @@
       <c r="C105" t="n">
         <v>50</v>
       </c>
-      <c r="D105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -1842,7 +1740,6 @@
       <c r="C106" t="n">
         <v>50</v>
       </c>
-      <c r="D106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -1854,7 +1751,6 @@
       <c r="C107" t="n">
         <v>50</v>
       </c>
-      <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -1866,7 +1762,6 @@
       <c r="C108" t="n">
         <v>50</v>
       </c>
-      <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -1878,7 +1773,6 @@
       <c r="C109" t="n">
         <v>50</v>
       </c>
-      <c r="D109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -1890,7 +1784,6 @@
       <c r="C110" t="n">
         <v>50</v>
       </c>
-      <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -1902,7 +1795,6 @@
       <c r="C111" t="n">
         <v>50</v>
       </c>
-      <c r="D111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -1914,7 +1806,6 @@
       <c r="C112" t="n">
         <v>50</v>
       </c>
-      <c r="D112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -1926,7 +1817,6 @@
       <c r="C113" t="n">
         <v>50</v>
       </c>
-      <c r="D113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -1938,7 +1828,6 @@
       <c r="C114" t="n">
         <v>50</v>
       </c>
-      <c r="D114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -1950,7 +1839,6 @@
       <c r="C115" t="n">
         <v>50</v>
       </c>
-      <c r="D115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -1962,7 +1850,6 @@
       <c r="C116" t="n">
         <v>50</v>
       </c>
-      <c r="D116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -1974,7 +1861,6 @@
       <c r="C117" t="n">
         <v>50</v>
       </c>
-      <c r="D117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -1986,7 +1872,6 @@
       <c r="C118" t="n">
         <v>50</v>
       </c>
-      <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -1998,7 +1883,6 @@
       <c r="C119" t="n">
         <v>50</v>
       </c>
-      <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2010,7 +1894,6 @@
       <c r="C120" t="n">
         <v>50</v>
       </c>
-      <c r="D120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2022,7 +1905,6 @@
       <c r="C121" t="n">
         <v>50</v>
       </c>
-      <c r="D121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2034,7 +1916,6 @@
       <c r="C122" t="n">
         <v>50</v>
       </c>
-      <c r="D122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -2046,7 +1927,6 @@
       <c r="C123" t="n">
         <v>50</v>
       </c>
-      <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2058,7 +1938,6 @@
       <c r="C124" t="n">
         <v>50</v>
       </c>
-      <c r="D124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2070,7 +1949,6 @@
       <c r="C125" t="n">
         <v>50</v>
       </c>
-      <c r="D125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2082,7 +1960,6 @@
       <c r="C126" t="n">
         <v>50</v>
       </c>
-      <c r="D126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -2094,7 +1971,6 @@
       <c r="C127" t="n">
         <v>50</v>
       </c>
-      <c r="D127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2106,7 +1982,6 @@
       <c r="C128" t="n">
         <v>50</v>
       </c>
-      <c r="D128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -2118,7 +1993,6 @@
       <c r="C129" t="n">
         <v>50</v>
       </c>
-      <c r="D129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -2130,7 +2004,6 @@
       <c r="C130" t="n">
         <v>50</v>
       </c>
-      <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -2142,7 +2015,6 @@
       <c r="C131" t="n">
         <v>50</v>
       </c>
-      <c r="D131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -2154,7 +2026,6 @@
       <c r="C132" t="n">
         <v>50</v>
       </c>
-      <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -2166,7 +2037,6 @@
       <c r="C133" t="n">
         <v>50</v>
       </c>
-      <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -2178,7 +2048,6 @@
       <c r="C134" t="n">
         <v>50</v>
       </c>
-      <c r="D134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -2190,7 +2059,6 @@
       <c r="C135" t="n">
         <v>50</v>
       </c>
-      <c r="D135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -2202,7 +2070,6 @@
       <c r="C136" t="n">
         <v>50</v>
       </c>
-      <c r="D136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -2214,7 +2081,6 @@
       <c r="C137" t="n">
         <v>50</v>
       </c>
-      <c r="D137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -2226,7 +2092,6 @@
       <c r="C138" t="n">
         <v>50</v>
       </c>
-      <c r="D138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -2238,7 +2103,6 @@
       <c r="C139" t="n">
         <v>50</v>
       </c>
-      <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -2250,7 +2114,6 @@
       <c r="C140" t="n">
         <v>50</v>
       </c>
-      <c r="D140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -2262,7 +2125,6 @@
       <c r="C141" t="n">
         <v>50</v>
       </c>
-      <c r="D141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -2274,7 +2136,6 @@
       <c r="C142" t="n">
         <v>50</v>
       </c>
-      <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -2286,7 +2147,6 @@
       <c r="C143" t="n">
         <v>50</v>
       </c>
-      <c r="D143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -2298,7 +2158,6 @@
       <c r="C144" t="n">
         <v>50</v>
       </c>
-      <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -2310,7 +2169,6 @@
       <c r="C145" t="n">
         <v>50</v>
       </c>
-      <c r="D145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -2322,7 +2180,6 @@
       <c r="C146" t="n">
         <v>50</v>
       </c>
-      <c r="D146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -2334,7 +2191,6 @@
       <c r="C147" t="n">
         <v>50</v>
       </c>
-      <c r="D147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -2346,7 +2202,6 @@
       <c r="C148" t="n">
         <v>50</v>
       </c>
-      <c r="D148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -2358,7 +2213,6 @@
       <c r="C149" t="n">
         <v>50</v>
       </c>
-      <c r="D149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -2370,7 +2224,6 @@
       <c r="C150" t="n">
         <v>50</v>
       </c>
-      <c r="D150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -2382,7 +2235,6 @@
       <c r="C151" t="n">
         <v>50</v>
       </c>
-      <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -2394,7 +2246,6 @@
       <c r="C152" t="n">
         <v>50</v>
       </c>
-      <c r="D152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -2406,7 +2257,6 @@
       <c r="C153" t="n">
         <v>50</v>
       </c>
-      <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -2418,7 +2268,6 @@
       <c r="C154" t="n">
         <v>50</v>
       </c>
-      <c r="D154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -2430,7 +2279,6 @@
       <c r="C155" t="n">
         <v>50</v>
       </c>
-      <c r="D155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -2442,7 +2290,6 @@
       <c r="C156" t="n">
         <v>50</v>
       </c>
-      <c r="D156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -2454,7 +2301,6 @@
       <c r="C157" t="n">
         <v>50</v>
       </c>
-      <c r="D157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -2466,7 +2312,6 @@
       <c r="C158" t="n">
         <v>50</v>
       </c>
-      <c r="D158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -2478,7 +2323,6 @@
       <c r="C159" t="n">
         <v>50</v>
       </c>
-      <c r="D159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -2490,7 +2334,6 @@
       <c r="C160" t="n">
         <v>50</v>
       </c>
-      <c r="D160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -2502,7 +2345,6 @@
       <c r="C161" t="n">
         <v>50</v>
       </c>
-      <c r="D161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -2514,7 +2356,6 @@
       <c r="C162" t="n">
         <v>50</v>
       </c>
-      <c r="D162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -2526,7 +2367,6 @@
       <c r="C163" t="n">
         <v>50</v>
       </c>
-      <c r="D163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -2538,7 +2378,6 @@
       <c r="C164" t="n">
         <v>50</v>
       </c>
-      <c r="D164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -2550,7 +2389,6 @@
       <c r="C165" t="n">
         <v>50</v>
       </c>
-      <c r="D165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -2562,7 +2400,6 @@
       <c r="C166" t="n">
         <v>50</v>
       </c>
-      <c r="D166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -2574,7 +2411,6 @@
       <c r="C167" t="n">
         <v>50</v>
       </c>
-      <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -2586,7 +2422,6 @@
       <c r="C168" t="n">
         <v>50</v>
       </c>
-      <c r="D168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -2598,7 +2433,6 @@
       <c r="C169" t="n">
         <v>50</v>
       </c>
-      <c r="D169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -2610,7 +2444,6 @@
       <c r="C170" t="n">
         <v>50</v>
       </c>
-      <c r="D170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -2622,7 +2455,6 @@
       <c r="C171" t="n">
         <v>50</v>
       </c>
-      <c r="D171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -2634,7 +2466,6 @@
       <c r="C172" t="n">
         <v>50</v>
       </c>
-      <c r="D172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -2646,7 +2477,6 @@
       <c r="C173" t="n">
         <v>50</v>
       </c>
-      <c r="D173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -2658,7 +2488,6 @@
       <c r="C174" t="n">
         <v>50</v>
       </c>
-      <c r="D174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -2670,7 +2499,6 @@
       <c r="C175" t="n">
         <v>50</v>
       </c>
-      <c r="D175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -2682,7 +2510,6 @@
       <c r="C176" t="n">
         <v>50</v>
       </c>
-      <c r="D176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -2694,7 +2521,6 @@
       <c r="C177" t="n">
         <v>50</v>
       </c>
-      <c r="D177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -2706,7 +2532,6 @@
       <c r="C178" t="n">
         <v>50</v>
       </c>
-      <c r="D178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -2718,7 +2543,6 @@
       <c r="C179" t="n">
         <v>50</v>
       </c>
-      <c r="D179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -2730,7 +2554,6 @@
       <c r="C180" t="n">
         <v>50</v>
       </c>
-      <c r="D180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -2742,7 +2565,6 @@
       <c r="C181" t="n">
         <v>50</v>
       </c>
-      <c r="D181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -2754,7 +2576,6 @@
       <c r="C182" t="n">
         <v>50</v>
       </c>
-      <c r="D182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -2766,7 +2587,6 @@
       <c r="C183" t="n">
         <v>50</v>
       </c>
-      <c r="D183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -2778,7 +2598,6 @@
       <c r="C184" t="n">
         <v>50</v>
       </c>
-      <c r="D184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -2790,7 +2609,6 @@
       <c r="C185" t="n">
         <v>50</v>
       </c>
-      <c r="D185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -2802,7 +2620,6 @@
       <c r="C186" t="n">
         <v>50</v>
       </c>
-      <c r="D186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -2814,7 +2631,6 @@
       <c r="C187" t="n">
         <v>50</v>
       </c>
-      <c r="D187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -2826,7 +2642,6 @@
       <c r="C188" t="n">
         <v>50</v>
       </c>
-      <c r="D188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -2838,7 +2653,6 @@
       <c r="C189" t="n">
         <v>50</v>
       </c>
-      <c r="D189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -2850,7 +2664,6 @@
       <c r="C190" t="n">
         <v>50</v>
       </c>
-      <c r="D190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -2862,7 +2675,6 @@
       <c r="C191" t="n">
         <v>50</v>
       </c>
-      <c r="D191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -2874,7 +2686,6 @@
       <c r="C192" t="n">
         <v>50</v>
       </c>
-      <c r="D192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -2886,7 +2697,6 @@
       <c r="C193" t="n">
         <v>50</v>
       </c>
-      <c r="D193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -2898,7 +2708,6 @@
       <c r="C194" t="n">
         <v>50</v>
       </c>
-      <c r="D194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -2910,7 +2719,6 @@
       <c r="C195" t="n">
         <v>50</v>
       </c>
-      <c r="D195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -2922,7 +2730,6 @@
       <c r="C196" t="n">
         <v>50</v>
       </c>
-      <c r="D196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -2934,7 +2741,6 @@
       <c r="C197" t="n">
         <v>50</v>
       </c>
-      <c r="D197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -2946,7 +2752,6 @@
       <c r="C198" t="n">
         <v>50</v>
       </c>
-      <c r="D198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -2958,7 +2763,6 @@
       <c r="C199" t="n">
         <v>50</v>
       </c>
-      <c r="D199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -2970,7 +2774,6 @@
       <c r="C200" t="n">
         <v>50</v>
       </c>
-      <c r="D200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -2982,7 +2785,6 @@
       <c r="C201" t="n">
         <v>50</v>
       </c>
-      <c r="D201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -2994,7 +2796,6 @@
       <c r="C202" t="n">
         <v>50</v>
       </c>
-      <c r="D202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -3006,7 +2807,6 @@
       <c r="C203" t="n">
         <v>50</v>
       </c>
-      <c r="D203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -3018,7 +2818,6 @@
       <c r="C204" t="n">
         <v>50</v>
       </c>
-      <c r="D204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -3030,7 +2829,6 @@
       <c r="C205" t="n">
         <v>50</v>
       </c>
-      <c r="D205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -3042,7 +2840,6 @@
       <c r="C206" t="n">
         <v>50</v>
       </c>
-      <c r="D206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -3054,7 +2851,6 @@
       <c r="C207" t="n">
         <v>50</v>
       </c>
-      <c r="D207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -3066,7 +2862,6 @@
       <c r="C208" t="n">
         <v>50</v>
       </c>
-      <c r="D208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -3078,7 +2873,6 @@
       <c r="C209" t="n">
         <v>50</v>
       </c>
-      <c r="D209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -3090,7 +2884,6 @@
       <c r="C210" t="n">
         <v>50</v>
       </c>
-      <c r="D210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -3102,7 +2895,6 @@
       <c r="C211" t="n">
         <v>50</v>
       </c>
-      <c r="D211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -3114,7 +2906,6 @@
       <c r="C212" t="n">
         <v>50</v>
       </c>
-      <c r="D212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -3126,7 +2917,6 @@
       <c r="C213" t="n">
         <v>50</v>
       </c>
-      <c r="D213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -3138,7 +2928,6 @@
       <c r="C214" t="n">
         <v>50</v>
       </c>
-      <c r="D214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -3150,7 +2939,6 @@
       <c r="C215" t="n">
         <v>50</v>
       </c>
-      <c r="D215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -3162,7 +2950,6 @@
       <c r="C216" t="n">
         <v>50</v>
       </c>
-      <c r="D216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -3174,7 +2961,6 @@
       <c r="C217" t="n">
         <v>50</v>
       </c>
-      <c r="D217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -3186,7 +2972,6 @@
       <c r="C218" t="n">
         <v>50</v>
       </c>
-      <c r="D218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -3198,7 +2983,6 @@
       <c r="C219" t="n">
         <v>50</v>
       </c>
-      <c r="D219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -3210,7 +2994,6 @@
       <c r="C220" t="n">
         <v>50</v>
       </c>
-      <c r="D220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -3222,7 +3005,6 @@
       <c r="C221" t="n">
         <v>50</v>
       </c>
-      <c r="D221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -3234,7 +3016,6 @@
       <c r="C222" t="n">
         <v>50</v>
       </c>
-      <c r="D222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -3246,7 +3027,6 @@
       <c r="C223" t="n">
         <v>50</v>
       </c>
-      <c r="D223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -3258,7 +3038,6 @@
       <c r="C224" t="n">
         <v>50</v>
       </c>
-      <c r="D224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -3270,7 +3049,6 @@
       <c r="C225" t="n">
         <v>50</v>
       </c>
-      <c r="D225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -3282,7 +3060,6 @@
       <c r="C226" t="n">
         <v>50</v>
       </c>
-      <c r="D226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -3294,7 +3071,6 @@
       <c r="C227" t="n">
         <v>50</v>
       </c>
-      <c r="D227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -3306,7 +3082,6 @@
       <c r="C228" t="n">
         <v>50</v>
       </c>
-      <c r="D228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -3318,7 +3093,6 @@
       <c r="C229" t="n">
         <v>50</v>
       </c>
-      <c r="D229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -3330,7 +3104,6 @@
       <c r="C230" t="n">
         <v>50</v>
       </c>
-      <c r="D230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -3342,7 +3115,6 @@
       <c r="C231" t="n">
         <v>50</v>
       </c>
-      <c r="D231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -3354,7 +3126,6 @@
       <c r="C232" t="n">
         <v>50</v>
       </c>
-      <c r="D232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -3366,7 +3137,6 @@
       <c r="C233" t="n">
         <v>50</v>
       </c>
-      <c r="D233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -3378,7 +3148,6 @@
       <c r="C234" t="n">
         <v>50</v>
       </c>
-      <c r="D234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -3390,7 +3159,6 @@
       <c r="C235" t="n">
         <v>50</v>
       </c>
-      <c r="D235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -3402,7 +3170,6 @@
       <c r="C236" t="n">
         <v>50</v>
       </c>
-      <c r="D236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -3414,7 +3181,6 @@
       <c r="C237" t="n">
         <v>50</v>
       </c>
-      <c r="D237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -3426,7 +3192,6 @@
       <c r="C238" t="n">
         <v>50</v>
       </c>
-      <c r="D238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -3438,7 +3203,6 @@
       <c r="C239" t="n">
         <v>50</v>
       </c>
-      <c r="D239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -3450,7 +3214,6 @@
       <c r="C240" t="n">
         <v>50</v>
       </c>
-      <c r="D240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -3462,7 +3225,6 @@
       <c r="C241" t="n">
         <v>50</v>
       </c>
-      <c r="D241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -3474,7 +3236,6 @@
       <c r="C242" t="n">
         <v>50</v>
       </c>
-      <c r="D242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -3486,7 +3247,6 @@
       <c r="C243" t="n">
         <v>50</v>
       </c>
-      <c r="D243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -3498,7 +3258,6 @@
       <c r="C244" t="n">
         <v>50</v>
       </c>
-      <c r="D244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -3510,7 +3269,6 @@
       <c r="C245" t="n">
         <v>50</v>
       </c>
-      <c r="D245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -3522,7 +3280,6 @@
       <c r="C246" t="n">
         <v>50</v>
       </c>
-      <c r="D246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -3534,7 +3291,6 @@
       <c r="C247" t="n">
         <v>50</v>
       </c>
-      <c r="D247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -3546,7 +3302,6 @@
       <c r="C248" t="n">
         <v>50</v>
       </c>
-      <c r="D248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -3558,7 +3313,6 @@
       <c r="C249" t="n">
         <v>50</v>
       </c>
-      <c r="D249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -3570,7 +3324,6 @@
       <c r="C250" t="n">
         <v>50</v>
       </c>
-      <c r="D250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -3582,7 +3335,6 @@
       <c r="C251" t="n">
         <v>50</v>
       </c>
-      <c r="D251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -3594,7 +3346,6 @@
       <c r="C252" t="n">
         <v>50</v>
       </c>
-      <c r="D252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -3606,7 +3357,6 @@
       <c r="C253" t="n">
         <v>50</v>
       </c>
-      <c r="D253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -3618,7 +3368,6 @@
       <c r="C254" t="n">
         <v>50</v>
       </c>
-      <c r="D254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -3630,7 +3379,6 @@
       <c r="C255" t="n">
         <v>50</v>
       </c>
-      <c r="D255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -3642,7 +3390,6 @@
       <c r="C256" t="n">
         <v>50</v>
       </c>
-      <c r="D256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -3654,7 +3401,6 @@
       <c r="C257" t="n">
         <v>50</v>
       </c>
-      <c r="D257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -3666,7 +3412,6 @@
       <c r="C258" t="n">
         <v>50</v>
       </c>
-      <c r="D258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -3678,7 +3423,6 @@
       <c r="C259" t="n">
         <v>50</v>
       </c>
-      <c r="D259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -3690,7 +3434,6 @@
       <c r="C260" t="n">
         <v>50</v>
       </c>
-      <c r="D260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -3702,7 +3445,6 @@
       <c r="C261" t="n">
         <v>50</v>
       </c>
-      <c r="D261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -3714,7 +3456,6 @@
       <c r="C262" t="n">
         <v>50</v>
       </c>
-      <c r="D262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -3726,7 +3467,6 @@
       <c r="C263" t="n">
         <v>50</v>
       </c>
-      <c r="D263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -3738,7 +3478,6 @@
       <c r="C264" t="n">
         <v>50</v>
       </c>
-      <c r="D264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -3750,7 +3489,6 @@
       <c r="C265" t="n">
         <v>50</v>
       </c>
-      <c r="D265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -3762,7 +3500,6 @@
       <c r="C266" t="n">
         <v>50</v>
       </c>
-      <c r="D266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -3774,7 +3511,6 @@
       <c r="C267" t="n">
         <v>50</v>
       </c>
-      <c r="D267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -3786,7 +3522,6 @@
       <c r="C268" t="n">
         <v>50</v>
       </c>
-      <c r="D268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -3798,7 +3533,6 @@
       <c r="C269" t="n">
         <v>50</v>
       </c>
-      <c r="D269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -3810,7 +3544,6 @@
       <c r="C270" t="n">
         <v>50</v>
       </c>
-      <c r="D270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -3822,7 +3555,6 @@
       <c r="C271" t="n">
         <v>50</v>
       </c>
-      <c r="D271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -3834,7 +3566,6 @@
       <c r="C272" t="n">
         <v>50</v>
       </c>
-      <c r="D272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -3846,7 +3577,6 @@
       <c r="C273" t="n">
         <v>50</v>
       </c>
-      <c r="D273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -3858,7 +3588,6 @@
       <c r="C274" t="n">
         <v>50</v>
       </c>
-      <c r="D274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -3870,7 +3599,6 @@
       <c r="C275" t="n">
         <v>50</v>
       </c>
-      <c r="D275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -3882,7 +3610,6 @@
       <c r="C276" t="n">
         <v>50</v>
       </c>
-      <c r="D276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -3894,7 +3621,6 @@
       <c r="C277" t="n">
         <v>50</v>
       </c>
-      <c r="D277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -3906,7 +3632,6 @@
       <c r="C278" t="n">
         <v>50</v>
       </c>
-      <c r="D278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -3918,7 +3643,6 @@
       <c r="C279" t="n">
         <v>50</v>
       </c>
-      <c r="D279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -3930,7 +3654,6 @@
       <c r="C280" t="n">
         <v>50</v>
       </c>
-      <c r="D280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -3942,7 +3665,6 @@
       <c r="C281" t="n">
         <v>50</v>
       </c>
-      <c r="D281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -3954,7 +3676,6 @@
       <c r="C282" t="n">
         <v>50</v>
       </c>
-      <c r="D282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -3966,7 +3687,6 @@
       <c r="C283" t="n">
         <v>50</v>
       </c>
-      <c r="D283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -3978,7 +3698,6 @@
       <c r="C284" t="n">
         <v>50</v>
       </c>
-      <c r="D284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -3990,7 +3709,6 @@
       <c r="C285" t="n">
         <v>50</v>
       </c>
-      <c r="D285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -4002,7 +3720,6 @@
       <c r="C286" t="n">
         <v>50</v>
       </c>
-      <c r="D286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -4014,7 +3731,6 @@
       <c r="C287" t="n">
         <v>50</v>
       </c>
-      <c r="D287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -4026,7 +3742,6 @@
       <c r="C288" t="n">
         <v>50</v>
       </c>
-      <c r="D288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -4038,7 +3753,6 @@
       <c r="C289" t="n">
         <v>50</v>
       </c>
-      <c r="D289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -4050,7 +3764,6 @@
       <c r="C290" t="n">
         <v>50</v>
       </c>
-      <c r="D290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -4062,7 +3775,6 @@
       <c r="C291" t="n">
         <v>50</v>
       </c>
-      <c r="D291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -4074,7 +3786,6 @@
       <c r="C292" t="n">
         <v>50</v>
       </c>
-      <c r="D292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -4086,7 +3797,6 @@
       <c r="C293" t="n">
         <v>50</v>
       </c>
-      <c r="D293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -4098,7 +3808,6 @@
       <c r="C294" t="n">
         <v>50</v>
       </c>
-      <c r="D294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -4110,7 +3819,6 @@
       <c r="C295" t="n">
         <v>50</v>
       </c>
-      <c r="D295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -4122,7 +3830,6 @@
       <c r="C296" t="n">
         <v>50</v>
       </c>
-      <c r="D296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -4134,7 +3841,6 @@
       <c r="C297" t="n">
         <v>50</v>
       </c>
-      <c r="D297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -4146,7 +3852,6 @@
       <c r="C298" t="n">
         <v>50</v>
       </c>
-      <c r="D298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -4158,7 +3863,6 @@
       <c r="C299" t="n">
         <v>50</v>
       </c>
-      <c r="D299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -4170,7 +3874,6 @@
       <c r="C300" t="n">
         <v>50</v>
       </c>
-      <c r="D300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -4182,7 +3885,6 @@
       <c r="C301" t="n">
         <v>50</v>
       </c>
-      <c r="D301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -4194,7 +3896,6 @@
       <c r="C302" t="n">
         <v>50</v>
       </c>
-      <c r="D302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -4206,7 +3907,6 @@
       <c r="C303" t="n">
         <v>50</v>
       </c>
-      <c r="D303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -4218,7 +3918,6 @@
       <c r="C304" t="n">
         <v>50</v>
       </c>
-      <c r="D304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -4230,7 +3929,6 @@
       <c r="C305" t="n">
         <v>50</v>
       </c>
-      <c r="D305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -4242,7 +3940,6 @@
       <c r="C306" t="n">
         <v>50</v>
       </c>
-      <c r="D306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -4254,7 +3951,6 @@
       <c r="C307" t="n">
         <v>50</v>
       </c>
-      <c r="D307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -4266,7 +3962,6 @@
       <c r="C308" t="n">
         <v>50</v>
       </c>
-      <c r="D308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -4278,7 +3973,6 @@
       <c r="C309" t="n">
         <v>50</v>
       </c>
-      <c r="D309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -4290,7 +3984,6 @@
       <c r="C310" t="n">
         <v>50</v>
       </c>
-      <c r="D310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -4302,7 +3995,6 @@
       <c r="C311" t="n">
         <v>50</v>
       </c>
-      <c r="D311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -4314,7 +4006,6 @@
       <c r="C312" t="n">
         <v>50</v>
       </c>
-      <c r="D312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -4326,7 +4017,6 @@
       <c r="C313" t="n">
         <v>50</v>
       </c>
-      <c r="D313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -4338,7 +4028,6 @@
       <c r="C314" t="n">
         <v>50</v>
       </c>
-      <c r="D314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -4350,7 +4039,6 @@
       <c r="C315" t="n">
         <v>50</v>
       </c>
-      <c r="D315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -4362,7 +4050,6 @@
       <c r="C316" t="n">
         <v>50</v>
       </c>
-      <c r="D316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -4374,7 +4061,6 @@
       <c r="C317" t="n">
         <v>50</v>
       </c>
-      <c r="D317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -4386,7 +4072,6 @@
       <c r="C318" t="n">
         <v>50</v>
       </c>
-      <c r="D318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -4398,7 +4083,6 @@
       <c r="C319" t="n">
         <v>50</v>
       </c>
-      <c r="D319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -4410,7 +4094,6 @@
       <c r="C320" t="n">
         <v>50</v>
       </c>
-      <c r="D320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -4422,7 +4105,6 @@
       <c r="C321" t="n">
         <v>50</v>
       </c>
-      <c r="D321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -4434,7 +4116,6 @@
       <c r="C322" t="n">
         <v>50</v>
       </c>
-      <c r="D322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -4446,7 +4127,6 @@
       <c r="C323" t="n">
         <v>50</v>
       </c>
-      <c r="D323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -4458,7 +4138,6 @@
       <c r="C324" t="n">
         <v>50</v>
       </c>
-      <c r="D324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -4470,7 +4149,6 @@
       <c r="C325" t="n">
         <v>50</v>
       </c>
-      <c r="D325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -4482,7 +4160,6 @@
       <c r="C326" t="n">
         <v>50</v>
       </c>
-      <c r="D326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -4494,7 +4171,6 @@
       <c r="C327" t="n">
         <v>50</v>
       </c>
-      <c r="D327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -4506,7 +4182,6 @@
       <c r="C328" t="n">
         <v>50</v>
       </c>
-      <c r="D328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -4518,7 +4193,6 @@
       <c r="C329" t="n">
         <v>50</v>
       </c>
-      <c r="D329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -4530,7 +4204,6 @@
       <c r="C330" t="n">
         <v>50</v>
       </c>
-      <c r="D330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -4542,7 +4215,6 @@
       <c r="C331" t="n">
         <v>50</v>
       </c>
-      <c r="D331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -4554,7 +4226,6 @@
       <c r="C332" t="n">
         <v>50</v>
       </c>
-      <c r="D332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -4566,7 +4237,6 @@
       <c r="C333" t="n">
         <v>50</v>
       </c>
-      <c r="D333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -4578,7 +4248,6 @@
       <c r="C334" t="n">
         <v>50</v>
       </c>
-      <c r="D334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -4590,7 +4259,6 @@
       <c r="C335" t="n">
         <v>50</v>
       </c>
-      <c r="D335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -4602,7 +4270,6 @@
       <c r="C336" t="n">
         <v>50</v>
       </c>
-      <c r="D336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -4614,7 +4281,6 @@
       <c r="C337" t="n">
         <v>50</v>
       </c>
-      <c r="D337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -4626,7 +4292,6 @@
       <c r="C338" t="n">
         <v>50</v>
       </c>
-      <c r="D338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -4638,7 +4303,6 @@
       <c r="C339" t="n">
         <v>50</v>
       </c>
-      <c r="D339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -4650,7 +4314,6 @@
       <c r="C340" t="n">
         <v>50</v>
       </c>
-      <c r="D340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -4662,7 +4325,6 @@
       <c r="C341" t="n">
         <v>50</v>
       </c>
-      <c r="D341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -4674,7 +4336,6 @@
       <c r="C342" t="n">
         <v>50</v>
       </c>
-      <c r="D342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -4686,7 +4347,6 @@
       <c r="C343" t="n">
         <v>50</v>
       </c>
-      <c r="D343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -4698,7 +4358,6 @@
       <c r="C344" t="n">
         <v>50</v>
       </c>
-      <c r="D344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -4710,7 +4369,6 @@
       <c r="C345" t="n">
         <v>50</v>
       </c>
-      <c r="D345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -4722,7 +4380,6 @@
       <c r="C346" t="n">
         <v>50</v>
       </c>
-      <c r="D346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -4734,7 +4391,6 @@
       <c r="C347" t="n">
         <v>50</v>
       </c>
-      <c r="D347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -4746,7 +4402,6 @@
       <c r="C348" t="n">
         <v>50</v>
       </c>
-      <c r="D348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -4758,7 +4413,6 @@
       <c r="C349" t="n">
         <v>50</v>
       </c>
-      <c r="D349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -4770,7 +4424,6 @@
       <c r="C350" t="n">
         <v>50</v>
       </c>
-      <c r="D350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -4782,7 +4435,6 @@
       <c r="C351" t="n">
         <v>50</v>
       </c>
-      <c r="D351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -4794,7 +4446,6 @@
       <c r="C352" t="n">
         <v>50</v>
       </c>
-      <c r="D352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -4806,7 +4457,6 @@
       <c r="C353" t="n">
         <v>50</v>
       </c>
-      <c r="D353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -4818,7 +4468,6 @@
       <c r="C354" t="n">
         <v>50</v>
       </c>
-      <c r="D354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -4830,7 +4479,6 @@
       <c r="C355" t="n">
         <v>50</v>
       </c>
-      <c r="D355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -4842,7 +4490,6 @@
       <c r="C356" t="n">
         <v>50</v>
       </c>
-      <c r="D356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -4854,7 +4501,6 @@
       <c r="C357" t="n">
         <v>50</v>
       </c>
-      <c r="D357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -4866,7 +4512,6 @@
       <c r="C358" t="n">
         <v>50</v>
       </c>
-      <c r="D358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -4878,7 +4523,6 @@
       <c r="C359" t="n">
         <v>50</v>
       </c>
-      <c r="D359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -4890,7 +4534,6 @@
       <c r="C360" t="n">
         <v>50</v>
       </c>
-      <c r="D360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -4902,7 +4545,6 @@
       <c r="C361" t="n">
         <v>50</v>
       </c>
-      <c r="D361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -4914,7 +4556,6 @@
       <c r="C362" t="n">
         <v>50</v>
       </c>
-      <c r="D362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -4926,7 +4567,6 @@
       <c r="C363" t="n">
         <v>50</v>
       </c>
-      <c r="D363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -4938,7 +4578,6 @@
       <c r="C364" t="n">
         <v>50</v>
       </c>
-      <c r="D364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -4950,7 +4589,6 @@
       <c r="C365" t="n">
         <v>50</v>
       </c>
-      <c r="D365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -4962,7 +4600,6 @@
       <c r="C366" t="n">
         <v>50</v>
       </c>
-      <c r="D366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -4974,7 +4611,6 @@
       <c r="C367" t="n">
         <v>50</v>
       </c>
-      <c r="D367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -4986,7 +4622,6 @@
       <c r="C368" t="n">
         <v>50</v>
       </c>
-      <c r="D368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -4998,7 +4633,6 @@
       <c r="C369" t="n">
         <v>50</v>
       </c>
-      <c r="D369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -5010,7 +4644,6 @@
       <c r="C370" t="n">
         <v>50</v>
       </c>
-      <c r="D370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -5022,7 +4655,6 @@
       <c r="C371" t="n">
         <v>50</v>
       </c>
-      <c r="D371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -5034,7 +4666,6 @@
       <c r="C372" t="n">
         <v>50</v>
       </c>
-      <c r="D372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -5046,7 +4677,6 @@
       <c r="C373" t="n">
         <v>50</v>
       </c>
-      <c r="D373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -5058,7 +4688,6 @@
       <c r="C374" t="n">
         <v>50</v>
       </c>
-      <c r="D374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -5070,7 +4699,6 @@
       <c r="C375" t="n">
         <v>50</v>
       </c>
-      <c r="D375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -5082,7 +4710,6 @@
       <c r="C376" t="n">
         <v>50</v>
       </c>
-      <c r="D376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -5094,7 +4721,6 @@
       <c r="C377" t="n">
         <v>50</v>
       </c>
-      <c r="D377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -5106,7 +4732,6 @@
       <c r="C378" t="n">
         <v>50</v>
       </c>
-      <c r="D378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -5118,7 +4743,6 @@
       <c r="C379" t="n">
         <v>50</v>
       </c>
-      <c r="D379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -5130,7 +4754,6 @@
       <c r="C380" t="n">
         <v>50</v>
       </c>
-      <c r="D380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -5142,7 +4765,6 @@
       <c r="C381" t="n">
         <v>50</v>
       </c>
-      <c r="D381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -5154,7 +4776,6 @@
       <c r="C382" t="n">
         <v>50</v>
       </c>
-      <c r="D382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -5166,7 +4787,6 @@
       <c r="C383" t="n">
         <v>50</v>
       </c>
-      <c r="D383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -5178,7 +4798,6 @@
       <c r="C384" t="n">
         <v>50</v>
       </c>
-      <c r="D384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -5190,7 +4809,6 @@
       <c r="C385" t="n">
         <v>50</v>
       </c>
-      <c r="D385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -5202,7 +4820,6 @@
       <c r="C386" t="n">
         <v>50</v>
       </c>
-      <c r="D386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -5214,7 +4831,6 @@
       <c r="C387" t="n">
         <v>50</v>
       </c>
-      <c r="D387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -5226,7 +4842,6 @@
       <c r="C388" t="n">
         <v>50</v>
       </c>
-      <c r="D388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -5238,7 +4853,6 @@
       <c r="C389" t="n">
         <v>50</v>
       </c>
-      <c r="D389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -5250,7 +4864,6 @@
       <c r="C390" t="n">
         <v>50</v>
       </c>
-      <c r="D390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -5262,7 +4875,6 @@
       <c r="C391" t="n">
         <v>50</v>
       </c>
-      <c r="D391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -5274,7 +4886,6 @@
       <c r="C392" t="n">
         <v>50</v>
       </c>
-      <c r="D392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -5286,7 +4897,6 @@
       <c r="C393" t="n">
         <v>50</v>
       </c>
-      <c r="D393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -5298,7 +4908,6 @@
       <c r="C394" t="n">
         <v>50</v>
       </c>
-      <c r="D394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -5310,7 +4919,6 @@
       <c r="C395" t="n">
         <v>50</v>
       </c>
-      <c r="D395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -5322,7 +4930,6 @@
       <c r="C396" t="n">
         <v>50</v>
       </c>
-      <c r="D396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -5334,7 +4941,6 @@
       <c r="C397" t="n">
         <v>50</v>
       </c>
-      <c r="D397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -5346,7 +4952,6 @@
       <c r="C398" t="n">
         <v>50</v>
       </c>
-      <c r="D398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -5358,7 +4963,6 @@
       <c r="C399" t="n">
         <v>50</v>
       </c>
-      <c r="D399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -5370,7 +4974,3194 @@
       <c r="C400" t="n">
         <v>50</v>
       </c>
-      <c r="D400" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D263"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.0006299018859863281</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(B$2:B$10000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.1014032363891602</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.1148231029510498</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.1278882026672363</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.141273021697998</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.1549229621887207</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.1695752143859863</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.183096170425415</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>50</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.196850061416626</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.2105951309204102</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>50</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.2244210243225098</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.238213062286377</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>50</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.2533669471740723</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>50</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.2671201229095459</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>50</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.2812120914459229</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>50</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.2952530384063721</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>50</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.309675931930542</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>50</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.3255300521850586</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>50</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.3401520252227783</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>50</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.3546910285949707</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>50</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.3693501949310303</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>50</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.3837301731109619</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>50</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.3993599414825439</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>50</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.4140992164611816</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>50</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.4290039539337158</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>50</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.4437329769134521</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>50</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.4587900638580322</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>50</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.4750571250915527</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>50</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.490084171295166</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>50</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.5056560039520264</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>50</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.5207509994506836</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>50</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.5359170436859131</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>50</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.5643739700317383</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>50</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.5795702934265137</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>50</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.5946600437164307</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>50</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.6101951599121094</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>50</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.627122163772583</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>50</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.642653226852417</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>50</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.6585521697998047</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>50</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.6744821071624756</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>50</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.6905419826507568</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>50</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.7077400684356689</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>50</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.7240450382232666</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>50</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.7400360107421875</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>50</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.7563061714172363</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>50</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.773292064666748</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>50</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.7894740104675293</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>50</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.8058559894561768</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>50</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.822221040725708</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>50</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.8400931358337402</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>50</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.8568210601806641</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.8737800121307373</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>50</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.8908891677856445</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>50</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.908937931060791</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>50</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.9260320663452148</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>50</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.9433519840240479</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>50</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.960731029510498</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>50</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.9792969226837158</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>50</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.9966981410980225</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>50</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1.016475200653076</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>50</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1.034087181091309</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>50</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1.051045179367065</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>50</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1.066857099533081</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>50</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1.082641124725342</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>50</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1.098384141921997</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>50</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1.115465879440308</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>50</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1.131482124328613</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>50</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1.147539138793945</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>50</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1.163443088531494</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>50</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1.181011199951172</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>50</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1.196899175643921</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>50</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1.213390111923218</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>50</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1.229473114013672</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>50</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1.246823072433472</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>50</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1.262959003448486</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>50</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1.27902626991272</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>50</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1.295420169830322</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>50</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1.313101053237915</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>50</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1.342075109481812</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>50</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1.35788893699646</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>50</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1.374024152755737</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>50</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1.389886856079102</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>50</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1.407027959823608</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>50</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1.423187255859375</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>50</v>
+      </c>
+      <c r="D85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1.438979148864746</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>50</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1.455108165740967</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>50</v>
+      </c>
+      <c r="D87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1.472317218780518</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>50</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1.488686084747314</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>50</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1.505052089691162</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>50</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1.521541118621826</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>50</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1.538920164108276</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>50</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1.55535626411438</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>50</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1.571934223175049</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>50</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1.588789939880371</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>50</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1.60633111000061</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>50</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1.623443126678467</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>50</v>
+      </c>
+      <c r="D97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1.639984130859375</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>50</v>
+      </c>
+      <c r="D98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1.656508207321167</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>50</v>
+      </c>
+      <c r="D99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1.67408299446106</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>50</v>
+      </c>
+      <c r="D100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1.690930128097534</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>50</v>
+      </c>
+      <c r="D101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1.707611083984375</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>50</v>
+      </c>
+      <c r="D102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1.724562168121338</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>50</v>
+      </c>
+      <c r="D103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1.742601871490479</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>50</v>
+      </c>
+      <c r="D104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1.759427070617676</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>50</v>
+      </c>
+      <c r="D105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1.776323080062866</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>50</v>
+      </c>
+      <c r="D106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1.793292045593262</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>50</v>
+      </c>
+      <c r="D107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1.811440229415894</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>50</v>
+      </c>
+      <c r="D108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1.829182863235474</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>50</v>
+      </c>
+      <c r="D109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1.846338033676147</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>50</v>
+      </c>
+      <c r="D110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1.8631751537323</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>50</v>
+      </c>
+      <c r="D111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1.898540019989014</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>50</v>
+      </c>
+      <c r="D112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1.916006088256836</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>50</v>
+      </c>
+      <c r="D113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1.933206081390381</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>50</v>
+      </c>
+      <c r="D114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1.950409889221191</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>50</v>
+      </c>
+      <c r="D115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1.96860408782959</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>50</v>
+      </c>
+      <c r="D116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1.985733032226562</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>50</v>
+      </c>
+      <c r="D117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2.003015279769897</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>50</v>
+      </c>
+      <c r="D118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>2.02168607711792</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>50</v>
+      </c>
+      <c r="D119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>2.039149045944214</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>50</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2.056417942047119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>50</v>
+      </c>
+      <c r="D121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2.073577880859375</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>50</v>
+      </c>
+      <c r="D122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2.109851121902466</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>50</v>
+      </c>
+      <c r="D123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2.127889156341553</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>50</v>
+      </c>
+      <c r="D124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2.146737098693848</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>50</v>
+      </c>
+      <c r="D125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2.164468050003052</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>50</v>
+      </c>
+      <c r="D126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2.183157920837402</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>50</v>
+      </c>
+      <c r="D127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>2.200702905654907</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>50</v>
+      </c>
+      <c r="D128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>2.218271017074585</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>50</v>
+      </c>
+      <c r="D129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>2.237351179122925</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>50</v>
+      </c>
+      <c r="D130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2.254756212234497</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>50</v>
+      </c>
+      <c r="D131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>2.272608995437622</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>50</v>
+      </c>
+      <c r="D132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>2.290706157684326</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>50</v>
+      </c>
+      <c r="D133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2.309847116470337</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>50</v>
+      </c>
+      <c r="D134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>2.327754020690918</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>50</v>
+      </c>
+      <c r="D135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2.346008062362671</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>50</v>
+      </c>
+      <c r="D136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2.365123987197876</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>50</v>
+      </c>
+      <c r="D137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>2.383024215698242</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>50</v>
+      </c>
+      <c r="D138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>2.400903224945068</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>50</v>
+      </c>
+      <c r="D139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>2.418730020523071</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>50</v>
+      </c>
+      <c r="D140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>2.438217878341675</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>50</v>
+      </c>
+      <c r="D141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>2.456590175628662</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>50</v>
+      </c>
+      <c r="D142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>2.47455620765686</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>50</v>
+      </c>
+      <c r="D143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>2.493677139282227</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>50</v>
+      </c>
+      <c r="D144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>2.511844158172607</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>50</v>
+      </c>
+      <c r="D145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>2.530182123184204</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>50</v>
+      </c>
+      <c r="D146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>2.549477100372314</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>50</v>
+      </c>
+      <c r="D147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>2.567789077758789</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>50</v>
+      </c>
+      <c r="D148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>2.585936069488525</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>50</v>
+      </c>
+      <c r="D149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>2.607378244400024</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>50</v>
+      </c>
+      <c r="D150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>2.625625133514404</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>50</v>
+      </c>
+      <c r="D151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>2.643817901611328</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>50</v>
+      </c>
+      <c r="D152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>2.66372013092041</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>50</v>
+      </c>
+      <c r="D153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>2.682132959365845</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>50</v>
+      </c>
+      <c r="D154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>2.700622081756592</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>50</v>
+      </c>
+      <c r="D155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>2.722702026367188</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>50</v>
+      </c>
+      <c r="D156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>2.741342306137085</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>50</v>
+      </c>
+      <c r="D157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>2.759767055511475</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>50</v>
+      </c>
+      <c r="D158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>2.779551029205322</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>50</v>
+      </c>
+      <c r="D159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>2.813425064086914</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>50</v>
+      </c>
+      <c r="D160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>2.831629037857056</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>50</v>
+      </c>
+      <c r="D161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>2.849905252456665</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>50</v>
+      </c>
+      <c r="D162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>2.869472980499268</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>50</v>
+      </c>
+      <c r="D163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>2.888239145278931</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>50</v>
+      </c>
+      <c r="D164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>2.906864166259766</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>50</v>
+      </c>
+      <c r="D165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>2.927041053771973</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>50</v>
+      </c>
+      <c r="D166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>2.945937156677246</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>50</v>
+      </c>
+      <c r="D167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>2.964555978775024</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>50</v>
+      </c>
+      <c r="D168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>2.984421014785767</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>50</v>
+      </c>
+      <c r="D169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>3.003366231918335</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>50</v>
+      </c>
+      <c r="D170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>3.022422075271606</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>50</v>
+      </c>
+      <c r="D171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>3.042792081832886</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>50</v>
+      </c>
+      <c r="D172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>3.061706066131592</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>50</v>
+      </c>
+      <c r="D173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>3.080713272094727</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>50</v>
+      </c>
+      <c r="D174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>3.101026058197021</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>50</v>
+      </c>
+      <c r="D175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>3.120226144790649</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>50</v>
+      </c>
+      <c r="D176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>3.139463186264038</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>50</v>
+      </c>
+      <c r="D177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>3.160021066665649</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>50</v>
+      </c>
+      <c r="D178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>3.179234027862549</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>50</v>
+      </c>
+      <c r="D179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>3.198552131652832</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>50</v>
+      </c>
+      <c r="D180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>3.221225261688232</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>50</v>
+      </c>
+      <c r="D181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>3.240531206130981</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>50</v>
+      </c>
+      <c r="D182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>3.259844064712524</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0</v>
+      </c>
+      <c r="C183" t="n">
+        <v>50</v>
+      </c>
+      <c r="D183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>3.280826091766357</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C184" t="n">
+        <v>50</v>
+      </c>
+      <c r="D184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>3.300335168838501</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>50</v>
+      </c>
+      <c r="D185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>3.319785118103027</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>50</v>
+      </c>
+      <c r="D186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>3.340628147125244</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>50</v>
+      </c>
+      <c r="D187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>3.359865188598633</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0</v>
+      </c>
+      <c r="C188" t="n">
+        <v>50</v>
+      </c>
+      <c r="D188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>3.379528284072876</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>50</v>
+      </c>
+      <c r="D189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>3.400795221328735</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0</v>
+      </c>
+      <c r="C190" t="n">
+        <v>50</v>
+      </c>
+      <c r="D190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>3.420306205749512</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>50</v>
+      </c>
+      <c r="D191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>3.439790010452271</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>50</v>
+      </c>
+      <c r="D192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>3.460492134094238</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0</v>
+      </c>
+      <c r="C193" t="n">
+        <v>50</v>
+      </c>
+      <c r="D193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>3.495238065719604</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0</v>
+      </c>
+      <c r="C194" t="n">
+        <v>50</v>
+      </c>
+      <c r="D194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>3.514938116073608</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>50</v>
+      </c>
+      <c r="D195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>3.534217119216919</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0</v>
+      </c>
+      <c r="C196" t="n">
+        <v>50</v>
+      </c>
+      <c r="D196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>3.555056095123291</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0</v>
+      </c>
+      <c r="C197" t="n">
+        <v>50</v>
+      </c>
+      <c r="D197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>3.574419260025024</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0</v>
+      </c>
+      <c r="C198" t="n">
+        <v>50</v>
+      </c>
+      <c r="D198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>3.594129085540771</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0</v>
+      </c>
+      <c r="C199" t="n">
+        <v>50</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>3.615015268325806</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0</v>
+      </c>
+      <c r="C200" t="n">
+        <v>50</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>3.634866237640381</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0</v>
+      </c>
+      <c r="C201" t="n">
+        <v>50</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>3.654520034790039</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0</v>
+      </c>
+      <c r="C202" t="n">
+        <v>50</v>
+      </c>
+      <c r="D202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>3.675903081893921</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0</v>
+      </c>
+      <c r="C203" t="n">
+        <v>50</v>
+      </c>
+      <c r="D203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>3.695842027664185</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0</v>
+      </c>
+      <c r="C204" t="n">
+        <v>50</v>
+      </c>
+      <c r="D204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>3.715699195861816</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0</v>
+      </c>
+      <c r="C205" t="n">
+        <v>50</v>
+      </c>
+      <c r="D205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>3.736956119537354</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0</v>
+      </c>
+      <c r="C206" t="n">
+        <v>50</v>
+      </c>
+      <c r="D206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>3.756741046905518</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0</v>
+      </c>
+      <c r="C207" t="n">
+        <v>50</v>
+      </c>
+      <c r="D207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>3.776343107223511</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0</v>
+      </c>
+      <c r="C208" t="n">
+        <v>50</v>
+      </c>
+      <c r="D208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>3.797523260116577</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0</v>
+      </c>
+      <c r="C209" t="n">
+        <v>50</v>
+      </c>
+      <c r="D209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>3.819055080413818</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0</v>
+      </c>
+      <c r="C210" t="n">
+        <v>50</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>3.839231014251709</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0</v>
+      </c>
+      <c r="C211" t="n">
+        <v>50</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>3.860554933547974</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0</v>
+      </c>
+      <c r="C212" t="n">
+        <v>50</v>
+      </c>
+      <c r="D212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>3.880734920501709</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0</v>
+      </c>
+      <c r="C213" t="n">
+        <v>50</v>
+      </c>
+      <c r="D213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>3.900360107421875</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0</v>
+      </c>
+      <c r="C214" t="n">
+        <v>50</v>
+      </c>
+      <c r="D214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>3.922183275222778</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0</v>
+      </c>
+      <c r="C215" t="n">
+        <v>50</v>
+      </c>
+      <c r="D215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>3.942070960998535</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0</v>
+      </c>
+      <c r="C216" t="n">
+        <v>50</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>3.962192058563232</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0</v>
+      </c>
+      <c r="C217" t="n">
+        <v>50</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>3.983936071395874</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0</v>
+      </c>
+      <c r="C218" t="n">
+        <v>50</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>4.004439115524292</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0</v>
+      </c>
+      <c r="C219" t="n">
+        <v>50</v>
+      </c>
+      <c r="D219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>4.024359226226807</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0</v>
+      </c>
+      <c r="C220" t="n">
+        <v>50</v>
+      </c>
+      <c r="D220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>4.045912981033325</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0</v>
+      </c>
+      <c r="C221" t="n">
+        <v>50</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>4.06626033782959</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0</v>
+      </c>
+      <c r="C222" t="n">
+        <v>50</v>
+      </c>
+      <c r="D222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>4.086697101593018</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0</v>
+      </c>
+      <c r="C223" t="n">
+        <v>50</v>
+      </c>
+      <c r="D223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>4.108268976211548</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0</v>
+      </c>
+      <c r="C224" t="n">
+        <v>50</v>
+      </c>
+      <c r="D224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>4.128782987594604</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0</v>
+      </c>
+      <c r="C225" t="n">
+        <v>50</v>
+      </c>
+      <c r="D225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>4.148839235305786</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0</v>
+      </c>
+      <c r="C226" t="n">
+        <v>50</v>
+      </c>
+      <c r="D226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>4.190581083297729</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0</v>
+      </c>
+      <c r="C227" t="n">
+        <v>50</v>
+      </c>
+      <c r="D227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>4.210918188095093</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0</v>
+      </c>
+      <c r="C228" t="n">
+        <v>50</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>4.23136830329895</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0</v>
+      </c>
+      <c r="C229" t="n">
+        <v>50</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>4.253119945526123</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0</v>
+      </c>
+      <c r="C230" t="n">
+        <v>50</v>
+      </c>
+      <c r="D230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>4.27314305305481</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0</v>
+      </c>
+      <c r="C231" t="n">
+        <v>50</v>
+      </c>
+      <c r="D231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>4.293718099594116</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0</v>
+      </c>
+      <c r="C232" t="n">
+        <v>50</v>
+      </c>
+      <c r="D232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>4.315853118896484</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0</v>
+      </c>
+      <c r="C233" t="n">
+        <v>50</v>
+      </c>
+      <c r="D233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>4.336158990859985</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0</v>
+      </c>
+      <c r="C234" t="n">
+        <v>50</v>
+      </c>
+      <c r="D234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>4.356751203536987</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0</v>
+      </c>
+      <c r="C235" t="n">
+        <v>50</v>
+      </c>
+      <c r="D235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>4.378802061080933</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0</v>
+      </c>
+      <c r="C236" t="n">
+        <v>50</v>
+      </c>
+      <c r="D236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>4.399386167526245</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0</v>
+      </c>
+      <c r="C237" t="n">
+        <v>50</v>
+      </c>
+      <c r="D237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>4.42172908782959</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0</v>
+      </c>
+      <c r="C238" t="n">
+        <v>50</v>
+      </c>
+      <c r="D238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>4.444435119628906</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0</v>
+      </c>
+      <c r="C239" t="n">
+        <v>50</v>
+      </c>
+      <c r="D239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>4.465500116348267</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0</v>
+      </c>
+      <c r="C240" t="n">
+        <v>50</v>
+      </c>
+      <c r="D240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>4.486103057861328</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0</v>
+      </c>
+      <c r="C241" t="n">
+        <v>50</v>
+      </c>
+      <c r="D241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>4.508394002914429</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0</v>
+      </c>
+      <c r="C242" t="n">
+        <v>50</v>
+      </c>
+      <c r="D242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>4.529351234436035</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0</v>
+      </c>
+      <c r="C243" t="n">
+        <v>50</v>
+      </c>
+      <c r="D243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>4.550303936004639</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0</v>
+      </c>
+      <c r="C244" t="n">
+        <v>50</v>
+      </c>
+      <c r="D244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>4.57299017906189</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0</v>
+      </c>
+      <c r="C245" t="n">
+        <v>50</v>
+      </c>
+      <c r="D245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>4.593944072723389</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0</v>
+      </c>
+      <c r="C246" t="n">
+        <v>50</v>
+      </c>
+      <c r="D246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>4.614979982376099</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0</v>
+      </c>
+      <c r="C247" t="n">
+        <v>50</v>
+      </c>
+      <c r="D247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>4.656450986862183</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0</v>
+      </c>
+      <c r="C248" t="n">
+        <v>50</v>
+      </c>
+      <c r="D248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>4.678043127059937</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0</v>
+      </c>
+      <c r="C249" t="n">
+        <v>50</v>
+      </c>
+      <c r="D249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>4.699574947357178</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0</v>
+      </c>
+      <c r="C250" t="n">
+        <v>50</v>
+      </c>
+      <c r="D250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>4.722146987915039</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0</v>
+      </c>
+      <c r="C251" t="n">
+        <v>50</v>
+      </c>
+      <c r="D251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>4.743407011032104</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0</v>
+      </c>
+      <c r="C252" t="n">
+        <v>50</v>
+      </c>
+      <c r="D252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>4.764658212661743</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0</v>
+      </c>
+      <c r="C253" t="n">
+        <v>50</v>
+      </c>
+      <c r="D253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>4.787177324295044</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0</v>
+      </c>
+      <c r="C254" t="n">
+        <v>50</v>
+      </c>
+      <c r="D254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>4.808914184570312</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0</v>
+      </c>
+      <c r="C255" t="n">
+        <v>50</v>
+      </c>
+      <c r="D255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>4.830013275146484</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0</v>
+      </c>
+      <c r="C256" t="n">
+        <v>50</v>
+      </c>
+      <c r="D256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>4.853049039840698</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0</v>
+      </c>
+      <c r="C257" t="n">
+        <v>50</v>
+      </c>
+      <c r="D257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>4.874450206756592</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0</v>
+      </c>
+      <c r="C258" t="n">
+        <v>50</v>
+      </c>
+      <c r="D258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>4.895568132400513</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0</v>
+      </c>
+      <c r="C259" t="n">
+        <v>50</v>
+      </c>
+      <c r="D259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>4.938935995101929</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0</v>
+      </c>
+      <c r="C260" t="n">
+        <v>50</v>
+      </c>
+      <c r="D260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>4.960299968719482</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0</v>
+      </c>
+      <c r="C261" t="n">
+        <v>50</v>
+      </c>
+      <c r="D261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>4.981402158737183</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0</v>
+      </c>
+      <c r="C262" t="n">
+        <v>50</v>
+      </c>
+      <c r="D262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>5.004338264465332</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0</v>
+      </c>
+      <c r="C263" t="n">
+        <v>50</v>
+      </c>
+      <c r="D263" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,29 +3,42 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2200" yWindow="2200" windowWidth="28040" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2200" yWindow="2200" windowWidth="28040" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="5mm_5deg_5RPM_5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="1mm_1deg_1RPM_1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="1mm_1deg_11RPM_1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="12mm_12deg_12RPM_1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="mm_deg_RPM_" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="120mm_8deg_RPM_1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="12"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Aptos Narrow"/>
@@ -44,12 +57,42 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -77,12 +120,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -502,7 +551,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -558,7 +607,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -4992,7 +5041,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -5041,7 +5090,6 @@
       <c r="C3" t="n">
         <v>50</v>
       </c>
-      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -5053,7 +5101,6 @@
       <c r="C4" t="n">
         <v>50</v>
       </c>
-      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -5065,7 +5112,6 @@
       <c r="C5" t="n">
         <v>50</v>
       </c>
-      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -5077,7 +5123,6 @@
       <c r="C6" t="n">
         <v>50</v>
       </c>
-      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -5089,7 +5134,6 @@
       <c r="C7" t="n">
         <v>50</v>
       </c>
-      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -5101,7 +5145,6 @@
       <c r="C8" t="n">
         <v>50</v>
       </c>
-      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -5113,7 +5156,6 @@
       <c r="C9" t="n">
         <v>50</v>
       </c>
-      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -5125,7 +5167,6 @@
       <c r="C10" t="n">
         <v>50</v>
       </c>
-      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -5137,7 +5178,6 @@
       <c r="C11" t="n">
         <v>50</v>
       </c>
-      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -5149,7 +5189,6 @@
       <c r="C12" t="n">
         <v>50</v>
       </c>
-      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -5161,7 +5200,6 @@
       <c r="C13" t="n">
         <v>50</v>
       </c>
-      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -5173,7 +5211,6 @@
       <c r="C14" t="n">
         <v>50</v>
       </c>
-      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -5185,7 +5222,6 @@
       <c r="C15" t="n">
         <v>50</v>
       </c>
-      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -5197,7 +5233,6 @@
       <c r="C16" t="n">
         <v>50</v>
       </c>
-      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -5209,7 +5244,6 @@
       <c r="C17" t="n">
         <v>50</v>
       </c>
-      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -5221,7 +5255,6 @@
       <c r="C18" t="n">
         <v>50</v>
       </c>
-      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -5233,7 +5266,6 @@
       <c r="C19" t="n">
         <v>50</v>
       </c>
-      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -5245,7 +5277,6 @@
       <c r="C20" t="n">
         <v>50</v>
       </c>
-      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -5257,7 +5288,6 @@
       <c r="C21" t="n">
         <v>50</v>
       </c>
-      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -5269,7 +5299,6 @@
       <c r="C22" t="n">
         <v>50</v>
       </c>
-      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -5281,7 +5310,6 @@
       <c r="C23" t="n">
         <v>50</v>
       </c>
-      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -5293,7 +5321,6 @@
       <c r="C24" t="n">
         <v>50</v>
       </c>
-      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -5305,7 +5332,6 @@
       <c r="C25" t="n">
         <v>50</v>
       </c>
-      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -5317,7 +5343,6 @@
       <c r="C26" t="n">
         <v>50</v>
       </c>
-      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -5329,7 +5354,6 @@
       <c r="C27" t="n">
         <v>50</v>
       </c>
-      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -5341,7 +5365,6 @@
       <c r="C28" t="n">
         <v>50</v>
       </c>
-      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -5353,7 +5376,6 @@
       <c r="C29" t="n">
         <v>50</v>
       </c>
-      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -5365,7 +5387,6 @@
       <c r="C30" t="n">
         <v>50</v>
       </c>
-      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -5377,7 +5398,6 @@
       <c r="C31" t="n">
         <v>50</v>
       </c>
-      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -5389,7 +5409,6 @@
       <c r="C32" t="n">
         <v>50</v>
       </c>
-      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5401,7 +5420,6 @@
       <c r="C33" t="n">
         <v>50</v>
       </c>
-      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5413,7 +5431,6 @@
       <c r="C34" t="n">
         <v>50</v>
       </c>
-      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5425,7 +5442,6 @@
       <c r="C35" t="n">
         <v>50</v>
       </c>
-      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5437,7 +5453,6 @@
       <c r="C36" t="n">
         <v>50</v>
       </c>
-      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5449,7 +5464,6 @@
       <c r="C37" t="n">
         <v>50</v>
       </c>
-      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5461,7 +5475,6 @@
       <c r="C38" t="n">
         <v>50</v>
       </c>
-      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5473,7 +5486,6 @@
       <c r="C39" t="n">
         <v>50</v>
       </c>
-      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5485,7 +5497,6 @@
       <c r="C40" t="n">
         <v>50</v>
       </c>
-      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5497,7 +5508,6 @@
       <c r="C41" t="n">
         <v>50</v>
       </c>
-      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5509,7 +5519,6 @@
       <c r="C42" t="n">
         <v>50</v>
       </c>
-      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5521,7 +5530,6 @@
       <c r="C43" t="n">
         <v>50</v>
       </c>
-      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5533,7 +5541,6 @@
       <c r="C44" t="n">
         <v>50</v>
       </c>
-      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5545,7 +5552,6 @@
       <c r="C45" t="n">
         <v>50</v>
       </c>
-      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5557,7 +5563,6 @@
       <c r="C46" t="n">
         <v>50</v>
       </c>
-      <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5569,7 +5574,6 @@
       <c r="C47" t="n">
         <v>50</v>
       </c>
-      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5581,7 +5585,6 @@
       <c r="C48" t="n">
         <v>50</v>
       </c>
-      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5593,7 +5596,6 @@
       <c r="C49" t="n">
         <v>50</v>
       </c>
-      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5605,7 +5607,6 @@
       <c r="C50" t="n">
         <v>50</v>
       </c>
-      <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5617,7 +5618,6 @@
       <c r="C51" t="n">
         <v>50</v>
       </c>
-      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5629,7 +5629,6 @@
       <c r="C52" t="n">
         <v>50</v>
       </c>
-      <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5641,7 +5640,6 @@
       <c r="C53" t="n">
         <v>50</v>
       </c>
-      <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5653,7 +5651,6 @@
       <c r="C54" t="n">
         <v>50</v>
       </c>
-      <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5665,7 +5662,6 @@
       <c r="C55" t="n">
         <v>50</v>
       </c>
-      <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5677,7 +5673,6 @@
       <c r="C56" t="n">
         <v>50</v>
       </c>
-      <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5689,7 +5684,6 @@
       <c r="C57" t="n">
         <v>50</v>
       </c>
-      <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5701,7 +5695,6 @@
       <c r="C58" t="n">
         <v>50</v>
       </c>
-      <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5713,7 +5706,6 @@
       <c r="C59" t="n">
         <v>50</v>
       </c>
-      <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5725,7 +5717,6 @@
       <c r="C60" t="n">
         <v>50</v>
       </c>
-      <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5737,7 +5728,6 @@
       <c r="C61" t="n">
         <v>50</v>
       </c>
-      <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5749,7 +5739,6 @@
       <c r="C62" t="n">
         <v>50</v>
       </c>
-      <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5761,7 +5750,6 @@
       <c r="C63" t="n">
         <v>50</v>
       </c>
-      <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5773,7 +5761,6 @@
       <c r="C64" t="n">
         <v>50</v>
       </c>
-      <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5785,7 +5772,6 @@
       <c r="C65" t="n">
         <v>50</v>
       </c>
-      <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5797,7 +5783,6 @@
       <c r="C66" t="n">
         <v>50</v>
       </c>
-      <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5809,7 +5794,6 @@
       <c r="C67" t="n">
         <v>50</v>
       </c>
-      <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -5821,7 +5805,6 @@
       <c r="C68" t="n">
         <v>50</v>
       </c>
-      <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -5833,7 +5816,6 @@
       <c r="C69" t="n">
         <v>50</v>
       </c>
-      <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -5845,7 +5827,6 @@
       <c r="C70" t="n">
         <v>50</v>
       </c>
-      <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -5857,7 +5838,6 @@
       <c r="C71" t="n">
         <v>50</v>
       </c>
-      <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -5869,7 +5849,6 @@
       <c r="C72" t="n">
         <v>50</v>
       </c>
-      <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -5881,7 +5860,6 @@
       <c r="C73" t="n">
         <v>50</v>
       </c>
-      <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5893,7 +5871,6 @@
       <c r="C74" t="n">
         <v>50</v>
       </c>
-      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -5905,7 +5882,6 @@
       <c r="C75" t="n">
         <v>50</v>
       </c>
-      <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -5917,7 +5893,6 @@
       <c r="C76" t="n">
         <v>50</v>
       </c>
-      <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5929,7 +5904,6 @@
       <c r="C77" t="n">
         <v>50</v>
       </c>
-      <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5941,7 +5915,6 @@
       <c r="C78" t="n">
         <v>50</v>
       </c>
-      <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5953,7 +5926,6 @@
       <c r="C79" t="n">
         <v>50</v>
       </c>
-      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5965,7 +5937,6 @@
       <c r="C80" t="n">
         <v>50</v>
       </c>
-      <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5977,7 +5948,6 @@
       <c r="C81" t="n">
         <v>50</v>
       </c>
-      <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5989,7 +5959,6 @@
       <c r="C82" t="n">
         <v>50</v>
       </c>
-      <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -6001,7 +5970,6 @@
       <c r="C83" t="n">
         <v>50</v>
       </c>
-      <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -6013,7 +5981,6 @@
       <c r="C84" t="n">
         <v>50</v>
       </c>
-      <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -6025,7 +5992,6 @@
       <c r="C85" t="n">
         <v>50</v>
       </c>
-      <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -6037,7 +6003,6 @@
       <c r="C86" t="n">
         <v>50</v>
       </c>
-      <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -6049,7 +6014,6 @@
       <c r="C87" t="n">
         <v>50</v>
       </c>
-      <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -6061,7 +6025,6 @@
       <c r="C88" t="n">
         <v>50</v>
       </c>
-      <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -6073,7 +6036,6 @@
       <c r="C89" t="n">
         <v>50</v>
       </c>
-      <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -6085,7 +6047,6 @@
       <c r="C90" t="n">
         <v>50</v>
       </c>
-      <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -6097,7 +6058,6 @@
       <c r="C91" t="n">
         <v>50</v>
       </c>
-      <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -6109,7 +6069,6 @@
       <c r="C92" t="n">
         <v>50</v>
       </c>
-      <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -6121,7 +6080,6 @@
       <c r="C93" t="n">
         <v>50</v>
       </c>
-      <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -6133,7 +6091,6 @@
       <c r="C94" t="n">
         <v>50</v>
       </c>
-      <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -6145,7 +6102,6 @@
       <c r="C95" t="n">
         <v>50</v>
       </c>
-      <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -6157,7 +6113,6 @@
       <c r="C96" t="n">
         <v>50</v>
       </c>
-      <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -6169,7 +6124,6 @@
       <c r="C97" t="n">
         <v>50</v>
       </c>
-      <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -6181,7 +6135,6 @@
       <c r="C98" t="n">
         <v>50</v>
       </c>
-      <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -6193,7 +6146,6 @@
       <c r="C99" t="n">
         <v>50</v>
       </c>
-      <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6205,7 +6157,6 @@
       <c r="C100" t="n">
         <v>50</v>
       </c>
-      <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -6217,7 +6168,6 @@
       <c r="C101" t="n">
         <v>50</v>
       </c>
-      <c r="D101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -6229,7 +6179,6 @@
       <c r="C102" t="n">
         <v>50</v>
       </c>
-      <c r="D102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -6241,7 +6190,6 @@
       <c r="C103" t="n">
         <v>50</v>
       </c>
-      <c r="D103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -6253,7 +6201,6 @@
       <c r="C104" t="n">
         <v>50</v>
       </c>
-      <c r="D104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -6265,7 +6212,6 @@
       <c r="C105" t="n">
         <v>50</v>
       </c>
-      <c r="D105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -6277,7 +6223,6 @@
       <c r="C106" t="n">
         <v>50</v>
       </c>
-      <c r="D106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -6289,7 +6234,6 @@
       <c r="C107" t="n">
         <v>50</v>
       </c>
-      <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6301,7 +6245,6 @@
       <c r="C108" t="n">
         <v>50</v>
       </c>
-      <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6313,7 +6256,6 @@
       <c r="C109" t="n">
         <v>50</v>
       </c>
-      <c r="D109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -6325,7 +6267,6 @@
       <c r="C110" t="n">
         <v>50</v>
       </c>
-      <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -6337,7 +6278,6 @@
       <c r="C111" t="n">
         <v>50</v>
       </c>
-      <c r="D111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -6349,7 +6289,6 @@
       <c r="C112" t="n">
         <v>50</v>
       </c>
-      <c r="D112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -6361,7 +6300,6 @@
       <c r="C113" t="n">
         <v>50</v>
       </c>
-      <c r="D113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -6373,7 +6311,6 @@
       <c r="C114" t="n">
         <v>50</v>
       </c>
-      <c r="D114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -6385,7 +6322,6 @@
       <c r="C115" t="n">
         <v>50</v>
       </c>
-      <c r="D115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -6397,7 +6333,6 @@
       <c r="C116" t="n">
         <v>50</v>
       </c>
-      <c r="D116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -6409,7 +6344,6 @@
       <c r="C117" t="n">
         <v>50</v>
       </c>
-      <c r="D117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -6421,7 +6355,6 @@
       <c r="C118" t="n">
         <v>50</v>
       </c>
-      <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -6433,7 +6366,6 @@
       <c r="C119" t="n">
         <v>50</v>
       </c>
-      <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -6445,7 +6377,6 @@
       <c r="C120" t="n">
         <v>50</v>
       </c>
-      <c r="D120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -6457,7 +6388,6 @@
       <c r="C121" t="n">
         <v>50</v>
       </c>
-      <c r="D121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -6469,7 +6399,6 @@
       <c r="C122" t="n">
         <v>50</v>
       </c>
-      <c r="D122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -6481,7 +6410,6 @@
       <c r="C123" t="n">
         <v>50</v>
       </c>
-      <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -6493,7 +6421,6 @@
       <c r="C124" t="n">
         <v>50</v>
       </c>
-      <c r="D124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -6505,7 +6432,6 @@
       <c r="C125" t="n">
         <v>50</v>
       </c>
-      <c r="D125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -6517,7 +6443,6 @@
       <c r="C126" t="n">
         <v>50</v>
       </c>
-      <c r="D126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -6529,7 +6454,6 @@
       <c r="C127" t="n">
         <v>50</v>
       </c>
-      <c r="D127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -6541,7 +6465,6 @@
       <c r="C128" t="n">
         <v>50</v>
       </c>
-      <c r="D128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -6553,7 +6476,6 @@
       <c r="C129" t="n">
         <v>50</v>
       </c>
-      <c r="D129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -6565,7 +6487,6 @@
       <c r="C130" t="n">
         <v>50</v>
       </c>
-      <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -6577,7 +6498,6 @@
       <c r="C131" t="n">
         <v>50</v>
       </c>
-      <c r="D131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -6589,7 +6509,6 @@
       <c r="C132" t="n">
         <v>50</v>
       </c>
-      <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -6601,7 +6520,6 @@
       <c r="C133" t="n">
         <v>50</v>
       </c>
-      <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -6613,7 +6531,6 @@
       <c r="C134" t="n">
         <v>50</v>
       </c>
-      <c r="D134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -6625,7 +6542,6 @@
       <c r="C135" t="n">
         <v>50</v>
       </c>
-      <c r="D135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -6637,7 +6553,6 @@
       <c r="C136" t="n">
         <v>50</v>
       </c>
-      <c r="D136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -6649,7 +6564,6 @@
       <c r="C137" t="n">
         <v>50</v>
       </c>
-      <c r="D137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -6661,7 +6575,6 @@
       <c r="C138" t="n">
         <v>50</v>
       </c>
-      <c r="D138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -6673,7 +6586,6 @@
       <c r="C139" t="n">
         <v>50</v>
       </c>
-      <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -6685,7 +6597,6 @@
       <c r="C140" t="n">
         <v>50</v>
       </c>
-      <c r="D140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -6697,7 +6608,6 @@
       <c r="C141" t="n">
         <v>50</v>
       </c>
-      <c r="D141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -6709,7 +6619,6 @@
       <c r="C142" t="n">
         <v>50</v>
       </c>
-      <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -6721,7 +6630,6 @@
       <c r="C143" t="n">
         <v>50</v>
       </c>
-      <c r="D143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -6733,7 +6641,6 @@
       <c r="C144" t="n">
         <v>50</v>
       </c>
-      <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -6745,7 +6652,6 @@
       <c r="C145" t="n">
         <v>50</v>
       </c>
-      <c r="D145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -6757,7 +6663,6 @@
       <c r="C146" t="n">
         <v>50</v>
       </c>
-      <c r="D146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -6769,7 +6674,6 @@
       <c r="C147" t="n">
         <v>50</v>
       </c>
-      <c r="D147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -6781,7 +6685,6 @@
       <c r="C148" t="n">
         <v>50</v>
       </c>
-      <c r="D148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -6793,7 +6696,6 @@
       <c r="C149" t="n">
         <v>50</v>
       </c>
-      <c r="D149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -6805,7 +6707,6 @@
       <c r="C150" t="n">
         <v>50</v>
       </c>
-      <c r="D150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -6817,7 +6718,6 @@
       <c r="C151" t="n">
         <v>50</v>
       </c>
-      <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -6829,7 +6729,6 @@
       <c r="C152" t="n">
         <v>50</v>
       </c>
-      <c r="D152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -6841,7 +6740,6 @@
       <c r="C153" t="n">
         <v>50</v>
       </c>
-      <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -6853,7 +6751,6 @@
       <c r="C154" t="n">
         <v>50</v>
       </c>
-      <c r="D154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -6865,7 +6762,6 @@
       <c r="C155" t="n">
         <v>50</v>
       </c>
-      <c r="D155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -6877,7 +6773,6 @@
       <c r="C156" t="n">
         <v>50</v>
       </c>
-      <c r="D156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -6889,7 +6784,6 @@
       <c r="C157" t="n">
         <v>50</v>
       </c>
-      <c r="D157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -6901,7 +6795,6 @@
       <c r="C158" t="n">
         <v>50</v>
       </c>
-      <c r="D158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -6913,7 +6806,6 @@
       <c r="C159" t="n">
         <v>50</v>
       </c>
-      <c r="D159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -6925,7 +6817,6 @@
       <c r="C160" t="n">
         <v>50</v>
       </c>
-      <c r="D160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -6937,7 +6828,6 @@
       <c r="C161" t="n">
         <v>50</v>
       </c>
-      <c r="D161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -6949,7 +6839,6 @@
       <c r="C162" t="n">
         <v>50</v>
       </c>
-      <c r="D162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -6961,7 +6850,6 @@
       <c r="C163" t="n">
         <v>50</v>
       </c>
-      <c r="D163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -6973,7 +6861,6 @@
       <c r="C164" t="n">
         <v>50</v>
       </c>
-      <c r="D164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -6985,7 +6872,6 @@
       <c r="C165" t="n">
         <v>50</v>
       </c>
-      <c r="D165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -6997,7 +6883,6 @@
       <c r="C166" t="n">
         <v>50</v>
       </c>
-      <c r="D166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -7009,7 +6894,6 @@
       <c r="C167" t="n">
         <v>50</v>
       </c>
-      <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -7021,7 +6905,6 @@
       <c r="C168" t="n">
         <v>50</v>
       </c>
-      <c r="D168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -7033,7 +6916,6 @@
       <c r="C169" t="n">
         <v>50</v>
       </c>
-      <c r="D169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -7045,7 +6927,6 @@
       <c r="C170" t="n">
         <v>50</v>
       </c>
-      <c r="D170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -7057,7 +6938,6 @@
       <c r="C171" t="n">
         <v>50</v>
       </c>
-      <c r="D171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -7069,7 +6949,6 @@
       <c r="C172" t="n">
         <v>50</v>
       </c>
-      <c r="D172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -7081,7 +6960,6 @@
       <c r="C173" t="n">
         <v>50</v>
       </c>
-      <c r="D173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -7093,7 +6971,6 @@
       <c r="C174" t="n">
         <v>50</v>
       </c>
-      <c r="D174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -7105,7 +6982,6 @@
       <c r="C175" t="n">
         <v>50</v>
       </c>
-      <c r="D175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -7117,7 +6993,6 @@
       <c r="C176" t="n">
         <v>50</v>
       </c>
-      <c r="D176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -7129,7 +7004,6 @@
       <c r="C177" t="n">
         <v>50</v>
       </c>
-      <c r="D177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -7141,7 +7015,6 @@
       <c r="C178" t="n">
         <v>50</v>
       </c>
-      <c r="D178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -7153,7 +7026,6 @@
       <c r="C179" t="n">
         <v>50</v>
       </c>
-      <c r="D179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -7165,7 +7037,6 @@
       <c r="C180" t="n">
         <v>50</v>
       </c>
-      <c r="D180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -7177,7 +7048,6 @@
       <c r="C181" t="n">
         <v>50</v>
       </c>
-      <c r="D181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -7189,7 +7059,6 @@
       <c r="C182" t="n">
         <v>50</v>
       </c>
-      <c r="D182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -7201,7 +7070,6 @@
       <c r="C183" t="n">
         <v>50</v>
       </c>
-      <c r="D183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -7213,7 +7081,6 @@
       <c r="C184" t="n">
         <v>50</v>
       </c>
-      <c r="D184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -7225,7 +7092,6 @@
       <c r="C185" t="n">
         <v>50</v>
       </c>
-      <c r="D185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -7237,7 +7103,6 @@
       <c r="C186" t="n">
         <v>50</v>
       </c>
-      <c r="D186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -7249,7 +7114,6 @@
       <c r="C187" t="n">
         <v>50</v>
       </c>
-      <c r="D187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -7261,7 +7125,6 @@
       <c r="C188" t="n">
         <v>50</v>
       </c>
-      <c r="D188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -7273,7 +7136,6 @@
       <c r="C189" t="n">
         <v>50</v>
       </c>
-      <c r="D189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -7285,7 +7147,6 @@
       <c r="C190" t="n">
         <v>50</v>
       </c>
-      <c r="D190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -7297,7 +7158,6 @@
       <c r="C191" t="n">
         <v>50</v>
       </c>
-      <c r="D191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -7309,7 +7169,6 @@
       <c r="C192" t="n">
         <v>50</v>
       </c>
-      <c r="D192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -7321,7 +7180,6 @@
       <c r="C193" t="n">
         <v>50</v>
       </c>
-      <c r="D193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -7333,7 +7191,6 @@
       <c r="C194" t="n">
         <v>50</v>
       </c>
-      <c r="D194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -7345,7 +7202,6 @@
       <c r="C195" t="n">
         <v>50</v>
       </c>
-      <c r="D195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -7357,7 +7213,6 @@
       <c r="C196" t="n">
         <v>50</v>
       </c>
-      <c r="D196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -7369,7 +7224,6 @@
       <c r="C197" t="n">
         <v>50</v>
       </c>
-      <c r="D197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -7381,7 +7235,6 @@
       <c r="C198" t="n">
         <v>50</v>
       </c>
-      <c r="D198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -7393,7 +7246,6 @@
       <c r="C199" t="n">
         <v>50</v>
       </c>
-      <c r="D199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -7405,7 +7257,6 @@
       <c r="C200" t="n">
         <v>50</v>
       </c>
-      <c r="D200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -7417,7 +7268,6 @@
       <c r="C201" t="n">
         <v>50</v>
       </c>
-      <c r="D201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -7429,7 +7279,6 @@
       <c r="C202" t="n">
         <v>50</v>
       </c>
-      <c r="D202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -7441,7 +7290,6 @@
       <c r="C203" t="n">
         <v>50</v>
       </c>
-      <c r="D203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -7453,7 +7301,6 @@
       <c r="C204" t="n">
         <v>50</v>
       </c>
-      <c r="D204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -7465,7 +7312,6 @@
       <c r="C205" t="n">
         <v>50</v>
       </c>
-      <c r="D205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -7477,7 +7323,6 @@
       <c r="C206" t="n">
         <v>50</v>
       </c>
-      <c r="D206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -7489,7 +7334,6 @@
       <c r="C207" t="n">
         <v>50</v>
       </c>
-      <c r="D207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -7501,7 +7345,6 @@
       <c r="C208" t="n">
         <v>50</v>
       </c>
-      <c r="D208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -7513,7 +7356,6 @@
       <c r="C209" t="n">
         <v>50</v>
       </c>
-      <c r="D209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -7525,7 +7367,6 @@
       <c r="C210" t="n">
         <v>50</v>
       </c>
-      <c r="D210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -7537,7 +7378,6 @@
       <c r="C211" t="n">
         <v>50</v>
       </c>
-      <c r="D211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -7549,7 +7389,6 @@
       <c r="C212" t="n">
         <v>50</v>
       </c>
-      <c r="D212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -7561,7 +7400,6 @@
       <c r="C213" t="n">
         <v>50</v>
       </c>
-      <c r="D213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -7573,7 +7411,6 @@
       <c r="C214" t="n">
         <v>50</v>
       </c>
-      <c r="D214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -7585,7 +7422,6 @@
       <c r="C215" t="n">
         <v>50</v>
       </c>
-      <c r="D215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -7597,7 +7433,6 @@
       <c r="C216" t="n">
         <v>50</v>
       </c>
-      <c r="D216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -7609,7 +7444,6 @@
       <c r="C217" t="n">
         <v>50</v>
       </c>
-      <c r="D217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -7621,7 +7455,6 @@
       <c r="C218" t="n">
         <v>50</v>
       </c>
-      <c r="D218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -7633,7 +7466,6 @@
       <c r="C219" t="n">
         <v>50</v>
       </c>
-      <c r="D219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -7645,7 +7477,6 @@
       <c r="C220" t="n">
         <v>50</v>
       </c>
-      <c r="D220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -7657,7 +7488,6 @@
       <c r="C221" t="n">
         <v>50</v>
       </c>
-      <c r="D221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -7669,7 +7499,6 @@
       <c r="C222" t="n">
         <v>50</v>
       </c>
-      <c r="D222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -7681,7 +7510,6 @@
       <c r="C223" t="n">
         <v>50</v>
       </c>
-      <c r="D223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -7693,7 +7521,6 @@
       <c r="C224" t="n">
         <v>50</v>
       </c>
-      <c r="D224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -7705,7 +7532,6 @@
       <c r="C225" t="n">
         <v>50</v>
       </c>
-      <c r="D225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -7717,7 +7543,6 @@
       <c r="C226" t="n">
         <v>50</v>
       </c>
-      <c r="D226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -7729,7 +7554,6 @@
       <c r="C227" t="n">
         <v>50</v>
       </c>
-      <c r="D227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -7741,7 +7565,6 @@
       <c r="C228" t="n">
         <v>50</v>
       </c>
-      <c r="D228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -7753,7 +7576,6 @@
       <c r="C229" t="n">
         <v>50</v>
       </c>
-      <c r="D229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -7765,7 +7587,6 @@
       <c r="C230" t="n">
         <v>50</v>
       </c>
-      <c r="D230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -7777,7 +7598,6 @@
       <c r="C231" t="n">
         <v>50</v>
       </c>
-      <c r="D231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -7789,7 +7609,6 @@
       <c r="C232" t="n">
         <v>50</v>
       </c>
-      <c r="D232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -7801,7 +7620,6 @@
       <c r="C233" t="n">
         <v>50</v>
       </c>
-      <c r="D233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -7813,7 +7631,6 @@
       <c r="C234" t="n">
         <v>50</v>
       </c>
-      <c r="D234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -7825,7 +7642,6 @@
       <c r="C235" t="n">
         <v>50</v>
       </c>
-      <c r="D235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -7837,7 +7653,6 @@
       <c r="C236" t="n">
         <v>50</v>
       </c>
-      <c r="D236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -7849,7 +7664,6 @@
       <c r="C237" t="n">
         <v>50</v>
       </c>
-      <c r="D237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -7861,7 +7675,6 @@
       <c r="C238" t="n">
         <v>50</v>
       </c>
-      <c r="D238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -7873,7 +7686,6 @@
       <c r="C239" t="n">
         <v>50</v>
       </c>
-      <c r="D239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -7885,7 +7697,6 @@
       <c r="C240" t="n">
         <v>50</v>
       </c>
-      <c r="D240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -7897,7 +7708,6 @@
       <c r="C241" t="n">
         <v>50</v>
       </c>
-      <c r="D241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -7909,7 +7719,6 @@
       <c r="C242" t="n">
         <v>50</v>
       </c>
-      <c r="D242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -7921,7 +7730,6 @@
       <c r="C243" t="n">
         <v>50</v>
       </c>
-      <c r="D243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -7933,7 +7741,6 @@
       <c r="C244" t="n">
         <v>50</v>
       </c>
-      <c r="D244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -7945,7 +7752,6 @@
       <c r="C245" t="n">
         <v>50</v>
       </c>
-      <c r="D245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -7957,7 +7763,6 @@
       <c r="C246" t="n">
         <v>50</v>
       </c>
-      <c r="D246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -7969,7 +7774,6 @@
       <c r="C247" t="n">
         <v>50</v>
       </c>
-      <c r="D247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -7981,7 +7785,6 @@
       <c r="C248" t="n">
         <v>50</v>
       </c>
-      <c r="D248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -7993,7 +7796,6 @@
       <c r="C249" t="n">
         <v>50</v>
       </c>
-      <c r="D249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -8005,7 +7807,6 @@
       <c r="C250" t="n">
         <v>50</v>
       </c>
-      <c r="D250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -8017,7 +7818,6 @@
       <c r="C251" t="n">
         <v>50</v>
       </c>
-      <c r="D251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -8029,7 +7829,6 @@
       <c r="C252" t="n">
         <v>50</v>
       </c>
-      <c r="D252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -8041,7 +7840,6 @@
       <c r="C253" t="n">
         <v>50</v>
       </c>
-      <c r="D253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -8053,7 +7851,6 @@
       <c r="C254" t="n">
         <v>50</v>
       </c>
-      <c r="D254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -8065,7 +7862,6 @@
       <c r="C255" t="n">
         <v>50</v>
       </c>
-      <c r="D255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -8077,7 +7873,6 @@
       <c r="C256" t="n">
         <v>50</v>
       </c>
-      <c r="D256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -8089,7 +7884,6 @@
       <c r="C257" t="n">
         <v>50</v>
       </c>
-      <c r="D257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -8101,7 +7895,6 @@
       <c r="C258" t="n">
         <v>50</v>
       </c>
-      <c r="D258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -8113,7 +7906,6 @@
       <c r="C259" t="n">
         <v>50</v>
       </c>
-      <c r="D259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -8125,7 +7917,6 @@
       <c r="C260" t="n">
         <v>50</v>
       </c>
-      <c r="D260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -8137,7 +7928,6 @@
       <c r="C261" t="n">
         <v>50</v>
       </c>
-      <c r="D261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -8149,7 +7939,6 @@
       <c r="C262" t="n">
         <v>50</v>
       </c>
-      <c r="D262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -8161,7 +7950,4736 @@
       <c r="C263" t="n">
         <v>50</v>
       </c>
-      <c r="D263" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.0006248950958251953</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>180</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(B$2:B$10000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.05462884902954102</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.08172893524169922</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.1047768592834473</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.1265699863433838</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.1497337818145752</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.1720290184020996</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.1945059299468994</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.2180178165435791</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.2407338619232178</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.2633748054504395</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.2871708869934082</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.3101849555969238</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.3331179618835449</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.3571338653564453</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.3797917366027832</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.4022190570831299</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.4258828163146973</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.4488399028778076</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.471707820892334</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.4959778785705566</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.5189778804779053</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.542158842086792</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.5662248134613037</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.5899977684020996</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.6131448745727539</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.6372747421264648</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.6610140800476074</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.6844828128814697</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.7087528705596924</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.7536487579345703</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.7863309383392334</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.8097598552703857</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.8349277973175049</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.8585517406463623</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.8824248313903809</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.9081249237060547</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.9319348335266113</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.956547737121582</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.9817879199981689</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1.006558895111084</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1.030719995498657</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1.056936979293823</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1.081301927566528</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1.106292963027954</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1.131777763366699</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3</v>
+      </c>
+      <c r="C47" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1.156545877456665</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3</v>
+      </c>
+      <c r="C48" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1.181007862091064</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1.207234859466553</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3</v>
+      </c>
+      <c r="C50" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1.232643842697144</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3</v>
+      </c>
+      <c r="C51" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1.257118940353394</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1.283627986907959</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1.308432817459106</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1.333786964416504</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3</v>
+      </c>
+      <c r="C55" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1.35993504524231</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3</v>
+      </c>
+      <c r="C56" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1.393885850906372</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3</v>
+      </c>
+      <c r="C57" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1.42028284072876</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
+      <c r="C58" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1.449729681015015</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1.475637912750244</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
+      </c>
+      <c r="C60" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1.501353025436401</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3</v>
+      </c>
+      <c r="C61" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1.528754949569702</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1.552377939224243</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3</v>
+      </c>
+      <c r="C63" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1.576401948928833</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3</v>
+      </c>
+      <c r="C64" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1.625227928161621</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3</v>
+      </c>
+      <c r="C65" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1.649336814880371</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3</v>
+      </c>
+      <c r="C66" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1.674260854721069</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3</v>
+      </c>
+      <c r="C67" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1.698585748672485</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3</v>
+      </c>
+      <c r="C68" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1.723461866378784</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1.747897863388062</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3</v>
+      </c>
+      <c r="C70" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1.773323059082031</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3</v>
+      </c>
+      <c r="C71" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1.797793865203857</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3</v>
+      </c>
+      <c r="C72" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1.822320938110352</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3</v>
+      </c>
+      <c r="C73" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1.847691059112549</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3</v>
+      </c>
+      <c r="C74" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1.872783899307251</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3</v>
+      </c>
+      <c r="C75" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1.900652885437012</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3</v>
+      </c>
+      <c r="C76" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1.925008773803711</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3</v>
+      </c>
+      <c r="C77" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1.950098991394043</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3</v>
+      </c>
+      <c r="C78" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1.974720001220703</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3</v>
+      </c>
+      <c r="C79" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2.000041961669922</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3</v>
+      </c>
+      <c r="C80" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2.024905920028687</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3</v>
+      </c>
+      <c r="C81" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2.050172805786133</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3</v>
+      </c>
+      <c r="C82" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2.074896812438965</v>
+      </c>
+      <c r="B83" t="n">
+        <v>3</v>
+      </c>
+      <c r="C83" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2.14531683921814</v>
+      </c>
+      <c r="B84" t="n">
+        <v>3</v>
+      </c>
+      <c r="C84" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2.266619920730591</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3</v>
+      </c>
+      <c r="C85" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2.369895935058594</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3</v>
+      </c>
+      <c r="C86" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2.470232725143433</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3</v>
+      </c>
+      <c r="C87" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2.584717750549316</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3</v>
+      </c>
+      <c r="C88" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2.706349849700928</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3</v>
+      </c>
+      <c r="C89" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2.777642965316772</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2.895251989364624</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3</v>
+      </c>
+      <c r="C91" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2.996859788894653</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3</v>
+      </c>
+      <c r="C92" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>3.102916955947876</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3</v>
+      </c>
+      <c r="C93" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>3.21169376373291</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+      <c r="C94" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>3.314624071121216</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3</v>
+      </c>
+      <c r="C95" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>3.415775060653687</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3</v>
+      </c>
+      <c r="C96" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>3.527318954467773</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3</v>
+      </c>
+      <c r="C97" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>3.630914688110352</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3</v>
+      </c>
+      <c r="C98" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>3.73016095161438</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3</v>
+      </c>
+      <c r="C99" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>3.843133926391602</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3</v>
+      </c>
+      <c r="C100" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>3.944822788238525</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3</v>
+      </c>
+      <c r="C101" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>4.042404890060425</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3</v>
+      </c>
+      <c r="C102" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>4.158446788787842</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3</v>
+      </c>
+      <c r="C103" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>4.256705760955811</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3</v>
+      </c>
+      <c r="C104" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>4.357825756072998</v>
+      </c>
+      <c r="B105" t="n">
+        <v>3</v>
+      </c>
+      <c r="C105" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>4.475140810012817</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3</v>
+      </c>
+      <c r="C106" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>4.570474863052368</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
+      <c r="C107" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>4.673907995223999</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3</v>
+      </c>
+      <c r="C108" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>4.774551868438721</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3</v>
+      </c>
+      <c r="C109" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>4.890377998352051</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3</v>
+      </c>
+      <c r="C110" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>4.987996816635132</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3</v>
+      </c>
+      <c r="C111" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>5.116222858428955</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3</v>
+      </c>
+      <c r="C112" t="n">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D118"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.000659942626953125</v>
+      </c>
+      <c r="B2" t="n">
+        <v>19.53082</v>
+      </c>
+      <c r="C2" t="n">
+        <v>180</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(B$2:B$10000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.3207418918609619</v>
+      </c>
+      <c r="B3" t="n">
+        <v>19.55992</v>
+      </c>
+      <c r="C3" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.3449931144714355</v>
+      </c>
+      <c r="B4" t="n">
+        <v>19.59265</v>
+      </c>
+      <c r="C4" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.3672771453857422</v>
+      </c>
+      <c r="B5" t="n">
+        <v>19.62902</v>
+      </c>
+      <c r="C5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.3900289535522461</v>
+      </c>
+      <c r="B6" t="n">
+        <v>19.68358</v>
+      </c>
+      <c r="C6" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.4117329120635986</v>
+      </c>
+      <c r="B7" t="n">
+        <v>19.7345</v>
+      </c>
+      <c r="C7" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.4336609840393066</v>
+      </c>
+      <c r="B8" t="n">
+        <v>19.77087</v>
+      </c>
+      <c r="C8" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.4558498859405518</v>
+      </c>
+      <c r="B9" t="n">
+        <v>19.80724</v>
+      </c>
+      <c r="C9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.4772958755493164</v>
+      </c>
+      <c r="B10" t="n">
+        <v>19.82179</v>
+      </c>
+      <c r="C10" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.4988029003143311</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19.82542</v>
+      </c>
+      <c r="C11" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.5331039428710938</v>
+      </c>
+      <c r="B12" t="n">
+        <v>19.81087</v>
+      </c>
+      <c r="C12" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.5548050403594971</v>
+      </c>
+      <c r="B13" t="n">
+        <v>19.79633</v>
+      </c>
+      <c r="C13" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.5766060352325439</v>
+      </c>
+      <c r="B14" t="n">
+        <v>19.76723</v>
+      </c>
+      <c r="C14" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.5990190505981445</v>
+      </c>
+      <c r="B15" t="n">
+        <v>19.71995</v>
+      </c>
+      <c r="C15" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.621013879776001</v>
+      </c>
+      <c r="B16" t="n">
+        <v>19.6763</v>
+      </c>
+      <c r="C16" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.642733097076416</v>
+      </c>
+      <c r="B17" t="n">
+        <v>19.66903</v>
+      </c>
+      <c r="C17" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.6654388904571533</v>
+      </c>
+      <c r="B18" t="n">
+        <v>19.69449</v>
+      </c>
+      <c r="C18" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.7035629749298096</v>
+      </c>
+      <c r="B19" t="n">
+        <v>19.68721</v>
+      </c>
+      <c r="C19" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.7255070209503174</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19.6763</v>
+      </c>
+      <c r="C20" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.7491457462310791</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19.67994</v>
+      </c>
+      <c r="C21" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.7716898918151855</v>
+      </c>
+      <c r="B22" t="n">
+        <v>19.70176</v>
+      </c>
+      <c r="C22" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.7934808731079102</v>
+      </c>
+      <c r="B23" t="n">
+        <v>19.69085</v>
+      </c>
+      <c r="C23" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.8167939186096191</v>
+      </c>
+      <c r="B24" t="n">
+        <v>19.67994</v>
+      </c>
+      <c r="C24" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.8394029140472412</v>
+      </c>
+      <c r="B25" t="n">
+        <v>19.64721</v>
+      </c>
+      <c r="C25" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.8613760471343994</v>
+      </c>
+      <c r="B26" t="n">
+        <v>19.61084</v>
+      </c>
+      <c r="C26" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.8849678039550781</v>
+      </c>
+      <c r="B27" t="n">
+        <v>19.55265</v>
+      </c>
+      <c r="C27" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.9075849056243896</v>
+      </c>
+      <c r="B28" t="n">
+        <v>19.50173</v>
+      </c>
+      <c r="C28" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.9303648471832275</v>
+      </c>
+      <c r="B29" t="n">
+        <v>19.48718</v>
+      </c>
+      <c r="C29" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.9543108940124512</v>
+      </c>
+      <c r="B30" t="n">
+        <v>19.53082</v>
+      </c>
+      <c r="C30" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.977017879486084</v>
+      </c>
+      <c r="B31" t="n">
+        <v>19.57447</v>
+      </c>
+      <c r="C31" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.9995310306549072</v>
+      </c>
+      <c r="B32" t="n">
+        <v>19.59265</v>
+      </c>
+      <c r="C32" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1.023683071136475</v>
+      </c>
+      <c r="B33" t="n">
+        <v>19.61084</v>
+      </c>
+      <c r="C33" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1.046946048736572</v>
+      </c>
+      <c r="B34" t="n">
+        <v>19.64357</v>
+      </c>
+      <c r="C34" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1.069978952407837</v>
+      </c>
+      <c r="B35" t="n">
+        <v>19.65812</v>
+      </c>
+      <c r="C35" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1.094215869903564</v>
+      </c>
+      <c r="B36" t="n">
+        <v>19.66903</v>
+      </c>
+      <c r="C36" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1.117377996444702</v>
+      </c>
+      <c r="B37" t="n">
+        <v>19.70176</v>
+      </c>
+      <c r="C37" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1.140403032302856</v>
+      </c>
+      <c r="B38" t="n">
+        <v>19.7345</v>
+      </c>
+      <c r="C38" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1.164743900299072</v>
+      </c>
+      <c r="B39" t="n">
+        <v>19.73813</v>
+      </c>
+      <c r="C39" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1.188215017318726</v>
+      </c>
+      <c r="B40" t="n">
+        <v>19.69085</v>
+      </c>
+      <c r="C40" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1.212452173233032</v>
+      </c>
+      <c r="B41" t="n">
+        <v>19.62539</v>
+      </c>
+      <c r="C41" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1.237528085708618</v>
+      </c>
+      <c r="B42" t="n">
+        <v>19.56719</v>
+      </c>
+      <c r="C42" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1.260931968688965</v>
+      </c>
+      <c r="B43" t="n">
+        <v>19.52355</v>
+      </c>
+      <c r="C43" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1.307143926620483</v>
+      </c>
+      <c r="B44" t="n">
+        <v>19.50173</v>
+      </c>
+      <c r="C44" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1.330587863922119</v>
+      </c>
+      <c r="B45" t="n">
+        <v>19.54537</v>
+      </c>
+      <c r="C45" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1.354912996292114</v>
+      </c>
+      <c r="B46" t="n">
+        <v>19.59629</v>
+      </c>
+      <c r="C46" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1.378813982009888</v>
+      </c>
+      <c r="B47" t="n">
+        <v>19.65085</v>
+      </c>
+      <c r="C47" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1.402688026428223</v>
+      </c>
+      <c r="B48" t="n">
+        <v>19.66539</v>
+      </c>
+      <c r="C48" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1.427615880966187</v>
+      </c>
+      <c r="B49" t="n">
+        <v>19.64721</v>
+      </c>
+      <c r="C49" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1.451440811157227</v>
+      </c>
+      <c r="B50" t="n">
+        <v>19.65085</v>
+      </c>
+      <c r="C50" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1.47620677947998</v>
+      </c>
+      <c r="B51" t="n">
+        <v>19.66176</v>
+      </c>
+      <c r="C51" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1.500133752822876</v>
+      </c>
+      <c r="B52" t="n">
+        <v>19.62902</v>
+      </c>
+      <c r="C52" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1.524533987045288</v>
+      </c>
+      <c r="B53" t="n">
+        <v>19.56719</v>
+      </c>
+      <c r="C53" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1.549559116363525</v>
+      </c>
+      <c r="B54" t="n">
+        <v>19.51627</v>
+      </c>
+      <c r="C54" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1.573868989944458</v>
+      </c>
+      <c r="B55" t="n">
+        <v>19.49809</v>
+      </c>
+      <c r="C55" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1.598745107650757</v>
+      </c>
+      <c r="B56" t="n">
+        <v>19.46172</v>
+      </c>
+      <c r="C56" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1.62290096282959</v>
+      </c>
+      <c r="B57" t="n">
+        <v>19.42535</v>
+      </c>
+      <c r="C57" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1.647237777709961</v>
+      </c>
+      <c r="B58" t="n">
+        <v>19.42535</v>
+      </c>
+      <c r="C58" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1.672420740127563</v>
+      </c>
+      <c r="B59" t="n">
+        <v>19.48354</v>
+      </c>
+      <c r="C59" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1.697220087051392</v>
+      </c>
+      <c r="B60" t="n">
+        <v>19.55265</v>
+      </c>
+      <c r="C60" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1.722478151321411</v>
+      </c>
+      <c r="B61" t="n">
+        <v>19.63266</v>
+      </c>
+      <c r="C61" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1.746886968612671</v>
+      </c>
+      <c r="B62" t="n">
+        <v>19.66176</v>
+      </c>
+      <c r="C62" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1.770825862884521</v>
+      </c>
+      <c r="B63" t="n">
+        <v>19.62902</v>
+      </c>
+      <c r="C63" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1.794161796569824</v>
+      </c>
+      <c r="B64" t="n">
+        <v>19.60356</v>
+      </c>
+      <c r="C64" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1.817217111587524</v>
+      </c>
+      <c r="B65" t="n">
+        <v>19.56356</v>
+      </c>
+      <c r="C65" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1.843893051147461</v>
+      </c>
+      <c r="B66" t="n">
+        <v>19.54173</v>
+      </c>
+      <c r="C66" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1.868392944335938</v>
+      </c>
+      <c r="B67" t="n">
+        <v>19.54173</v>
+      </c>
+      <c r="C67" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1.893123149871826</v>
+      </c>
+      <c r="B68" t="n">
+        <v>19.53446</v>
+      </c>
+      <c r="C68" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1.916910886764526</v>
+      </c>
+      <c r="B69" t="n">
+        <v>19.52355</v>
+      </c>
+      <c r="C69" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1.940345048904419</v>
+      </c>
+      <c r="B70" t="n">
+        <v>19.52719</v>
+      </c>
+      <c r="C70" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1.987780809402466</v>
+      </c>
+      <c r="B71" t="n">
+        <v>19.56719</v>
+      </c>
+      <c r="C71" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2.011320114135742</v>
+      </c>
+      <c r="B72" t="n">
+        <v>19.59265</v>
+      </c>
+      <c r="C72" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2.035876035690308</v>
+      </c>
+      <c r="B73" t="n">
+        <v>19.59993</v>
+      </c>
+      <c r="C73" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2.059571981430054</v>
+      </c>
+      <c r="B74" t="n">
+        <v>19.58901</v>
+      </c>
+      <c r="C74" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2.083565950393677</v>
+      </c>
+      <c r="B75" t="n">
+        <v>19.64357</v>
+      </c>
+      <c r="C75" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2.108038902282715</v>
+      </c>
+      <c r="B76" t="n">
+        <v>19.66539</v>
+      </c>
+      <c r="C76" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2.131871938705444</v>
+      </c>
+      <c r="B77" t="n">
+        <v>19.65085</v>
+      </c>
+      <c r="C77" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2.156303882598877</v>
+      </c>
+      <c r="B78" t="n">
+        <v>19.61084</v>
+      </c>
+      <c r="C78" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2.180264949798584</v>
+      </c>
+      <c r="B79" t="n">
+        <v>19.58174</v>
+      </c>
+      <c r="C79" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2.204087972640991</v>
+      </c>
+      <c r="B80" t="n">
+        <v>19.60356</v>
+      </c>
+      <c r="C80" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2.228825092315674</v>
+      </c>
+      <c r="B81" t="n">
+        <v>19.63993</v>
+      </c>
+      <c r="C81" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2.252941131591797</v>
+      </c>
+      <c r="B82" t="n">
+        <v>19.62539</v>
+      </c>
+      <c r="C82" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2.278076887130737</v>
+      </c>
+      <c r="B83" t="n">
+        <v>19.61447</v>
+      </c>
+      <c r="C83" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2.317673921585083</v>
+      </c>
+      <c r="B84" t="n">
+        <v>19.63993</v>
+      </c>
+      <c r="C84" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2.341851949691772</v>
+      </c>
+      <c r="B85" t="n">
+        <v>19.63266</v>
+      </c>
+      <c r="C85" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2.367059946060181</v>
+      </c>
+      <c r="B86" t="n">
+        <v>19.59629</v>
+      </c>
+      <c r="C86" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2.390934944152832</v>
+      </c>
+      <c r="B87" t="n">
+        <v>19.5781</v>
+      </c>
+      <c r="C87" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2.416677951812744</v>
+      </c>
+      <c r="B88" t="n">
+        <v>19.58174</v>
+      </c>
+      <c r="C88" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2.443315029144287</v>
+      </c>
+      <c r="B89" t="n">
+        <v>19.55992</v>
+      </c>
+      <c r="C89" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2.467391014099121</v>
+      </c>
+      <c r="B90" t="n">
+        <v>19.52719</v>
+      </c>
+      <c r="C90" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2.493244886398315</v>
+      </c>
+      <c r="B91" t="n">
+        <v>19.54901</v>
+      </c>
+      <c r="C91" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2.516980886459351</v>
+      </c>
+      <c r="B92" t="n">
+        <v>19.59265</v>
+      </c>
+      <c r="C92" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2.54217791557312</v>
+      </c>
+      <c r="B93" t="n">
+        <v>19.55628</v>
+      </c>
+      <c r="C93" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2.566314935684204</v>
+      </c>
+      <c r="B94" t="n">
+        <v>19.54173</v>
+      </c>
+      <c r="C94" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2.656217813491821</v>
+      </c>
+      <c r="B95" t="n">
+        <v>19.54173</v>
+      </c>
+      <c r="C95" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>2.761423826217651</v>
+      </c>
+      <c r="B96" t="n">
+        <v>19.55265</v>
+      </c>
+      <c r="C96" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2.864481925964355</v>
+      </c>
+      <c r="B97" t="n">
+        <v>19.54901</v>
+      </c>
+      <c r="C97" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2.999619007110596</v>
+      </c>
+      <c r="B98" t="n">
+        <v>19.53446</v>
+      </c>
+      <c r="C98" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>3.072938919067383</v>
+      </c>
+      <c r="B99" t="n">
+        <v>19.51264</v>
+      </c>
+      <c r="C99" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>3.1787269115448</v>
+      </c>
+      <c r="B100" t="n">
+        <v>19.53082</v>
+      </c>
+      <c r="C100" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>3.293184995651245</v>
+      </c>
+      <c r="B101" t="n">
+        <v>19.5381</v>
+      </c>
+      <c r="C101" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>3.393447875976562</v>
+      </c>
+      <c r="B102" t="n">
+        <v>19.51264</v>
+      </c>
+      <c r="C102" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>3.498295068740845</v>
+      </c>
+      <c r="B103" t="n">
+        <v>19.509</v>
+      </c>
+      <c r="C103" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>3.598974943161011</v>
+      </c>
+      <c r="B104" t="n">
+        <v>19.53082</v>
+      </c>
+      <c r="C104" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>3.712924957275391</v>
+      </c>
+      <c r="B105" t="n">
+        <v>19.55992</v>
+      </c>
+      <c r="C105" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>3.811819076538086</v>
+      </c>
+      <c r="B106" t="n">
+        <v>19.59629</v>
+      </c>
+      <c r="C106" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>3.914186000823975</v>
+      </c>
+      <c r="B107" t="n">
+        <v>19.63266</v>
+      </c>
+      <c r="C107" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>4.01787281036377</v>
+      </c>
+      <c r="B108" t="n">
+        <v>19.67267</v>
+      </c>
+      <c r="C108" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>4.131407737731934</v>
+      </c>
+      <c r="B109" t="n">
+        <v>19.69085</v>
+      </c>
+      <c r="C109" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>4.231122016906738</v>
+      </c>
+      <c r="B110" t="n">
+        <v>19.66903</v>
+      </c>
+      <c r="C110" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>4.331830978393555</v>
+      </c>
+      <c r="B111" t="n">
+        <v>19.69085</v>
+      </c>
+      <c r="C111" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>4.448118925094604</v>
+      </c>
+      <c r="B112" t="n">
+        <v>19.71631</v>
+      </c>
+      <c r="C112" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>4.545673847198486</v>
+      </c>
+      <c r="B113" t="n">
+        <v>19.71267</v>
+      </c>
+      <c r="C113" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>4.64884614944458</v>
+      </c>
+      <c r="B114" t="n">
+        <v>19.7054</v>
+      </c>
+      <c r="C114" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>4.750296115875244</v>
+      </c>
+      <c r="B115" t="n">
+        <v>19.7054</v>
+      </c>
+      <c r="C115" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>4.866481781005859</v>
+      </c>
+      <c r="B116" t="n">
+        <v>19.70176</v>
+      </c>
+      <c r="C116" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>4.968004941940308</v>
+      </c>
+      <c r="B117" t="n">
+        <v>19.73086</v>
+      </c>
+      <c r="C117" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>5.064174175262451</v>
+      </c>
+      <c r="B118" t="n">
+        <v>19.75632</v>
+      </c>
+      <c r="C118" t="n">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D175"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.0005350112915039062</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8.252409999999999</v>
+      </c>
+      <c r="C2" t="n">
+        <v>70</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(B$2:B$10000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.05241703987121582</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8.24877</v>
+      </c>
+      <c r="C3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.08197712898254395</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8.252409999999999</v>
+      </c>
+      <c r="C4" t="n">
+        <v>70</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.1291861534118652</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8.230589999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.1534430980682373</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8.20513</v>
+      </c>
+      <c r="C6" t="n">
+        <v>70</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.1783599853515625</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.19422</v>
+      </c>
+      <c r="C7" t="n">
+        <v>70</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.2036149501800537</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8.19422</v>
+      </c>
+      <c r="C8" t="n">
+        <v>70</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.228783130645752</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8.176030000000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>70</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.2542290687561035</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8.16512</v>
+      </c>
+      <c r="C10" t="n">
+        <v>70</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.2789192199707031</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8.154210000000001</v>
+      </c>
+      <c r="C11" t="n">
+        <v>70</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.3037629127502441</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8.168760000000001</v>
+      </c>
+      <c r="C12" t="n">
+        <v>70</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.3290302753448486</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8.16512</v>
+      </c>
+      <c r="C13" t="n">
+        <v>70</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.353574275970459</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8.146940000000001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>70</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.377748966217041</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8.12875</v>
+      </c>
+      <c r="C15" t="n">
+        <v>70</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.4033112525939941</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8.1433</v>
+      </c>
+      <c r="C16" t="n">
+        <v>70</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.4280750751495361</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8.1433</v>
+      </c>
+      <c r="C17" t="n">
+        <v>70</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.4534320831298828</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8.117839999999999</v>
+      </c>
+      <c r="C18" t="n">
+        <v>70</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.4792530536651611</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8.10693</v>
+      </c>
+      <c r="C19" t="n">
+        <v>70</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.5045151710510254</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8.09238</v>
+      </c>
+      <c r="C20" t="n">
+        <v>70</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.5470981597900391</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8.08511</v>
+      </c>
+      <c r="C21" t="n">
+        <v>70</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.5719411373138428</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8.07419</v>
+      </c>
+      <c r="C22" t="n">
+        <v>70</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.597966194152832</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8.06692</v>
+      </c>
+      <c r="C23" t="n">
+        <v>70</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.6229381561279297</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8.06692</v>
+      </c>
+      <c r="C24" t="n">
+        <v>70</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.6475131511688232</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8.0451</v>
+      </c>
+      <c r="C25" t="n">
+        <v>70</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.67364501953125</v>
+      </c>
+      <c r="B26" t="n">
+        <v>8.005089999999999</v>
+      </c>
+      <c r="C26" t="n">
+        <v>70</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.6990470886230469</v>
+      </c>
+      <c r="B27" t="n">
+        <v>8.016</v>
+      </c>
+      <c r="C27" t="n">
+        <v>70</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.7244670391082764</v>
+      </c>
+      <c r="B28" t="n">
+        <v>8.03782</v>
+      </c>
+      <c r="C28" t="n">
+        <v>70</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.7498340606689453</v>
+      </c>
+      <c r="B29" t="n">
+        <v>8.06692</v>
+      </c>
+      <c r="C29" t="n">
+        <v>70</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.7753012180328369</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8.07419</v>
+      </c>
+      <c r="C30" t="n">
+        <v>70</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.8013250827789307</v>
+      </c>
+      <c r="B31" t="n">
+        <v>8.07419</v>
+      </c>
+      <c r="C31" t="n">
+        <v>70</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.827207088470459</v>
+      </c>
+      <c r="B32" t="n">
+        <v>8.07419</v>
+      </c>
+      <c r="C32" t="n">
+        <v>70</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.8802151679992676</v>
+      </c>
+      <c r="B33" t="n">
+        <v>8.07419</v>
+      </c>
+      <c r="C33" t="n">
+        <v>70</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.9055311679840088</v>
+      </c>
+      <c r="B34" t="n">
+        <v>8.063280000000001</v>
+      </c>
+      <c r="C34" t="n">
+        <v>70</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.9314560890197754</v>
+      </c>
+      <c r="B35" t="n">
+        <v>8.05237</v>
+      </c>
+      <c r="C35" t="n">
+        <v>70</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.9619152545928955</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8.06692</v>
+      </c>
+      <c r="C36" t="n">
+        <v>70</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.9873762130737305</v>
+      </c>
+      <c r="B37" t="n">
+        <v>8.056010000000001</v>
+      </c>
+      <c r="C37" t="n">
+        <v>70</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1.013647079467773</v>
+      </c>
+      <c r="B38" t="n">
+        <v>8.04874</v>
+      </c>
+      <c r="C38" t="n">
+        <v>70</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1.039050102233887</v>
+      </c>
+      <c r="B39" t="n">
+        <v>8.05965</v>
+      </c>
+      <c r="C39" t="n">
+        <v>70</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1.064671039581299</v>
+      </c>
+      <c r="B40" t="n">
+        <v>8.04874</v>
+      </c>
+      <c r="C40" t="n">
+        <v>70</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1.091567039489746</v>
+      </c>
+      <c r="B41" t="n">
+        <v>8.05965</v>
+      </c>
+      <c r="C41" t="n">
+        <v>70</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1.117379188537598</v>
+      </c>
+      <c r="B42" t="n">
+        <v>8.07056</v>
+      </c>
+      <c r="C42" t="n">
+        <v>70</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1.144098997116089</v>
+      </c>
+      <c r="B43" t="n">
+        <v>8.103289999999999</v>
+      </c>
+      <c r="C43" t="n">
+        <v>70</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1.169821977615356</v>
+      </c>
+      <c r="B44" t="n">
+        <v>8.1433</v>
+      </c>
+      <c r="C44" t="n">
+        <v>70</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1.196928977966309</v>
+      </c>
+      <c r="B45" t="n">
+        <v>8.161479999999999</v>
+      </c>
+      <c r="C45" t="n">
+        <v>70</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1.22298002243042</v>
+      </c>
+      <c r="B46" t="n">
+        <v>8.161479999999999</v>
+      </c>
+      <c r="C46" t="n">
+        <v>70</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1.248834133148193</v>
+      </c>
+      <c r="B47" t="n">
+        <v>8.15057</v>
+      </c>
+      <c r="C47" t="n">
+        <v>70</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1.276316165924072</v>
+      </c>
+      <c r="B48" t="n">
+        <v>8.13602</v>
+      </c>
+      <c r="C48" t="n">
+        <v>70</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1.302627086639404</v>
+      </c>
+      <c r="B49" t="n">
+        <v>8.1433</v>
+      </c>
+      <c r="C49" t="n">
+        <v>70</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1.329519033432007</v>
+      </c>
+      <c r="B50" t="n">
+        <v>8.168760000000001</v>
+      </c>
+      <c r="C50" t="n">
+        <v>70</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1.356196165084839</v>
+      </c>
+      <c r="B51" t="n">
+        <v>8.20513</v>
+      </c>
+      <c r="C51" t="n">
+        <v>70</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1.382167100906372</v>
+      </c>
+      <c r="B52" t="n">
+        <v>8.20876</v>
+      </c>
+      <c r="C52" t="n">
+        <v>70</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1.409841299057007</v>
+      </c>
+      <c r="B53" t="n">
+        <v>8.20513</v>
+      </c>
+      <c r="C53" t="n">
+        <v>70</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1.436428070068359</v>
+      </c>
+      <c r="B54" t="n">
+        <v>8.212400000000001</v>
+      </c>
+      <c r="C54" t="n">
+        <v>70</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1.463948011398315</v>
+      </c>
+      <c r="B55" t="n">
+        <v>8.2415</v>
+      </c>
+      <c r="C55" t="n">
+        <v>70</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1.490460157394409</v>
+      </c>
+      <c r="B56" t="n">
+        <v>8.245139999999999</v>
+      </c>
+      <c r="C56" t="n">
+        <v>70</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1.517997026443481</v>
+      </c>
+      <c r="B57" t="n">
+        <v>8.234220000000001</v>
+      </c>
+      <c r="C57" t="n">
+        <v>70</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1.544757127761841</v>
+      </c>
+      <c r="B58" t="n">
+        <v>8.23786</v>
+      </c>
+      <c r="C58" t="n">
+        <v>70</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1.574249029159546</v>
+      </c>
+      <c r="B59" t="n">
+        <v>8.234220000000001</v>
+      </c>
+      <c r="C59" t="n">
+        <v>70</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1.629433155059814</v>
+      </c>
+      <c r="B60" t="n">
+        <v>8.234220000000001</v>
+      </c>
+      <c r="C60" t="n">
+        <v>70</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1.656645059585571</v>
+      </c>
+      <c r="B61" t="n">
+        <v>8.230589999999999</v>
+      </c>
+      <c r="C61" t="n">
+        <v>70</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1.684573173522949</v>
+      </c>
+      <c r="B62" t="n">
+        <v>8.20513</v>
+      </c>
+      <c r="C62" t="n">
+        <v>70</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1.710874080657959</v>
+      </c>
+      <c r="B63" t="n">
+        <v>8.190580000000001</v>
+      </c>
+      <c r="C63" t="n">
+        <v>70</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1.737612009048462</v>
+      </c>
+      <c r="B64" t="n">
+        <v>8.190580000000001</v>
+      </c>
+      <c r="C64" t="n">
+        <v>70</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1.763548135757446</v>
+      </c>
+      <c r="B65" t="n">
+        <v>8.176030000000001</v>
+      </c>
+      <c r="C65" t="n">
+        <v>70</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1.790032148361206</v>
+      </c>
+      <c r="B66" t="n">
+        <v>8.183310000000001</v>
+      </c>
+      <c r="C66" t="n">
+        <v>70</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1.815642118453979</v>
+      </c>
+      <c r="B67" t="n">
+        <v>8.190580000000001</v>
+      </c>
+      <c r="C67" t="n">
+        <v>70</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1.842300176620483</v>
+      </c>
+      <c r="B68" t="n">
+        <v>8.16512</v>
+      </c>
+      <c r="C68" t="n">
+        <v>70</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1.868351936340332</v>
+      </c>
+      <c r="B69" t="n">
+        <v>8.132389999999999</v>
+      </c>
+      <c r="C69" t="n">
+        <v>70</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1.895175218582153</v>
+      </c>
+      <c r="B70" t="n">
+        <v>8.12875</v>
+      </c>
+      <c r="C70" t="n">
+        <v>70</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1.92094898223877</v>
+      </c>
+      <c r="B71" t="n">
+        <v>8.13602</v>
+      </c>
+      <c r="C71" t="n">
+        <v>70</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1.948440074920654</v>
+      </c>
+      <c r="B72" t="n">
+        <v>8.132389999999999</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1.974472045898438</v>
+      </c>
+      <c r="B73" t="n">
+        <v>8.1142</v>
+      </c>
+      <c r="C73" t="n">
+        <v>70</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2.001331090927124</v>
+      </c>
+      <c r="B74" t="n">
+        <v>8.13602</v>
+      </c>
+      <c r="C74" t="n">
+        <v>70</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2.027463912963867</v>
+      </c>
+      <c r="B75" t="n">
+        <v>8.146940000000001</v>
+      </c>
+      <c r="C75" t="n">
+        <v>70</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2.053999185562134</v>
+      </c>
+      <c r="B76" t="n">
+        <v>8.15785</v>
+      </c>
+      <c r="C76" t="n">
+        <v>70</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2.079935073852539</v>
+      </c>
+      <c r="B77" t="n">
+        <v>8.16512</v>
+      </c>
+      <c r="C77" t="n">
+        <v>70</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2.106518030166626</v>
+      </c>
+      <c r="B78" t="n">
+        <v>8.139659999999999</v>
+      </c>
+      <c r="C78" t="n">
+        <v>70</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2.132699251174927</v>
+      </c>
+      <c r="B79" t="n">
+        <v>8.10693</v>
+      </c>
+      <c r="C79" t="n">
+        <v>70</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2.161575317382812</v>
+      </c>
+      <c r="B80" t="n">
+        <v>8.09965</v>
+      </c>
+      <c r="C80" t="n">
+        <v>70</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2.187687158584595</v>
+      </c>
+      <c r="B81" t="n">
+        <v>8.10693</v>
+      </c>
+      <c r="C81" t="n">
+        <v>70</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2.240857124328613</v>
+      </c>
+      <c r="B82" t="n">
+        <v>8.1142</v>
+      </c>
+      <c r="C82" t="n">
+        <v>70</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2.267186880111694</v>
+      </c>
+      <c r="B83" t="n">
+        <v>8.139659999999999</v>
+      </c>
+      <c r="C83" t="n">
+        <v>70</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2.294056177139282</v>
+      </c>
+      <c r="B84" t="n">
+        <v>8.146940000000001</v>
+      </c>
+      <c r="C84" t="n">
+        <v>70</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2.320333003997803</v>
+      </c>
+      <c r="B85" t="n">
+        <v>8.1433</v>
+      </c>
+      <c r="C85" t="n">
+        <v>70</v>
+      </c>
+      <c r="D85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2.347521066665649</v>
+      </c>
+      <c r="B86" t="n">
+        <v>8.15785</v>
+      </c>
+      <c r="C86" t="n">
+        <v>70</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2.37403416633606</v>
+      </c>
+      <c r="B87" t="n">
+        <v>8.17239</v>
+      </c>
+      <c r="C87" t="n">
+        <v>70</v>
+      </c>
+      <c r="D87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2.401560068130493</v>
+      </c>
+      <c r="B88" t="n">
+        <v>8.161479999999999</v>
+      </c>
+      <c r="C88" t="n">
+        <v>70</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2.428301095962524</v>
+      </c>
+      <c r="B89" t="n">
+        <v>8.161479999999999</v>
+      </c>
+      <c r="C89" t="n">
+        <v>70</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2.455505132675171</v>
+      </c>
+      <c r="B90" t="n">
+        <v>8.17239</v>
+      </c>
+      <c r="C90" t="n">
+        <v>70</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2.481870174407959</v>
+      </c>
+      <c r="B91" t="n">
+        <v>8.17967</v>
+      </c>
+      <c r="C91" t="n">
+        <v>70</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2.509215116500854</v>
+      </c>
+      <c r="B92" t="n">
+        <v>8.16512</v>
+      </c>
+      <c r="C92" t="n">
+        <v>70</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2.535961151123047</v>
+      </c>
+      <c r="B93" t="n">
+        <v>8.16512</v>
+      </c>
+      <c r="C93" t="n">
+        <v>70</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2.563268184661865</v>
+      </c>
+      <c r="B94" t="n">
+        <v>8.15057</v>
+      </c>
+      <c r="C94" t="n">
+        <v>70</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2.590599298477173</v>
+      </c>
+      <c r="B95" t="n">
+        <v>8.139659999999999</v>
+      </c>
+      <c r="C95" t="n">
+        <v>70</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>2.618195056915283</v>
+      </c>
+      <c r="B96" t="n">
+        <v>8.154210000000001</v>
+      </c>
+      <c r="C96" t="n">
+        <v>70</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2.644804239273071</v>
+      </c>
+      <c r="B97" t="n">
+        <v>8.176030000000001</v>
+      </c>
+      <c r="C97" t="n">
+        <v>70</v>
+      </c>
+      <c r="D97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2.672513008117676</v>
+      </c>
+      <c r="B98" t="n">
+        <v>8.183310000000001</v>
+      </c>
+      <c r="C98" t="n">
+        <v>70</v>
+      </c>
+      <c r="D98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2.699603080749512</v>
+      </c>
+      <c r="B99" t="n">
+        <v>8.17239</v>
+      </c>
+      <c r="C99" t="n">
+        <v>70</v>
+      </c>
+      <c r="D99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2.727241992950439</v>
+      </c>
+      <c r="B100" t="n">
+        <v>8.168760000000001</v>
+      </c>
+      <c r="C100" t="n">
+        <v>70</v>
+      </c>
+      <c r="D100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2.756702899932861</v>
+      </c>
+      <c r="B101" t="n">
+        <v>8.15785</v>
+      </c>
+      <c r="C101" t="n">
+        <v>70</v>
+      </c>
+      <c r="D101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2.784783124923706</v>
+      </c>
+      <c r="B102" t="n">
+        <v>8.139659999999999</v>
+      </c>
+      <c r="C102" t="n">
+        <v>70</v>
+      </c>
+      <c r="D102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>2.811451196670532</v>
+      </c>
+      <c r="B103" t="n">
+        <v>8.125109999999999</v>
+      </c>
+      <c r="C103" t="n">
+        <v>70</v>
+      </c>
+      <c r="D103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>2.86677098274231</v>
+      </c>
+      <c r="B104" t="n">
+        <v>8.12148</v>
+      </c>
+      <c r="C104" t="n">
+        <v>70</v>
+      </c>
+      <c r="D104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2.894006013870239</v>
+      </c>
+      <c r="B105" t="n">
+        <v>8.12148</v>
+      </c>
+      <c r="C105" t="n">
+        <v>70</v>
+      </c>
+      <c r="D105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2.921699047088623</v>
+      </c>
+      <c r="B106" t="n">
+        <v>8.117839999999999</v>
+      </c>
+      <c r="C106" t="n">
+        <v>70</v>
+      </c>
+      <c r="D106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2.948745965957642</v>
+      </c>
+      <c r="B107" t="n">
+        <v>8.117839999999999</v>
+      </c>
+      <c r="C107" t="n">
+        <v>70</v>
+      </c>
+      <c r="D107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2.977149248123169</v>
+      </c>
+      <c r="B108" t="n">
+        <v>8.11056</v>
+      </c>
+      <c r="C108" t="n">
+        <v>70</v>
+      </c>
+      <c r="D108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>3.004301071166992</v>
+      </c>
+      <c r="B109" t="n">
+        <v>8.11056</v>
+      </c>
+      <c r="C109" t="n">
+        <v>70</v>
+      </c>
+      <c r="D109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>3.031261920928955</v>
+      </c>
+      <c r="B110" t="n">
+        <v>8.117839999999999</v>
+      </c>
+      <c r="C110" t="n">
+        <v>70</v>
+      </c>
+      <c r="D110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>3.059555053710938</v>
+      </c>
+      <c r="B111" t="n">
+        <v>8.125109999999999</v>
+      </c>
+      <c r="C111" t="n">
+        <v>70</v>
+      </c>
+      <c r="D111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>3.087149143218994</v>
+      </c>
+      <c r="B112" t="n">
+        <v>8.1433</v>
+      </c>
+      <c r="C112" t="n">
+        <v>70</v>
+      </c>
+      <c r="D112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>3.115828037261963</v>
+      </c>
+      <c r="B113" t="n">
+        <v>8.154210000000001</v>
+      </c>
+      <c r="C113" t="n">
+        <v>70</v>
+      </c>
+      <c r="D113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>3.142908096313477</v>
+      </c>
+      <c r="B114" t="n">
+        <v>8.15057</v>
+      </c>
+      <c r="C114" t="n">
+        <v>70</v>
+      </c>
+      <c r="D114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>3.171211957931519</v>
+      </c>
+      <c r="B115" t="n">
+        <v>8.1433</v>
+      </c>
+      <c r="C115" t="n">
+        <v>70</v>
+      </c>
+      <c r="D115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>3.198811292648315</v>
+      </c>
+      <c r="B116" t="n">
+        <v>8.15785</v>
+      </c>
+      <c r="C116" t="n">
+        <v>70</v>
+      </c>
+      <c r="D116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>3.227213144302368</v>
+      </c>
+      <c r="B117" t="n">
+        <v>8.176030000000001</v>
+      </c>
+      <c r="C117" t="n">
+        <v>70</v>
+      </c>
+      <c r="D117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>3.254464149475098</v>
+      </c>
+      <c r="B118" t="n">
+        <v>8.183310000000001</v>
+      </c>
+      <c r="C118" t="n">
+        <v>70</v>
+      </c>
+      <c r="D118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>3.28265118598938</v>
+      </c>
+      <c r="B119" t="n">
+        <v>8.190580000000001</v>
+      </c>
+      <c r="C119" t="n">
+        <v>70</v>
+      </c>
+      <c r="D119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>3.310116052627563</v>
+      </c>
+      <c r="B120" t="n">
+        <v>8.190580000000001</v>
+      </c>
+      <c r="C120" t="n">
+        <v>70</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>3.338397979736328</v>
+      </c>
+      <c r="B121" t="n">
+        <v>8.190580000000001</v>
+      </c>
+      <c r="C121" t="n">
+        <v>70</v>
+      </c>
+      <c r="D121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>3.371356248855591</v>
+      </c>
+      <c r="B122" t="n">
+        <v>8.212400000000001</v>
+      </c>
+      <c r="C122" t="n">
+        <v>70</v>
+      </c>
+      <c r="D122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>3.399800062179565</v>
+      </c>
+      <c r="B123" t="n">
+        <v>8.21968</v>
+      </c>
+      <c r="C123" t="n">
+        <v>70</v>
+      </c>
+      <c r="D123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>3.427287101745605</v>
+      </c>
+      <c r="B124" t="n">
+        <v>8.21968</v>
+      </c>
+      <c r="C124" t="n">
+        <v>70</v>
+      </c>
+      <c r="D124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>3.455965995788574</v>
+      </c>
+      <c r="B125" t="n">
+        <v>8.22331</v>
+      </c>
+      <c r="C125" t="n">
+        <v>70</v>
+      </c>
+      <c r="D125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>3.483748197555542</v>
+      </c>
+      <c r="B126" t="n">
+        <v>8.21604</v>
+      </c>
+      <c r="C126" t="n">
+        <v>70</v>
+      </c>
+      <c r="D126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>3.539829969406128</v>
+      </c>
+      <c r="B127" t="n">
+        <v>8.20513</v>
+      </c>
+      <c r="C127" t="n">
+        <v>70</v>
+      </c>
+      <c r="D127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>3.567572116851807</v>
+      </c>
+      <c r="B128" t="n">
+        <v>8.19422</v>
+      </c>
+      <c r="C128" t="n">
+        <v>70</v>
+      </c>
+      <c r="D128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>3.596200227737427</v>
+      </c>
+      <c r="B129" t="n">
+        <v>8.19422</v>
+      </c>
+      <c r="C129" t="n">
+        <v>70</v>
+      </c>
+      <c r="D129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>3.624022006988525</v>
+      </c>
+      <c r="B130" t="n">
+        <v>8.197850000000001</v>
+      </c>
+      <c r="C130" t="n">
+        <v>70</v>
+      </c>
+      <c r="D130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>3.652360916137695</v>
+      </c>
+      <c r="B131" t="n">
+        <v>8.20513</v>
+      </c>
+      <c r="C131" t="n">
+        <v>70</v>
+      </c>
+      <c r="D131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>3.680222988128662</v>
+      </c>
+      <c r="B132" t="n">
+        <v>8.22331</v>
+      </c>
+      <c r="C132" t="n">
+        <v>70</v>
+      </c>
+      <c r="D132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>3.708750009536743</v>
+      </c>
+      <c r="B133" t="n">
+        <v>8.23786</v>
+      </c>
+      <c r="C133" t="n">
+        <v>70</v>
+      </c>
+      <c r="D133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>3.736509323120117</v>
+      </c>
+      <c r="B134" t="n">
+        <v>8.24877</v>
+      </c>
+      <c r="C134" t="n">
+        <v>70</v>
+      </c>
+      <c r="D134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>3.765305042266846</v>
+      </c>
+      <c r="B135" t="n">
+        <v>8.25605</v>
+      </c>
+      <c r="C135" t="n">
+        <v>70</v>
+      </c>
+      <c r="D135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>3.793325185775757</v>
+      </c>
+      <c r="B136" t="n">
+        <v>8.252409999999999</v>
+      </c>
+      <c r="C136" t="n">
+        <v>70</v>
+      </c>
+      <c r="D136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>3.821929931640625</v>
+      </c>
+      <c r="B137" t="n">
+        <v>8.23786</v>
+      </c>
+      <c r="C137" t="n">
+        <v>70</v>
+      </c>
+      <c r="D137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>3.849798202514648</v>
+      </c>
+      <c r="B138" t="n">
+        <v>8.2415</v>
+      </c>
+      <c r="C138" t="n">
+        <v>70</v>
+      </c>
+      <c r="D138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>3.882834911346436</v>
+      </c>
+      <c r="B139" t="n">
+        <v>8.2415</v>
+      </c>
+      <c r="C139" t="n">
+        <v>70</v>
+      </c>
+      <c r="D139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>3.910540103912354</v>
+      </c>
+      <c r="B140" t="n">
+        <v>8.22695</v>
+      </c>
+      <c r="C140" t="n">
+        <v>70</v>
+      </c>
+      <c r="D140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>3.939680099487305</v>
+      </c>
+      <c r="B141" t="n">
+        <v>8.23786</v>
+      </c>
+      <c r="C141" t="n">
+        <v>70</v>
+      </c>
+      <c r="D141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>3.967751264572144</v>
+      </c>
+      <c r="B142" t="n">
+        <v>8.2415</v>
+      </c>
+      <c r="C142" t="n">
+        <v>70</v>
+      </c>
+      <c r="D142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>3.997241020202637</v>
+      </c>
+      <c r="B143" t="n">
+        <v>8.24877</v>
+      </c>
+      <c r="C143" t="n">
+        <v>70</v>
+      </c>
+      <c r="D143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>4.025991916656494</v>
+      </c>
+      <c r="B144" t="n">
+        <v>8.259679999999999</v>
+      </c>
+      <c r="C144" t="n">
+        <v>70</v>
+      </c>
+      <c r="D144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>4.05573296546936</v>
+      </c>
+      <c r="B145" t="n">
+        <v>8.274229999999999</v>
+      </c>
+      <c r="C145" t="n">
+        <v>70</v>
+      </c>
+      <c r="D145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>4.084104061126709</v>
+      </c>
+      <c r="B146" t="n">
+        <v>8.288779999999999</v>
+      </c>
+      <c r="C146" t="n">
+        <v>70</v>
+      </c>
+      <c r="D146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>4.12834095954895</v>
+      </c>
+      <c r="B147" t="n">
+        <v>8.281510000000001</v>
+      </c>
+      <c r="C147" t="n">
+        <v>70</v>
+      </c>
+      <c r="D147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>4.15713906288147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>8.259679999999999</v>
+      </c>
+      <c r="C148" t="n">
+        <v>70</v>
+      </c>
+      <c r="D148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>4.215461254119873</v>
+      </c>
+      <c r="B149" t="n">
+        <v>8.2415</v>
+      </c>
+      <c r="C149" t="n">
+        <v>70</v>
+      </c>
+      <c r="D149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>4.243786096572876</v>
+      </c>
+      <c r="B150" t="n">
+        <v>8.230589999999999</v>
+      </c>
+      <c r="C150" t="n">
+        <v>70</v>
+      </c>
+      <c r="D150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>4.272938966751099</v>
+      </c>
+      <c r="B151" t="n">
+        <v>8.21604</v>
+      </c>
+      <c r="C151" t="n">
+        <v>70</v>
+      </c>
+      <c r="D151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>4.301730155944824</v>
+      </c>
+      <c r="B152" t="n">
+        <v>8.212400000000001</v>
+      </c>
+      <c r="C152" t="n">
+        <v>70</v>
+      </c>
+      <c r="D152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>4.330905199050903</v>
+      </c>
+      <c r="B153" t="n">
+        <v>8.20513</v>
+      </c>
+      <c r="C153" t="n">
+        <v>70</v>
+      </c>
+      <c r="D153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>4.359177112579346</v>
+      </c>
+      <c r="B154" t="n">
+        <v>8.20513</v>
+      </c>
+      <c r="C154" t="n">
+        <v>70</v>
+      </c>
+      <c r="D154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>4.388167142868042</v>
+      </c>
+      <c r="B155" t="n">
+        <v>8.21968</v>
+      </c>
+      <c r="C155" t="n">
+        <v>70</v>
+      </c>
+      <c r="D155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>4.416875123977661</v>
+      </c>
+      <c r="B156" t="n">
+        <v>8.212400000000001</v>
+      </c>
+      <c r="C156" t="n">
+        <v>70</v>
+      </c>
+      <c r="D156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>4.445957183837891</v>
+      </c>
+      <c r="B157" t="n">
+        <v>8.20876</v>
+      </c>
+      <c r="C157" t="n">
+        <v>70</v>
+      </c>
+      <c r="D157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>4.478579044342041</v>
+      </c>
+      <c r="B158" t="n">
+        <v>8.197850000000001</v>
+      </c>
+      <c r="C158" t="n">
+        <v>70</v>
+      </c>
+      <c r="D158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>4.507984161376953</v>
+      </c>
+      <c r="B159" t="n">
+        <v>8.20149</v>
+      </c>
+      <c r="C159" t="n">
+        <v>70</v>
+      </c>
+      <c r="D159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>4.536384105682373</v>
+      </c>
+      <c r="B160" t="n">
+        <v>8.21968</v>
+      </c>
+      <c r="C160" t="n">
+        <v>70</v>
+      </c>
+      <c r="D160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>4.565835952758789</v>
+      </c>
+      <c r="B161" t="n">
+        <v>8.21968</v>
+      </c>
+      <c r="C161" t="n">
+        <v>70</v>
+      </c>
+      <c r="D161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>4.59448504447937</v>
+      </c>
+      <c r="B162" t="n">
+        <v>8.230589999999999</v>
+      </c>
+      <c r="C162" t="n">
+        <v>70</v>
+      </c>
+      <c r="D162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>4.623939037322998</v>
+      </c>
+      <c r="B163" t="n">
+        <v>8.22695</v>
+      </c>
+      <c r="C163" t="n">
+        <v>70</v>
+      </c>
+      <c r="D163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>4.653297185897827</v>
+      </c>
+      <c r="B164" t="n">
+        <v>8.22695</v>
+      </c>
+      <c r="C164" t="n">
+        <v>70</v>
+      </c>
+      <c r="D164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>4.682780265808105</v>
+      </c>
+      <c r="B165" t="n">
+        <v>8.23786</v>
+      </c>
+      <c r="C165" t="n">
+        <v>70</v>
+      </c>
+      <c r="D165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>4.711430072784424</v>
+      </c>
+      <c r="B166" t="n">
+        <v>8.259679999999999</v>
+      </c>
+      <c r="C166" t="n">
+        <v>70</v>
+      </c>
+      <c r="D166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>4.74090313911438</v>
+      </c>
+      <c r="B167" t="n">
+        <v>8.274229999999999</v>
+      </c>
+      <c r="C167" t="n">
+        <v>70</v>
+      </c>
+      <c r="D167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>4.769756317138672</v>
+      </c>
+      <c r="B168" t="n">
+        <v>8.274229999999999</v>
+      </c>
+      <c r="C168" t="n">
+        <v>70</v>
+      </c>
+      <c r="D168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>4.799339056015015</v>
+      </c>
+      <c r="B169" t="n">
+        <v>8.27059</v>
+      </c>
+      <c r="C169" t="n">
+        <v>70</v>
+      </c>
+      <c r="D169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>4.828264236450195</v>
+      </c>
+      <c r="B170" t="n">
+        <v>8.259679999999999</v>
+      </c>
+      <c r="C170" t="n">
+        <v>70</v>
+      </c>
+      <c r="D170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>4.888261079788208</v>
+      </c>
+      <c r="B171" t="n">
+        <v>8.252409999999999</v>
+      </c>
+      <c r="C171" t="n">
+        <v>70</v>
+      </c>
+      <c r="D171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>4.917391061782837</v>
+      </c>
+      <c r="B172" t="n">
+        <v>8.24877</v>
+      </c>
+      <c r="C172" t="n">
+        <v>70</v>
+      </c>
+      <c r="D172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>4.947270154953003</v>
+      </c>
+      <c r="B173" t="n">
+        <v>8.24877</v>
+      </c>
+      <c r="C173" t="n">
+        <v>70</v>
+      </c>
+      <c r="D173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>4.976728200912476</v>
+      </c>
+      <c r="B174" t="n">
+        <v>8.281510000000001</v>
+      </c>
+      <c r="C174" t="n">
+        <v>70</v>
+      </c>
+      <c r="D174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>5.006988048553467</v>
+      </c>
+      <c r="B175" t="n">
+        <v>8.28514</v>
+      </c>
+      <c r="C175" t="n">
+        <v>70</v>
+      </c>
+      <c r="D175" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="123mm_10deg" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="120mm_8deg_trial1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -2193,7 +2194,6 @@
       <c r="C156" t="n">
         <v>40</v>
       </c>
-      <c r="D156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -2205,7 +2205,6 @@
       <c r="C157" t="n">
         <v>40</v>
       </c>
-      <c r="D157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -2217,7 +2216,6 @@
       <c r="C158" t="n">
         <v>40</v>
       </c>
-      <c r="D158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -2229,7 +2227,6 @@
       <c r="C159" t="n">
         <v>40</v>
       </c>
-      <c r="D159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -2241,7 +2238,6 @@
       <c r="C160" t="n">
         <v>40</v>
       </c>
-      <c r="D160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -2253,7 +2249,6 @@
       <c r="C161" t="n">
         <v>40</v>
       </c>
-      <c r="D161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -2265,7 +2260,6 @@
       <c r="C162" t="n">
         <v>40</v>
       </c>
-      <c r="D162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -2277,7 +2271,6 @@
       <c r="C163" t="n">
         <v>40</v>
       </c>
-      <c r="D163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -2289,7 +2282,6 @@
       <c r="C164" t="n">
         <v>40</v>
       </c>
-      <c r="D164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -2301,7 +2293,6 @@
       <c r="C165" t="n">
         <v>40</v>
       </c>
-      <c r="D165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -2313,7 +2304,6 @@
       <c r="C166" t="n">
         <v>40</v>
       </c>
-      <c r="D166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -2325,7 +2315,6 @@
       <c r="C167" t="n">
         <v>40</v>
       </c>
-      <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -2337,7 +2326,6 @@
       <c r="C168" t="n">
         <v>40</v>
       </c>
-      <c r="D168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -2349,7 +2337,6 @@
       <c r="C169" t="n">
         <v>40</v>
       </c>
-      <c r="D169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -2361,7 +2348,6 @@
       <c r="C170" t="n">
         <v>40</v>
       </c>
-      <c r="D170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -2373,7 +2359,6 @@
       <c r="C171" t="n">
         <v>40</v>
       </c>
-      <c r="D171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -2385,7 +2370,6 @@
       <c r="C172" t="n">
         <v>40</v>
       </c>
-      <c r="D172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -2397,7 +2381,6 @@
       <c r="C173" t="n">
         <v>40</v>
       </c>
-      <c r="D173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -2409,7 +2392,6 @@
       <c r="C174" t="n">
         <v>40</v>
       </c>
-      <c r="D174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -2421,7 +2403,6 @@
       <c r="C175" t="n">
         <v>40</v>
       </c>
-      <c r="D175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -2433,7 +2414,6 @@
       <c r="C176" t="n">
         <v>40</v>
       </c>
-      <c r="D176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -2445,7 +2425,6 @@
       <c r="C177" t="n">
         <v>40</v>
       </c>
-      <c r="D177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -2457,7 +2436,6 @@
       <c r="C178" t="n">
         <v>40</v>
       </c>
-      <c r="D178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -2469,7 +2447,6 @@
       <c r="C179" t="n">
         <v>40</v>
       </c>
-      <c r="D179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -2481,7 +2458,6 @@
       <c r="C180" t="n">
         <v>40</v>
       </c>
-      <c r="D180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -2493,7 +2469,6 @@
       <c r="C181" t="n">
         <v>40</v>
       </c>
-      <c r="D181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -2505,7 +2480,6 @@
       <c r="C182" t="n">
         <v>40</v>
       </c>
-      <c r="D182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -2517,7 +2491,6 @@
       <c r="C183" t="n">
         <v>40</v>
       </c>
-      <c r="D183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -2529,7 +2502,6 @@
       <c r="C184" t="n">
         <v>40</v>
       </c>
-      <c r="D184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -2541,7 +2513,6 @@
       <c r="C185" t="n">
         <v>40</v>
       </c>
-      <c r="D185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -2553,7 +2524,6 @@
       <c r="C186" t="n">
         <v>40</v>
       </c>
-      <c r="D186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -2565,7 +2535,6 @@
       <c r="C187" t="n">
         <v>40</v>
       </c>
-      <c r="D187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -2577,7 +2546,6 @@
       <c r="C188" t="n">
         <v>40</v>
       </c>
-      <c r="D188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -2589,7 +2557,6 @@
       <c r="C189" t="n">
         <v>40</v>
       </c>
-      <c r="D189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -2601,7 +2568,6 @@
       <c r="C190" t="n">
         <v>40</v>
       </c>
-      <c r="D190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -2613,7 +2579,6 @@
       <c r="C191" t="n">
         <v>40</v>
       </c>
-      <c r="D191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -2625,7 +2590,6 @@
       <c r="C192" t="n">
         <v>40</v>
       </c>
-      <c r="D192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -2637,7 +2601,6 @@
       <c r="C193" t="n">
         <v>40</v>
       </c>
-      <c r="D193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -2649,7 +2612,6 @@
       <c r="C194" t="n">
         <v>40</v>
       </c>
-      <c r="D194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -2661,7 +2623,6 @@
       <c r="C195" t="n">
         <v>40</v>
       </c>
-      <c r="D195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -2673,7 +2634,6 @@
       <c r="C196" t="n">
         <v>40</v>
       </c>
-      <c r="D196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -2685,7 +2645,6 @@
       <c r="C197" t="n">
         <v>40</v>
       </c>
-      <c r="D197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -2697,7 +2656,6 @@
       <c r="C198" t="n">
         <v>40</v>
       </c>
-      <c r="D198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -2709,7 +2667,6 @@
       <c r="C199" t="n">
         <v>40</v>
       </c>
-      <c r="D199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -2721,7 +2678,6 @@
       <c r="C200" t="n">
         <v>40</v>
       </c>
-      <c r="D200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -2733,7 +2689,6 @@
       <c r="C201" t="n">
         <v>40</v>
       </c>
-      <c r="D201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -2745,7 +2700,6 @@
       <c r="C202" t="n">
         <v>40</v>
       </c>
-      <c r="D202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -2757,7 +2711,8543 @@
       <c r="C203" t="n">
         <v>40</v>
       </c>
-      <c r="D203" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AGM50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="KU1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="KV1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="KW1" s="1" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="KX1" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="MT1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="MU1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="MV1" s="1" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="MW1" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="OS1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="OT1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="OU1" s="1" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="OV1" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="QR1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="QS1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="QT1" s="1" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="QU1" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="SQ1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="SR1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="SS1" s="1" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="ST1" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="UP1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="UQ1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="UR1" s="1" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="US1" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="WO1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="WP1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="WQ1" s="1" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="WR1" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="YN1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="YO1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="YP1" s="1" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="YQ1" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="AAM1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="AAN1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="AAO1" s="1" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="AAP1" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="ACL1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="ACM1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="ACN1" s="1" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="ACO1" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="AEK1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="AEL1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="AEM1" s="1" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="AEN1" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="AGJ1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="AGK1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="AGL1" s="1" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="AGM1" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3928</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(B$2:B$10000)</f>
+        <v/>
+      </c>
+      <c r="AZ2" t="n">
+        <v>9.5367431640625e-07</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.79287</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>20</v>
+      </c>
+      <c r="BC2">
+        <f>AVERAGE(B$2:B$10000)</f>
+        <v/>
+      </c>
+      <c r="CY2" t="n">
+        <v>9.5367431640625e-07</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1.38571</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>30</v>
+      </c>
+      <c r="DB2">
+        <f>AVERAGE(B$2:B$10000)</f>
+        <v/>
+      </c>
+      <c r="EX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1.88034</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>40</v>
+      </c>
+      <c r="FA2">
+        <f>AVERAGE(B$2:B$10000)</f>
+        <v/>
+      </c>
+      <c r="GW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>2.33497</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>50</v>
+      </c>
+      <c r="GZ2">
+        <f>AVERAGE(B$2:B$10000)</f>
+        <v/>
+      </c>
+      <c r="IV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>3.26605</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>60</v>
+      </c>
+      <c r="IY2">
+        <f>AVERAGE(B$2:B$10000)</f>
+        <v/>
+      </c>
+      <c r="KU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>3.36425</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KX2">
+        <f>AVERAGE(B$2:B$10000)</f>
+        <v/>
+      </c>
+      <c r="MT2" t="n">
+        <v>9.5367431640625e-07</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>3.55701</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>80</v>
+      </c>
+      <c r="MW2">
+        <f>AVERAGE(B$2:B$10000)</f>
+        <v/>
+      </c>
+      <c r="OS2" t="n">
+        <v>9.5367431640625e-07</v>
+      </c>
+      <c r="OT2" t="n">
+        <v>3.64794</v>
+      </c>
+      <c r="OU2" t="n">
+        <v>90</v>
+      </c>
+      <c r="OV2">
+        <f>AVERAGE(B$2:B$10000)</f>
+        <v/>
+      </c>
+      <c r="QR2" t="n">
+        <v>9.5367431640625e-07</v>
+      </c>
+      <c r="QS2" t="n">
+        <v>4.13166</v>
+      </c>
+      <c r="QT2" t="n">
+        <v>100</v>
+      </c>
+      <c r="QU2">
+        <f>AVERAGE(B$2:B$10000)</f>
+        <v/>
+      </c>
+      <c r="SQ2" t="n">
+        <v>9.5367431640625e-07</v>
+      </c>
+      <c r="SR2" t="n">
+        <v>4.28442</v>
+      </c>
+      <c r="SS2" t="n">
+        <v>110</v>
+      </c>
+      <c r="ST2">
+        <f>AVERAGE(B$2:B$10000)</f>
+        <v/>
+      </c>
+      <c r="UP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ2" t="n">
+        <v>4.58265</v>
+      </c>
+      <c r="UR2" t="n">
+        <v>120</v>
+      </c>
+      <c r="US2">
+        <f>AVERAGE(B$2:B$10000)</f>
+        <v/>
+      </c>
+      <c r="WO2" t="n">
+        <v>9.5367431640625e-07</v>
+      </c>
+      <c r="WP2" t="n">
+        <v>5.75377</v>
+      </c>
+      <c r="WQ2" t="n">
+        <v>130</v>
+      </c>
+      <c r="WR2">
+        <f>AVERAGE(B$2:B$10000)</f>
+        <v/>
+      </c>
+      <c r="YN2" t="n">
+        <v>1.192092895507812e-06</v>
+      </c>
+      <c r="YO2" t="n">
+        <v>5.09547</v>
+      </c>
+      <c r="YP2" t="n">
+        <v>140</v>
+      </c>
+      <c r="YQ2">
+        <f>AVERAGE(B$2:B$10000)</f>
+        <v/>
+      </c>
+      <c r="AAM2" t="n">
+        <v>9.5367431640625e-07</v>
+      </c>
+      <c r="AAN2" t="n">
+        <v>5.4228</v>
+      </c>
+      <c r="AAO2" t="n">
+        <v>150</v>
+      </c>
+      <c r="AAP2">
+        <f>AVERAGE(B$2:B$10000)</f>
+        <v/>
+      </c>
+      <c r="ACL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ACM2" t="n">
+        <v>5.89925</v>
+      </c>
+      <c r="ACN2" t="n">
+        <v>160</v>
+      </c>
+      <c r="ACO2">
+        <f>AVERAGE(B$2:B$10000)</f>
+        <v/>
+      </c>
+      <c r="AEK2" t="n">
+        <v>9.5367431640625e-07</v>
+      </c>
+      <c r="AEL2" t="n">
+        <v>6.49573</v>
+      </c>
+      <c r="AEM2" t="n">
+        <v>170</v>
+      </c>
+      <c r="AEN2">
+        <f>AVERAGE(B$2:B$10000)</f>
+        <v/>
+      </c>
+      <c r="AGJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGK2" t="n">
+        <v>8.536099999999999</v>
+      </c>
+      <c r="AGL2" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM2">
+        <f>AVERAGE(B$2:B$10000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.1043088436126709</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.45099</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.1065599918365479</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.92744</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0.1190357208251953</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>1.62939</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>0.1059010028839111</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>2.21859</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>0.1066880226135254</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>2.73141</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>0.1045758724212646</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>3.73886</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>0.1077930927276611</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>3.91344</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>0.1080300807952881</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>4.09165</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS3" t="n">
+        <v>0.1050770282745361</v>
+      </c>
+      <c r="OT3" t="n">
+        <v>4.22986</v>
+      </c>
+      <c r="OU3" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR3" t="n">
+        <v>0.1067681312561035</v>
+      </c>
+      <c r="QS3" t="n">
+        <v>4.77541</v>
+      </c>
+      <c r="QT3" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ3" t="n">
+        <v>0.1027650833129883</v>
+      </c>
+      <c r="SR3" t="n">
+        <v>5.00455</v>
+      </c>
+      <c r="SS3" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP3" t="n">
+        <v>0.1063008308410645</v>
+      </c>
+      <c r="UQ3" t="n">
+        <v>5.34643</v>
+      </c>
+      <c r="UR3" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO3" t="n">
+        <v>0.1063916683197021</v>
+      </c>
+      <c r="WP3" t="n">
+        <v>6.53937</v>
+      </c>
+      <c r="WQ3" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN3" t="n">
+        <v>0.1027050018310547</v>
+      </c>
+      <c r="YO3" t="n">
+        <v>5.93562</v>
+      </c>
+      <c r="YP3" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM3" t="n">
+        <v>0.1089332103729248</v>
+      </c>
+      <c r="AAN3" t="n">
+        <v>6.32115</v>
+      </c>
+      <c r="AAO3" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL3" t="n">
+        <v>0.1027390956878662</v>
+      </c>
+      <c r="ACM3" t="n">
+        <v>6.87761</v>
+      </c>
+      <c r="ACN3" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK3" t="n">
+        <v>0.1067461967468262</v>
+      </c>
+      <c r="AEL3" t="n">
+        <v>7.53591</v>
+      </c>
+      <c r="AEM3" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ3" t="n">
+        <v>0.1074159145355225</v>
+      </c>
+      <c r="AGK3" t="n">
+        <v>9.765409999999999</v>
+      </c>
+      <c r="AGL3" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.2053179740905762</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5200900000000001</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.2167038917541504</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>1.05837</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>0.2217338085174561</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>1.85852</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>0.2086489200592041</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>2.53864</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>0.2168009281158447</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>3.1242</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>0.2049009799957275</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>4.2044</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>0.2174141407012939</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>4.45535</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT4" t="n">
+        <v>0.2095828056335449</v>
+      </c>
+      <c r="MU4" t="n">
+        <v>4.65175</v>
+      </c>
+      <c r="MV4" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS4" t="n">
+        <v>0.2171010971069336</v>
+      </c>
+      <c r="OT4" t="n">
+        <v>4.81906</v>
+      </c>
+      <c r="OU4" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR4" t="n">
+        <v>0.2170650959014893</v>
+      </c>
+      <c r="QS4" t="n">
+        <v>5.40462</v>
+      </c>
+      <c r="QT4" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ4" t="n">
+        <v>0.2174141407012939</v>
+      </c>
+      <c r="SR4" t="n">
+        <v>5.72468</v>
+      </c>
+      <c r="SS4" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP4" t="n">
+        <v>0.2167410850524902</v>
+      </c>
+      <c r="UQ4" t="n">
+        <v>6.09929</v>
+      </c>
+      <c r="UR4" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO4" t="n">
+        <v>0.2084698677062988</v>
+      </c>
+      <c r="WP4" t="n">
+        <v>7.32133</v>
+      </c>
+      <c r="WQ4" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN4" t="n">
+        <v>0.2154190540313721</v>
+      </c>
+      <c r="YO4" t="n">
+        <v>6.78305</v>
+      </c>
+      <c r="YP4" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM4" t="n">
+        <v>0.2097101211547852</v>
+      </c>
+      <c r="AAN4" t="n">
+        <v>7.22313</v>
+      </c>
+      <c r="AAO4" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL4" t="n">
+        <v>0.2047219276428223</v>
+      </c>
+      <c r="ACM4" t="n">
+        <v>7.89234</v>
+      </c>
+      <c r="ACN4" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK4" t="n">
+        <v>0.2209761142730713</v>
+      </c>
+      <c r="AEL4" t="n">
+        <v>8.587009999999999</v>
+      </c>
+      <c r="AEM4" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ4" t="n">
+        <v>0.2092797756195068</v>
+      </c>
+      <c r="AGK4" t="n">
+        <v>10.99472</v>
+      </c>
+      <c r="AGL4" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.3211839199066162</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5964699999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.3196239471435547</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>1.19294</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>0.3198668956756592</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>2.08038</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>0.3127138614654541</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>2.84779</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW5" t="n">
+        <v>0.3209941387176514</v>
+      </c>
+      <c r="GX5" t="n">
+        <v>3.517</v>
+      </c>
+      <c r="GY5" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV5" t="n">
+        <v>0.3211519718170166</v>
+      </c>
+      <c r="IW5" t="n">
+        <v>4.65903</v>
+      </c>
+      <c r="IX5" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU5" t="n">
+        <v>0.32135009765625</v>
+      </c>
+      <c r="KV5" t="n">
+        <v>4.99727</v>
+      </c>
+      <c r="KW5" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT5" t="n">
+        <v>0.3082098960876465</v>
+      </c>
+      <c r="MU5" t="n">
+        <v>5.20822</v>
+      </c>
+      <c r="MV5" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS5" t="n">
+        <v>0.3204479217529297</v>
+      </c>
+      <c r="OT5" t="n">
+        <v>5.40826</v>
+      </c>
+      <c r="OU5" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR5" t="n">
+        <v>0.3198158740997314</v>
+      </c>
+      <c r="QS5" t="n">
+        <v>6.05201</v>
+      </c>
+      <c r="QT5" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ5" t="n">
+        <v>0.3221120834350586</v>
+      </c>
+      <c r="SR5" t="n">
+        <v>6.44481</v>
+      </c>
+      <c r="SS5" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP5" t="n">
+        <v>0.3192718029022217</v>
+      </c>
+      <c r="UQ5" t="n">
+        <v>6.86307</v>
+      </c>
+      <c r="UR5" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO5" t="n">
+        <v>0.3120758533477783</v>
+      </c>
+      <c r="WP5" t="n">
+        <v>8.103289999999999</v>
+      </c>
+      <c r="WQ5" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN5" t="n">
+        <v>0.3181021213531494</v>
+      </c>
+      <c r="YO5" t="n">
+        <v>7.6523</v>
+      </c>
+      <c r="YP5" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM5" t="n">
+        <v>0.320141077041626</v>
+      </c>
+      <c r="AAN5" t="n">
+        <v>8.10693</v>
+      </c>
+      <c r="AAO5" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL5" t="n">
+        <v>0.3088321685791016</v>
+      </c>
+      <c r="ACM5" t="n">
+        <v>8.90344</v>
+      </c>
+      <c r="ACN5" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK5" t="n">
+        <v>0.32004714012146</v>
+      </c>
+      <c r="AEL5" t="n">
+        <v>9.652659999999999</v>
+      </c>
+      <c r="AEM5" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ5" t="n">
+        <v>0.3228771686553955</v>
+      </c>
+      <c r="AGK5" t="n">
+        <v>12.17676</v>
+      </c>
+      <c r="AGL5" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.4188559055328369</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6728499999999999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.422015905380249</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>1.32388</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>0.4231939315795898</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>2.31315</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>0.4221279621124268</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>3.1533</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW6" t="n">
+        <v>0.4217259883880615</v>
+      </c>
+      <c r="GX6" t="n">
+        <v>3.92071</v>
+      </c>
+      <c r="GY6" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV6" t="n">
+        <v>0.4232199192047119</v>
+      </c>
+      <c r="IW6" t="n">
+        <v>5.10638</v>
+      </c>
+      <c r="IX6" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU6" t="n">
+        <v>0.423302173614502</v>
+      </c>
+      <c r="KV6" t="n">
+        <v>5.53555</v>
+      </c>
+      <c r="KW6" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT6" t="n">
+        <v>0.4227349758148193</v>
+      </c>
+      <c r="MU6" t="n">
+        <v>5.75741</v>
+      </c>
+      <c r="MV6" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS6" t="n">
+        <v>0.421165943145752</v>
+      </c>
+      <c r="OT6" t="n">
+        <v>6.012</v>
+      </c>
+      <c r="OU6" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR6" t="n">
+        <v>0.4227461814880371</v>
+      </c>
+      <c r="QS6" t="n">
+        <v>6.6994</v>
+      </c>
+      <c r="QT6" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ6" t="n">
+        <v>0.4223489761352539</v>
+      </c>
+      <c r="SR6" t="n">
+        <v>7.15403</v>
+      </c>
+      <c r="SS6" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP6" t="n">
+        <v>0.4224801063537598</v>
+      </c>
+      <c r="UQ6" t="n">
+        <v>7.6523</v>
+      </c>
+      <c r="UR6" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO6" t="n">
+        <v>0.4208927154541016</v>
+      </c>
+      <c r="WP6" t="n">
+        <v>8.88161</v>
+      </c>
+      <c r="WQ6" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN6" t="n">
+        <v>0.4221241474151611</v>
+      </c>
+      <c r="YO6" t="n">
+        <v>8.52155</v>
+      </c>
+      <c r="YP6" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM6" t="n">
+        <v>0.4218769073486328</v>
+      </c>
+      <c r="AAN6" t="n">
+        <v>8.98709</v>
+      </c>
+      <c r="AAO6" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL6" t="n">
+        <v>0.4218819141387939</v>
+      </c>
+      <c r="ACM6" t="n">
+        <v>9.892709999999999</v>
+      </c>
+      <c r="ACN6" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK6" t="n">
+        <v>0.422821044921875</v>
+      </c>
+      <c r="AEL6" t="n">
+        <v>10.72195</v>
+      </c>
+      <c r="AEM6" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ6" t="n">
+        <v>0.4283699989318848</v>
+      </c>
+      <c r="AGK6" t="n">
+        <v>13.34061</v>
+      </c>
+      <c r="AGL6" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.5198688507080078</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.74195</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.524446964263916</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>1.46936</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0.53684401512146</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>2.5241</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>0.5249209403991699</v>
+      </c>
+      <c r="EY7" t="n">
+        <v>3.41517</v>
+      </c>
+      <c r="EZ7" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW7" t="n">
+        <v>0.5337789058685303</v>
+      </c>
+      <c r="GX7" t="n">
+        <v>4.29169</v>
+      </c>
+      <c r="GY7" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV7" t="n">
+        <v>0.5214691162109375</v>
+      </c>
+      <c r="IW7" t="n">
+        <v>5.47372</v>
+      </c>
+      <c r="IX7" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU7" t="n">
+        <v>0.5248801708221436</v>
+      </c>
+      <c r="KV7" t="n">
+        <v>6.03382</v>
+      </c>
+      <c r="KW7" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT7" t="n">
+        <v>0.5258340835571289</v>
+      </c>
+      <c r="MU7" t="n">
+        <v>6.28478</v>
+      </c>
+      <c r="MV7" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS7" t="n">
+        <v>0.5244779586791992</v>
+      </c>
+      <c r="OT7" t="n">
+        <v>6.5721</v>
+      </c>
+      <c r="OU7" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR7" t="n">
+        <v>0.5311532020568848</v>
+      </c>
+      <c r="QS7" t="n">
+        <v>7.34315</v>
+      </c>
+      <c r="QT7" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ7" t="n">
+        <v>0.5210599899291992</v>
+      </c>
+      <c r="SR7" t="n">
+        <v>7.84506</v>
+      </c>
+      <c r="SS7" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP7" t="n">
+        <v>0.5326919555664062</v>
+      </c>
+      <c r="UQ7" t="n">
+        <v>8.39425</v>
+      </c>
+      <c r="UR7" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO7" t="n">
+        <v>0.5244710445404053</v>
+      </c>
+      <c r="WP7" t="n">
+        <v>9.532640000000001</v>
+      </c>
+      <c r="WQ7" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN7" t="n">
+        <v>0.5213699340820312</v>
+      </c>
+      <c r="YO7" t="n">
+        <v>9.32897</v>
+      </c>
+      <c r="YP7" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM7" t="n">
+        <v>0.524421215057373</v>
+      </c>
+      <c r="AAN7" t="n">
+        <v>9.86725</v>
+      </c>
+      <c r="AAO7" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL7" t="n">
+        <v>0.521967887878418</v>
+      </c>
+      <c r="ACM7" t="n">
+        <v>10.84561</v>
+      </c>
+      <c r="ACN7" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK7" t="n">
+        <v>0.5292742252349854</v>
+      </c>
+      <c r="AEL7" t="n">
+        <v>11.76577</v>
+      </c>
+      <c r="AEM7" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ7" t="n">
+        <v>0.5292389392852783</v>
+      </c>
+      <c r="AGK7" t="n">
+        <v>14.31533</v>
+      </c>
+      <c r="AGL7" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.6249458789825439</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.80742</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.6359169483184814</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>1.57847</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0.6392660140991211</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>2.68776</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>0.6281347274780273</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>3.62248</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW8" t="n">
+        <v>0.6348319053649902</v>
+      </c>
+      <c r="GX8" t="n">
+        <v>4.58265</v>
+      </c>
+      <c r="GY8" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV8" t="n">
+        <v>0.6361150741577148</v>
+      </c>
+      <c r="IW8" t="n">
+        <v>5.68467</v>
+      </c>
+      <c r="IX8" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU8" t="n">
+        <v>0.6372561454772949</v>
+      </c>
+      <c r="KV8" t="n">
+        <v>6.40844</v>
+      </c>
+      <c r="KW8" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT8" t="n">
+        <v>0.6289379596710205</v>
+      </c>
+      <c r="MU8" t="n">
+        <v>6.65575</v>
+      </c>
+      <c r="MV8" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS8" t="n">
+        <v>0.6363279819488525</v>
+      </c>
+      <c r="OT8" t="n">
+        <v>7.01946</v>
+      </c>
+      <c r="OU8" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR8" t="n">
+        <v>0.6347382068634033</v>
+      </c>
+      <c r="QS8" t="n">
+        <v>7.85234</v>
+      </c>
+      <c r="QT8" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ8" t="n">
+        <v>0.6368319988250732</v>
+      </c>
+      <c r="SR8" t="n">
+        <v>8.3797</v>
+      </c>
+      <c r="SS8" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP8" t="n">
+        <v>0.6349160671234131</v>
+      </c>
+      <c r="UQ8" t="n">
+        <v>8.96163</v>
+      </c>
+      <c r="UR8" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO8" t="n">
+        <v>0.6278998851776123</v>
+      </c>
+      <c r="WP8" t="n">
+        <v>9.77632</v>
+      </c>
+      <c r="WQ8" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN8" t="n">
+        <v>0.6369540691375732</v>
+      </c>
+      <c r="YO8" t="n">
+        <v>9.97636</v>
+      </c>
+      <c r="YP8" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM8" t="n">
+        <v>0.6353111267089844</v>
+      </c>
+      <c r="AAN8" t="n">
+        <v>10.57647</v>
+      </c>
+      <c r="AAO8" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL8" t="n">
+        <v>0.628291130065918</v>
+      </c>
+      <c r="ACM8" t="n">
+        <v>11.60575</v>
+      </c>
+      <c r="ACN8" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK8" t="n">
+        <v>0.6399450302124023</v>
+      </c>
+      <c r="AEL8" t="n">
+        <v>12.58047</v>
+      </c>
+      <c r="AEM8" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ8" t="n">
+        <v>0.6408350467681885</v>
+      </c>
+      <c r="AGK8" t="n">
+        <v>14.60629</v>
+      </c>
+      <c r="AGL8" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.7388908863067627</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.86561</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.7364909648895264</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>1.65485</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0.7379188537597656</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>2.79687</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>0.7384159564971924</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>3.76796</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW9" t="n">
+        <v>0.737001895904541</v>
+      </c>
+      <c r="GX9" t="n">
+        <v>4.75723</v>
+      </c>
+      <c r="GY9" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV9" t="n">
+        <v>0.7391769886016846</v>
+      </c>
+      <c r="IW9" t="n">
+        <v>5.77559</v>
+      </c>
+      <c r="IX9" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU9" t="n">
+        <v>0.737293004989624</v>
+      </c>
+      <c r="KV9" t="n">
+        <v>6.60847</v>
+      </c>
+      <c r="KW9" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT9" t="n">
+        <v>0.7269670963287354</v>
+      </c>
+      <c r="MU9" t="n">
+        <v>6.80487</v>
+      </c>
+      <c r="MV9" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS9" t="n">
+        <v>0.7382450103759766</v>
+      </c>
+      <c r="OT9" t="n">
+        <v>7.21949</v>
+      </c>
+      <c r="OU9" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR9" t="n">
+        <v>0.7375092506408691</v>
+      </c>
+      <c r="QS9" t="n">
+        <v>8.041460000000001</v>
+      </c>
+      <c r="QT9" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ9" t="n">
+        <v>0.7394769191741943</v>
+      </c>
+      <c r="SR9" t="n">
+        <v>8.54701</v>
+      </c>
+      <c r="SS9" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP9" t="n">
+        <v>0.7401478290557861</v>
+      </c>
+      <c r="UQ9" t="n">
+        <v>9.12893</v>
+      </c>
+      <c r="UR9" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO9" t="n">
+        <v>0.7418558597564697</v>
+      </c>
+      <c r="WP9" t="n">
+        <v>9.787229999999999</v>
+      </c>
+      <c r="WQ9" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN9" t="n">
+        <v>0.7387371063232422</v>
+      </c>
+      <c r="YO9" t="n">
+        <v>10.16185</v>
+      </c>
+      <c r="YP9" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM9" t="n">
+        <v>0.7377462387084961</v>
+      </c>
+      <c r="AAN9" t="n">
+        <v>10.76196</v>
+      </c>
+      <c r="AAO9" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL9" t="n">
+        <v>0.7383439540863037</v>
+      </c>
+      <c r="ACM9" t="n">
+        <v>11.77305</v>
+      </c>
+      <c r="ACN9" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK9" t="n">
+        <v>0.7428770065307617</v>
+      </c>
+      <c r="AEL9" t="n">
+        <v>12.72231</v>
+      </c>
+      <c r="AEM9" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ9" t="n">
+        <v>0.7416601181030273</v>
+      </c>
+      <c r="AGK9" t="n">
+        <v>14.63539</v>
+      </c>
+      <c r="AGL9" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.8369767665863037</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.90198</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.8417189121246338</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>1.71668</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>0.8537158966064453</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>2.85506</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>0.8401257991790771</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>3.84797</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW10" t="n">
+        <v>0.8393537998199463</v>
+      </c>
+      <c r="GX10" t="n">
+        <v>4.84815</v>
+      </c>
+      <c r="GY10" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV10" t="n">
+        <v>0.8410909175872803</v>
+      </c>
+      <c r="IW10" t="n">
+        <v>5.82651</v>
+      </c>
+      <c r="IX10" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU10" t="n">
+        <v>0.8425180912017822</v>
+      </c>
+      <c r="KV10" t="n">
+        <v>6.67758</v>
+      </c>
+      <c r="KW10" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT10" t="n">
+        <v>0.8405971527099609</v>
+      </c>
+      <c r="MU10" t="n">
+        <v>6.85215</v>
+      </c>
+      <c r="MV10" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS10" t="n">
+        <v>0.8404278755187988</v>
+      </c>
+      <c r="OT10" t="n">
+        <v>7.25223</v>
+      </c>
+      <c r="OU10" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR10" t="n">
+        <v>0.840933084487915</v>
+      </c>
+      <c r="QS10" t="n">
+        <v>8.081469999999999</v>
+      </c>
+      <c r="QT10" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ10" t="n">
+        <v>0.8415842056274414</v>
+      </c>
+      <c r="SR10" t="n">
+        <v>8.557919999999999</v>
+      </c>
+      <c r="SS10" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP10" t="n">
+        <v>0.8397629261016846</v>
+      </c>
+      <c r="UQ10" t="n">
+        <v>9.1653</v>
+      </c>
+      <c r="UR10" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO10" t="n">
+        <v>0.8414359092712402</v>
+      </c>
+      <c r="WP10" t="n">
+        <v>9.74723</v>
+      </c>
+      <c r="WQ10" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN10" t="n">
+        <v>0.8413500785827637</v>
+      </c>
+      <c r="YO10" t="n">
+        <v>10.16185</v>
+      </c>
+      <c r="YP10" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM10" t="n">
+        <v>0.8425352573394775</v>
+      </c>
+      <c r="AAN10" t="n">
+        <v>10.78742</v>
+      </c>
+      <c r="AAO10" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL10" t="n">
+        <v>0.8374350070953369</v>
+      </c>
+      <c r="ACM10" t="n">
+        <v>11.80214</v>
+      </c>
+      <c r="ACN10" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK10" t="n">
+        <v>0.8440482616424561</v>
+      </c>
+      <c r="AEL10" t="n">
+        <v>12.73686</v>
+      </c>
+      <c r="AEM10" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ10" t="n">
+        <v>0.8447530269622803</v>
+      </c>
+      <c r="AGK10" t="n">
+        <v>14.46081</v>
+      </c>
+      <c r="AGL10" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.9386529922485352</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.92744</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.9513719081878662</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>1.76032</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>0.9548718929290771</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>2.8878</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX11" t="n">
+        <v>0.9435927867889404</v>
+      </c>
+      <c r="EY11" t="n">
+        <v>3.91708</v>
+      </c>
+      <c r="EZ11" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW11" t="n">
+        <v>0.9506869316101074</v>
+      </c>
+      <c r="GX11" t="n">
+        <v>4.90271</v>
+      </c>
+      <c r="GY11" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV11" t="n">
+        <v>0.9402961730957031</v>
+      </c>
+      <c r="IW11" t="n">
+        <v>5.85197</v>
+      </c>
+      <c r="IX11" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU11" t="n">
+        <v>0.9505960941314697</v>
+      </c>
+      <c r="KV11" t="n">
+        <v>6.70304</v>
+      </c>
+      <c r="KW11" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT11" t="n">
+        <v>0.9435160160064697</v>
+      </c>
+      <c r="MU11" t="n">
+        <v>6.87761</v>
+      </c>
+      <c r="MV11" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS11" t="n">
+        <v>0.9510750770568848</v>
+      </c>
+      <c r="OT11" t="n">
+        <v>7.28496</v>
+      </c>
+      <c r="OU11" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR11" t="n">
+        <v>0.9510152339935303</v>
+      </c>
+      <c r="QS11" t="n">
+        <v>8.1142</v>
+      </c>
+      <c r="QT11" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ11" t="n">
+        <v>0.9502861499786377</v>
+      </c>
+      <c r="SR11" t="n">
+        <v>8.53973</v>
+      </c>
+      <c r="SS11" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP11" t="n">
+        <v>0.9521958827972412</v>
+      </c>
+      <c r="UQ11" t="n">
+        <v>9.15803</v>
+      </c>
+      <c r="UR11" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO11" t="n">
+        <v>0.9427907466888428</v>
+      </c>
+      <c r="WP11" t="n">
+        <v>9.71086</v>
+      </c>
+      <c r="WQ11" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN11" t="n">
+        <v>0.9507410526275635</v>
+      </c>
+      <c r="YO11" t="n">
+        <v>10.11093</v>
+      </c>
+      <c r="YP11" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM11" t="n">
+        <v>0.9428679943084717</v>
+      </c>
+      <c r="AAN11" t="n">
+        <v>10.69285</v>
+      </c>
+      <c r="AAO11" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL11" t="n">
+        <v>0.942302942276001</v>
+      </c>
+      <c r="ACM11" t="n">
+        <v>11.70394</v>
+      </c>
+      <c r="ACN11" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK11" t="n">
+        <v>0.9570901393890381</v>
+      </c>
+      <c r="AEL11" t="n">
+        <v>12.57683</v>
+      </c>
+      <c r="AEM11" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ11" t="n">
+        <v>0.9476871490478516</v>
+      </c>
+      <c r="AGK11" t="n">
+        <v>14.33351</v>
+      </c>
+      <c r="AGL11" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.055374145507812</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.93835</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>1.053360939025879</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>1.78578</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>1.058101892471313</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>2.90962</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX12" t="n">
+        <v>1.046697854995728</v>
+      </c>
+      <c r="EY12" t="n">
+        <v>3.96436</v>
+      </c>
+      <c r="EZ12" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW12" t="n">
+        <v>1.053999900817871</v>
+      </c>
+      <c r="GX12" t="n">
+        <v>4.92453</v>
+      </c>
+      <c r="GY12" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV12" t="n">
+        <v>1.053040027618408</v>
+      </c>
+      <c r="IW12" t="n">
+        <v>5.88107</v>
+      </c>
+      <c r="IX12" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU12" t="n">
+        <v>1.055639982223511</v>
+      </c>
+      <c r="KV12" t="n">
+        <v>6.72122</v>
+      </c>
+      <c r="KW12" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT12" t="n">
+        <v>1.047000885009766</v>
+      </c>
+      <c r="MU12" t="n">
+        <v>6.84852</v>
+      </c>
+      <c r="MV12" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS12" t="n">
+        <v>1.05472993850708</v>
+      </c>
+      <c r="OT12" t="n">
+        <v>7.27769</v>
+      </c>
+      <c r="OU12" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR12" t="n">
+        <v>1.053164005279541</v>
+      </c>
+      <c r="QS12" t="n">
+        <v>8.11056</v>
+      </c>
+      <c r="QT12" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ12" t="n">
+        <v>1.053997039794922</v>
+      </c>
+      <c r="SR12" t="n">
+        <v>8.48518</v>
+      </c>
+      <c r="SS12" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP12" t="n">
+        <v>1.053084850311279</v>
+      </c>
+      <c r="UQ12" t="n">
+        <v>9.10711</v>
+      </c>
+      <c r="UR12" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO12" t="n">
+        <v>1.046483755111694</v>
+      </c>
+      <c r="WP12" t="n">
+        <v>9.67812</v>
+      </c>
+      <c r="WQ12" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN12" t="n">
+        <v>1.053911209106445</v>
+      </c>
+      <c r="YO12" t="n">
+        <v>10.0491</v>
+      </c>
+      <c r="YP12" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM12" t="n">
+        <v>1.058183193206787</v>
+      </c>
+      <c r="AAN12" t="n">
+        <v>10.63102</v>
+      </c>
+      <c r="AAO12" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL12" t="n">
+        <v>1.047920942306519</v>
+      </c>
+      <c r="ACM12" t="n">
+        <v>11.63484</v>
+      </c>
+      <c r="ACN12" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK12" t="n">
+        <v>1.057149887084961</v>
+      </c>
+      <c r="AEL12" t="n">
+        <v>12.44954</v>
+      </c>
+      <c r="AEM12" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ12" t="n">
+        <v>1.059309005737305</v>
+      </c>
+      <c r="AGK12" t="n">
+        <v>14.24259</v>
+      </c>
+      <c r="AGL12" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.156741142272949</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.94926</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>1.155866861343384</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>1.79669</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>1.15605092048645</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>2.9278</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX13" t="n">
+        <v>1.155763864517212</v>
+      </c>
+      <c r="EY13" t="n">
+        <v>3.98982</v>
+      </c>
+      <c r="EZ13" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW13" t="n">
+        <v>1.156332969665527</v>
+      </c>
+      <c r="GX13" t="n">
+        <v>4.93181</v>
+      </c>
+      <c r="GY13" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV13" t="n">
+        <v>1.156117916107178</v>
+      </c>
+      <c r="IW13" t="n">
+        <v>5.88834</v>
+      </c>
+      <c r="IX13" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU13" t="n">
+        <v>1.156189203262329</v>
+      </c>
+      <c r="KV13" t="n">
+        <v>6.70667</v>
+      </c>
+      <c r="KW13" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT13" t="n">
+        <v>1.156723022460938</v>
+      </c>
+      <c r="MU13" t="n">
+        <v>6.77578</v>
+      </c>
+      <c r="MV13" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS13" t="n">
+        <v>1.156036138534546</v>
+      </c>
+      <c r="OT13" t="n">
+        <v>7.23768</v>
+      </c>
+      <c r="OU13" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR13" t="n">
+        <v>1.155976057052612</v>
+      </c>
+      <c r="QS13" t="n">
+        <v>8.063280000000001</v>
+      </c>
+      <c r="QT13" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ13" t="n">
+        <v>1.154192209243774</v>
+      </c>
+      <c r="SR13" t="n">
+        <v>8.459720000000001</v>
+      </c>
+      <c r="SS13" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP13" t="n">
+        <v>1.156519889831543</v>
+      </c>
+      <c r="UQ13" t="n">
+        <v>9.063459999999999</v>
+      </c>
+      <c r="UR13" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO13" t="n">
+        <v>1.160256862640381</v>
+      </c>
+      <c r="WP13" t="n">
+        <v>9.64903</v>
+      </c>
+      <c r="WQ13" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN13" t="n">
+        <v>1.155966997146606</v>
+      </c>
+      <c r="YO13" t="n">
+        <v>10.01273</v>
+      </c>
+      <c r="YP13" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM13" t="n">
+        <v>1.15985894203186</v>
+      </c>
+      <c r="AAN13" t="n">
+        <v>10.58374</v>
+      </c>
+      <c r="AAO13" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL13" t="n">
+        <v>1.157490015029907</v>
+      </c>
+      <c r="ACM13" t="n">
+        <v>11.60211</v>
+      </c>
+      <c r="ACN13" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK13" t="n">
+        <v>1.159330129623413</v>
+      </c>
+      <c r="AEL13" t="n">
+        <v>12.33679</v>
+      </c>
+      <c r="AEM13" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ13" t="n">
+        <v>1.159947872161865</v>
+      </c>
+      <c r="AGK13" t="n">
+        <v>14.19167</v>
+      </c>
+      <c r="AGL13" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1.253955125808716</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.96017</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>1.258315086364746</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>1.8076</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>1.27093505859375</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>2.94235</v>
+      </c>
+      <c r="DA14" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX14" t="n">
+        <v>1.258859872817993</v>
+      </c>
+      <c r="EY14" t="n">
+        <v>4.00436</v>
+      </c>
+      <c r="EZ14" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW14" t="n">
+        <v>1.268582820892334</v>
+      </c>
+      <c r="GX14" t="n">
+        <v>4.93908</v>
+      </c>
+      <c r="GY14" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV14" t="n">
+        <v>1.258307933807373</v>
+      </c>
+      <c r="IW14" t="n">
+        <v>5.88471</v>
+      </c>
+      <c r="IX14" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU14" t="n">
+        <v>1.257993221282959</v>
+      </c>
+      <c r="KV14" t="n">
+        <v>6.68849</v>
+      </c>
+      <c r="KW14" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT14" t="n">
+        <v>1.259638071060181</v>
+      </c>
+      <c r="MU14" t="n">
+        <v>6.71031</v>
+      </c>
+      <c r="MV14" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS14" t="n">
+        <v>1.258568048477173</v>
+      </c>
+      <c r="OT14" t="n">
+        <v>7.17949</v>
+      </c>
+      <c r="OU14" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR14" t="n">
+        <v>1.258339166641235</v>
+      </c>
+      <c r="QS14" t="n">
+        <v>8.02328</v>
+      </c>
+      <c r="QT14" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ14" t="n">
+        <v>1.260603189468384</v>
+      </c>
+      <c r="SR14" t="n">
+        <v>8.452439999999999</v>
+      </c>
+      <c r="SS14" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP14" t="n">
+        <v>1.266746044158936</v>
+      </c>
+      <c r="UQ14" t="n">
+        <v>9.01618</v>
+      </c>
+      <c r="UR14" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO14" t="n">
+        <v>1.258900880813599</v>
+      </c>
+      <c r="WP14" t="n">
+        <v>9.601739999999999</v>
+      </c>
+      <c r="WQ14" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN14" t="n">
+        <v>1.258498191833496</v>
+      </c>
+      <c r="YO14" t="n">
+        <v>9.97636</v>
+      </c>
+      <c r="YP14" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM14" t="n">
+        <v>1.259835243225098</v>
+      </c>
+      <c r="AAN14" t="n">
+        <v>10.5401</v>
+      </c>
+      <c r="AAO14" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL14" t="n">
+        <v>1.260141134262085</v>
+      </c>
+      <c r="ACM14" t="n">
+        <v>11.56937</v>
+      </c>
+      <c r="ACN14" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK14" t="n">
+        <v>1.262120962142944</v>
+      </c>
+      <c r="AEL14" t="n">
+        <v>12.21677</v>
+      </c>
+      <c r="AEM14" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ14" t="n">
+        <v>1.263604879379272</v>
+      </c>
+      <c r="AGK14" t="n">
+        <v>14.1553</v>
+      </c>
+      <c r="AGL14" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1.357414960861206</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.97472</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>1.369038820266724</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>1.82579</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>1.373992919921875</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>2.95326</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX15" t="n">
+        <v>1.3608717918396</v>
+      </c>
+      <c r="EY15" t="n">
+        <v>4.02982</v>
+      </c>
+      <c r="EZ15" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW15" t="n">
+        <v>1.368746042251587</v>
+      </c>
+      <c r="GX15" t="n">
+        <v>4.91362</v>
+      </c>
+      <c r="GY15" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV15" t="n">
+        <v>1.357738971710205</v>
+      </c>
+      <c r="IW15" t="n">
+        <v>5.87743</v>
+      </c>
+      <c r="IX15" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU15" t="n">
+        <v>1.367945194244385</v>
+      </c>
+      <c r="KV15" t="n">
+        <v>6.65939</v>
+      </c>
+      <c r="KW15" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT15" t="n">
+        <v>1.361751794815063</v>
+      </c>
+      <c r="MU15" t="n">
+        <v>6.64121</v>
+      </c>
+      <c r="MV15" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS15" t="n">
+        <v>1.368886947631836</v>
+      </c>
+      <c r="OT15" t="n">
+        <v>7.15039</v>
+      </c>
+      <c r="OU15" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR15" t="n">
+        <v>1.374227046966553</v>
+      </c>
+      <c r="QS15" t="n">
+        <v>7.96145</v>
+      </c>
+      <c r="QT15" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ15" t="n">
+        <v>1.369534969329834</v>
+      </c>
+      <c r="SR15" t="n">
+        <v>8.43426</v>
+      </c>
+      <c r="SS15" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP15" t="n">
+        <v>1.368619918823242</v>
+      </c>
+      <c r="UQ15" t="n">
+        <v>8.976179999999999</v>
+      </c>
+      <c r="UR15" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO15" t="n">
+        <v>1.361467838287354</v>
+      </c>
+      <c r="WP15" t="n">
+        <v>9.54355</v>
+      </c>
+      <c r="WQ15" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN15" t="n">
+        <v>1.36922812461853</v>
+      </c>
+      <c r="YO15" t="n">
+        <v>9.95454</v>
+      </c>
+      <c r="YP15" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM15" t="n">
+        <v>1.3610999584198</v>
+      </c>
+      <c r="AAN15" t="n">
+        <v>10.51828</v>
+      </c>
+      <c r="AAO15" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL15" t="n">
+        <v>1.361711978912354</v>
+      </c>
+      <c r="ACM15" t="n">
+        <v>11.56574</v>
+      </c>
+      <c r="ACN15" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK15" t="n">
+        <v>1.373075008392334</v>
+      </c>
+      <c r="AEL15" t="n">
+        <v>12.14766</v>
+      </c>
+      <c r="AEM15" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ15" t="n">
+        <v>1.373351097106934</v>
+      </c>
+      <c r="AGK15" t="n">
+        <v>14.1262</v>
+      </c>
+      <c r="AGL15" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1.472525119781494</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.98927</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>1.471641778945923</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>1.84397</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>1.475843906402588</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>2.95326</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX16" t="n">
+        <v>1.472683906555176</v>
+      </c>
+      <c r="EY16" t="n">
+        <v>4.0371</v>
+      </c>
+      <c r="EZ16" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW16" t="n">
+        <v>1.472795009613037</v>
+      </c>
+      <c r="GX16" t="n">
+        <v>4.88816</v>
+      </c>
+      <c r="GY16" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV16" t="n">
+        <v>1.471885919570923</v>
+      </c>
+      <c r="IW16" t="n">
+        <v>5.85561</v>
+      </c>
+      <c r="IX16" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU16" t="n">
+        <v>1.472447156906128</v>
+      </c>
+      <c r="KV16" t="n">
+        <v>6.64121</v>
+      </c>
+      <c r="KW16" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT16" t="n">
+        <v>1.464716196060181</v>
+      </c>
+      <c r="MU16" t="n">
+        <v>6.58665</v>
+      </c>
+      <c r="MV16" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS16" t="n">
+        <v>1.472345113754272</v>
+      </c>
+      <c r="OT16" t="n">
+        <v>7.12857</v>
+      </c>
+      <c r="OU16" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR16" t="n">
+        <v>1.473400115966797</v>
+      </c>
+      <c r="QS16" t="n">
+        <v>7.90325</v>
+      </c>
+      <c r="QT16" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ16" t="n">
+        <v>1.472353935241699</v>
+      </c>
+      <c r="SR16" t="n">
+        <v>8.39789</v>
+      </c>
+      <c r="SS16" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP16" t="n">
+        <v>1.470999002456665</v>
+      </c>
+      <c r="UQ16" t="n">
+        <v>8.928900000000001</v>
+      </c>
+      <c r="UR16" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO16" t="n">
+        <v>1.463521003723145</v>
+      </c>
+      <c r="WP16" t="n">
+        <v>9.489000000000001</v>
+      </c>
+      <c r="WQ16" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN16" t="n">
+        <v>1.471576929092407</v>
+      </c>
+      <c r="YO16" t="n">
+        <v>9.95454</v>
+      </c>
+      <c r="YP16" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM16" t="n">
+        <v>1.477027177810669</v>
+      </c>
+      <c r="AAN16" t="n">
+        <v>10.49282</v>
+      </c>
+      <c r="AAO16" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL16" t="n">
+        <v>1.463276147842407</v>
+      </c>
+      <c r="ACM16" t="n">
+        <v>11.57665</v>
+      </c>
+      <c r="ACN16" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK16" t="n">
+        <v>1.476299047470093</v>
+      </c>
+      <c r="AEL16" t="n">
+        <v>12.11129</v>
+      </c>
+      <c r="AEM16" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ16" t="n">
+        <v>1.475090980529785</v>
+      </c>
+      <c r="AGK16" t="n">
+        <v>14.11893</v>
+      </c>
+      <c r="AGL16" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1.574575185775757</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.99291</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>1.572893857955933</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>1.85852</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>1.586520910263062</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>2.94963</v>
+      </c>
+      <c r="DA17" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX17" t="n">
+        <v>1.57378888130188</v>
+      </c>
+      <c r="EY17" t="n">
+        <v>4.01891</v>
+      </c>
+      <c r="EZ17" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW17" t="n">
+        <v>1.575080871582031</v>
+      </c>
+      <c r="GX17" t="n">
+        <v>4.86998</v>
+      </c>
+      <c r="GY17" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV17" t="n">
+        <v>1.575636863708496</v>
+      </c>
+      <c r="IW17" t="n">
+        <v>5.82288</v>
+      </c>
+      <c r="IX17" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU17" t="n">
+        <v>1.574467182159424</v>
+      </c>
+      <c r="KV17" t="n">
+        <v>6.61575</v>
+      </c>
+      <c r="KW17" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT17" t="n">
+        <v>1.576737880706787</v>
+      </c>
+      <c r="MU17" t="n">
+        <v>6.51027</v>
+      </c>
+      <c r="MV17" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS17" t="n">
+        <v>1.574866056442261</v>
+      </c>
+      <c r="OT17" t="n">
+        <v>7.09583</v>
+      </c>
+      <c r="OU17" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR17" t="n">
+        <v>1.574627161026001</v>
+      </c>
+      <c r="QS17" t="n">
+        <v>7.85961</v>
+      </c>
+      <c r="QT17" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ17" t="n">
+        <v>1.574311971664429</v>
+      </c>
+      <c r="SR17" t="n">
+        <v>8.37243</v>
+      </c>
+      <c r="SS17" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP17" t="n">
+        <v>1.573515892028809</v>
+      </c>
+      <c r="UQ17" t="n">
+        <v>8.928900000000001</v>
+      </c>
+      <c r="UR17" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO17" t="n">
+        <v>1.578722715377808</v>
+      </c>
+      <c r="WP17" t="n">
+        <v>9.44899</v>
+      </c>
+      <c r="WQ17" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN17" t="n">
+        <v>1.576942920684814</v>
+      </c>
+      <c r="YO17" t="n">
+        <v>9.98363</v>
+      </c>
+      <c r="YP17" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM17" t="n">
+        <v>1.580369234085083</v>
+      </c>
+      <c r="AAN17" t="n">
+        <v>10.47827</v>
+      </c>
+      <c r="AAO17" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL17" t="n">
+        <v>1.573904991149902</v>
+      </c>
+      <c r="ACM17" t="n">
+        <v>11.57665</v>
+      </c>
+      <c r="ACN17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK17" t="n">
+        <v>1.577974081039429</v>
+      </c>
+      <c r="AEL17" t="n">
+        <v>12.08583</v>
+      </c>
+      <c r="AEM17" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ17" t="n">
+        <v>1.578684091567993</v>
+      </c>
+      <c r="AGK17" t="n">
+        <v>14.11166</v>
+      </c>
+      <c r="AGL17" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1.673862934112549</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.98927</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>1.676356792449951</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>1.85488</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>1.690034866333008</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>2.93872</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX18" t="n">
+        <v>1.676413774490356</v>
+      </c>
+      <c r="EY18" t="n">
+        <v>3.99709</v>
+      </c>
+      <c r="EZ18" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW18" t="n">
+        <v>1.686167001724243</v>
+      </c>
+      <c r="GX18" t="n">
+        <v>4.86998</v>
+      </c>
+      <c r="GY18" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV18" t="n">
+        <v>1.676643133163452</v>
+      </c>
+      <c r="IW18" t="n">
+        <v>5.79378</v>
+      </c>
+      <c r="IX18" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU18" t="n">
+        <v>1.688325166702271</v>
+      </c>
+      <c r="KV18" t="n">
+        <v>6.59393</v>
+      </c>
+      <c r="KW18" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT18" t="n">
+        <v>1.677664041519165</v>
+      </c>
+      <c r="MU18" t="n">
+        <v>6.44481</v>
+      </c>
+      <c r="MV18" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS18" t="n">
+        <v>1.677180051803589</v>
+      </c>
+      <c r="OT18" t="n">
+        <v>7.0631</v>
+      </c>
+      <c r="OU18" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR18" t="n">
+        <v>1.688802003860474</v>
+      </c>
+      <c r="QS18" t="n">
+        <v>7.8196</v>
+      </c>
+      <c r="QT18" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ18" t="n">
+        <v>1.686115026473999</v>
+      </c>
+      <c r="SR18" t="n">
+        <v>8.3797</v>
+      </c>
+      <c r="SS18" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP18" t="n">
+        <v>1.685632944107056</v>
+      </c>
+      <c r="UQ18" t="n">
+        <v>8.892530000000001</v>
+      </c>
+      <c r="UR18" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO18" t="n">
+        <v>1.681521892547607</v>
+      </c>
+      <c r="WP18" t="n">
+        <v>9.44172</v>
+      </c>
+      <c r="WQ18" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN18" t="n">
+        <v>1.684545040130615</v>
+      </c>
+      <c r="YO18" t="n">
+        <v>10.02728</v>
+      </c>
+      <c r="YP18" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM18" t="n">
+        <v>1.680771112442017</v>
+      </c>
+      <c r="AAN18" t="n">
+        <v>10.4419</v>
+      </c>
+      <c r="AAO18" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL18" t="n">
+        <v>1.676451921463013</v>
+      </c>
+      <c r="ACM18" t="n">
+        <v>11.56937</v>
+      </c>
+      <c r="ACN18" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK18" t="n">
+        <v>1.689159154891968</v>
+      </c>
+      <c r="AEL18" t="n">
+        <v>12.06765</v>
+      </c>
+      <c r="AEM18" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ18" t="n">
+        <v>1.680054903030396</v>
+      </c>
+      <c r="AGK18" t="n">
+        <v>14.0862</v>
+      </c>
+      <c r="AGL18" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1.789155960083008</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.98927</v>
+      </c>
+      <c r="C19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>1.787115097045898</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>1.84397</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>1.791682004928589</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>2.9278</v>
+      </c>
+      <c r="DA19" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX19" t="n">
+        <v>1.781747817993164</v>
+      </c>
+      <c r="EY19" t="n">
+        <v>3.98618</v>
+      </c>
+      <c r="EZ19" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW19" t="n">
+        <v>1.787939071655273</v>
+      </c>
+      <c r="GX19" t="n">
+        <v>4.86998</v>
+      </c>
+      <c r="GY19" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV19" t="n">
+        <v>1.788797855377197</v>
+      </c>
+      <c r="IW19" t="n">
+        <v>5.78287</v>
+      </c>
+      <c r="IX19" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU19" t="n">
+        <v>1.787662029266357</v>
+      </c>
+      <c r="KV19" t="n">
+        <v>6.5721</v>
+      </c>
+      <c r="KW19" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT19" t="n">
+        <v>1.77994704246521</v>
+      </c>
+      <c r="MU19" t="n">
+        <v>6.40116</v>
+      </c>
+      <c r="MV19" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS19" t="n">
+        <v>1.787683963775635</v>
+      </c>
+      <c r="OT19" t="n">
+        <v>7.07401</v>
+      </c>
+      <c r="OU19" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR19" t="n">
+        <v>1.793009281158447</v>
+      </c>
+      <c r="QS19" t="n">
+        <v>7.8196</v>
+      </c>
+      <c r="QT19" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ19" t="n">
+        <v>1.788217067718506</v>
+      </c>
+      <c r="SR19" t="n">
+        <v>8.37607</v>
+      </c>
+      <c r="SS19" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP19" t="n">
+        <v>1.787888050079346</v>
+      </c>
+      <c r="UQ19" t="n">
+        <v>8.85252</v>
+      </c>
+      <c r="UR19" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO19" t="n">
+        <v>1.780022859573364</v>
+      </c>
+      <c r="WP19" t="n">
+        <v>9.43444</v>
+      </c>
+      <c r="WQ19" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN19" t="n">
+        <v>1.787497997283936</v>
+      </c>
+      <c r="YO19" t="n">
+        <v>10.05274</v>
+      </c>
+      <c r="YP19" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM19" t="n">
+        <v>1.793220043182373</v>
+      </c>
+      <c r="AAN19" t="n">
+        <v>10.41644</v>
+      </c>
+      <c r="AAO19" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL19" t="n">
+        <v>1.779303073883057</v>
+      </c>
+      <c r="ACM19" t="n">
+        <v>11.5912</v>
+      </c>
+      <c r="ACN19" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK19" t="n">
+        <v>1.792288064956665</v>
+      </c>
+      <c r="AEL19" t="n">
+        <v>12.08583</v>
+      </c>
+      <c r="AEM19" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ19" t="n">
+        <v>1.792159795761108</v>
+      </c>
+      <c r="AGK19" t="n">
+        <v>14.08256</v>
+      </c>
+      <c r="AGL19" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1.890182971954346</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.99291</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>1.889410972595215</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>1.84397</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>1.894814968109131</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>2.90962</v>
+      </c>
+      <c r="DA20" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX20" t="n">
+        <v>1.889683961868286</v>
+      </c>
+      <c r="EY20" t="n">
+        <v>3.98254</v>
+      </c>
+      <c r="EZ20" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW20" t="n">
+        <v>1.889437913894653</v>
+      </c>
+      <c r="GX20" t="n">
+        <v>4.85543</v>
+      </c>
+      <c r="GY20" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV20" t="n">
+        <v>1.890437126159668</v>
+      </c>
+      <c r="IW20" t="n">
+        <v>5.77923</v>
+      </c>
+      <c r="IX20" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU20" t="n">
+        <v>1.889326095581055</v>
+      </c>
+      <c r="KV20" t="n">
+        <v>6.54664</v>
+      </c>
+      <c r="KW20" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT20" t="n">
+        <v>1.890633106231689</v>
+      </c>
+      <c r="MU20" t="n">
+        <v>6.37934</v>
+      </c>
+      <c r="MV20" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS20" t="n">
+        <v>1.889798164367676</v>
+      </c>
+      <c r="OT20" t="n">
+        <v>7.08492</v>
+      </c>
+      <c r="OU20" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR20" t="n">
+        <v>1.889706134796143</v>
+      </c>
+      <c r="QS20" t="n">
+        <v>7.83779</v>
+      </c>
+      <c r="QT20" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ20" t="n">
+        <v>1.890291929244995</v>
+      </c>
+      <c r="SR20" t="n">
+        <v>8.38334</v>
+      </c>
+      <c r="SS20" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP20" t="n">
+        <v>1.889265060424805</v>
+      </c>
+      <c r="UQ20" t="n">
+        <v>8.8307</v>
+      </c>
+      <c r="UR20" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO20" t="n">
+        <v>1.893290996551514</v>
+      </c>
+      <c r="WP20" t="n">
+        <v>9.398070000000001</v>
+      </c>
+      <c r="WQ20" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN20" t="n">
+        <v>1.890809059143066</v>
+      </c>
+      <c r="YO20" t="n">
+        <v>10.06001</v>
+      </c>
+      <c r="YP20" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM20" t="n">
+        <v>1.895144939422607</v>
+      </c>
+      <c r="AAN20" t="n">
+        <v>10.40553</v>
+      </c>
+      <c r="AAO20" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL20" t="n">
+        <v>1.889645099639893</v>
+      </c>
+      <c r="ACM20" t="n">
+        <v>11.60211</v>
+      </c>
+      <c r="ACN20" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK20" t="n">
+        <v>1.89470911026001</v>
+      </c>
+      <c r="AEL20" t="n">
+        <v>12.10038</v>
+      </c>
+      <c r="AEM20" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ20" t="n">
+        <v>1.895447015762329</v>
+      </c>
+      <c r="AGK20" t="n">
+        <v>14.06437</v>
+      </c>
+      <c r="AGL20" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1.995233058929443</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.99291</v>
+      </c>
+      <c r="C21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>1.993391752243042</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>1.84761</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>2.003561973571777</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>2.89871</v>
+      </c>
+      <c r="DA21" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX21" t="n">
+        <v>1.996217012405396</v>
+      </c>
+      <c r="EY21" t="n">
+        <v>3.97163</v>
+      </c>
+      <c r="EZ21" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW21" t="n">
+        <v>2.002579927444458</v>
+      </c>
+      <c r="GX21" t="n">
+        <v>4.83724</v>
+      </c>
+      <c r="GY21" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV21" t="n">
+        <v>1.993144989013672</v>
+      </c>
+      <c r="IW21" t="n">
+        <v>5.75377</v>
+      </c>
+      <c r="IX21" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU21" t="n">
+        <v>1.992103099822998</v>
+      </c>
+      <c r="KV21" t="n">
+        <v>6.51755</v>
+      </c>
+      <c r="KW21" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT21" t="n">
+        <v>1.994527101516724</v>
+      </c>
+      <c r="MU21" t="n">
+        <v>6.34661</v>
+      </c>
+      <c r="MV21" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS21" t="n">
+        <v>1.992921113967896</v>
+      </c>
+      <c r="OT21" t="n">
+        <v>7.08129</v>
+      </c>
+      <c r="OU21" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR21" t="n">
+        <v>1.994096279144287</v>
+      </c>
+      <c r="QS21" t="n">
+        <v>7.8487</v>
+      </c>
+      <c r="QT21" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ21" t="n">
+        <v>1.993342876434326</v>
+      </c>
+      <c r="SR21" t="n">
+        <v>8.361520000000001</v>
+      </c>
+      <c r="SS21" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP21" t="n">
+        <v>1.992589950561523</v>
+      </c>
+      <c r="UQ21" t="n">
+        <v>8.81251</v>
+      </c>
+      <c r="UR21" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO21" t="n">
+        <v>1.995619773864746</v>
+      </c>
+      <c r="WP21" t="n">
+        <v>9.368980000000001</v>
+      </c>
+      <c r="WQ21" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN21" t="n">
+        <v>1.992063045501709</v>
+      </c>
+      <c r="YO21" t="n">
+        <v>10.0782</v>
+      </c>
+      <c r="YP21" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM21" t="n">
+        <v>1.996829986572266</v>
+      </c>
+      <c r="AAN21" t="n">
+        <v>10.39098</v>
+      </c>
+      <c r="AAO21" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL21" t="n">
+        <v>1.994035005569458</v>
+      </c>
+      <c r="ACM21" t="n">
+        <v>11.60211</v>
+      </c>
+      <c r="ACN21" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK21" t="n">
+        <v>1.996351957321167</v>
+      </c>
+      <c r="AEL21" t="n">
+        <v>12.10038</v>
+      </c>
+      <c r="AEM21" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ21" t="n">
+        <v>1.996179103851318</v>
+      </c>
+      <c r="AGK21" t="n">
+        <v>14.02437</v>
+      </c>
+      <c r="AGL21" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2.089621067047119</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.98563</v>
+      </c>
+      <c r="C22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>2.107851982116699</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>1.84761</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>2.107851982116699</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>2.90235</v>
+      </c>
+      <c r="DA22" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX22" t="n">
+        <v>2.094791889190674</v>
+      </c>
+      <c r="EY22" t="n">
+        <v>3.97163</v>
+      </c>
+      <c r="EZ22" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW22" t="n">
+        <v>2.10379695892334</v>
+      </c>
+      <c r="GX22" t="n">
+        <v>4.82269</v>
+      </c>
+      <c r="GY22" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV22" t="n">
+        <v>2.094994068145752</v>
+      </c>
+      <c r="IW22" t="n">
+        <v>5.73559</v>
+      </c>
+      <c r="IX22" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU22" t="n">
+        <v>2.108723163604736</v>
+      </c>
+      <c r="KV22" t="n">
+        <v>6.48845</v>
+      </c>
+      <c r="KW22" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT22" t="n">
+        <v>2.09698486328125</v>
+      </c>
+      <c r="MU22" t="n">
+        <v>6.3066</v>
+      </c>
+      <c r="MV22" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS22" t="n">
+        <v>2.103756904602051</v>
+      </c>
+      <c r="OT22" t="n">
+        <v>7.07401</v>
+      </c>
+      <c r="OU22" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR22" t="n">
+        <v>2.107299089431763</v>
+      </c>
+      <c r="QS22" t="n">
+        <v>7.87052</v>
+      </c>
+      <c r="QT22" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ22" t="n">
+        <v>2.103508949279785</v>
+      </c>
+      <c r="SR22" t="n">
+        <v>8.35061</v>
+      </c>
+      <c r="SS22" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP22" t="n">
+        <v>2.1025710105896</v>
+      </c>
+      <c r="UQ22" t="n">
+        <v>8.80524</v>
+      </c>
+      <c r="UR22" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO22" t="n">
+        <v>2.098593711853027</v>
+      </c>
+      <c r="WP22" t="n">
+        <v>9.35079</v>
+      </c>
+      <c r="WQ22" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN22" t="n">
+        <v>2.107487201690674</v>
+      </c>
+      <c r="YO22" t="n">
+        <v>10.06365</v>
+      </c>
+      <c r="YP22" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM22" t="n">
+        <v>2.099790096282959</v>
+      </c>
+      <c r="AAN22" t="n">
+        <v>10.36552</v>
+      </c>
+      <c r="AAO22" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL22" t="n">
+        <v>2.095031023025513</v>
+      </c>
+      <c r="ACM22" t="n">
+        <v>11.60211</v>
+      </c>
+      <c r="ACN22" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK22" t="n">
+        <v>2.106888055801392</v>
+      </c>
+      <c r="AEL22" t="n">
+        <v>12.08583</v>
+      </c>
+      <c r="AEM22" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ22" t="n">
+        <v>2.106719970703125</v>
+      </c>
+      <c r="AGK22" t="n">
+        <v>14.01346</v>
+      </c>
+      <c r="AGL22" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2.204968929290771</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.96745</v>
+      </c>
+      <c r="C23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>2.206184864044189</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>1.85488</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>2.210304975509644</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>2.89871</v>
+      </c>
+      <c r="DA23" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX23" t="n">
+        <v>2.206844091415405</v>
+      </c>
+      <c r="EY23" t="n">
+        <v>3.98982</v>
+      </c>
+      <c r="EZ23" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW23" t="n">
+        <v>2.206232070922852</v>
+      </c>
+      <c r="GX23" t="n">
+        <v>4.80451</v>
+      </c>
+      <c r="GY23" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV23" t="n">
+        <v>2.20569896697998</v>
+      </c>
+      <c r="IW23" t="n">
+        <v>5.72468</v>
+      </c>
+      <c r="IX23" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU23" t="n">
+        <v>2.205210208892822</v>
+      </c>
+      <c r="KV23" t="n">
+        <v>6.48481</v>
+      </c>
+      <c r="KW23" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT23" t="n">
+        <v>2.197994947433472</v>
+      </c>
+      <c r="MU23" t="n">
+        <v>6.27023</v>
+      </c>
+      <c r="MV23" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS23" t="n">
+        <v>2.205900907516479</v>
+      </c>
+      <c r="OT23" t="n">
+        <v>7.06674</v>
+      </c>
+      <c r="OU23" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR23" t="n">
+        <v>2.211456060409546</v>
+      </c>
+      <c r="QS23" t="n">
+        <v>7.86688</v>
+      </c>
+      <c r="QT23" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ23" t="n">
+        <v>2.205988168716431</v>
+      </c>
+      <c r="SR23" t="n">
+        <v>8.346970000000001</v>
+      </c>
+      <c r="SS23" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP23" t="n">
+        <v>2.207534074783325</v>
+      </c>
+      <c r="UQ23" t="n">
+        <v>8.801600000000001</v>
+      </c>
+      <c r="UR23" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO23" t="n">
+        <v>2.196088790893555</v>
+      </c>
+      <c r="WP23" t="n">
+        <v>9.32169</v>
+      </c>
+      <c r="WQ23" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN23" t="n">
+        <v>2.205658912658691</v>
+      </c>
+      <c r="YO23" t="n">
+        <v>10.04546</v>
+      </c>
+      <c r="YP23" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM23" t="n">
+        <v>2.209846973419189</v>
+      </c>
+      <c r="AAN23" t="n">
+        <v>10.36552</v>
+      </c>
+      <c r="AAO23" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL23" t="n">
+        <v>2.197690010070801</v>
+      </c>
+      <c r="ACM23" t="n">
+        <v>11.58392</v>
+      </c>
+      <c r="ACN23" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK23" t="n">
+        <v>2.211074113845825</v>
+      </c>
+      <c r="AEL23" t="n">
+        <v>12.08947</v>
+      </c>
+      <c r="AEM23" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ23" t="n">
+        <v>2.209321975708008</v>
+      </c>
+      <c r="AGK23" t="n">
+        <v>14.03892</v>
+      </c>
+      <c r="AGL23" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2.309870958328247</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.96745</v>
+      </c>
+      <c r="C24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>2.309987783432007</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>1.86216</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>2.312044858932495</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>2.89143</v>
+      </c>
+      <c r="DA24" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX24" t="n">
+        <v>2.308256864547729</v>
+      </c>
+      <c r="EY24" t="n">
+        <v>3.98982</v>
+      </c>
+      <c r="EZ24" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW24" t="n">
+        <v>2.307762861251831</v>
+      </c>
+      <c r="GX24" t="n">
+        <v>4.7936</v>
+      </c>
+      <c r="GY24" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV24" t="n">
+        <v>2.308609962463379</v>
+      </c>
+      <c r="IW24" t="n">
+        <v>5.70649</v>
+      </c>
+      <c r="IX24" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU24" t="n">
+        <v>2.310182094573975</v>
+      </c>
+      <c r="KV24" t="n">
+        <v>6.46299</v>
+      </c>
+      <c r="KW24" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT24" t="n">
+        <v>2.309499979019165</v>
+      </c>
+      <c r="MU24" t="n">
+        <v>6.24477</v>
+      </c>
+      <c r="MV24" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS24" t="n">
+        <v>2.307796001434326</v>
+      </c>
+      <c r="OT24" t="n">
+        <v>7.05219</v>
+      </c>
+      <c r="OU24" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR24" t="n">
+        <v>2.308468103408813</v>
+      </c>
+      <c r="QS24" t="n">
+        <v>7.88507</v>
+      </c>
+      <c r="QT24" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ24" t="n">
+        <v>2.308283805847168</v>
+      </c>
+      <c r="SR24" t="n">
+        <v>8.34333</v>
+      </c>
+      <c r="SS24" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP24" t="n">
+        <v>2.308253765106201</v>
+      </c>
+      <c r="UQ24" t="n">
+        <v>8.78341</v>
+      </c>
+      <c r="UR24" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO24" t="n">
+        <v>2.311598777770996</v>
+      </c>
+      <c r="WP24" t="n">
+        <v>9.28532</v>
+      </c>
+      <c r="WQ24" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN24" t="n">
+        <v>2.308640003204346</v>
+      </c>
+      <c r="YO24" t="n">
+        <v>10.05274</v>
+      </c>
+      <c r="YP24" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM24" t="n">
+        <v>2.312895059585571</v>
+      </c>
+      <c r="AAN24" t="n">
+        <v>10.38007</v>
+      </c>
+      <c r="AAO24" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL24" t="n">
+        <v>2.307618141174316</v>
+      </c>
+      <c r="ACM24" t="n">
+        <v>11.57665</v>
+      </c>
+      <c r="ACN24" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK24" t="n">
+        <v>2.312106132507324</v>
+      </c>
+      <c r="AEL24" t="n">
+        <v>12.08947</v>
+      </c>
+      <c r="AEM24" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ24" t="n">
+        <v>2.311752796173096</v>
+      </c>
+      <c r="AGK24" t="n">
+        <v>14.04255</v>
+      </c>
+      <c r="AGL24" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2.410755157470703</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.96745</v>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>2.41050386428833</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>1.85125</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY25" t="n">
+        <v>2.422492742538452</v>
+      </c>
+      <c r="CZ25" t="n">
+        <v>2.87689</v>
+      </c>
+      <c r="DA25" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX25" t="n">
+        <v>2.409724950790405</v>
+      </c>
+      <c r="EY25" t="n">
+        <v>3.99709</v>
+      </c>
+      <c r="EZ25" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW25" t="n">
+        <v>2.418359994888306</v>
+      </c>
+      <c r="GX25" t="n">
+        <v>4.78996</v>
+      </c>
+      <c r="GY25" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV25" t="n">
+        <v>2.410902976989746</v>
+      </c>
+      <c r="IW25" t="n">
+        <v>5.67376</v>
+      </c>
+      <c r="IX25" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU25" t="n">
+        <v>2.423160076141357</v>
+      </c>
+      <c r="KV25" t="n">
+        <v>6.46663</v>
+      </c>
+      <c r="KW25" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT25" t="n">
+        <v>2.40830397605896</v>
+      </c>
+      <c r="MU25" t="n">
+        <v>6.23022</v>
+      </c>
+      <c r="MV25" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS25" t="n">
+        <v>2.411772012710571</v>
+      </c>
+      <c r="OT25" t="n">
+        <v>7.05219</v>
+      </c>
+      <c r="OU25" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR25" t="n">
+        <v>2.422639131546021</v>
+      </c>
+      <c r="QS25" t="n">
+        <v>7.88143</v>
+      </c>
+      <c r="QT25" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ25" t="n">
+        <v>2.411554098129272</v>
+      </c>
+      <c r="SR25" t="n">
+        <v>8.35061</v>
+      </c>
+      <c r="SS25" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP25" t="n">
+        <v>2.424497127532959</v>
+      </c>
+      <c r="UQ25" t="n">
+        <v>8.74704</v>
+      </c>
+      <c r="UR25" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO25" t="n">
+        <v>2.41340184211731</v>
+      </c>
+      <c r="WP25" t="n">
+        <v>9.23441</v>
+      </c>
+      <c r="WQ25" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN25" t="n">
+        <v>2.423819065093994</v>
+      </c>
+      <c r="YO25" t="n">
+        <v>10.08183</v>
+      </c>
+      <c r="YP25" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM25" t="n">
+        <v>2.415572881698608</v>
+      </c>
+      <c r="AAN25" t="n">
+        <v>10.36188</v>
+      </c>
+      <c r="AAO25" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL25" t="n">
+        <v>2.410582065582275</v>
+      </c>
+      <c r="ACM25" t="n">
+        <v>11.56574</v>
+      </c>
+      <c r="ACN25" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK25" t="n">
+        <v>2.416368246078491</v>
+      </c>
+      <c r="AEL25" t="n">
+        <v>12.08583</v>
+      </c>
+      <c r="AEM25" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ25" t="n">
+        <v>2.415194988250732</v>
+      </c>
+      <c r="AGK25" t="n">
+        <v>14.00982</v>
+      </c>
+      <c r="AGL25" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2.521646022796631</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9529</v>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>2.527024984359741</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>1.84761</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY26" t="n">
+        <v>2.527354001998901</v>
+      </c>
+      <c r="CZ26" t="n">
+        <v>2.87689</v>
+      </c>
+      <c r="DA26" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX26" t="n">
+        <v>2.513308048248291</v>
+      </c>
+      <c r="EY26" t="n">
+        <v>4.00436</v>
+      </c>
+      <c r="EZ26" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW26" t="n">
+        <v>2.52150821685791</v>
+      </c>
+      <c r="GX26" t="n">
+        <v>4.77905</v>
+      </c>
+      <c r="GY26" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV26" t="n">
+        <v>2.522812128067017</v>
+      </c>
+      <c r="IW26" t="n">
+        <v>5.63375</v>
+      </c>
+      <c r="IX26" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU26" t="n">
+        <v>2.526409149169922</v>
+      </c>
+      <c r="KV26" t="n">
+        <v>6.48118</v>
+      </c>
+      <c r="KW26" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT26" t="n">
+        <v>2.512809991836548</v>
+      </c>
+      <c r="MU26" t="n">
+        <v>6.21568</v>
+      </c>
+      <c r="MV26" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS26" t="n">
+        <v>2.520931959152222</v>
+      </c>
+      <c r="OT26" t="n">
+        <v>7.05219</v>
+      </c>
+      <c r="OU26" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR26" t="n">
+        <v>2.526143074035645</v>
+      </c>
+      <c r="QS26" t="n">
+        <v>7.87052</v>
+      </c>
+      <c r="QT26" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ26" t="n">
+        <v>2.522350072860718</v>
+      </c>
+      <c r="SR26" t="n">
+        <v>8.35788</v>
+      </c>
+      <c r="SS26" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP26" t="n">
+        <v>2.52488374710083</v>
+      </c>
+      <c r="UQ26" t="n">
+        <v>8.728859999999999</v>
+      </c>
+      <c r="UR26" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO26" t="n">
+        <v>2.516092777252197</v>
+      </c>
+      <c r="WP26" t="n">
+        <v>9.17985</v>
+      </c>
+      <c r="WQ26" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN26" t="n">
+        <v>2.526061058044434</v>
+      </c>
+      <c r="YO26" t="n">
+        <v>10.12911</v>
+      </c>
+      <c r="YP26" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM26" t="n">
+        <v>2.524399042129517</v>
+      </c>
+      <c r="AAN26" t="n">
+        <v>10.32188</v>
+      </c>
+      <c r="AAO26" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL26" t="n">
+        <v>2.514714002609253</v>
+      </c>
+      <c r="ACM26" t="n">
+        <v>11.54755</v>
+      </c>
+      <c r="ACN26" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK26" t="n">
+        <v>2.525362253189087</v>
+      </c>
+      <c r="AEL26" t="n">
+        <v>12.09674</v>
+      </c>
+      <c r="AEM26" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ26" t="n">
+        <v>2.529961824417114</v>
+      </c>
+      <c r="AGK26" t="n">
+        <v>13.96981</v>
+      </c>
+      <c r="AGL26" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2.623285055160522</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.93835</v>
+      </c>
+      <c r="C27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>2.624088048934937</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>1.84033</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY27" t="n">
+        <v>2.62841796875</v>
+      </c>
+      <c r="CZ27" t="n">
+        <v>2.87689</v>
+      </c>
+      <c r="DA27" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX27" t="n">
+        <v>2.625233173370361</v>
+      </c>
+      <c r="EY27" t="n">
+        <v>4.00073</v>
+      </c>
+      <c r="EZ27" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW27" t="n">
+        <v>2.623421907424927</v>
+      </c>
+      <c r="GX27" t="n">
+        <v>4.7645</v>
+      </c>
+      <c r="GY27" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV27" t="n">
+        <v>2.624511003494263</v>
+      </c>
+      <c r="IW27" t="n">
+        <v>5.6192</v>
+      </c>
+      <c r="IX27" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU27" t="n">
+        <v>2.62416410446167</v>
+      </c>
+      <c r="KV27" t="n">
+        <v>6.48118</v>
+      </c>
+      <c r="KW27" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT27" t="n">
+        <v>2.623941898345947</v>
+      </c>
+      <c r="MU27" t="n">
+        <v>6.22295</v>
+      </c>
+      <c r="MV27" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS27" t="n">
+        <v>2.623514175415039</v>
+      </c>
+      <c r="OT27" t="n">
+        <v>7.04855</v>
+      </c>
+      <c r="OU27" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR27" t="n">
+        <v>2.626962900161743</v>
+      </c>
+      <c r="QS27" t="n">
+        <v>7.85234</v>
+      </c>
+      <c r="QT27" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ27" t="n">
+        <v>2.625136852264404</v>
+      </c>
+      <c r="SR27" t="n">
+        <v>8.37243</v>
+      </c>
+      <c r="SS27" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP27" t="n">
+        <v>2.623925924301147</v>
+      </c>
+      <c r="UQ27" t="n">
+        <v>8.71067</v>
+      </c>
+      <c r="UR27" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO27" t="n">
+        <v>2.62761378288269</v>
+      </c>
+      <c r="WP27" t="n">
+        <v>9.13621</v>
+      </c>
+      <c r="WQ27" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN27" t="n">
+        <v>2.62813401222229</v>
+      </c>
+      <c r="YO27" t="n">
+        <v>10.18731</v>
+      </c>
+      <c r="YP27" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM27" t="n">
+        <v>2.628528118133545</v>
+      </c>
+      <c r="AAN27" t="n">
+        <v>10.27096</v>
+      </c>
+      <c r="AAO27" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL27" t="n">
+        <v>2.627713203430176</v>
+      </c>
+      <c r="ACM27" t="n">
+        <v>11.533</v>
+      </c>
+      <c r="ACN27" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK27" t="n">
+        <v>2.627871036529541</v>
+      </c>
+      <c r="AEL27" t="n">
+        <v>12.12948</v>
+      </c>
+      <c r="AEM27" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ27" t="n">
+        <v>2.627758026123047</v>
+      </c>
+      <c r="AGK27" t="n">
+        <v>13.93344</v>
+      </c>
+      <c r="AGL27" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2.727090835571289</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.93835</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>2.727465867996216</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>1.82579</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY28" t="n">
+        <v>2.737928867340088</v>
+      </c>
+      <c r="CZ28" t="n">
+        <v>2.88416</v>
+      </c>
+      <c r="DA28" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX28" t="n">
+        <v>2.726440906524658</v>
+      </c>
+      <c r="EY28" t="n">
+        <v>4.00436</v>
+      </c>
+      <c r="EZ28" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW28" t="n">
+        <v>2.726864814758301</v>
+      </c>
+      <c r="GX28" t="n">
+        <v>4.75723</v>
+      </c>
+      <c r="GY28" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV28" t="n">
+        <v>2.726967096328735</v>
+      </c>
+      <c r="IW28" t="n">
+        <v>5.59738</v>
+      </c>
+      <c r="IX28" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU28" t="n">
+        <v>2.727418184280396</v>
+      </c>
+      <c r="KV28" t="n">
+        <v>6.46299</v>
+      </c>
+      <c r="KW28" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT28" t="n">
+        <v>2.726033926010132</v>
+      </c>
+      <c r="MU28" t="n">
+        <v>6.23022</v>
+      </c>
+      <c r="MV28" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS28" t="n">
+        <v>2.726460218429565</v>
+      </c>
+      <c r="OT28" t="n">
+        <v>7.06674</v>
+      </c>
+      <c r="OU28" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR28" t="n">
+        <v>2.729806184768677</v>
+      </c>
+      <c r="QS28" t="n">
+        <v>7.84143</v>
+      </c>
+      <c r="QT28" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ28" t="n">
+        <v>2.728065967559814</v>
+      </c>
+      <c r="SR28" t="n">
+        <v>8.39062</v>
+      </c>
+      <c r="SS28" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP28" t="n">
+        <v>2.727804899215698</v>
+      </c>
+      <c r="UQ28" t="n">
+        <v>8.65976</v>
+      </c>
+      <c r="UR28" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO28" t="n">
+        <v>2.730596780776978</v>
+      </c>
+      <c r="WP28" t="n">
+        <v>9.09984</v>
+      </c>
+      <c r="WQ28" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN28" t="n">
+        <v>2.726729154586792</v>
+      </c>
+      <c r="YO28" t="n">
+        <v>10.24186</v>
+      </c>
+      <c r="YP28" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM28" t="n">
+        <v>2.731100082397461</v>
+      </c>
+      <c r="AAN28" t="n">
+        <v>10.27096</v>
+      </c>
+      <c r="AAO28" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL28" t="n">
+        <v>2.730387926101685</v>
+      </c>
+      <c r="ACM28" t="n">
+        <v>11.51118</v>
+      </c>
+      <c r="ACN28" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK28" t="n">
+        <v>2.732439994812012</v>
+      </c>
+      <c r="AEL28" t="n">
+        <v>12.14766</v>
+      </c>
+      <c r="AEM28" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ28" t="n">
+        <v>2.730775833129883</v>
+      </c>
+      <c r="AGK28" t="n">
+        <v>13.92253</v>
+      </c>
+      <c r="AGL28" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2.828061819076538</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.93835</v>
+      </c>
+      <c r="C29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>2.84106707572937</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>1.81488</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY29" t="n">
+        <v>2.84033203125</v>
+      </c>
+      <c r="CZ29" t="n">
+        <v>2.89871</v>
+      </c>
+      <c r="DA29" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX29" t="n">
+        <v>2.829154968261719</v>
+      </c>
+      <c r="EY29" t="n">
+        <v>4.00073</v>
+      </c>
+      <c r="EZ29" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW29" t="n">
+        <v>2.836114883422852</v>
+      </c>
+      <c r="GX29" t="n">
+        <v>4.74995</v>
+      </c>
+      <c r="GY29" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV29" t="n">
+        <v>2.829565048217773</v>
+      </c>
+      <c r="IW29" t="n">
+        <v>5.57192</v>
+      </c>
+      <c r="IX29" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU29" t="n">
+        <v>2.840502977371216</v>
+      </c>
+      <c r="KV29" t="n">
+        <v>6.43753</v>
+      </c>
+      <c r="KW29" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT29" t="n">
+        <v>2.828612804412842</v>
+      </c>
+      <c r="MU29" t="n">
+        <v>6.21931</v>
+      </c>
+      <c r="MV29" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS29" t="n">
+        <v>2.840978145599365</v>
+      </c>
+      <c r="OT29" t="n">
+        <v>7.07038</v>
+      </c>
+      <c r="OU29" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR29" t="n">
+        <v>2.841609954833984</v>
+      </c>
+      <c r="QS29" t="n">
+        <v>7.82324</v>
+      </c>
+      <c r="QT29" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ29" t="n">
+        <v>2.837167024612427</v>
+      </c>
+      <c r="SR29" t="n">
+        <v>8.40516</v>
+      </c>
+      <c r="SS29" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP29" t="n">
+        <v>2.841836929321289</v>
+      </c>
+      <c r="UQ29" t="n">
+        <v>8.630660000000001</v>
+      </c>
+      <c r="UR29" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO29" t="n">
+        <v>2.833665609359741</v>
+      </c>
+      <c r="WP29" t="n">
+        <v>9.05255</v>
+      </c>
+      <c r="WQ29" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN29" t="n">
+        <v>2.841068029403687</v>
+      </c>
+      <c r="YO29" t="n">
+        <v>10.28914</v>
+      </c>
+      <c r="YP29" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM29" t="n">
+        <v>2.833027124404907</v>
+      </c>
+      <c r="AAN29" t="n">
+        <v>10.27823</v>
+      </c>
+      <c r="AAO29" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL29" t="n">
+        <v>2.829321146011353</v>
+      </c>
+      <c r="ACM29" t="n">
+        <v>11.48936</v>
+      </c>
+      <c r="ACN29" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK29" t="n">
+        <v>2.844265937805176</v>
+      </c>
+      <c r="AEL29" t="n">
+        <v>12.14039</v>
+      </c>
+      <c r="AEM29" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ29" t="n">
+        <v>2.833755970001221</v>
+      </c>
+      <c r="AGK29" t="n">
+        <v>13.9298</v>
+      </c>
+      <c r="AGL29" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2.938772916793823</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.94926</v>
+      </c>
+      <c r="C30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>2.943718910217285</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>1.81488</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY30" t="n">
+        <v>2.942724943161011</v>
+      </c>
+      <c r="CZ30" t="n">
+        <v>2.89871</v>
+      </c>
+      <c r="DA30" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX30" t="n">
+        <v>2.93192195892334</v>
+      </c>
+      <c r="EY30" t="n">
+        <v>3.99709</v>
+      </c>
+      <c r="EZ30" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW30" t="n">
+        <v>2.9389328956604</v>
+      </c>
+      <c r="GX30" t="n">
+        <v>4.74995</v>
+      </c>
+      <c r="GY30" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV30" t="n">
+        <v>2.939666032791138</v>
+      </c>
+      <c r="IW30" t="n">
+        <v>5.55374</v>
+      </c>
+      <c r="IX30" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU30" t="n">
+        <v>2.942883014678955</v>
+      </c>
+      <c r="KV30" t="n">
+        <v>6.40844</v>
+      </c>
+      <c r="KW30" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT30" t="n">
+        <v>2.932001829147339</v>
+      </c>
+      <c r="MU30" t="n">
+        <v>6.22659</v>
+      </c>
+      <c r="MV30" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS30" t="n">
+        <v>2.940431118011475</v>
+      </c>
+      <c r="OT30" t="n">
+        <v>7.07038</v>
+      </c>
+      <c r="OU30" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR30" t="n">
+        <v>2.943750143051147</v>
+      </c>
+      <c r="QS30" t="n">
+        <v>7.80142</v>
+      </c>
+      <c r="QT30" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ30" t="n">
+        <v>2.940698146820068</v>
+      </c>
+      <c r="SR30" t="n">
+        <v>8.41971</v>
+      </c>
+      <c r="SS30" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP30" t="n">
+        <v>2.943898916244507</v>
+      </c>
+      <c r="UQ30" t="n">
+        <v>8.630660000000001</v>
+      </c>
+      <c r="UR30" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO30" t="n">
+        <v>2.936110734939575</v>
+      </c>
+      <c r="WP30" t="n">
+        <v>8.98709</v>
+      </c>
+      <c r="WQ30" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN30" t="n">
+        <v>2.944042205810547</v>
+      </c>
+      <c r="YO30" t="n">
+        <v>10.3146</v>
+      </c>
+      <c r="YP30" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM30" t="n">
+        <v>2.945243120193481</v>
+      </c>
+      <c r="AAN30" t="n">
+        <v>10.27096</v>
+      </c>
+      <c r="AAO30" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL30" t="n">
+        <v>2.929595947265625</v>
+      </c>
+      <c r="ACM30" t="n">
+        <v>11.45299</v>
+      </c>
+      <c r="ACN30" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK30" t="n">
+        <v>2.949187040328979</v>
+      </c>
+      <c r="AEL30" t="n">
+        <v>12.12948</v>
+      </c>
+      <c r="AEM30" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ30" t="n">
+        <v>2.947389125823975</v>
+      </c>
+      <c r="AGK30" t="n">
+        <v>13.94072</v>
+      </c>
+      <c r="AGL30" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.043199062347412</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.94199</v>
+      </c>
+      <c r="C31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>3.044013738632202</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>1.81124</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY31" t="n">
+        <v>3.044850826263428</v>
+      </c>
+      <c r="CZ31" t="n">
+        <v>2.89507</v>
+      </c>
+      <c r="DA31" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX31" t="n">
+        <v>3.041574716567993</v>
+      </c>
+      <c r="EY31" t="n">
+        <v>4.00073</v>
+      </c>
+      <c r="EZ31" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW31" t="n">
+        <v>3.041713953018188</v>
+      </c>
+      <c r="GX31" t="n">
+        <v>4.74995</v>
+      </c>
+      <c r="GY31" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV31" t="n">
+        <v>3.041979074478149</v>
+      </c>
+      <c r="IW31" t="n">
+        <v>5.55374</v>
+      </c>
+      <c r="IX31" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU31" t="n">
+        <v>3.042352199554443</v>
+      </c>
+      <c r="KV31" t="n">
+        <v>6.3757</v>
+      </c>
+      <c r="KW31" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT31" t="n">
+        <v>3.043164968490601</v>
+      </c>
+      <c r="MU31" t="n">
+        <v>6.23022</v>
+      </c>
+      <c r="MV31" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS31" t="n">
+        <v>3.041778802871704</v>
+      </c>
+      <c r="OT31" t="n">
+        <v>7.07401</v>
+      </c>
+      <c r="OU31" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR31" t="n">
+        <v>3.045874118804932</v>
+      </c>
+      <c r="QS31" t="n">
+        <v>7.79051</v>
+      </c>
+      <c r="QT31" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ31" t="n">
+        <v>3.04304313659668</v>
+      </c>
+      <c r="SR31" t="n">
+        <v>8.44153</v>
+      </c>
+      <c r="SS31" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP31" t="n">
+        <v>3.041437864303589</v>
+      </c>
+      <c r="UQ31" t="n">
+        <v>8.6343</v>
+      </c>
+      <c r="UR31" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO31" t="n">
+        <v>3.046214818954468</v>
+      </c>
+      <c r="WP31" t="n">
+        <v>8.957990000000001</v>
+      </c>
+      <c r="WQ31" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN31" t="n">
+        <v>3.047677040100098</v>
+      </c>
+      <c r="YO31" t="n">
+        <v>10.32188</v>
+      </c>
+      <c r="YP31" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM31" t="n">
+        <v>3.046435117721558</v>
+      </c>
+      <c r="AAN31" t="n">
+        <v>10.26732</v>
+      </c>
+      <c r="AAO31" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL31" t="n">
+        <v>3.0450599193573</v>
+      </c>
+      <c r="ACM31" t="n">
+        <v>11.45299</v>
+      </c>
+      <c r="ACN31" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK31" t="n">
+        <v>3.046061038970947</v>
+      </c>
+      <c r="AEL31" t="n">
+        <v>12.12948</v>
+      </c>
+      <c r="AEM31" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ31" t="n">
+        <v>3.049849987030029</v>
+      </c>
+      <c r="AGK31" t="n">
+        <v>13.93344</v>
+      </c>
+      <c r="AGL31" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3.144497871398926</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9238</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>3.145360946655273</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>1.81488</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY32" t="n">
+        <v>3.15566086769104</v>
+      </c>
+      <c r="CZ32" t="n">
+        <v>2.8878</v>
+      </c>
+      <c r="DA32" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX32" t="n">
+        <v>3.144421100616455</v>
+      </c>
+      <c r="EY32" t="n">
+        <v>4.00073</v>
+      </c>
+      <c r="EZ32" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW32" t="n">
+        <v>3.159075021743774</v>
+      </c>
+      <c r="GX32" t="n">
+        <v>4.74632</v>
+      </c>
+      <c r="GY32" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV32" t="n">
+        <v>3.143785953521729</v>
+      </c>
+      <c r="IW32" t="n">
+        <v>5.55374</v>
+      </c>
+      <c r="IX32" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU32" t="n">
+        <v>3.156306266784668</v>
+      </c>
+      <c r="KV32" t="n">
+        <v>6.35024</v>
+      </c>
+      <c r="KW32" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT32" t="n">
+        <v>3.146476745605469</v>
+      </c>
+      <c r="MU32" t="n">
+        <v>6.21204</v>
+      </c>
+      <c r="MV32" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS32" t="n">
+        <v>3.145287036895752</v>
+      </c>
+      <c r="OT32" t="n">
+        <v>7.05946</v>
+      </c>
+      <c r="OU32" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR32" t="n">
+        <v>3.149977207183838</v>
+      </c>
+      <c r="QS32" t="n">
+        <v>7.77596</v>
+      </c>
+      <c r="QT32" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ32" t="n">
+        <v>3.144459962844849</v>
+      </c>
+      <c r="SR32" t="n">
+        <v>8.452439999999999</v>
+      </c>
+      <c r="SS32" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP32" t="n">
+        <v>3.144394874572754</v>
+      </c>
+      <c r="UQ32" t="n">
+        <v>8.64884</v>
+      </c>
+      <c r="UR32" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO32" t="n">
+        <v>3.14861273765564</v>
+      </c>
+      <c r="WP32" t="n">
+        <v>8.95435</v>
+      </c>
+      <c r="WQ32" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN32" t="n">
+        <v>3.144418239593506</v>
+      </c>
+      <c r="YO32" t="n">
+        <v>10.34006</v>
+      </c>
+      <c r="YP32" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM32" t="n">
+        <v>3.149542093276978</v>
+      </c>
+      <c r="AAN32" t="n">
+        <v>10.25641</v>
+      </c>
+      <c r="AAO32" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL32" t="n">
+        <v>3.148789167404175</v>
+      </c>
+      <c r="ACM32" t="n">
+        <v>11.46754</v>
+      </c>
+      <c r="ACN32" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK32" t="n">
+        <v>3.147403001785278</v>
+      </c>
+      <c r="AEL32" t="n">
+        <v>12.14766</v>
+      </c>
+      <c r="AEM32" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ32" t="n">
+        <v>3.148886919021606</v>
+      </c>
+      <c r="AGK32" t="n">
+        <v>13.93344</v>
+      </c>
+      <c r="AGL32" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3.255034923553467</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.92017</v>
+      </c>
+      <c r="C33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>3.259236812591553</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>1.81124</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY33" t="n">
+        <v>3.259048938751221</v>
+      </c>
+      <c r="CZ33" t="n">
+        <v>2.8878</v>
+      </c>
+      <c r="DA33" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX33" t="n">
+        <v>3.246201992034912</v>
+      </c>
+      <c r="EY33" t="n">
+        <v>3.98982</v>
+      </c>
+      <c r="EZ33" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW33" t="n">
+        <v>3.255834817886353</v>
+      </c>
+      <c r="GX33" t="n">
+        <v>4.75723</v>
+      </c>
+      <c r="GY33" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV33" t="n">
+        <v>3.255606889724731</v>
+      </c>
+      <c r="IW33" t="n">
+        <v>5.55374</v>
+      </c>
+      <c r="IX33" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU33" t="n">
+        <v>3.259799957275391</v>
+      </c>
+      <c r="KV33" t="n">
+        <v>6.3357</v>
+      </c>
+      <c r="KW33" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT33" t="n">
+        <v>3.247942924499512</v>
+      </c>
+      <c r="MU33" t="n">
+        <v>6.19385</v>
+      </c>
+      <c r="MV33" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS33" t="n">
+        <v>3.261443138122559</v>
+      </c>
+      <c r="OT33" t="n">
+        <v>7.03037</v>
+      </c>
+      <c r="OU33" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR33" t="n">
+        <v>3.260069131851196</v>
+      </c>
+      <c r="QS33" t="n">
+        <v>7.77596</v>
+      </c>
+      <c r="QT33" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ33" t="n">
+        <v>3.255403995513916</v>
+      </c>
+      <c r="SR33" t="n">
+        <v>8.44881</v>
+      </c>
+      <c r="SS33" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP33" t="n">
+        <v>3.259109020233154</v>
+      </c>
+      <c r="UQ33" t="n">
+        <v>8.68521</v>
+      </c>
+      <c r="UR33" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO33" t="n">
+        <v>3.251801729202271</v>
+      </c>
+      <c r="WP33" t="n">
+        <v>8.94708</v>
+      </c>
+      <c r="WQ33" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN33" t="n">
+        <v>3.258530139923096</v>
+      </c>
+      <c r="YO33" t="n">
+        <v>10.35461</v>
+      </c>
+      <c r="YP33" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM33" t="n">
+        <v>3.250800132751465</v>
+      </c>
+      <c r="AAN33" t="n">
+        <v>10.24186</v>
+      </c>
+      <c r="AAO33" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL33" t="n">
+        <v>3.25122594833374</v>
+      </c>
+      <c r="ACM33" t="n">
+        <v>11.45663</v>
+      </c>
+      <c r="ACN33" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK33" t="n">
+        <v>3.262116193771362</v>
+      </c>
+      <c r="AEL33" t="n">
+        <v>12.1513</v>
+      </c>
+      <c r="AEM33" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ33" t="n">
+        <v>3.263243913650513</v>
+      </c>
+      <c r="AGK33" t="n">
+        <v>13.91162</v>
+      </c>
+      <c r="AGL33" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3.357519149780273</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.90562</v>
+      </c>
+      <c r="C34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>3.362469911575317</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>1.80033</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY34" t="n">
+        <v>3.361663818359375</v>
+      </c>
+      <c r="CZ34" t="n">
+        <v>2.88052</v>
+      </c>
+      <c r="DA34" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX34" t="n">
+        <v>3.36142897605896</v>
+      </c>
+      <c r="EY34" t="n">
+        <v>3.98982</v>
+      </c>
+      <c r="EZ34" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW34" t="n">
+        <v>3.353130102157593</v>
+      </c>
+      <c r="GX34" t="n">
+        <v>4.77178</v>
+      </c>
+      <c r="GY34" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV34" t="n">
+        <v>3.358165979385376</v>
+      </c>
+      <c r="IW34" t="n">
+        <v>5.55737</v>
+      </c>
+      <c r="IX34" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU34" t="n">
+        <v>3.359453201293945</v>
+      </c>
+      <c r="KV34" t="n">
+        <v>6.32115</v>
+      </c>
+      <c r="KW34" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT34" t="n">
+        <v>3.358636856079102</v>
+      </c>
+      <c r="MU34" t="n">
+        <v>6.1793</v>
+      </c>
+      <c r="MV34" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS34" t="n">
+        <v>3.357733011245728</v>
+      </c>
+      <c r="OT34" t="n">
+        <v>7.02673</v>
+      </c>
+      <c r="OU34" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR34" t="n">
+        <v>3.361858129501343</v>
+      </c>
+      <c r="QS34" t="n">
+        <v>7.79414</v>
+      </c>
+      <c r="QT34" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ34" t="n">
+        <v>3.358470916748047</v>
+      </c>
+      <c r="SR34" t="n">
+        <v>8.452439999999999</v>
+      </c>
+      <c r="SS34" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP34" t="n">
+        <v>3.361762046813965</v>
+      </c>
+      <c r="UQ34" t="n">
+        <v>8.707039999999999</v>
+      </c>
+      <c r="UR34" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO34" t="n">
+        <v>3.352982759475708</v>
+      </c>
+      <c r="WP34" t="n">
+        <v>8.943440000000001</v>
+      </c>
+      <c r="WQ34" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN34" t="n">
+        <v>3.361441135406494</v>
+      </c>
+      <c r="YO34" t="n">
+        <v>10.35825</v>
+      </c>
+      <c r="YP34" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM34" t="n">
+        <v>3.362020015716553</v>
+      </c>
+      <c r="AAN34" t="n">
+        <v>10.20549</v>
+      </c>
+      <c r="AAO34" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL34" t="n">
+        <v>3.349859952926636</v>
+      </c>
+      <c r="ACM34" t="n">
+        <v>11.42389</v>
+      </c>
+      <c r="ACN34" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK34" t="n">
+        <v>3.366344928741455</v>
+      </c>
+      <c r="AEL34" t="n">
+        <v>12.17312</v>
+      </c>
+      <c r="AEM34" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ34" t="n">
+        <v>3.364929914474487</v>
+      </c>
+      <c r="AGK34" t="n">
+        <v>13.88252</v>
+      </c>
+      <c r="AGL34" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3.460906982421875</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.90198</v>
+      </c>
+      <c r="C35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>3.459788084030151</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>1.80033</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY35" t="n">
+        <v>3.472018957138062</v>
+      </c>
+      <c r="CZ35" t="n">
+        <v>2.87325</v>
+      </c>
+      <c r="DA35" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX35" t="n">
+        <v>3.460531949996948</v>
+      </c>
+      <c r="EY35" t="n">
+        <v>4.00073</v>
+      </c>
+      <c r="EZ35" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW35" t="n">
+        <v>3.457955121994019</v>
+      </c>
+      <c r="GX35" t="n">
+        <v>4.78632</v>
+      </c>
+      <c r="GY35" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV35" t="n">
+        <v>3.459887027740479</v>
+      </c>
+      <c r="IW35" t="n">
+        <v>5.57192</v>
+      </c>
+      <c r="IX35" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU35" t="n">
+        <v>3.459234952926636</v>
+      </c>
+      <c r="KV35" t="n">
+        <v>6.30296</v>
+      </c>
+      <c r="KW35" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT35" t="n">
+        <v>3.461736917495728</v>
+      </c>
+      <c r="MU35" t="n">
+        <v>6.1793</v>
+      </c>
+      <c r="MV35" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS35" t="n">
+        <v>3.460847139358521</v>
+      </c>
+      <c r="OT35" t="n">
+        <v>7.07765</v>
+      </c>
+      <c r="OU35" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR35" t="n">
+        <v>3.464415073394775</v>
+      </c>
+      <c r="QS35" t="n">
+        <v>7.8196</v>
+      </c>
+      <c r="QT35" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ35" t="n">
+        <v>3.462427854537964</v>
+      </c>
+      <c r="SR35" t="n">
+        <v>8.452439999999999</v>
+      </c>
+      <c r="SS35" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP35" t="n">
+        <v>3.458478927612305</v>
+      </c>
+      <c r="UQ35" t="n">
+        <v>8.71795</v>
+      </c>
+      <c r="UR35" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO35" t="n">
+        <v>3.461771011352539</v>
+      </c>
+      <c r="WP35" t="n">
+        <v>8.91071</v>
+      </c>
+      <c r="WQ35" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN35" t="n">
+        <v>3.464221954345703</v>
+      </c>
+      <c r="YO35" t="n">
+        <v>10.34733</v>
+      </c>
+      <c r="YP35" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM35" t="n">
+        <v>3.465007066726685</v>
+      </c>
+      <c r="AAN35" t="n">
+        <v>10.18003</v>
+      </c>
+      <c r="AAO35" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL35" t="n">
+        <v>3.463836908340454</v>
+      </c>
+      <c r="ACM35" t="n">
+        <v>11.38389</v>
+      </c>
+      <c r="ACN35" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK35" t="n">
+        <v>3.468564987182617</v>
+      </c>
+      <c r="AEL35" t="n">
+        <v>12.20222</v>
+      </c>
+      <c r="AEM35" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ35" t="n">
+        <v>3.467253923416138</v>
+      </c>
+      <c r="AGK35" t="n">
+        <v>13.85706</v>
+      </c>
+      <c r="AGL35" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3.562642812728882</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.90198</v>
+      </c>
+      <c r="C36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>3.574506998062134</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>1.81488</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY36" t="n">
+        <v>3.576192855834961</v>
+      </c>
+      <c r="CZ36" t="n">
+        <v>2.88052</v>
+      </c>
+      <c r="DA36" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX36" t="n">
+        <v>3.562952995300293</v>
+      </c>
+      <c r="EY36" t="n">
+        <v>4.00073</v>
+      </c>
+      <c r="EZ36" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW36" t="n">
+        <v>3.575441837310791</v>
+      </c>
+      <c r="GX36" t="n">
+        <v>4.7936</v>
+      </c>
+      <c r="GY36" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV36" t="n">
+        <v>3.563582897186279</v>
+      </c>
+      <c r="IW36" t="n">
+        <v>5.5792</v>
+      </c>
+      <c r="IX36" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU36" t="n">
+        <v>3.575253963470459</v>
+      </c>
+      <c r="KV36" t="n">
+        <v>6.2775</v>
+      </c>
+      <c r="KW36" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT36" t="n">
+        <v>3.563463926315308</v>
+      </c>
+      <c r="MU36" t="n">
+        <v>6.17203</v>
+      </c>
+      <c r="MV36" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS36" t="n">
+        <v>3.574918031692505</v>
+      </c>
+      <c r="OT36" t="n">
+        <v>7.13584</v>
+      </c>
+      <c r="OU36" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR36" t="n">
+        <v>3.575329065322876</v>
+      </c>
+      <c r="QS36" t="n">
+        <v>7.83415</v>
+      </c>
+      <c r="QT36" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ36" t="n">
+        <v>3.575389862060547</v>
+      </c>
+      <c r="SR36" t="n">
+        <v>8.45608</v>
+      </c>
+      <c r="SS36" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP36" t="n">
+        <v>3.575711965560913</v>
+      </c>
+      <c r="UQ36" t="n">
+        <v>8.736129999999999</v>
+      </c>
+      <c r="UR36" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO36" t="n">
+        <v>3.566077947616577</v>
+      </c>
+      <c r="WP36" t="n">
+        <v>8.856159999999999</v>
+      </c>
+      <c r="WQ36" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN36" t="n">
+        <v>3.574651002883911</v>
+      </c>
+      <c r="YO36" t="n">
+        <v>10.36552</v>
+      </c>
+      <c r="YP36" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM36" t="n">
+        <v>3.566863059997559</v>
+      </c>
+      <c r="AAN36" t="n">
+        <v>10.19822</v>
+      </c>
+      <c r="AAO36" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL36" t="n">
+        <v>3.566406965255737</v>
+      </c>
+      <c r="ACM36" t="n">
+        <v>11.34752</v>
+      </c>
+      <c r="ACN36" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK36" t="n">
+        <v>3.580327272415161</v>
+      </c>
+      <c r="AEL36" t="n">
+        <v>12.23131</v>
+      </c>
+      <c r="AEM36" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ36" t="n">
+        <v>3.57082986831665</v>
+      </c>
+      <c r="AGK36" t="n">
+        <v>13.85706</v>
+      </c>
+      <c r="AGL36" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3.673453092575073</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.8874300000000001</v>
+      </c>
+      <c r="C37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>3.678349733352661</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>1.81488</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY37" t="n">
+        <v>3.678447723388672</v>
+      </c>
+      <c r="CZ37" t="n">
+        <v>2.87325</v>
+      </c>
+      <c r="DA37" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX37" t="n">
+        <v>3.666240930557251</v>
+      </c>
+      <c r="EY37" t="n">
+        <v>3.99345</v>
+      </c>
+      <c r="EZ37" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW37" t="n">
+        <v>3.672561883926392</v>
+      </c>
+      <c r="GX37" t="n">
+        <v>4.79724</v>
+      </c>
+      <c r="GY37" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV37" t="n">
+        <v>3.674134969711304</v>
+      </c>
+      <c r="IW37" t="n">
+        <v>5.56828</v>
+      </c>
+      <c r="IX37" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU37" t="n">
+        <v>3.677217960357666</v>
+      </c>
+      <c r="KV37" t="n">
+        <v>6.23386</v>
+      </c>
+      <c r="KW37" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT37" t="n">
+        <v>3.664206981658936</v>
+      </c>
+      <c r="MU37" t="n">
+        <v>6.16839</v>
+      </c>
+      <c r="MV37" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS37" t="n">
+        <v>3.678179025650024</v>
+      </c>
+      <c r="OT37" t="n">
+        <v>7.15039</v>
+      </c>
+      <c r="OU37" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR37" t="n">
+        <v>3.67854905128479</v>
+      </c>
+      <c r="QS37" t="n">
+        <v>7.8196</v>
+      </c>
+      <c r="QT37" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ37" t="n">
+        <v>3.678776979446411</v>
+      </c>
+      <c r="SR37" t="n">
+        <v>8.452439999999999</v>
+      </c>
+      <c r="SS37" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP37" t="n">
+        <v>3.676854848861694</v>
+      </c>
+      <c r="UQ37" t="n">
+        <v>8.757960000000001</v>
+      </c>
+      <c r="UR37" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO37" t="n">
+        <v>3.669736862182617</v>
+      </c>
+      <c r="WP37" t="n">
+        <v>8.81251</v>
+      </c>
+      <c r="WQ37" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN37" t="n">
+        <v>3.677166938781738</v>
+      </c>
+      <c r="YO37" t="n">
+        <v>10.37279</v>
+      </c>
+      <c r="YP37" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM37" t="n">
+        <v>3.679198980331421</v>
+      </c>
+      <c r="AAN37" t="n">
+        <v>10.22368</v>
+      </c>
+      <c r="AAO37" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL37" t="n">
+        <v>3.66870903968811</v>
+      </c>
+      <c r="ACM37" t="n">
+        <v>11.32206</v>
+      </c>
+      <c r="ACN37" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK37" t="n">
+        <v>3.681118965148926</v>
+      </c>
+      <c r="AEL37" t="n">
+        <v>12.24222</v>
+      </c>
+      <c r="AEM37" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ37" t="n">
+        <v>3.682019948959351</v>
+      </c>
+      <c r="AGK37" t="n">
+        <v>13.87161</v>
+      </c>
+      <c r="AGL37" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3.775046825408936</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.8801600000000001</v>
+      </c>
+      <c r="C38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>3.779489994049072</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>1.81488</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY38" t="n">
+        <v>3.780381917953491</v>
+      </c>
+      <c r="CZ38" t="n">
+        <v>2.86598</v>
+      </c>
+      <c r="DA38" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX38" t="n">
+        <v>3.775441884994507</v>
+      </c>
+      <c r="EY38" t="n">
+        <v>3.9789</v>
+      </c>
+      <c r="EZ38" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW38" t="n">
+        <v>3.775832176208496</v>
+      </c>
+      <c r="GX38" t="n">
+        <v>4.80815</v>
+      </c>
+      <c r="GY38" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV38" t="n">
+        <v>3.778352022171021</v>
+      </c>
+      <c r="IW38" t="n">
+        <v>5.56101</v>
+      </c>
+      <c r="IX38" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU38" t="n">
+        <v>3.779691934585571</v>
+      </c>
+      <c r="KV38" t="n">
+        <v>6.21204</v>
+      </c>
+      <c r="KW38" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT38" t="n">
+        <v>3.774676084518433</v>
+      </c>
+      <c r="MU38" t="n">
+        <v>6.15385</v>
+      </c>
+      <c r="MV38" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS38" t="n">
+        <v>3.776335000991821</v>
+      </c>
+      <c r="OT38" t="n">
+        <v>7.14675</v>
+      </c>
+      <c r="OU38" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR38" t="n">
+        <v>3.780824184417725</v>
+      </c>
+      <c r="QS38" t="n">
+        <v>7.81233</v>
+      </c>
+      <c r="QT38" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ38" t="n">
+        <v>3.776177883148193</v>
+      </c>
+      <c r="SR38" t="n">
+        <v>8.43426</v>
+      </c>
+      <c r="SS38" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP38" t="n">
+        <v>3.779151916503906</v>
+      </c>
+      <c r="UQ38" t="n">
+        <v>8.765230000000001</v>
+      </c>
+      <c r="UR38" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO38" t="n">
+        <v>3.779105663299561</v>
+      </c>
+      <c r="WP38" t="n">
+        <v>8.81615</v>
+      </c>
+      <c r="WQ38" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN38" t="n">
+        <v>3.78209114074707</v>
+      </c>
+      <c r="YO38" t="n">
+        <v>10.36916</v>
+      </c>
+      <c r="YP38" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM38" t="n">
+        <v>3.783596992492676</v>
+      </c>
+      <c r="AAN38" t="n">
+        <v>10.25277</v>
+      </c>
+      <c r="AAO38" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL38" t="n">
+        <v>3.779513835906982</v>
+      </c>
+      <c r="ACM38" t="n">
+        <v>11.30751</v>
+      </c>
+      <c r="ACN38" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK38" t="n">
+        <v>3.78528904914856</v>
+      </c>
+      <c r="AEL38" t="n">
+        <v>12.26768</v>
+      </c>
+      <c r="AEM38" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ38" t="n">
+        <v>3.784703969955444</v>
+      </c>
+      <c r="AGK38" t="n">
+        <v>13.88616</v>
+      </c>
+      <c r="AGL38" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3.877733945846558</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.8838</v>
+      </c>
+      <c r="C39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>3.878159761428833</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>1.81488</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY39" t="n">
+        <v>3.891292810440063</v>
+      </c>
+      <c r="CZ39" t="n">
+        <v>2.87689</v>
+      </c>
+      <c r="DA39" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX39" t="n">
+        <v>3.879662990570068</v>
+      </c>
+      <c r="EY39" t="n">
+        <v>3.97163</v>
+      </c>
+      <c r="EZ39" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW39" t="n">
+        <v>3.891062021255493</v>
+      </c>
+      <c r="GX39" t="n">
+        <v>4.82633</v>
+      </c>
+      <c r="GY39" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV39" t="n">
+        <v>3.878159999847412</v>
+      </c>
+      <c r="IW39" t="n">
+        <v>5.56828</v>
+      </c>
+      <c r="IX39" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU39" t="n">
+        <v>3.877783060073853</v>
+      </c>
+      <c r="KV39" t="n">
+        <v>6.19749</v>
+      </c>
+      <c r="KW39" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT39" t="n">
+        <v>3.879256963729858</v>
+      </c>
+      <c r="MU39" t="n">
+        <v>6.16476</v>
+      </c>
+      <c r="MV39" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS39" t="n">
+        <v>3.879199028015137</v>
+      </c>
+      <c r="OT39" t="n">
+        <v>7.13948</v>
+      </c>
+      <c r="OU39" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR39" t="n">
+        <v>3.882646083831787</v>
+      </c>
+      <c r="QS39" t="n">
+        <v>7.82324</v>
+      </c>
+      <c r="QT39" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ39" t="n">
+        <v>3.878846883773804</v>
+      </c>
+      <c r="SR39" t="n">
+        <v>8.437900000000001</v>
+      </c>
+      <c r="SS39" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP39" t="n">
+        <v>3.884114742279053</v>
+      </c>
+      <c r="UQ39" t="n">
+        <v>8.77614</v>
+      </c>
+      <c r="UR39" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO39" t="n">
+        <v>3.883136987686157</v>
+      </c>
+      <c r="WP39" t="n">
+        <v>8.82342</v>
+      </c>
+      <c r="WQ39" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN39" t="n">
+        <v>3.882189989089966</v>
+      </c>
+      <c r="YO39" t="n">
+        <v>10.35825</v>
+      </c>
+      <c r="YP39" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM39" t="n">
+        <v>3.882536888122559</v>
+      </c>
+      <c r="AAN39" t="n">
+        <v>10.25641</v>
+      </c>
+      <c r="AAO39" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL39" t="n">
+        <v>3.8835768699646</v>
+      </c>
+      <c r="ACM39" t="n">
+        <v>11.30387</v>
+      </c>
+      <c r="ACN39" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK39" t="n">
+        <v>3.886764049530029</v>
+      </c>
+      <c r="AEL39" t="n">
+        <v>12.26405</v>
+      </c>
+      <c r="AEM39" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ39" t="n">
+        <v>3.88613486289978</v>
+      </c>
+      <c r="AGK39" t="n">
+        <v>13.89343</v>
+      </c>
+      <c r="AGL39" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3.982234954833984</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.89835</v>
+      </c>
+      <c r="C40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>3.992598056793213</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>1.81488</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY40" t="n">
+        <v>3.994402885437012</v>
+      </c>
+      <c r="CZ40" t="n">
+        <v>2.88416</v>
+      </c>
+      <c r="DA40" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX40" t="n">
+        <v>3.980529069900513</v>
+      </c>
+      <c r="EY40" t="n">
+        <v>3.96799</v>
+      </c>
+      <c r="EZ40" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW40" t="n">
+        <v>3.992946863174438</v>
+      </c>
+      <c r="GX40" t="n">
+        <v>4.84088</v>
+      </c>
+      <c r="GY40" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV40" t="n">
+        <v>3.982056856155396</v>
+      </c>
+      <c r="IW40" t="n">
+        <v>5.56101</v>
+      </c>
+      <c r="IX40" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU40" t="n">
+        <v>3.99224328994751</v>
+      </c>
+      <c r="KV40" t="n">
+        <v>6.17203</v>
+      </c>
+      <c r="KW40" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT40" t="n">
+        <v>3.980273962020874</v>
+      </c>
+      <c r="MU40" t="n">
+        <v>6.17203</v>
+      </c>
+      <c r="MV40" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS40" t="n">
+        <v>3.993157148361206</v>
+      </c>
+      <c r="OT40" t="n">
+        <v>7.15039</v>
+      </c>
+      <c r="OU40" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR40" t="n">
+        <v>3.992742300033569</v>
+      </c>
+      <c r="QS40" t="n">
+        <v>7.8196</v>
+      </c>
+      <c r="QT40" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ40" t="n">
+        <v>3.993504047393799</v>
+      </c>
+      <c r="SR40" t="n">
+        <v>8.44153</v>
+      </c>
+      <c r="SS40" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP40" t="n">
+        <v>3.99233603477478</v>
+      </c>
+      <c r="UQ40" t="n">
+        <v>8.76887</v>
+      </c>
+      <c r="UR40" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO40" t="n">
+        <v>3.985713720321655</v>
+      </c>
+      <c r="WP40" t="n">
+        <v>8.82342</v>
+      </c>
+      <c r="WQ40" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN40" t="n">
+        <v>3.992534160614014</v>
+      </c>
+      <c r="YO40" t="n">
+        <v>10.37279</v>
+      </c>
+      <c r="YP40" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM40" t="n">
+        <v>3.987216234207153</v>
+      </c>
+      <c r="AAN40" t="n">
+        <v>10.27096</v>
+      </c>
+      <c r="AAO40" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL40" t="n">
+        <v>3.983668088912964</v>
+      </c>
+      <c r="ACM40" t="n">
+        <v>11.27478</v>
+      </c>
+      <c r="ACN40" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK40" t="n">
+        <v>3.996876001358032</v>
+      </c>
+      <c r="AEL40" t="n">
+        <v>12.27859</v>
+      </c>
+      <c r="AEM40" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ40" t="n">
+        <v>3.99713397026062</v>
+      </c>
+      <c r="AGK40" t="n">
+        <v>13.84252</v>
+      </c>
+      <c r="AGL40" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>4.090216875076294</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.90562</v>
+      </c>
+      <c r="C41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>4.095377922058105</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>1.82215</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY41" t="n">
+        <v>4.094444036483765</v>
+      </c>
+      <c r="CZ41" t="n">
+        <v>2.89507</v>
+      </c>
+      <c r="DA41" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX41" t="n">
+        <v>4.096823930740356</v>
+      </c>
+      <c r="EY41" t="n">
+        <v>3.96072</v>
+      </c>
+      <c r="EZ41" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW41" t="n">
+        <v>4.092308044433594</v>
+      </c>
+      <c r="GX41" t="n">
+        <v>4.85543</v>
+      </c>
+      <c r="GY41" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV41" t="n">
+        <v>4.091182947158813</v>
+      </c>
+      <c r="IW41" t="n">
+        <v>5.56828</v>
+      </c>
+      <c r="IX41" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU41" t="n">
+        <v>4.09508228302002</v>
+      </c>
+      <c r="KV41" t="n">
+        <v>6.14293</v>
+      </c>
+      <c r="KW41" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT41" t="n">
+        <v>4.081493139266968</v>
+      </c>
+      <c r="MU41" t="n">
+        <v>6.1793</v>
+      </c>
+      <c r="MV41" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS41" t="n">
+        <v>4.095832109451294</v>
+      </c>
+      <c r="OT41" t="n">
+        <v>7.1613</v>
+      </c>
+      <c r="OU41" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR41" t="n">
+        <v>4.095484256744385</v>
+      </c>
+      <c r="QS41" t="n">
+        <v>7.81597</v>
+      </c>
+      <c r="QT41" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ41" t="n">
+        <v>4.097288846969604</v>
+      </c>
+      <c r="SR41" t="n">
+        <v>8.41971</v>
+      </c>
+      <c r="SS41" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP41" t="n">
+        <v>4.095964908599854</v>
+      </c>
+      <c r="UQ41" t="n">
+        <v>8.75432</v>
+      </c>
+      <c r="UR41" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO41" t="n">
+        <v>4.08726978302002</v>
+      </c>
+      <c r="WP41" t="n">
+        <v>8.8307</v>
+      </c>
+      <c r="WQ41" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN41" t="n">
+        <v>4.095371007919312</v>
+      </c>
+      <c r="YO41" t="n">
+        <v>10.39462</v>
+      </c>
+      <c r="YP41" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM41" t="n">
+        <v>4.100686073303223</v>
+      </c>
+      <c r="AAN41" t="n">
+        <v>10.27823</v>
+      </c>
+      <c r="AAO41" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL41" t="n">
+        <v>4.087017059326172</v>
+      </c>
+      <c r="ACM41" t="n">
+        <v>11.25295</v>
+      </c>
+      <c r="ACN41" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK41" t="n">
+        <v>4.100259065628052</v>
+      </c>
+      <c r="AEL41" t="n">
+        <v>12.28951</v>
+      </c>
+      <c r="AEM41" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ41" t="n">
+        <v>4.097983837127686</v>
+      </c>
+      <c r="AGK41" t="n">
+        <v>13.78069</v>
+      </c>
+      <c r="AGL41" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>4.194480895996094</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.90198</v>
+      </c>
+      <c r="C42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>4.198626756668091</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>1.81851</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY42" t="n">
+        <v>4.207610845565796</v>
+      </c>
+      <c r="CZ42" t="n">
+        <v>2.89507</v>
+      </c>
+      <c r="DA42" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX42" t="n">
+        <v>4.194724082946777</v>
+      </c>
+      <c r="EY42" t="n">
+        <v>3.96072</v>
+      </c>
+      <c r="EZ42" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW42" t="n">
+        <v>4.193785905838013</v>
+      </c>
+      <c r="GX42" t="n">
+        <v>4.86634</v>
+      </c>
+      <c r="GY42" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV42" t="n">
+        <v>4.195827960968018</v>
+      </c>
+      <c r="IW42" t="n">
+        <v>5.58283</v>
+      </c>
+      <c r="IX42" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU42" t="n">
+        <v>4.193636178970337</v>
+      </c>
+      <c r="KV42" t="n">
+        <v>6.11748</v>
+      </c>
+      <c r="KW42" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT42" t="n">
+        <v>4.195442914962769</v>
+      </c>
+      <c r="MU42" t="n">
+        <v>6.16112</v>
+      </c>
+      <c r="MV42" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS42" t="n">
+        <v>4.19450306892395</v>
+      </c>
+      <c r="OT42" t="n">
+        <v>7.15766</v>
+      </c>
+      <c r="OU42" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR42" t="n">
+        <v>4.198184967041016</v>
+      </c>
+      <c r="QS42" t="n">
+        <v>7.82324</v>
+      </c>
+      <c r="QT42" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ42" t="n">
+        <v>4.193855047225952</v>
+      </c>
+      <c r="SR42" t="n">
+        <v>8.416069999999999</v>
+      </c>
+      <c r="SS42" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP42" t="n">
+        <v>4.197233915328979</v>
+      </c>
+      <c r="UQ42" t="n">
+        <v>8.73977</v>
+      </c>
+      <c r="UR42" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO42" t="n">
+        <v>4.198386907577515</v>
+      </c>
+      <c r="WP42" t="n">
+        <v>8.8307</v>
+      </c>
+      <c r="WQ42" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN42" t="n">
+        <v>4.199550151824951</v>
+      </c>
+      <c r="YO42" t="n">
+        <v>10.4128</v>
+      </c>
+      <c r="YP42" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM42" t="n">
+        <v>4.198077201843262</v>
+      </c>
+      <c r="AAN42" t="n">
+        <v>10.27459</v>
+      </c>
+      <c r="AAO42" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL42" t="n">
+        <v>4.198271036148071</v>
+      </c>
+      <c r="ACM42" t="n">
+        <v>11.25295</v>
+      </c>
+      <c r="ACN42" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK42" t="n">
+        <v>4.202137231826782</v>
+      </c>
+      <c r="AEL42" t="n">
+        <v>12.25677</v>
+      </c>
+      <c r="AEM42" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ42" t="n">
+        <v>4.200977087020874</v>
+      </c>
+      <c r="AGK42" t="n">
+        <v>13.78069</v>
+      </c>
+      <c r="AGL42" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>4.295326948165894</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.90562</v>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>4.296948909759521</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>1.81851</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY43" t="n">
+        <v>4.308790922164917</v>
+      </c>
+      <c r="CZ43" t="n">
+        <v>2.90235</v>
+      </c>
+      <c r="DA43" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX43" t="n">
+        <v>4.29633092880249</v>
+      </c>
+      <c r="EY43" t="n">
+        <v>3.94981</v>
+      </c>
+      <c r="EZ43" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW43" t="n">
+        <v>4.309695959091187</v>
+      </c>
+      <c r="GX43" t="n">
+        <v>4.87361</v>
+      </c>
+      <c r="GY43" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV43" t="n">
+        <v>4.296489953994751</v>
+      </c>
+      <c r="IW43" t="n">
+        <v>5.58647</v>
+      </c>
+      <c r="IX43" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU43" t="n">
+        <v>4.308687210083008</v>
+      </c>
+      <c r="KV43" t="n">
+        <v>6.07019</v>
+      </c>
+      <c r="KW43" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT43" t="n">
+        <v>4.29734992980957</v>
+      </c>
+      <c r="MU43" t="n">
+        <v>6.15021</v>
+      </c>
+      <c r="MV43" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS43" t="n">
+        <v>4.30809497833252</v>
+      </c>
+      <c r="OT43" t="n">
+        <v>7.15403</v>
+      </c>
+      <c r="OU43" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR43" t="n">
+        <v>4.308964252471924</v>
+      </c>
+      <c r="QS43" t="n">
+        <v>7.82688</v>
+      </c>
+      <c r="QT43" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ43" t="n">
+        <v>4.297358989715576</v>
+      </c>
+      <c r="SR43" t="n">
+        <v>8.40516</v>
+      </c>
+      <c r="SS43" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP43" t="n">
+        <v>4.309258937835693</v>
+      </c>
+      <c r="UQ43" t="n">
+        <v>8.74704</v>
+      </c>
+      <c r="UR43" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO43" t="n">
+        <v>4.30075478553772</v>
+      </c>
+      <c r="WP43" t="n">
+        <v>8.80524</v>
+      </c>
+      <c r="WQ43" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN43" t="n">
+        <v>4.307180166244507</v>
+      </c>
+      <c r="YO43" t="n">
+        <v>10.4419</v>
+      </c>
+      <c r="YP43" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM43" t="n">
+        <v>4.301258087158203</v>
+      </c>
+      <c r="AAN43" t="n">
+        <v>10.30005</v>
+      </c>
+      <c r="AAO43" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL43" t="n">
+        <v>4.300516843795776</v>
+      </c>
+      <c r="ACM43" t="n">
+        <v>11.25295</v>
+      </c>
+      <c r="ACN43" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK43" t="n">
+        <v>4.305559158325195</v>
+      </c>
+      <c r="AEL43" t="n">
+        <v>12.24586</v>
+      </c>
+      <c r="AEM43" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ43" t="n">
+        <v>4.304224967956543</v>
+      </c>
+      <c r="AGK43" t="n">
+        <v>13.81706</v>
+      </c>
+      <c r="AGL43" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>4.408504962921143</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.91653</v>
+      </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>4.41304874420166</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>1.81124</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY44" t="n">
+        <v>4.408285856246948</v>
+      </c>
+      <c r="CZ44" t="n">
+        <v>2.89871</v>
+      </c>
+      <c r="DA44" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX44" t="n">
+        <v>4.40005087852478</v>
+      </c>
+      <c r="EY44" t="n">
+        <v>3.93162</v>
+      </c>
+      <c r="EZ44" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW44" t="n">
+        <v>4.412693023681641</v>
+      </c>
+      <c r="GX44" t="n">
+        <v>4.87725</v>
+      </c>
+      <c r="GY44" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV44" t="n">
+        <v>4.408243894577026</v>
+      </c>
+      <c r="IW44" t="n">
+        <v>5.59011</v>
+      </c>
+      <c r="IX44" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU44" t="n">
+        <v>4.410311222076416</v>
+      </c>
+      <c r="KV44" t="n">
+        <v>6.03019</v>
+      </c>
+      <c r="KW44" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT44" t="n">
+        <v>4.399930000305176</v>
+      </c>
+      <c r="MU44" t="n">
+        <v>6.15748</v>
+      </c>
+      <c r="MV44" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS44" t="n">
+        <v>4.411134958267212</v>
+      </c>
+      <c r="OT44" t="n">
+        <v>7.1613</v>
+      </c>
+      <c r="OU44" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR44" t="n">
+        <v>4.412387132644653</v>
+      </c>
+      <c r="QS44" t="n">
+        <v>7.83051</v>
+      </c>
+      <c r="QT44" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ44" t="n">
+        <v>4.412058115005493</v>
+      </c>
+      <c r="SR44" t="n">
+        <v>8.39062</v>
+      </c>
+      <c r="SS44" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP44" t="n">
+        <v>4.4112229347229</v>
+      </c>
+      <c r="UQ44" t="n">
+        <v>8.750679999999999</v>
+      </c>
+      <c r="UR44" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO44" t="n">
+        <v>4.403441905975342</v>
+      </c>
+      <c r="WP44" t="n">
+        <v>8.77614</v>
+      </c>
+      <c r="WQ44" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN44" t="n">
+        <v>4.41127610206604</v>
+      </c>
+      <c r="YO44" t="n">
+        <v>10.4419</v>
+      </c>
+      <c r="YP44" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM44" t="n">
+        <v>4.417259931564331</v>
+      </c>
+      <c r="AAN44" t="n">
+        <v>10.35825</v>
+      </c>
+      <c r="AAO44" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL44" t="n">
+        <v>4.405606985092163</v>
+      </c>
+      <c r="ACM44" t="n">
+        <v>11.23113</v>
+      </c>
+      <c r="ACN44" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK44" t="n">
+        <v>4.416404962539673</v>
+      </c>
+      <c r="AEL44" t="n">
+        <v>12.24222</v>
+      </c>
+      <c r="AEM44" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ44" t="n">
+        <v>4.415108919143677</v>
+      </c>
+      <c r="AGK44" t="n">
+        <v>13.82797</v>
+      </c>
+      <c r="AGL44" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>4.509970903396606</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.92017</v>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>4.514015913009644</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>1.81124</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY45" t="n">
+        <v>4.513577938079834</v>
+      </c>
+      <c r="CZ45" t="n">
+        <v>2.89507</v>
+      </c>
+      <c r="DA45" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX45" t="n">
+        <v>4.512062788009644</v>
+      </c>
+      <c r="EY45" t="n">
+        <v>3.92071</v>
+      </c>
+      <c r="EZ45" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW45" t="n">
+        <v>4.50986909866333</v>
+      </c>
+      <c r="GX45" t="n">
+        <v>4.87725</v>
+      </c>
+      <c r="GY45" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV45" t="n">
+        <v>4.510522127151489</v>
+      </c>
+      <c r="IW45" t="n">
+        <v>5.59374</v>
+      </c>
+      <c r="IX45" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU45" t="n">
+        <v>4.515235185623169</v>
+      </c>
+      <c r="KV45" t="n">
+        <v>5.98291</v>
+      </c>
+      <c r="KW45" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT45" t="n">
+        <v>4.510771989822388</v>
+      </c>
+      <c r="MU45" t="n">
+        <v>6.15385</v>
+      </c>
+      <c r="MV45" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS45" t="n">
+        <v>4.5137619972229</v>
+      </c>
+      <c r="OT45" t="n">
+        <v>7.15403</v>
+      </c>
+      <c r="OU45" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR45" t="n">
+        <v>4.514520168304443</v>
+      </c>
+      <c r="QS45" t="n">
+        <v>7.83779</v>
+      </c>
+      <c r="QT45" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ45" t="n">
+        <v>4.514542102813721</v>
+      </c>
+      <c r="SR45" t="n">
+        <v>8.39062</v>
+      </c>
+      <c r="SS45" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP45" t="n">
+        <v>4.513514995574951</v>
+      </c>
+      <c r="UQ45" t="n">
+        <v>8.750679999999999</v>
+      </c>
+      <c r="UR45" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO45" t="n">
+        <v>4.514429807662964</v>
+      </c>
+      <c r="WP45" t="n">
+        <v>8.79069</v>
+      </c>
+      <c r="WQ45" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN45" t="n">
+        <v>4.513569116592407</v>
+      </c>
+      <c r="YO45" t="n">
+        <v>10.43826</v>
+      </c>
+      <c r="YP45" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM45" t="n">
+        <v>4.518107175827026</v>
+      </c>
+      <c r="AAN45" t="n">
+        <v>10.39825</v>
+      </c>
+      <c r="AAO45" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL45" t="n">
+        <v>4.513106107711792</v>
+      </c>
+      <c r="ACM45" t="n">
+        <v>11.23113</v>
+      </c>
+      <c r="ACN45" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK45" t="n">
+        <v>4.518202066421509</v>
+      </c>
+      <c r="AEL45" t="n">
+        <v>12.2204</v>
+      </c>
+      <c r="AEM45" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ45" t="n">
+        <v>4.518158912658691</v>
+      </c>
+      <c r="AGK45" t="n">
+        <v>13.81342</v>
+      </c>
+      <c r="AGL45" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>4.611329078674316</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.90926</v>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>4.616811990737915</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>1.82215</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY46" t="n">
+        <v>4.624370813369751</v>
+      </c>
+      <c r="CZ46" t="n">
+        <v>2.89143</v>
+      </c>
+      <c r="DA46" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX46" t="n">
+        <v>4.615461111068726</v>
+      </c>
+      <c r="EY46" t="n">
+        <v>3.91344</v>
+      </c>
+      <c r="EZ46" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW46" t="n">
+        <v>4.625725984573364</v>
+      </c>
+      <c r="GX46" t="n">
+        <v>4.87361</v>
+      </c>
+      <c r="GY46" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV46" t="n">
+        <v>4.612975120544434</v>
+      </c>
+      <c r="IW46" t="n">
+        <v>5.60102</v>
+      </c>
+      <c r="IX46" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU46" t="n">
+        <v>4.611793041229248</v>
+      </c>
+      <c r="KV46" t="n">
+        <v>5.96108</v>
+      </c>
+      <c r="KW46" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT46" t="n">
+        <v>4.613646984100342</v>
+      </c>
+      <c r="MU46" t="n">
+        <v>6.13202</v>
+      </c>
+      <c r="MV46" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS46" t="n">
+        <v>4.612410068511963</v>
+      </c>
+      <c r="OT46" t="n">
+        <v>7.11766</v>
+      </c>
+      <c r="OU46" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR46" t="n">
+        <v>4.617501258850098</v>
+      </c>
+      <c r="QS46" t="n">
+        <v>7.83415</v>
+      </c>
+      <c r="QT46" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ46" t="n">
+        <v>4.616158008575439</v>
+      </c>
+      <c r="SR46" t="n">
+        <v>8.3797</v>
+      </c>
+      <c r="SS46" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP46" t="n">
+        <v>4.616379022598267</v>
+      </c>
+      <c r="UQ46" t="n">
+        <v>8.750679999999999</v>
+      </c>
+      <c r="UR46" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO46" t="n">
+        <v>4.61729884147644</v>
+      </c>
+      <c r="WP46" t="n">
+        <v>8.81978</v>
+      </c>
+      <c r="WQ46" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN46" t="n">
+        <v>4.615772008895874</v>
+      </c>
+      <c r="YO46" t="n">
+        <v>10.43099</v>
+      </c>
+      <c r="YP46" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM46" t="n">
+        <v>4.61972188949585</v>
+      </c>
+      <c r="AAN46" t="n">
+        <v>10.39825</v>
+      </c>
+      <c r="AAO46" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL46" t="n">
+        <v>4.616502046585083</v>
+      </c>
+      <c r="ACM46" t="n">
+        <v>11.26387</v>
+      </c>
+      <c r="ACN46" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK46" t="n">
+        <v>4.621269941329956</v>
+      </c>
+      <c r="AEL46" t="n">
+        <v>12.20585</v>
+      </c>
+      <c r="AEM46" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ46" t="n">
+        <v>4.620887041091919</v>
+      </c>
+      <c r="AGK46" t="n">
+        <v>13.81342</v>
+      </c>
+      <c r="AGL46" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4.715778112411499</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.89107</v>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>4.726773023605347</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>1.82579</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY47" t="n">
+        <v>4.727252960205078</v>
+      </c>
+      <c r="CZ47" t="n">
+        <v>2.87689</v>
+      </c>
+      <c r="DA47" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX47" t="n">
+        <v>4.714446067810059</v>
+      </c>
+      <c r="EY47" t="n">
+        <v>3.9098</v>
+      </c>
+      <c r="EZ47" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW47" t="n">
+        <v>4.72625207901001</v>
+      </c>
+      <c r="GX47" t="n">
+        <v>4.87725</v>
+      </c>
+      <c r="GY47" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV47" t="n">
+        <v>4.715643167495728</v>
+      </c>
+      <c r="IW47" t="n">
+        <v>5.59374</v>
+      </c>
+      <c r="IX47" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU47" t="n">
+        <v>4.726027965545654</v>
+      </c>
+      <c r="KV47" t="n">
+        <v>5.9429</v>
+      </c>
+      <c r="KW47" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT47" t="n">
+        <v>4.71602988243103</v>
+      </c>
+      <c r="MU47" t="n">
+        <v>6.09565</v>
+      </c>
+      <c r="MV47" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS47" t="n">
+        <v>4.726732015609741</v>
+      </c>
+      <c r="OT47" t="n">
+        <v>7.07401</v>
+      </c>
+      <c r="OU47" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR47" t="n">
+        <v>4.726084232330322</v>
+      </c>
+      <c r="QS47" t="n">
+        <v>7.83415</v>
+      </c>
+      <c r="QT47" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ47" t="n">
+        <v>4.726749897003174</v>
+      </c>
+      <c r="SR47" t="n">
+        <v>8.365159999999999</v>
+      </c>
+      <c r="SS47" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP47" t="n">
+        <v>4.726395130157471</v>
+      </c>
+      <c r="UQ47" t="n">
+        <v>8.7325</v>
+      </c>
+      <c r="UR47" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO47" t="n">
+        <v>4.717704772949219</v>
+      </c>
+      <c r="WP47" t="n">
+        <v>8.81615</v>
+      </c>
+      <c r="WQ47" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN47" t="n">
+        <v>4.726386070251465</v>
+      </c>
+      <c r="YO47" t="n">
+        <v>10.4128</v>
+      </c>
+      <c r="YP47" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM47" t="n">
+        <v>4.717319965362549</v>
+      </c>
+      <c r="AAN47" t="n">
+        <v>10.39825</v>
+      </c>
+      <c r="AAO47" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL47" t="n">
+        <v>4.718117952346802</v>
+      </c>
+      <c r="ACM47" t="n">
+        <v>11.28205</v>
+      </c>
+      <c r="ACN47" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK47" t="n">
+        <v>4.731052160263062</v>
+      </c>
+      <c r="AEL47" t="n">
+        <v>12.18767</v>
+      </c>
+      <c r="AEM47" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ47" t="n">
+        <v>4.722342014312744</v>
+      </c>
+      <c r="AGK47" t="n">
+        <v>13.83888</v>
+      </c>
+      <c r="AGL47" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>4.825556039810181</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.8801600000000001</v>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>4.830277919769287</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>1.82579</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY48" t="n">
+        <v>4.829685926437378</v>
+      </c>
+      <c r="CZ48" t="n">
+        <v>2.87325</v>
+      </c>
+      <c r="DA48" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX48" t="n">
+        <v>4.830310821533203</v>
+      </c>
+      <c r="EY48" t="n">
+        <v>3.9098</v>
+      </c>
+      <c r="EZ48" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW48" t="n">
+        <v>4.831362009048462</v>
+      </c>
+      <c r="GX48" t="n">
+        <v>4.88816</v>
+      </c>
+      <c r="GY48" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV48" t="n">
+        <v>4.825475931167603</v>
+      </c>
+      <c r="IW48" t="n">
+        <v>5.59738</v>
+      </c>
+      <c r="IX48" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU48" t="n">
+        <v>4.835180044174194</v>
+      </c>
+      <c r="KV48" t="n">
+        <v>5.93199</v>
+      </c>
+      <c r="KW48" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT48" t="n">
+        <v>4.818623065948486</v>
+      </c>
+      <c r="MU48" t="n">
+        <v>6.07747</v>
+      </c>
+      <c r="MV48" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS48" t="n">
+        <v>4.830025911331177</v>
+      </c>
+      <c r="OT48" t="n">
+        <v>7.04855</v>
+      </c>
+      <c r="OU48" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR48" t="n">
+        <v>4.829291105270386</v>
+      </c>
+      <c r="QS48" t="n">
+        <v>7.84506</v>
+      </c>
+      <c r="QT48" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ48" t="n">
+        <v>4.830942869186401</v>
+      </c>
+      <c r="SR48" t="n">
+        <v>8.365159999999999</v>
+      </c>
+      <c r="SS48" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP48" t="n">
+        <v>4.82997989654541</v>
+      </c>
+      <c r="UQ48" t="n">
+        <v>8.699759999999999</v>
+      </c>
+      <c r="UR48" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO48" t="n">
+        <v>4.821459770202637</v>
+      </c>
+      <c r="WP48" t="n">
+        <v>8.827059999999999</v>
+      </c>
+      <c r="WQ48" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN48" t="n">
+        <v>4.828975915908813</v>
+      </c>
+      <c r="YO48" t="n">
+        <v>10.40553</v>
+      </c>
+      <c r="YP48" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM48" t="n">
+        <v>4.834383010864258</v>
+      </c>
+      <c r="AAN48" t="n">
+        <v>10.42371</v>
+      </c>
+      <c r="AAO48" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL48" t="n">
+        <v>4.822077989578247</v>
+      </c>
+      <c r="ACM48" t="n">
+        <v>11.28205</v>
+      </c>
+      <c r="ACN48" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK48" t="n">
+        <v>4.834100008010864</v>
+      </c>
+      <c r="AEL48" t="n">
+        <v>12.16585</v>
+      </c>
+      <c r="AEM48" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ48" t="n">
+        <v>4.831984996795654</v>
+      </c>
+      <c r="AGK48" t="n">
+        <v>13.86798</v>
+      </c>
+      <c r="AGL48" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>4.92868709564209</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.8801600000000001</v>
+      </c>
+      <c r="C49" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>4.931856870651245</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>1.82215</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY49" t="n">
+        <v>4.942414045333862</v>
+      </c>
+      <c r="CZ49" t="n">
+        <v>2.87689</v>
+      </c>
+      <c r="DA49" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX49" t="n">
+        <v>4.931195974349976</v>
+      </c>
+      <c r="EY49" t="n">
+        <v>3.9098</v>
+      </c>
+      <c r="EZ49" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW49" t="n">
+        <v>4.925817012786865</v>
+      </c>
+      <c r="GX49" t="n">
+        <v>4.89544</v>
+      </c>
+      <c r="GY49" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV49" t="n">
+        <v>4.929193019866943</v>
+      </c>
+      <c r="IW49" t="n">
+        <v>5.60102</v>
+      </c>
+      <c r="IX49" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU49" t="n">
+        <v>4.93204402923584</v>
+      </c>
+      <c r="KV49" t="n">
+        <v>5.92835</v>
+      </c>
+      <c r="KW49" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT49" t="n">
+        <v>4.930188179016113</v>
+      </c>
+      <c r="MU49" t="n">
+        <v>6.08111</v>
+      </c>
+      <c r="MV49" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS49" t="n">
+        <v>4.933383226394653</v>
+      </c>
+      <c r="OT49" t="n">
+        <v>7.02673</v>
+      </c>
+      <c r="OU49" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR49" t="n">
+        <v>4.93141508102417</v>
+      </c>
+      <c r="QS49" t="n">
+        <v>7.86325</v>
+      </c>
+      <c r="QT49" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ49" t="n">
+        <v>4.932303190231323</v>
+      </c>
+      <c r="SR49" t="n">
+        <v>8.33606</v>
+      </c>
+      <c r="SS49" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP49" t="n">
+        <v>4.931129932403564</v>
+      </c>
+      <c r="UQ49" t="n">
+        <v>8.68521</v>
+      </c>
+      <c r="UR49" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO49" t="n">
+        <v>4.933475732803345</v>
+      </c>
+      <c r="WP49" t="n">
+        <v>8.808870000000001</v>
+      </c>
+      <c r="WQ49" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN49" t="n">
+        <v>4.930927991867065</v>
+      </c>
+      <c r="YO49" t="n">
+        <v>10.39825</v>
+      </c>
+      <c r="YP49" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM49" t="n">
+        <v>4.935592889785767</v>
+      </c>
+      <c r="AAN49" t="n">
+        <v>10.43826</v>
+      </c>
+      <c r="AAO49" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL49" t="n">
+        <v>4.930624008178711</v>
+      </c>
+      <c r="ACM49" t="n">
+        <v>11.24204</v>
+      </c>
+      <c r="ACN49" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK49" t="n">
+        <v>4.935320138931274</v>
+      </c>
+      <c r="AEL49" t="n">
+        <v>12.13675</v>
+      </c>
+      <c r="AEM49" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ49" t="n">
+        <v>4.937335968017578</v>
+      </c>
+      <c r="AGK49" t="n">
+        <v>13.90435</v>
+      </c>
+      <c r="AGL49" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5.030050992965698</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.8801600000000001</v>
+      </c>
+      <c r="C50" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>5.034631967544556</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>1.81851</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>20</v>
+      </c>
+      <c r="CY50" t="n">
+        <v>5.043016910552979</v>
+      </c>
+      <c r="CZ50" t="n">
+        <v>2.88416</v>
+      </c>
+      <c r="DA50" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX50" t="n">
+        <v>5.029481887817383</v>
+      </c>
+      <c r="EY50" t="n">
+        <v>3.90253</v>
+      </c>
+      <c r="EZ50" t="n">
+        <v>40</v>
+      </c>
+      <c r="GW50" t="n">
+        <v>5.041754245758057</v>
+      </c>
+      <c r="GX50" t="n">
+        <v>4.8918</v>
+      </c>
+      <c r="GY50" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV50" t="n">
+        <v>5.031158924102783</v>
+      </c>
+      <c r="IW50" t="n">
+        <v>5.60465</v>
+      </c>
+      <c r="IX50" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU50" t="n">
+        <v>5.041828155517578</v>
+      </c>
+      <c r="KV50" t="n">
+        <v>5.90653</v>
+      </c>
+      <c r="KW50" t="n">
+        <v>70</v>
+      </c>
+      <c r="MT50" t="n">
+        <v>5.031445980072021</v>
+      </c>
+      <c r="MU50" t="n">
+        <v>6.08474</v>
+      </c>
+      <c r="MV50" t="n">
+        <v>80</v>
+      </c>
+      <c r="OS50" t="n">
+        <v>5.031289100646973</v>
+      </c>
+      <c r="OT50" t="n">
+        <v>7.02673</v>
+      </c>
+      <c r="OU50" t="n">
+        <v>90</v>
+      </c>
+      <c r="QR50" t="n">
+        <v>5.034658193588257</v>
+      </c>
+      <c r="QS50" t="n">
+        <v>7.86688</v>
+      </c>
+      <c r="QT50" t="n">
+        <v>100</v>
+      </c>
+      <c r="SQ50" t="n">
+        <v>5.034888982772827</v>
+      </c>
+      <c r="SR50" t="n">
+        <v>8.303330000000001</v>
+      </c>
+      <c r="SS50" t="n">
+        <v>110</v>
+      </c>
+      <c r="UP50" t="n">
+        <v>5.034703016281128</v>
+      </c>
+      <c r="UQ50" t="n">
+        <v>8.674300000000001</v>
+      </c>
+      <c r="UR50" t="n">
+        <v>120</v>
+      </c>
+      <c r="WO50" t="n">
+        <v>5.03535795211792</v>
+      </c>
+      <c r="WP50" t="n">
+        <v>8.750679999999999</v>
+      </c>
+      <c r="WQ50" t="n">
+        <v>130</v>
+      </c>
+      <c r="YN50" t="n">
+        <v>5.033874988555908</v>
+      </c>
+      <c r="YO50" t="n">
+        <v>10.41644</v>
+      </c>
+      <c r="YP50" t="n">
+        <v>140</v>
+      </c>
+      <c r="AAM50" t="n">
+        <v>5.038913011550903</v>
+      </c>
+      <c r="AAN50" t="n">
+        <v>10.44553</v>
+      </c>
+      <c r="AAO50" t="n">
+        <v>150</v>
+      </c>
+      <c r="ACL50" t="n">
+        <v>5.033539056777954</v>
+      </c>
+      <c r="ACM50" t="n">
+        <v>11.1984</v>
+      </c>
+      <c r="ACN50" t="n">
+        <v>160</v>
+      </c>
+      <c r="AEK50" t="n">
+        <v>5.038454055786133</v>
+      </c>
+      <c r="AEL50" t="n">
+        <v>12.10766</v>
+      </c>
+      <c r="AEM50" t="n">
+        <v>170</v>
+      </c>
+      <c r="AGJ50" t="n">
+        <v>5.037671089172363</v>
+      </c>
+      <c r="AGK50" t="n">
+        <v>13.90071</v>
+      </c>
+      <c r="AGL50" t="n">
+        <v>180</v>
+      </c>
+      <c r="AGM50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -9,6 +9,8 @@
     <sheet name="120mm_8deg_trial1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="120mm_20deg_trial1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="120mm_20deg_trial2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="120mm_20deg_trial3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="120mm_20deg_trial4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -16109,7 +16111,6 @@
       <c r="CJ3" t="n">
         <v>180</v>
       </c>
-      <c r="CK3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -16274,7 +16275,6 @@
       <c r="CJ4" t="n">
         <v>180</v>
       </c>
-      <c r="CK4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -16439,7 +16439,6 @@
       <c r="CJ5" t="n">
         <v>180</v>
       </c>
-      <c r="CK5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -16604,7 +16603,6 @@
       <c r="CJ6" t="n">
         <v>180</v>
       </c>
-      <c r="CK6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -16769,7 +16767,6 @@
       <c r="CJ7" t="n">
         <v>180</v>
       </c>
-      <c r="CK7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -16934,7 +16931,6 @@
       <c r="CJ8" t="n">
         <v>180</v>
       </c>
-      <c r="CK8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -17099,7 +17095,6 @@
       <c r="CJ9" t="n">
         <v>180</v>
       </c>
-      <c r="CK9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -17264,7 +17259,6 @@
       <c r="CJ10" t="n">
         <v>180</v>
       </c>
-      <c r="CK10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -17429,7 +17423,6 @@
       <c r="CJ11" t="n">
         <v>180</v>
       </c>
-      <c r="CK11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -17594,7 +17587,6 @@
       <c r="CJ12" t="n">
         <v>180</v>
       </c>
-      <c r="CK12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -17759,7 +17751,6 @@
       <c r="CJ13" t="n">
         <v>180</v>
       </c>
-      <c r="CK13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -17924,7 +17915,6 @@
       <c r="CJ14" t="n">
         <v>180</v>
       </c>
-      <c r="CK14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -18089,7 +18079,6 @@
       <c r="CJ15" t="n">
         <v>180</v>
       </c>
-      <c r="CK15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -18254,7 +18243,6 @@
       <c r="CJ16" t="n">
         <v>180</v>
       </c>
-      <c r="CK16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -18419,7 +18407,6 @@
       <c r="CJ17" t="n">
         <v>180</v>
       </c>
-      <c r="CK17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -18584,7 +18571,6 @@
       <c r="CJ18" t="n">
         <v>180</v>
       </c>
-      <c r="CK18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -18749,7 +18735,6 @@
       <c r="CJ19" t="n">
         <v>180</v>
       </c>
-      <c r="CK19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -18914,7 +18899,6 @@
       <c r="CJ20" t="n">
         <v>180</v>
       </c>
-      <c r="CK20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -19079,7 +19063,6 @@
       <c r="CJ21" t="n">
         <v>180</v>
       </c>
-      <c r="CK21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -19244,7 +19227,6 @@
       <c r="CJ22" t="n">
         <v>180</v>
       </c>
-      <c r="CK22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -19409,7 +19391,6 @@
       <c r="CJ23" t="n">
         <v>180</v>
       </c>
-      <c r="CK23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -19574,7 +19555,6 @@
       <c r="CJ24" t="n">
         <v>180</v>
       </c>
-      <c r="CK24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -19739,7 +19719,6 @@
       <c r="CJ25" t="n">
         <v>180</v>
       </c>
-      <c r="CK25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -19904,7 +19883,6 @@
       <c r="CJ26" t="n">
         <v>180</v>
       </c>
-      <c r="CK26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -20069,7 +20047,6 @@
       <c r="CJ27" t="n">
         <v>180</v>
       </c>
-      <c r="CK27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -20234,7 +20211,6 @@
       <c r="CJ28" t="n">
         <v>180</v>
       </c>
-      <c r="CK28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -20399,7 +20375,6 @@
       <c r="CJ29" t="n">
         <v>180</v>
       </c>
-      <c r="CK29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -20564,7 +20539,6 @@
       <c r="CJ30" t="n">
         <v>180</v>
       </c>
-      <c r="CK30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -20729,7 +20703,6 @@
       <c r="CJ31" t="n">
         <v>180</v>
       </c>
-      <c r="CK31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -20894,7 +20867,6 @@
       <c r="CJ32" t="n">
         <v>180</v>
       </c>
-      <c r="CK32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -21059,7 +21031,6 @@
       <c r="CJ33" t="n">
         <v>180</v>
       </c>
-      <c r="CK33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -21224,7 +21195,6 @@
       <c r="CJ34" t="n">
         <v>180</v>
       </c>
-      <c r="CK34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -21389,7 +21359,6 @@
       <c r="CJ35" t="n">
         <v>180</v>
       </c>
-      <c r="CK35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -21554,7 +21523,6 @@
       <c r="CJ36" t="n">
         <v>180</v>
       </c>
-      <c r="CK36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -21719,7 +21687,6 @@
       <c r="CJ37" t="n">
         <v>180</v>
       </c>
-      <c r="CK37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -21884,7 +21851,6 @@
       <c r="CJ38" t="n">
         <v>180</v>
       </c>
-      <c r="CK38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -22049,7 +22015,6 @@
       <c r="CJ39" t="n">
         <v>180</v>
       </c>
-      <c r="CK39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -22214,7 +22179,6 @@
       <c r="CJ40" t="n">
         <v>180</v>
       </c>
-      <c r="CK40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -22379,7 +22343,6 @@
       <c r="CJ41" t="n">
         <v>180</v>
       </c>
-      <c r="CK41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -22544,7 +22507,6 @@
       <c r="CJ42" t="n">
         <v>180</v>
       </c>
-      <c r="CK42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -22709,7 +22671,6 @@
       <c r="CJ43" t="n">
         <v>180</v>
       </c>
-      <c r="CK43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -22874,7 +22835,6 @@
       <c r="CJ44" t="n">
         <v>180</v>
       </c>
-      <c r="CK44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -23039,7 +22999,6 @@
       <c r="CJ45" t="n">
         <v>180</v>
       </c>
-      <c r="CK45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -23204,7 +23163,6 @@
       <c r="CJ46" t="n">
         <v>180</v>
       </c>
-      <c r="CK46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -23369,7 +23327,6 @@
       <c r="CJ47" t="n">
         <v>180</v>
       </c>
-      <c r="CK47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -23534,7 +23491,6 @@
       <c r="CJ48" t="n">
         <v>180</v>
       </c>
-      <c r="CK48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -23699,7 +23655,6 @@
       <c r="CJ49" t="n">
         <v>180</v>
       </c>
-      <c r="CK49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -23864,7 +23819,3082 @@
       <c r="CJ50" t="n">
         <v>180</v>
       </c>
-      <c r="CK50" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.192092895507812e-06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.16076</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(C$2:C$10000)</f>
+        <v/>
+      </c>
+      <c r="F2" t="n">
+        <v>9.5367431640625e-07</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.69958</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(C$2:C$10000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.1063871383666992</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.16076</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1073760986328125</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.69594</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.2046051025390625</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.16803</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2087619304656982</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.69594</v>
+      </c>
+      <c r="H4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.3216221332550049</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.16803</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3204431533813477</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.70322</v>
+      </c>
+      <c r="H5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.4217653274536133</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.17167</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.4220221042633057</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.69958</v>
+      </c>
+      <c r="H6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.5269181728363037</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.17167</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5236678123474121</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7.69231</v>
+      </c>
+      <c r="H7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.6362261772155762</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4.16803</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.6283049583435059</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7.67776</v>
+      </c>
+      <c r="H8" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.7380132675170898</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4.16439</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.7377369403839111</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.66685</v>
+      </c>
+      <c r="H9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.8415753841400146</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.16803</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8401651382446289</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.66321</v>
+      </c>
+      <c r="H10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.9424262046813965</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.16803</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9441769123077393</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.65594</v>
+      </c>
+      <c r="H11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.053994178771973</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.14984</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.054631948471069</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7.65594</v>
+      </c>
+      <c r="H12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.155270338058472</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4.14621</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.153992891311646</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.65957</v>
+      </c>
+      <c r="H13" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1.260323286056519</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4.13893</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.257920026779175</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7.66321</v>
+      </c>
+      <c r="H14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1.369219064712524</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4.12802</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.361820936203003</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7.65957</v>
+      </c>
+      <c r="H15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1.472801208496094</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4.11347</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.47339391708374</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7.65594</v>
+      </c>
+      <c r="H16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1.574851274490356</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4.09893</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.574110984802246</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7.65594</v>
+      </c>
+      <c r="H17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1.680556058883667</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4.08438</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.67866587638855</v>
+      </c>
+      <c r="G18" t="n">
+        <v>7.66321</v>
+      </c>
+      <c r="H18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1.785797119140625</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.07347</v>
+      </c>
+      <c r="C19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.79155707359314</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7.6523</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1.889755249023438</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4.06983</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.891416072845459</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7.63775</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1.992241144180298</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.06256</v>
+      </c>
+      <c r="C21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.992854833602905</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7.64503</v>
+      </c>
+      <c r="H21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2.103638172149658</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4.05528</v>
+      </c>
+      <c r="C22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.097615957260132</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7.65594</v>
+      </c>
+      <c r="H22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2.206740140914917</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4.05892</v>
+      </c>
+      <c r="C23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.211894989013672</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7.6523</v>
+      </c>
+      <c r="H23" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2.308221101760864</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4.05528</v>
+      </c>
+      <c r="C24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.308557033538818</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7.6523</v>
+      </c>
+      <c r="H24" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2.418142080307007</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.05528</v>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.411791086196899</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7.64866</v>
+      </c>
+      <c r="H25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2.521491050720215</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.05892</v>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.525809764862061</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7.64503</v>
+      </c>
+      <c r="H26" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2.623118162155151</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4.04437</v>
+      </c>
+      <c r="C27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.62909197807312</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7.64866</v>
+      </c>
+      <c r="H27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2.728261232376099</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.02982</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.720979928970337</v>
+      </c>
+      <c r="G28" t="n">
+        <v>7.64139</v>
+      </c>
+      <c r="H28" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2.836655139923096</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4.01891</v>
+      </c>
+      <c r="C29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.839812994003296</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7.64139</v>
+      </c>
+      <c r="H29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2.939176082611084</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4.02982</v>
+      </c>
+      <c r="C30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.945688009262085</v>
+      </c>
+      <c r="G30" t="n">
+        <v>7.63411</v>
+      </c>
+      <c r="H30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.044315338134766</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4.02982</v>
+      </c>
+      <c r="C31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.046045780181885</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7.6232</v>
+      </c>
+      <c r="H31" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3.153427124023438</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4.0371</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3.145612955093384</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7.61957</v>
+      </c>
+      <c r="H32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3.254815101623535</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4.02982</v>
+      </c>
+      <c r="C33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3.259254932403564</v>
+      </c>
+      <c r="G33" t="n">
+        <v>7.61593</v>
+      </c>
+      <c r="H33" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3.357840299606323</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4.03346</v>
+      </c>
+      <c r="C34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3.362093925476074</v>
+      </c>
+      <c r="G34" t="n">
+        <v>7.62684</v>
+      </c>
+      <c r="H34" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3.467922210693359</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4.03346</v>
+      </c>
+      <c r="C35" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3.464632987976074</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7.63775</v>
+      </c>
+      <c r="H35" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3.57062816619873</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4.0371</v>
+      </c>
+      <c r="C36" t="n">
+        <v>10</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3.574879884719849</v>
+      </c>
+      <c r="G36" t="n">
+        <v>7.64139</v>
+      </c>
+      <c r="H36" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3.674376964569092</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4.04073</v>
+      </c>
+      <c r="C37" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3.677172899246216</v>
+      </c>
+      <c r="G37" t="n">
+        <v>7.64866</v>
+      </c>
+      <c r="H37" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3.775942325592041</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4.04437</v>
+      </c>
+      <c r="C38" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3.780869960784912</v>
+      </c>
+      <c r="G38" t="n">
+        <v>7.66321</v>
+      </c>
+      <c r="H38" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3.886831283569336</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.05165</v>
+      </c>
+      <c r="C39" t="n">
+        <v>10</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3.882690906524658</v>
+      </c>
+      <c r="G39" t="n">
+        <v>7.6523</v>
+      </c>
+      <c r="H39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3.988947153091431</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4.04437</v>
+      </c>
+      <c r="C40" t="n">
+        <v>10</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3.9933180809021</v>
+      </c>
+      <c r="G40" t="n">
+        <v>7.63775</v>
+      </c>
+      <c r="H40" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>4.091598272323608</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4.03346</v>
+      </c>
+      <c r="C41" t="n">
+        <v>10</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4.095962047576904</v>
+      </c>
+      <c r="G41" t="n">
+        <v>7.64866</v>
+      </c>
+      <c r="H41" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>4.202208042144775</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4.02255</v>
+      </c>
+      <c r="C42" t="n">
+        <v>10</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4.199067115783691</v>
+      </c>
+      <c r="G42" t="n">
+        <v>7.64866</v>
+      </c>
+      <c r="H42" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>4.305608987808228</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4.01164</v>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4.310024976730347</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7.6523</v>
+      </c>
+      <c r="H43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>4.407188177108765</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4.412615776062012</v>
+      </c>
+      <c r="G44" t="n">
+        <v>7.66685</v>
+      </c>
+      <c r="H44" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>4.509643077850342</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4.00436</v>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4.515186786651611</v>
+      </c>
+      <c r="G45" t="n">
+        <v>7.6814</v>
+      </c>
+      <c r="H45" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>4.620038270950317</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4.00073</v>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4.617035865783691</v>
+      </c>
+      <c r="G46" t="n">
+        <v>7.68503</v>
+      </c>
+      <c r="H46" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4.722289323806763</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3.99345</v>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4.728153944015503</v>
+      </c>
+      <c r="G47" t="n">
+        <v>7.67412</v>
+      </c>
+      <c r="H47" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>4.826080083847046</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3.98254</v>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4.830190896987915</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7.66321</v>
+      </c>
+      <c r="H48" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>4.938929319381714</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3.97527</v>
+      </c>
+      <c r="C49" t="n">
+        <v>10</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4.931764841079712</v>
+      </c>
+      <c r="G49" t="n">
+        <v>7.65957</v>
+      </c>
+      <c r="H49" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5.038088083267212</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3.96436</v>
+      </c>
+      <c r="C50" t="n">
+        <v>10</v>
+      </c>
+      <c r="F50" t="n">
+        <v>5.042779922485352</v>
+      </c>
+      <c r="G50" t="n">
+        <v>7.65957</v>
+      </c>
+      <c r="H50" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="S1" s="3" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>9.5367431640625e-07</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.56065</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(B$2:B$10000)</f>
+        <v/>
+      </c>
+      <c r="F2" t="n">
+        <v>9.5367431640625e-07</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.49227</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(G$2:G$10000)</f>
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v>9.5367431640625e-07</v>
+      </c>
+      <c r="L2" t="n">
+        <v>10.8347</v>
+      </c>
+      <c r="M2" t="n">
+        <v>30</v>
+      </c>
+      <c r="N2">
+        <f>AVERAGE(L$2:L$10000)</f>
+        <v/>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>14.44626</v>
+      </c>
+      <c r="R2" t="n">
+        <v>40</v>
+      </c>
+      <c r="S2">
+        <f>AVERAGE(Q$2:Q$10000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.107313871383667</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.57883</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1066551208496094</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.51046</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1033759117126465</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10.84561</v>
+      </c>
+      <c r="M3" t="n">
+        <v>30</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.1190941333770752</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>14.4499</v>
+      </c>
+      <c r="R3" t="n">
+        <v>40</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.2171146869659424</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.59702</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2083489894866943</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.52864</v>
+      </c>
+      <c r="H4" t="n">
+        <v>20</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2051188945770264</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10.83833</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2190821170806885</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>14.45717</v>
+      </c>
+      <c r="R4" t="n">
+        <v>40</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.3196616172790527</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.60793</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3187520503997803</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.53591</v>
+      </c>
+      <c r="H5" t="n">
+        <v>20</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.3197319507598877</v>
+      </c>
+      <c r="L5" t="n">
+        <v>10.8347</v>
+      </c>
+      <c r="M5" t="n">
+        <v>30</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.3207371234893799</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>14.45354</v>
+      </c>
+      <c r="R5" t="n">
+        <v>40</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.4228389263153076</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.60065</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.4223439693450928</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.53955</v>
+      </c>
+      <c r="H6" t="n">
+        <v>20</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.422680139541626</v>
+      </c>
+      <c r="L6" t="n">
+        <v>10.83106</v>
+      </c>
+      <c r="M6" t="n">
+        <v>30</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.4360520839691162</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>14.44626</v>
+      </c>
+      <c r="R6" t="n">
+        <v>40</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.5265789031982422</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.59702</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5255420207977295</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7.53228</v>
+      </c>
+      <c r="H7" t="n">
+        <v>20</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.5224010944366455</v>
+      </c>
+      <c r="L7" t="n">
+        <v>10.82379</v>
+      </c>
+      <c r="M7" t="n">
+        <v>30</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.5385448932647705</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>14.44262</v>
+      </c>
+      <c r="R7" t="n">
+        <v>40</v>
+      </c>
+      <c r="S7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.6350958347320557</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.60065</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.6349210739135742</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7.525</v>
+      </c>
+      <c r="H8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.6355369091033936</v>
+      </c>
+      <c r="L8" t="n">
+        <v>10.81651</v>
+      </c>
+      <c r="M8" t="n">
+        <v>30</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.6414260864257812</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>14.44626</v>
+      </c>
+      <c r="R8" t="n">
+        <v>40</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.7382748126983643</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.59702</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.7391469478607178</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.52864</v>
+      </c>
+      <c r="H9" t="n">
+        <v>20</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.7380669116973877</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10.81651</v>
+      </c>
+      <c r="M9" t="n">
+        <v>30</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.7508618831634521</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>14.4499</v>
+      </c>
+      <c r="R9" t="n">
+        <v>40</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.8422868251800537</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.59702</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8414969444274902</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.525</v>
+      </c>
+      <c r="H10" t="n">
+        <v>20</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.8395318984985352</v>
+      </c>
+      <c r="L10" t="n">
+        <v>10.80196</v>
+      </c>
+      <c r="M10" t="n">
+        <v>30</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.8532428741455078</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>14.45354</v>
+      </c>
+      <c r="R10" t="n">
+        <v>40</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.9526529312133789</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.58247</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9504439830780029</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.525</v>
+      </c>
+      <c r="H11" t="n">
+        <v>20</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9511709213256836</v>
+      </c>
+      <c r="L11" t="n">
+        <v>10.78742</v>
+      </c>
+      <c r="M11" t="n">
+        <v>30</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.9567549228668213</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>14.46081</v>
+      </c>
+      <c r="R11" t="n">
+        <v>40</v>
+      </c>
+      <c r="S11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.055234670639038</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.56428</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.053596019744873</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7.53591</v>
+      </c>
+      <c r="H12" t="n">
+        <v>20</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.053250074386597</v>
+      </c>
+      <c r="L12" t="n">
+        <v>10.77287</v>
+      </c>
+      <c r="M12" t="n">
+        <v>30</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.057636022567749</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>14.45354</v>
+      </c>
+      <c r="R12" t="n">
+        <v>40</v>
+      </c>
+      <c r="S12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.157279968261719</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.54974</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.1581130027771</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.54319</v>
+      </c>
+      <c r="H13" t="n">
+        <v>20</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.15546703338623</v>
+      </c>
+      <c r="L13" t="n">
+        <v>10.76196</v>
+      </c>
+      <c r="M13" t="n">
+        <v>30</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.170032024383545</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>14.45354</v>
+      </c>
+      <c r="R13" t="n">
+        <v>40</v>
+      </c>
+      <c r="S13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1.267973661422729</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3.5461</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.259054899215698</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7.54683</v>
+      </c>
+      <c r="H14" t="n">
+        <v>20</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.259373903274536</v>
+      </c>
+      <c r="L14" t="n">
+        <v>10.75832</v>
+      </c>
+      <c r="M14" t="n">
+        <v>30</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.27276611328125</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>14.44626</v>
+      </c>
+      <c r="R14" t="n">
+        <v>40</v>
+      </c>
+      <c r="S14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1.370136022567749</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3.5461</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.368195772171021</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7.5541</v>
+      </c>
+      <c r="H15" t="n">
+        <v>20</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.368654727935791</v>
+      </c>
+      <c r="L15" t="n">
+        <v>10.75104</v>
+      </c>
+      <c r="M15" t="n">
+        <v>30</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.374266862869263</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>14.4499</v>
+      </c>
+      <c r="R15" t="n">
+        <v>40</v>
+      </c>
+      <c r="S15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1.471787929534912</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3.5461</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.471979141235352</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7.55774</v>
+      </c>
+      <c r="H16" t="n">
+        <v>20</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.473219156265259</v>
+      </c>
+      <c r="L16" t="n">
+        <v>10.74013</v>
+      </c>
+      <c r="M16" t="n">
+        <v>30</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.484179973602295</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>14.46808</v>
+      </c>
+      <c r="R16" t="n">
+        <v>40</v>
+      </c>
+      <c r="S16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1.583256006240845</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.54974</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.573632001876831</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7.54683</v>
+      </c>
+      <c r="H17" t="n">
+        <v>20</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.574802875518799</v>
+      </c>
+      <c r="L17" t="n">
+        <v>10.72922</v>
+      </c>
+      <c r="M17" t="n">
+        <v>30</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.586948871612549</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>14.48991</v>
+      </c>
+      <c r="R17" t="n">
+        <v>40</v>
+      </c>
+      <c r="S17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1.685508728027344</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3.53155</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.685081958770752</v>
+      </c>
+      <c r="G18" t="n">
+        <v>7.53591</v>
+      </c>
+      <c r="H18" t="n">
+        <v>20</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.685268878936768</v>
+      </c>
+      <c r="L18" t="n">
+        <v>10.72195</v>
+      </c>
+      <c r="M18" t="n">
+        <v>30</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.690385103225708</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>14.50809</v>
+      </c>
+      <c r="R18" t="n">
+        <v>40</v>
+      </c>
+      <c r="S18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1.78871488571167</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3.51337</v>
+      </c>
+      <c r="C19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.788208961486816</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7.52864</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.787741899490356</v>
+      </c>
+      <c r="L19" t="n">
+        <v>10.71831</v>
+      </c>
+      <c r="M19" t="n">
+        <v>30</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.800075054168701</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>14.51173</v>
+      </c>
+      <c r="R19" t="n">
+        <v>40</v>
+      </c>
+      <c r="S19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1.889122724533081</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3.50245</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.890118837356567</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7.51773</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.891273021697998</v>
+      </c>
+      <c r="L20" t="n">
+        <v>10.70376</v>
+      </c>
+      <c r="M20" t="n">
+        <v>30</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.90558385848999</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>14.50809</v>
+      </c>
+      <c r="R20" t="n">
+        <v>40</v>
+      </c>
+      <c r="S20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1.996445894241333</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.48791</v>
+      </c>
+      <c r="C21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.000174999237061</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7.51046</v>
+      </c>
+      <c r="H21" t="n">
+        <v>20</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.001492023468018</v>
+      </c>
+      <c r="L21" t="n">
+        <v>10.69285</v>
+      </c>
+      <c r="M21" t="n">
+        <v>30</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.005390882492065</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>14.51173</v>
+      </c>
+      <c r="R21" t="n">
+        <v>40</v>
+      </c>
+      <c r="S21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2.1021409034729</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.47336</v>
+      </c>
+      <c r="C22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.102818965911865</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7.50318</v>
+      </c>
+      <c r="H22" t="n">
+        <v>20</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.104347944259644</v>
+      </c>
+      <c r="L22" t="n">
+        <v>10.68194</v>
+      </c>
+      <c r="M22" t="n">
+        <v>30</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.107569932937622</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>14.50445</v>
+      </c>
+      <c r="R22" t="n">
+        <v>40</v>
+      </c>
+      <c r="S22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2.207225799560547</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.46245</v>
+      </c>
+      <c r="C23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.20566987991333</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7.50318</v>
+      </c>
+      <c r="H23" t="n">
+        <v>20</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.204864978790283</v>
+      </c>
+      <c r="L23" t="n">
+        <v>10.67103</v>
+      </c>
+      <c r="M23" t="n">
+        <v>30</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.218262195587158</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>14.50809</v>
+      </c>
+      <c r="R23" t="n">
+        <v>40</v>
+      </c>
+      <c r="S23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2.317654848098755</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.45881</v>
+      </c>
+      <c r="C24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.321324110031128</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7.51409</v>
+      </c>
+      <c r="H24" t="n">
+        <v>20</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.316529989242554</v>
+      </c>
+      <c r="L24" t="n">
+        <v>10.66739</v>
+      </c>
+      <c r="M24" t="n">
+        <v>30</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.320533037185669</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>14.52628</v>
+      </c>
+      <c r="R24" t="n">
+        <v>40</v>
+      </c>
+      <c r="S24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2.41973876953125</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.4479</v>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.419510126113892</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7.525</v>
+      </c>
+      <c r="H25" t="n">
+        <v>20</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.419832706451416</v>
+      </c>
+      <c r="L25" t="n">
+        <v>10.66376</v>
+      </c>
+      <c r="M25" t="n">
+        <v>30</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.425064086914062</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>14.52991</v>
+      </c>
+      <c r="R25" t="n">
+        <v>40</v>
+      </c>
+      <c r="S25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2.522672891616821</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.4479</v>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.522324085235596</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7.53955</v>
+      </c>
+      <c r="H26" t="n">
+        <v>20</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.520380973815918</v>
+      </c>
+      <c r="L26" t="n">
+        <v>10.66012</v>
+      </c>
+      <c r="M26" t="n">
+        <v>30</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.533601045608521</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>14.5481</v>
+      </c>
+      <c r="R26" t="n">
+        <v>40</v>
+      </c>
+      <c r="S26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2.636922836303711</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.44426</v>
+      </c>
+      <c r="C27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.626193046569824</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7.53228</v>
+      </c>
+      <c r="H27" t="n">
+        <v>20</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.624588966369629</v>
+      </c>
+      <c r="L27" t="n">
+        <v>10.66012</v>
+      </c>
+      <c r="M27" t="n">
+        <v>30</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.638822078704834</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>14.56628</v>
+      </c>
+      <c r="R27" t="n">
+        <v>40</v>
+      </c>
+      <c r="S27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2.734553813934326</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.45881</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.740495920181274</v>
+      </c>
+      <c r="G28" t="n">
+        <v>7.52137</v>
+      </c>
+      <c r="H28" t="n">
+        <v>20</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.73432183265686</v>
+      </c>
+      <c r="L28" t="n">
+        <v>10.66739</v>
+      </c>
+      <c r="M28" t="n">
+        <v>30</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.740933895111084</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>14.58447</v>
+      </c>
+      <c r="R28" t="n">
+        <v>40</v>
+      </c>
+      <c r="S28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2.83758282661438</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.46972</v>
+      </c>
+      <c r="C29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.837402820587158</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7.50682</v>
+      </c>
+      <c r="H29" t="n">
+        <v>20</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.836881875991821</v>
+      </c>
+      <c r="L29" t="n">
+        <v>10.67103</v>
+      </c>
+      <c r="M29" t="n">
+        <v>30</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.855487108230591</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>14.58447</v>
+      </c>
+      <c r="R29" t="n">
+        <v>40</v>
+      </c>
+      <c r="S29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2.952573776245117</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.47336</v>
+      </c>
+      <c r="C30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.939684867858887</v>
+      </c>
+      <c r="G30" t="n">
+        <v>7.49591</v>
+      </c>
+      <c r="H30" t="n">
+        <v>20</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.939452886581421</v>
+      </c>
+      <c r="L30" t="n">
+        <v>10.67467</v>
+      </c>
+      <c r="M30" t="n">
+        <v>30</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.953548192977905</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>14.58447</v>
+      </c>
+      <c r="R30" t="n">
+        <v>40</v>
+      </c>
+      <c r="S30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.056894779205322</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.47336</v>
+      </c>
+      <c r="C31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.049037933349609</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7.49591</v>
+      </c>
+      <c r="H31" t="n">
+        <v>20</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.054257869720459</v>
+      </c>
+      <c r="L31" t="n">
+        <v>10.68194</v>
+      </c>
+      <c r="M31" t="n">
+        <v>30</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.054487943649292</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>14.58811</v>
+      </c>
+      <c r="R31" t="n">
+        <v>40</v>
+      </c>
+      <c r="S31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3.153355836868286</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3.46972</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3.15467095375061</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7.48863</v>
+      </c>
+      <c r="H32" t="n">
+        <v>20</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.156433820724487</v>
+      </c>
+      <c r="L32" t="n">
+        <v>10.68194</v>
+      </c>
+      <c r="M32" t="n">
+        <v>30</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.156583070755005</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>14.60265</v>
+      </c>
+      <c r="R32" t="n">
+        <v>40</v>
+      </c>
+      <c r="S32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3.255394697189331</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.46245</v>
+      </c>
+      <c r="C33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3.255593061447144</v>
+      </c>
+      <c r="G33" t="n">
+        <v>7.46681</v>
+      </c>
+      <c r="H33" t="n">
+        <v>20</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.255744934082031</v>
+      </c>
+      <c r="L33" t="n">
+        <v>10.69649</v>
+      </c>
+      <c r="M33" t="n">
+        <v>30</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.270409107208252</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>14.59902</v>
+      </c>
+      <c r="R33" t="n">
+        <v>40</v>
+      </c>
+      <c r="S33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3.371399879455566</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3.46608</v>
+      </c>
+      <c r="C34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3.370265960693359</v>
+      </c>
+      <c r="G34" t="n">
+        <v>7.45954</v>
+      </c>
+      <c r="H34" t="n">
+        <v>20</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.369927883148193</v>
+      </c>
+      <c r="L34" t="n">
+        <v>10.70376</v>
+      </c>
+      <c r="M34" t="n">
+        <v>30</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3.368242025375366</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>14.59174</v>
+      </c>
+      <c r="R34" t="n">
+        <v>40</v>
+      </c>
+      <c r="S34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3.473310947418213</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.46972</v>
+      </c>
+      <c r="C35" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3.471826076507568</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7.46317</v>
+      </c>
+      <c r="H35" t="n">
+        <v>20</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.472630977630615</v>
+      </c>
+      <c r="L35" t="n">
+        <v>10.70013</v>
+      </c>
+      <c r="M35" t="n">
+        <v>30</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3.474420070648193</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>14.57719</v>
+      </c>
+      <c r="R35" t="n">
+        <v>40</v>
+      </c>
+      <c r="S35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3.572480916976929</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.48427</v>
+      </c>
+      <c r="C36" t="n">
+        <v>10</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3.576740980148315</v>
+      </c>
+      <c r="G36" t="n">
+        <v>7.46681</v>
+      </c>
+      <c r="H36" t="n">
+        <v>20</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.57491397857666</v>
+      </c>
+      <c r="L36" t="n">
+        <v>10.70013</v>
+      </c>
+      <c r="M36" t="n">
+        <v>30</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3.587707042694092</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>14.57356</v>
+      </c>
+      <c r="R36" t="n">
+        <v>40</v>
+      </c>
+      <c r="S36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3.6871018409729</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.48791</v>
+      </c>
+      <c r="C37" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3.684927940368652</v>
+      </c>
+      <c r="G37" t="n">
+        <v>7.46681</v>
+      </c>
+      <c r="H37" t="n">
+        <v>20</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.672811031341553</v>
+      </c>
+      <c r="L37" t="n">
+        <v>10.69285</v>
+      </c>
+      <c r="M37" t="n">
+        <v>30</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3.68989086151123</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>14.57356</v>
+      </c>
+      <c r="R37" t="n">
+        <v>40</v>
+      </c>
+      <c r="S37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3.790974855422974</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3.48791</v>
+      </c>
+      <c r="C38" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3.788552045822144</v>
+      </c>
+      <c r="G38" t="n">
+        <v>7.45954</v>
+      </c>
+      <c r="H38" t="n">
+        <v>20</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.788054943084717</v>
+      </c>
+      <c r="L38" t="n">
+        <v>10.68558</v>
+      </c>
+      <c r="M38" t="n">
+        <v>30</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3.794732093811035</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>14.58083</v>
+      </c>
+      <c r="R38" t="n">
+        <v>40</v>
+      </c>
+      <c r="S38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3.891268730163574</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3.48791</v>
+      </c>
+      <c r="C39" t="n">
+        <v>10</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3.89067816734314</v>
+      </c>
+      <c r="G39" t="n">
+        <v>7.46317</v>
+      </c>
+      <c r="H39" t="n">
+        <v>20</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.890222787857056</v>
+      </c>
+      <c r="L39" t="n">
+        <v>10.68194</v>
+      </c>
+      <c r="M39" t="n">
+        <v>30</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3.903708934783936</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>14.57719</v>
+      </c>
+      <c r="R39" t="n">
+        <v>40</v>
+      </c>
+      <c r="S39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>4.001823902130127</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3.50609</v>
+      </c>
+      <c r="C40" t="n">
+        <v>10</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3.994566917419434</v>
+      </c>
+      <c r="G40" t="n">
+        <v>7.4559</v>
+      </c>
+      <c r="H40" t="n">
+        <v>20</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.987718820571899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>10.68194</v>
+      </c>
+      <c r="M40" t="n">
+        <v>30</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4.007064819335938</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>14.57719</v>
+      </c>
+      <c r="R40" t="n">
+        <v>40</v>
+      </c>
+      <c r="S40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>4.105463743209839</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3.52064</v>
+      </c>
+      <c r="C41" t="n">
+        <v>10</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4.103394031524658</v>
+      </c>
+      <c r="G41" t="n">
+        <v>7.43772</v>
+      </c>
+      <c r="H41" t="n">
+        <v>20</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4.102702856063843</v>
+      </c>
+      <c r="L41" t="n">
+        <v>10.68194</v>
+      </c>
+      <c r="M41" t="n">
+        <v>30</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4.108866930007935</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>14.58083</v>
+      </c>
+      <c r="R41" t="n">
+        <v>40</v>
+      </c>
+      <c r="S41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>4.203877687454224</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3.53155</v>
+      </c>
+      <c r="C42" t="n">
+        <v>10</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4.205923795700073</v>
+      </c>
+      <c r="G42" t="n">
+        <v>7.41589</v>
+      </c>
+      <c r="H42" t="n">
+        <v>20</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4.206860065460205</v>
+      </c>
+      <c r="L42" t="n">
+        <v>10.67467</v>
+      </c>
+      <c r="M42" t="n">
+        <v>30</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4.219772100448608</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>14.56992</v>
+      </c>
+      <c r="R42" t="n">
+        <v>40</v>
+      </c>
+      <c r="S42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>4.309773683547974</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3.53519</v>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4.308702945709229</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7.40135</v>
+      </c>
+      <c r="H43" t="n">
+        <v>20</v>
+      </c>
+      <c r="K43" t="n">
+        <v>4.310493946075439</v>
+      </c>
+      <c r="L43" t="n">
+        <v>10.67467</v>
+      </c>
+      <c r="M43" t="n">
+        <v>30</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4.32288122177124</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>14.55174</v>
+      </c>
+      <c r="R43" t="n">
+        <v>40</v>
+      </c>
+      <c r="S43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>4.421341896057129</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3.52428</v>
+      </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4.419363975524902</v>
+      </c>
+      <c r="G44" t="n">
+        <v>7.3868</v>
+      </c>
+      <c r="H44" t="n">
+        <v>20</v>
+      </c>
+      <c r="K44" t="n">
+        <v>4.419242858886719</v>
+      </c>
+      <c r="L44" t="n">
+        <v>10.67467</v>
+      </c>
+      <c r="M44" t="n">
+        <v>30</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4.425400972366333</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>14.52991</v>
+      </c>
+      <c r="R44" t="n">
+        <v>40</v>
+      </c>
+      <c r="S44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>4.524090766906738</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3.52791</v>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4.522217988967896</v>
+      </c>
+      <c r="G45" t="n">
+        <v>7.3868</v>
+      </c>
+      <c r="H45" t="n">
+        <v>20</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4.521610021591187</v>
+      </c>
+      <c r="L45" t="n">
+        <v>10.66739</v>
+      </c>
+      <c r="M45" t="n">
+        <v>30</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4.527545928955078</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>14.52264</v>
+      </c>
+      <c r="R45" t="n">
+        <v>40</v>
+      </c>
+      <c r="S45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>4.625074863433838</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3.52791</v>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4.624560832977295</v>
+      </c>
+      <c r="G46" t="n">
+        <v>7.39771</v>
+      </c>
+      <c r="H46" t="n">
+        <v>20</v>
+      </c>
+      <c r="K46" t="n">
+        <v>4.62418794631958</v>
+      </c>
+      <c r="L46" t="n">
+        <v>10.66012</v>
+      </c>
+      <c r="M46" t="n">
+        <v>30</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4.636475086212158</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>14.52264</v>
+      </c>
+      <c r="R46" t="n">
+        <v>40</v>
+      </c>
+      <c r="S46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4.7372727394104</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3.52791</v>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4.736140012741089</v>
+      </c>
+      <c r="G47" t="n">
+        <v>7.39407</v>
+      </c>
+      <c r="H47" t="n">
+        <v>20</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4.726864814758301</v>
+      </c>
+      <c r="L47" t="n">
+        <v>10.66739</v>
+      </c>
+      <c r="M47" t="n">
+        <v>30</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4.739576816558838</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>14.52628</v>
+      </c>
+      <c r="R47" t="n">
+        <v>40</v>
+      </c>
+      <c r="S47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>4.839401960372925</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3.53883</v>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4.838207006454468</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7.38316</v>
+      </c>
+      <c r="H48" t="n">
+        <v>20</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4.839567899703979</v>
+      </c>
+      <c r="L48" t="n">
+        <v>10.68194</v>
+      </c>
+      <c r="M48" t="n">
+        <v>30</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4.841856002807617</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>14.52991</v>
+      </c>
+      <c r="R48" t="n">
+        <v>40</v>
+      </c>
+      <c r="S48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>4.941390752792358</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3.54246</v>
+      </c>
+      <c r="C49" t="n">
+        <v>10</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4.94209098815918</v>
+      </c>
+      <c r="G49" t="n">
+        <v>7.37589</v>
+      </c>
+      <c r="H49" t="n">
+        <v>20</v>
+      </c>
+      <c r="K49" t="n">
+        <v>4.94106388092041</v>
+      </c>
+      <c r="L49" t="n">
+        <v>10.68558</v>
+      </c>
+      <c r="M49" t="n">
+        <v>30</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4.953572988510132</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>14.52991</v>
+      </c>
+      <c r="R49" t="n">
+        <v>40</v>
+      </c>
+      <c r="S49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5.051864624023438</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3.54246</v>
+      </c>
+      <c r="C50" t="n">
+        <v>10</v>
+      </c>
+      <c r="F50" t="n">
+        <v>5.050673961639404</v>
+      </c>
+      <c r="G50" t="n">
+        <v>7.37589</v>
+      </c>
+      <c r="H50" t="n">
+        <v>20</v>
+      </c>
+      <c r="K50" t="n">
+        <v>5.043577909469604</v>
+      </c>
+      <c r="L50" t="n">
+        <v>10.6783</v>
+      </c>
+      <c r="M50" t="n">
+        <v>30</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5.049707174301147</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>14.52991</v>
+      </c>
+      <c r="R50" t="n">
+        <v>40</v>
+      </c>
+      <c r="S50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -35320,7 +35320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV50"/>
+  <dimension ref="A1:CK50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35629,6 +35629,66 @@
           <t>Average</t>
         </is>
       </c>
+      <c r="BX1" s="4" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="BY1" s="4" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="BZ1" s="4" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="CA1" s="4" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="CC1" s="4" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="CD1" s="4" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="CE1" s="4" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="CF1" s="4" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="CH1" s="4" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="CI1" s="4" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="CJ1" s="4" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+      <c r="CK1" s="4" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -35826,6 +35886,45 @@
         <f>AVERAGE(BT$2:BT$10000)</f>
         <v/>
       </c>
+      <c r="BX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>18.19603</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>160</v>
+      </c>
+      <c r="CA2">
+        <f>AVERAGE(BY$2:BY$10000)</f>
+        <v/>
+      </c>
+      <c r="CC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>20.52737</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>170</v>
+      </c>
+      <c r="CF2">
+        <f>AVERAGE(CD$2:CD$10000)</f>
+        <v/>
+      </c>
+      <c r="CH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>22.89871</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK2">
+        <f>AVERAGE(CI$2:CI$10000)</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -35963,7 +36062,34 @@
       <c r="BU3" t="n">
         <v>150</v>
       </c>
-      <c r="BV3" t="inlineStr"/>
+      <c r="BX3" t="n">
+        <v>0.1075410842895508</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>18.11602</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.1086728572845459</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>20.44008</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.1090800762176514</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>22.86961</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -36101,7 +36227,34 @@
       <c r="BU4" t="n">
         <v>150</v>
       </c>
-      <c r="BV4" t="inlineStr"/>
+      <c r="BX4" t="n">
+        <v>0.2167470455169678</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>18.13784</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0.2231700420379639</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>20.40371</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0.2235701084136963</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>22.85143</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -36239,7 +36392,34 @@
       <c r="BU5" t="n">
         <v>150</v>
       </c>
-      <c r="BV5" t="inlineStr"/>
+      <c r="BX5" t="n">
+        <v>0.3216550350189209</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>18.12693</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0.3219082355499268</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>20.48372</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0.3258321285247803</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>22.68049</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -36377,7 +36557,34 @@
       <c r="BU6" t="n">
         <v>150</v>
       </c>
-      <c r="BV6" t="inlineStr"/>
+      <c r="BX6" t="n">
+        <v>0.4226131439208984</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>18.10875</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0.4244990348815918</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>20.60011</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0.4244880676269531</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>22.61138</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -36515,7 +36722,34 @@
       <c r="BU7" t="n">
         <v>150</v>
       </c>
-      <c r="BV7" t="inlineStr"/>
+      <c r="BX7" t="n">
+        <v>0.5345690250396729</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>17.97418</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0.5393209457397461</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>20.5892</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0.5392971038818359</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>22.62229</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -36653,7 +36887,34 @@
       <c r="BU8" t="n">
         <v>150</v>
       </c>
-      <c r="BV8" t="inlineStr"/>
+      <c r="BX8" t="n">
+        <v>0.6347250938415527</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>17.90507</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0.6416690349578857</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>20.59647</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0.6420822143554688</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>22.65139</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -36791,7 +37052,34 @@
       <c r="BU9" t="n">
         <v>150</v>
       </c>
-      <c r="BV9" t="inlineStr"/>
+      <c r="BX9" t="n">
+        <v>0.7363111972808838</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>17.80687</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0.7439918518066406</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>20.66558</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0.7424211502075195</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>22.61138</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -36929,7 +37217,34 @@
       <c r="BU10" t="n">
         <v>150</v>
       </c>
-      <c r="BV10" t="inlineStr"/>
+      <c r="BX10" t="n">
+        <v>0.8417160511016846</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>17.75596</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0.8428399562835693</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>20.70558</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0.8438351154327393</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>22.53864</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -37067,7 +37382,34 @@
       <c r="BU11" t="n">
         <v>150</v>
       </c>
-      <c r="BV11" t="inlineStr"/>
+      <c r="BX11" t="n">
+        <v>0.9582200050354004</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>17.78869</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0.957859992980957</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>20.7274</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0.9578161239624023</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>22.46954</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -37205,7 +37547,34 @@
       <c r="BU12" t="n">
         <v>150</v>
       </c>
-      <c r="BV12" t="inlineStr"/>
+      <c r="BX12" t="n">
+        <v>1.057835102081299</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>17.78505</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>1.059904813766479</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>20.64012</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>1.060455083847046</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>22.44772</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -37343,7 +37712,34 @@
       <c r="BU13" t="n">
         <v>150</v>
       </c>
-      <c r="BV13" t="inlineStr"/>
+      <c r="BX13" t="n">
+        <v>1.158406019210815</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>17.74141</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>1.162369012832642</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>20.50555</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>1.162843942642212</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>22.50955</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -37481,7 +37877,34 @@
       <c r="BU14" t="n">
         <v>150</v>
       </c>
-      <c r="BV14" t="inlineStr"/>
+      <c r="BX14" t="n">
+        <v>1.273499250411987</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>17.6323</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>1.270005941390991</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>20.43644</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>1.27343225479126</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>22.55683</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -37619,7 +38042,34 @@
       <c r="BU15" t="n">
         <v>150</v>
       </c>
-      <c r="BV15" t="inlineStr"/>
+      <c r="BX15" t="n">
+        <v>1.375983238220215</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>17.50136</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>1.375956773757935</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>20.45099</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>1.37645411491394</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>22.60775</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -37757,7 +38207,34 @@
       <c r="BU16" t="n">
         <v>150</v>
       </c>
-      <c r="BV16" t="inlineStr"/>
+      <c r="BX16" t="n">
+        <v>1.473496198654175</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>17.37043</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>1.47816801071167</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>20.41462</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>1.478929042816162</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>22.61866</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -37895,7 +38372,34 @@
       <c r="BU17" t="n">
         <v>150</v>
       </c>
-      <c r="BV17" t="inlineStr"/>
+      <c r="BX17" t="n">
+        <v>1.578449010848999</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>17.39225</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>1.577882051467896</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>20.40007</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>1.580824136734009</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>22.47318</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -38033,7 +38537,34 @@
       <c r="BU18" t="n">
         <v>150</v>
       </c>
-      <c r="BV18" t="inlineStr"/>
+      <c r="BX18" t="n">
+        <v>1.687505006790161</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>17.45772</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>1.689548015594482</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>20.35643</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>1.692317008972168</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>22.38225</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -38171,7 +38702,34 @@
       <c r="BU19" t="n">
         <v>150</v>
       </c>
-      <c r="BV19" t="inlineStr"/>
+      <c r="BX19" t="n">
+        <v>1.790419101715088</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>17.41771</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>1.794646978378296</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>20.30551</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>1.795017004013062</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>22.34952</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -38309,7 +38867,34 @@
       <c r="BU20" t="n">
         <v>150</v>
       </c>
-      <c r="BV20" t="inlineStr"/>
+      <c r="BX20" t="n">
+        <v>1.8929762840271</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>17.36679</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>1.894302129745483</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>20.32369</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>1.897741079330444</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>22.27314</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -38447,7 +39032,34 @@
       <c r="BU21" t="n">
         <v>150</v>
       </c>
-      <c r="BV21" t="inlineStr"/>
+      <c r="BX21" t="n">
+        <v>2.004419088363647</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>17.41044</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>2.003628015518188</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>20.33824</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>2.008318185806274</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>22.33497</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -38585,7 +39197,34 @@
       <c r="BU22" t="n">
         <v>150</v>
       </c>
-      <c r="BV22" t="inlineStr"/>
+      <c r="BX22" t="n">
+        <v>2.10674786567688</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>17.43953</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>2.110406160354614</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>20.29096</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>2.110866069793701</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>22.45135</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -38723,7 +39362,34 @@
       <c r="BU23" t="n">
         <v>150</v>
       </c>
-      <c r="BV23" t="inlineStr"/>
+      <c r="BX23" t="n">
+        <v>2.212419033050537</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>17.42862</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>2.212788820266724</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>20.18185</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>2.213197231292725</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>22.55319</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -38861,7 +39527,34 @@
       <c r="BU24" t="n">
         <v>150</v>
       </c>
-      <c r="BV24" t="inlineStr"/>
+      <c r="BX24" t="n">
+        <v>2.315145015716553</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>17.42862</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>2.316333055496216</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>20.04364</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>2.315363883972168</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>22.52409</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -38999,7 +39692,34 @@
       <c r="BU25" t="n">
         <v>150</v>
       </c>
-      <c r="BV25" t="inlineStr"/>
+      <c r="BX25" t="n">
+        <v>2.42632007598877</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>17.53046</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>2.426781177520752</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>20.01091</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>2.427615165710449</v>
+      </c>
+      <c r="CI25" t="n">
+        <v>22.38589</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -39137,7 +39857,34 @@
       <c r="BU26" t="n">
         <v>150</v>
       </c>
-      <c r="BV26" t="inlineStr"/>
+      <c r="BX26" t="n">
+        <v>2.526144027709961</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>17.52319</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC26" t="n">
+        <v>2.529526948928833</v>
+      </c>
+      <c r="CD26" t="n">
+        <v>20.02182</v>
+      </c>
+      <c r="CE26" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH26" t="n">
+        <v>2.530019998550415</v>
+      </c>
+      <c r="CI26" t="n">
+        <v>22.31315</v>
+      </c>
+      <c r="CJ26" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -39275,7 +40022,34 @@
       <c r="BU27" t="n">
         <v>150</v>
       </c>
-      <c r="BV27" t="inlineStr"/>
+      <c r="BX27" t="n">
+        <v>2.627568244934082</v>
+      </c>
+      <c r="BY27" t="n">
+        <v>17.57047</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC27" t="n">
+        <v>2.632133960723877</v>
+      </c>
+      <c r="CD27" t="n">
+        <v>19.97454</v>
+      </c>
+      <c r="CE27" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH27" t="n">
+        <v>2.631734132766724</v>
+      </c>
+      <c r="CI27" t="n">
+        <v>22.23313</v>
+      </c>
+      <c r="CJ27" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -39413,7 +40187,34 @@
       <c r="BU28" t="n">
         <v>150</v>
       </c>
-      <c r="BV28" t="inlineStr"/>
+      <c r="BX28" t="n">
+        <v>2.736038208007812</v>
+      </c>
+      <c r="BY28" t="n">
+        <v>17.7014</v>
+      </c>
+      <c r="BZ28" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC28" t="n">
+        <v>2.741067886352539</v>
+      </c>
+      <c r="CD28" t="n">
+        <v>19.90544</v>
+      </c>
+      <c r="CE28" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH28" t="n">
+        <v>2.745681047439575</v>
+      </c>
+      <c r="CI28" t="n">
+        <v>22.18949</v>
+      </c>
+      <c r="CJ28" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -39551,7 +40352,34 @@
       <c r="BU29" t="n">
         <v>150</v>
       </c>
-      <c r="BV29" t="inlineStr"/>
+      <c r="BX29" t="n">
+        <v>2.84304404258728</v>
+      </c>
+      <c r="BY29" t="n">
+        <v>17.78141</v>
+      </c>
+      <c r="BZ29" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC29" t="n">
+        <v>2.845823049545288</v>
+      </c>
+      <c r="CD29" t="n">
+        <v>19.82906</v>
+      </c>
+      <c r="CE29" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH29" t="n">
+        <v>2.847625017166138</v>
+      </c>
+      <c r="CI29" t="n">
+        <v>22.10947</v>
+      </c>
+      <c r="CJ29" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -39689,7 +40517,34 @@
       <c r="BU30" t="n">
         <v>150</v>
       </c>
-      <c r="BV30" t="inlineStr"/>
+      <c r="BX30" t="n">
+        <v>2.94780707359314</v>
+      </c>
+      <c r="BY30" t="n">
+        <v>17.83233</v>
+      </c>
+      <c r="BZ30" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC30" t="n">
+        <v>2.947897911071777</v>
+      </c>
+      <c r="CD30" t="n">
+        <v>19.86543</v>
+      </c>
+      <c r="CE30" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH30" t="n">
+        <v>2.94667911529541</v>
+      </c>
+      <c r="CI30" t="n">
+        <v>21.99309</v>
+      </c>
+      <c r="CJ30" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -39827,7 +40682,34 @@
       <c r="BU31" t="n">
         <v>150</v>
       </c>
-      <c r="BV31" t="inlineStr"/>
+      <c r="BX31" t="n">
+        <v>3.044317960739136</v>
+      </c>
+      <c r="BY31" t="n">
+        <v>17.80687</v>
+      </c>
+      <c r="BZ31" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC31" t="n">
+        <v>3.047083854675293</v>
+      </c>
+      <c r="CD31" t="n">
+        <v>19.94544</v>
+      </c>
+      <c r="CE31" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH31" t="n">
+        <v>3.049187898635864</v>
+      </c>
+      <c r="CI31" t="n">
+        <v>21.9058</v>
+      </c>
+      <c r="CJ31" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -39965,7 +40847,34 @@
       <c r="BU32" t="n">
         <v>150</v>
       </c>
-      <c r="BV32" t="inlineStr"/>
+      <c r="BX32" t="n">
+        <v>3.158737897872925</v>
+      </c>
+      <c r="BY32" t="n">
+        <v>17.83961</v>
+      </c>
+      <c r="BZ32" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC32" t="n">
+        <v>3.162883996963501</v>
+      </c>
+      <c r="CD32" t="n">
+        <v>19.9709</v>
+      </c>
+      <c r="CE32" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH32" t="n">
+        <v>3.162238121032715</v>
+      </c>
+      <c r="CI32" t="n">
+        <v>21.86579</v>
+      </c>
+      <c r="CJ32" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -40103,7 +41012,34 @@
       <c r="BU33" t="n">
         <v>150</v>
       </c>
-      <c r="BV33" t="inlineStr"/>
+      <c r="BX33" t="n">
+        <v>3.2621910572052</v>
+      </c>
+      <c r="BY33" t="n">
+        <v>17.93781</v>
+      </c>
+      <c r="BZ33" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC33" t="n">
+        <v>3.263036966323853</v>
+      </c>
+      <c r="CD33" t="n">
+        <v>19.91271</v>
+      </c>
+      <c r="CE33" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH33" t="n">
+        <v>3.267028093338013</v>
+      </c>
+      <c r="CI33" t="n">
+        <v>21.86579</v>
+      </c>
+      <c r="CJ33" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -40241,7 +41177,34 @@
       <c r="BU34" t="n">
         <v>150</v>
       </c>
-      <c r="BV34" t="inlineStr"/>
+      <c r="BX34" t="n">
+        <v>3.364587068557739</v>
+      </c>
+      <c r="BY34" t="n">
+        <v>18.04692</v>
+      </c>
+      <c r="BZ34" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC34" t="n">
+        <v>3.364655017852783</v>
+      </c>
+      <c r="CD34" t="n">
+        <v>19.8727</v>
+      </c>
+      <c r="CE34" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH34" t="n">
+        <v>3.370543956756592</v>
+      </c>
+      <c r="CI34" t="n">
+        <v>21.9349</v>
+      </c>
+      <c r="CJ34" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -40379,7 +41342,34 @@
       <c r="BU35" t="n">
         <v>150</v>
       </c>
-      <c r="BV35" t="inlineStr"/>
+      <c r="BX35" t="n">
+        <v>3.480756998062134</v>
+      </c>
+      <c r="BY35" t="n">
+        <v>18.0251</v>
+      </c>
+      <c r="BZ35" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC35" t="n">
+        <v>3.47959303855896</v>
+      </c>
+      <c r="CD35" t="n">
+        <v>19.87634</v>
+      </c>
+      <c r="CE35" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH35" t="n">
+        <v>3.480432987213135</v>
+      </c>
+      <c r="CI35" t="n">
+        <v>22.05492</v>
+      </c>
+      <c r="CJ35" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -40517,7 +41507,34 @@
       <c r="BU36" t="n">
         <v>150</v>
       </c>
-      <c r="BV36" t="inlineStr"/>
+      <c r="BX36" t="n">
+        <v>3.579766035079956</v>
+      </c>
+      <c r="BY36" t="n">
+        <v>17.93417</v>
+      </c>
+      <c r="BZ36" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC36" t="n">
+        <v>3.583679914474487</v>
+      </c>
+      <c r="CD36" t="n">
+        <v>19.9309</v>
+      </c>
+      <c r="CE36" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH36" t="n">
+        <v>3.583847045898438</v>
+      </c>
+      <c r="CI36" t="n">
+        <v>22.11675</v>
+      </c>
+      <c r="CJ36" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -40655,7 +41672,34 @@
       <c r="BU37" t="n">
         <v>150</v>
       </c>
-      <c r="BV37" t="inlineStr"/>
+      <c r="BX37" t="n">
+        <v>3.680719137191772</v>
+      </c>
+      <c r="BY37" t="n">
+        <v>17.93781</v>
+      </c>
+      <c r="BZ37" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC37" t="n">
+        <v>3.686292886734009</v>
+      </c>
+      <c r="CD37" t="n">
+        <v>20.01091</v>
+      </c>
+      <c r="CE37" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH37" t="n">
+        <v>3.685561895370483</v>
+      </c>
+      <c r="CI37" t="n">
+        <v>22.17494</v>
+      </c>
+      <c r="CJ37" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -40793,7 +41837,34 @@
       <c r="BU38" t="n">
         <v>150</v>
       </c>
-      <c r="BV38" t="inlineStr"/>
+      <c r="BX38" t="n">
+        <v>3.78402304649353</v>
+      </c>
+      <c r="BY38" t="n">
+        <v>18.04328</v>
+      </c>
+      <c r="BZ38" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC38" t="n">
+        <v>3.786252975463867</v>
+      </c>
+      <c r="CD38" t="n">
+        <v>20.06183</v>
+      </c>
+      <c r="CE38" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH38" t="n">
+        <v>3.788429260253906</v>
+      </c>
+      <c r="CI38" t="n">
+        <v>22.20767</v>
+      </c>
+      <c r="CJ38" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -40931,7 +42002,34 @@
       <c r="BU39" t="n">
         <v>150</v>
       </c>
-      <c r="BV39" t="inlineStr"/>
+      <c r="BX39" t="n">
+        <v>3.899835109710693</v>
+      </c>
+      <c r="BY39" t="n">
+        <v>18.1233</v>
+      </c>
+      <c r="BZ39" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC39" t="n">
+        <v>3.899373054504395</v>
+      </c>
+      <c r="CD39" t="n">
+        <v>20.05455</v>
+      </c>
+      <c r="CE39" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH39" t="n">
+        <v>3.895135164260864</v>
+      </c>
+      <c r="CI39" t="n">
+        <v>22.17858</v>
+      </c>
+      <c r="CJ39" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -41069,7 +42167,34 @@
       <c r="BU40" t="n">
         <v>150</v>
       </c>
-      <c r="BV40" t="inlineStr"/>
+      <c r="BX40" t="n">
+        <v>3.996761083602905</v>
+      </c>
+      <c r="BY40" t="n">
+        <v>18.11602</v>
+      </c>
+      <c r="BZ40" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC40" t="n">
+        <v>4.001857995986938</v>
+      </c>
+      <c r="CD40" t="n">
+        <v>20.08729</v>
+      </c>
+      <c r="CE40" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH40" t="n">
+        <v>4.002155065536499</v>
+      </c>
+      <c r="CI40" t="n">
+        <v>22.2004</v>
+      </c>
+      <c r="CJ40" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -41207,7 +42332,34 @@
       <c r="BU41" t="n">
         <v>150</v>
       </c>
-      <c r="BV41" t="inlineStr"/>
+      <c r="BX41" t="n">
+        <v>4.097466230392456</v>
+      </c>
+      <c r="BY41" t="n">
+        <v>18.17058</v>
+      </c>
+      <c r="BZ41" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC41" t="n">
+        <v>4.10199499130249</v>
+      </c>
+      <c r="CD41" t="n">
+        <v>20.17821</v>
+      </c>
+      <c r="CE41" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH41" t="n">
+        <v>4.098201274871826</v>
+      </c>
+      <c r="CI41" t="n">
+        <v>22.17858</v>
+      </c>
+      <c r="CJ41" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -41345,7 +42497,34 @@
       <c r="BU42" t="n">
         <v>150</v>
       </c>
-      <c r="BV42" t="inlineStr"/>
+      <c r="BX42" t="n">
+        <v>4.217478036880493</v>
+      </c>
+      <c r="BY42" t="n">
+        <v>18.21786</v>
+      </c>
+      <c r="BZ42" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC42" t="n">
+        <v>4.213370084762573</v>
+      </c>
+      <c r="CD42" t="n">
+        <v>20.30551</v>
+      </c>
+      <c r="CE42" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH42" t="n">
+        <v>4.214606285095215</v>
+      </c>
+      <c r="CI42" t="n">
+        <v>22.20767</v>
+      </c>
+      <c r="CJ42" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -41483,7 +42662,34 @@
       <c r="BU43" t="n">
         <v>150</v>
       </c>
-      <c r="BV43" t="inlineStr"/>
+      <c r="BX43" t="n">
+        <v>4.309432029724121</v>
+      </c>
+      <c r="BY43" t="n">
+        <v>18.23968</v>
+      </c>
+      <c r="BZ43" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC43" t="n">
+        <v>4.318670034408569</v>
+      </c>
+      <c r="CD43" t="n">
+        <v>20.35279</v>
+      </c>
+      <c r="CE43" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH43" t="n">
+        <v>4.316421985626221</v>
+      </c>
+      <c r="CI43" t="n">
+        <v>22.25859</v>
+      </c>
+      <c r="CJ43" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -41621,7 +42827,34 @@
       <c r="BU44" t="n">
         <v>150</v>
       </c>
-      <c r="BV44" t="inlineStr"/>
+      <c r="BX44" t="n">
+        <v>4.416725158691406</v>
+      </c>
+      <c r="BY44" t="n">
+        <v>18.34515</v>
+      </c>
+      <c r="BZ44" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC44" t="n">
+        <v>4.420450925827026</v>
+      </c>
+      <c r="CD44" t="n">
+        <v>20.3346</v>
+      </c>
+      <c r="CE44" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH44" t="n">
+        <v>4.420114040374756</v>
+      </c>
+      <c r="CI44" t="n">
+        <v>22.28041</v>
+      </c>
+      <c r="CJ44" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -41759,7 +42992,34 @@
       <c r="BU45" t="n">
         <v>150</v>
       </c>
-      <c r="BV45" t="inlineStr"/>
+      <c r="BX45" t="n">
+        <v>4.527283906936646</v>
+      </c>
+      <c r="BY45" t="n">
+        <v>18.46154</v>
+      </c>
+      <c r="BZ45" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC45" t="n">
+        <v>4.525115966796875</v>
+      </c>
+      <c r="CD45" t="n">
+        <v>20.34915</v>
+      </c>
+      <c r="CE45" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH45" t="n">
+        <v>4.523087978363037</v>
+      </c>
+      <c r="CI45" t="n">
+        <v>22.2695</v>
+      </c>
+      <c r="CJ45" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -41897,7 +43157,34 @@
       <c r="BU46" t="n">
         <v>150</v>
       </c>
-      <c r="BV46" t="inlineStr"/>
+      <c r="BX46" t="n">
+        <v>4.627026081085205</v>
+      </c>
+      <c r="BY46" t="n">
+        <v>18.48336</v>
+      </c>
+      <c r="BZ46" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC46" t="n">
+        <v>4.635289907455444</v>
+      </c>
+      <c r="CD46" t="n">
+        <v>20.45099</v>
+      </c>
+      <c r="CE46" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH46" t="n">
+        <v>4.633004188537598</v>
+      </c>
+      <c r="CI46" t="n">
+        <v>22.31315</v>
+      </c>
+      <c r="CJ46" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -42035,7 +43322,34 @@
       <c r="BU47" t="n">
         <v>150</v>
       </c>
-      <c r="BV47" t="inlineStr"/>
+      <c r="BX47" t="n">
+        <v>4.728835105895996</v>
+      </c>
+      <c r="BY47" t="n">
+        <v>18.46881</v>
+      </c>
+      <c r="BZ47" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC47" t="n">
+        <v>4.731697082519531</v>
+      </c>
+      <c r="CD47" t="n">
+        <v>20.50191</v>
+      </c>
+      <c r="CE47" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH47" t="n">
+        <v>4.737190961837769</v>
+      </c>
+      <c r="CI47" t="n">
+        <v>22.30224</v>
+      </c>
+      <c r="CJ47" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -42173,7 +43487,34 @@
       <c r="BU48" t="n">
         <v>150</v>
       </c>
-      <c r="BV48" t="inlineStr"/>
+      <c r="BX48" t="n">
+        <v>4.837996006011963</v>
+      </c>
+      <c r="BY48" t="n">
+        <v>18.47245</v>
+      </c>
+      <c r="BZ48" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC48" t="n">
+        <v>4.836639165878296</v>
+      </c>
+      <c r="CD48" t="n">
+        <v>20.47645</v>
+      </c>
+      <c r="CE48" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH48" t="n">
+        <v>4.838066101074219</v>
+      </c>
+      <c r="CI48" t="n">
+        <v>22.30224</v>
+      </c>
+      <c r="CJ48" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -42311,7 +43652,34 @@
       <c r="BU49" t="n">
         <v>150</v>
       </c>
-      <c r="BV49" t="inlineStr"/>
+      <c r="BX49" t="n">
+        <v>4.949648857116699</v>
+      </c>
+      <c r="BY49" t="n">
+        <v>18.49063</v>
+      </c>
+      <c r="BZ49" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC49" t="n">
+        <v>4.946612119674683</v>
+      </c>
+      <c r="CD49" t="n">
+        <v>20.36734</v>
+      </c>
+      <c r="CE49" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH49" t="n">
+        <v>4.949712038040161</v>
+      </c>
+      <c r="CI49" t="n">
+        <v>22.33133</v>
+      </c>
+      <c r="CJ49" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -42449,7 +43817,34 @@
       <c r="BU50" t="n">
         <v>150</v>
       </c>
-      <c r="BV50" t="inlineStr"/>
+      <c r="BX50" t="n">
+        <v>5.044745922088623</v>
+      </c>
+      <c r="BY50" t="n">
+        <v>18.55974</v>
+      </c>
+      <c r="BZ50" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC50" t="n">
+        <v>5.052932977676392</v>
+      </c>
+      <c r="CD50" t="n">
+        <v>20.25823</v>
+      </c>
+      <c r="CE50" t="n">
+        <v>170</v>
+      </c>
+      <c r="CH50" t="n">
+        <v>5.052811145782471</v>
+      </c>
+      <c r="CI50" t="n">
+        <v>22.27314</v>
+      </c>
+      <c r="CJ50" t="n">
+        <v>180</v>
+      </c>
+      <c r="CK50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
